--- a/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
+++ b/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vandalsuidaho-my.sharepoint.com/personal/huck4481_vandals_uidaho_edu/Documents/Desktop/Sediment Traps/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\baskets_new_sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="281" documentId="11_F25DC773A252ABDACC104857D15E44C45ADE5912" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D0DA656-A037-454B-B601-0150EACC7331}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6070FE00-3236-47EB-896D-0381D70CC73C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocity vs Deposition" sheetId="1" r:id="rId1"/>
     <sheet name="HF regressions - S&amp;C combined" sheetId="2" r:id="rId2"/>
+    <sheet name="HF - minimum cutoff" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="71">
   <si>
     <t>T1A</t>
   </si>
@@ -212,16 +213,56 @@
   <si>
     <t>NEW SIZES</t>
   </si>
+  <si>
+    <t>CLOSED BASKETS - SPRING</t>
+  </si>
+  <si>
+    <t>OPEN BASKETS - SPRING</t>
+  </si>
+  <si>
+    <t>CLOSED BASKETS - SUMMER</t>
+  </si>
+  <si>
+    <t>Total Weight (g)</t>
+  </si>
+  <si>
+    <t>OPEN BASKETS - SUMMER</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>CLOSED TRAPS</t>
+  </si>
+  <si>
+    <t>10th Percentile</t>
+  </si>
+  <si>
+    <t>Exclusive</t>
+  </si>
+  <si>
+    <t>Inclusive</t>
+  </si>
+  <si>
+    <t>SPRING</t>
+  </si>
+  <si>
+    <t>SUMMER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +331,27 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="26">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,8 +502,38 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -547,11 +637,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,12 +885,6 @@
     <xf numFmtId="2" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -804,40 +925,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -916,6 +1004,156 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="28" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="29" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -16207,10 +16445,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -16491,10 +16725,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="70"/>
+      <c r="B2" s="111"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -16794,10 +17028,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="111"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -17074,10 +17308,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="70"/>
+      <c r="B31" s="111"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -17354,10 +17588,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="70"/>
+      <c r="B45" s="111"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
@@ -17649,8 +17883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DFF90A-B4BC-4732-B550-121AD8B969F7}">
   <dimension ref="A1:Q72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R54" sqref="R54"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17665,81 +17899,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="119" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="96"/>
-      <c r="O1" s="96"/>
-      <c r="P1" s="96"/>
-      <c r="Q1" s="97"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="121"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="123"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="71" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71" t="s">
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71" t="s">
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71" t="s">
+      <c r="L3" s="118"/>
+      <c r="M3" s="118"/>
+      <c r="N3" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
+      <c r="O3" s="118"/>
+      <c r="P3" s="118"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="C4" s="46" t="s">
@@ -17748,7 +17982,7 @@
       <c r="D4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="F4" s="46" t="s">
@@ -17757,7 +17991,7 @@
       <c r="G4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="72" t="s">
+      <c r="H4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="I4" s="46" t="s">
@@ -17766,7 +18000,7 @@
       <c r="J4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="46" t="s">
@@ -17775,7 +18009,7 @@
       <c r="M4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="70" t="s">
         <v>39</v>
       </c>
       <c r="O4" s="46" t="s">
@@ -17792,51 +18026,51 @@
       <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="79">
+      <c r="B5" s="77">
         <v>-18.643499999999996</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="72">
         <v>44.028299999999994</v>
       </c>
-      <c r="D5" s="73">
+      <c r="D5" s="71">
         <v>-0.42344355789344579</v>
       </c>
-      <c r="E5" s="79">
+      <c r="E5" s="77">
         <v>-0.34287500000000026</v>
       </c>
-      <c r="F5" s="74">
+      <c r="F5" s="72">
         <v>2.3685</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="71">
         <v>-0.14476461895714599</v>
       </c>
-      <c r="H5" s="79">
+      <c r="H5" s="77">
         <v>-0.16332090060751703</v>
       </c>
       <c r="I5" s="56">
         <v>0.95561165589832309</v>
       </c>
-      <c r="J5" s="73">
+      <c r="J5" s="71">
         <v>-0.17090718766294993</v>
       </c>
-      <c r="K5" s="79">
+      <c r="K5" s="77">
         <v>-3.123260005814843E-2</v>
       </c>
       <c r="L5" s="56">
         <v>0.16000831182380906</v>
       </c>
-      <c r="M5" s="73">
+      <c r="M5" s="71">
         <v>-0.19519361027032006</v>
       </c>
-      <c r="N5" s="89">
+      <c r="N5" s="84">
         <f>SUM(H5,K5)</f>
         <v>-0.19455350066566546</v>
       </c>
-      <c r="O5" s="89">
+      <c r="O5" s="84">
         <f>SUM(I5,L5)</f>
         <v>1.1156199677221321</v>
       </c>
-      <c r="P5" s="89">
+      <c r="P5" s="84">
         <f>N5/O5</f>
         <v>-0.17439047910096475</v>
       </c>
@@ -17848,51 +18082,51 @@
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="79">
+      <c r="B6" s="77">
         <v>-13.749399999999996</v>
       </c>
-      <c r="C6" s="74">
+      <c r="C6" s="72">
         <v>27.388499999999997</v>
       </c>
-      <c r="D6" s="73">
+      <c r="D6" s="71">
         <v>-0.5020136188546287</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="77">
         <v>-1.3113999999999999</v>
       </c>
-      <c r="F6" s="74">
+      <c r="F6" s="72">
         <v>2.0897999999999999</v>
       </c>
-      <c r="G6" s="73">
+      <c r="G6" s="71">
         <v>-0.62752416499186525</v>
       </c>
-      <c r="H6" s="79">
+      <c r="H6" s="77">
         <v>-0.52988876178065869</v>
       </c>
       <c r="I6" s="56">
         <v>0.80098725750566646</v>
       </c>
-      <c r="J6" s="73">
+      <c r="J6" s="71">
         <v>-0.66154455868720241</v>
       </c>
-      <c r="K6" s="79">
+      <c r="K6" s="77">
         <v>-8.6593108308677155E-2</v>
       </c>
       <c r="L6" s="56">
         <v>0.12962202535912964</v>
       </c>
-      <c r="M6" s="73">
+      <c r="M6" s="71">
         <v>-0.66804316680566478</v>
       </c>
-      <c r="N6" s="89">
+      <c r="N6" s="84">
         <f t="shared" ref="N6:N15" si="0">SUM(H6,K6)</f>
         <v>-0.61648187008933586</v>
       </c>
-      <c r="O6" s="89">
+      <c r="O6" s="84">
         <f t="shared" ref="O6:O15" si="1">SUM(I6,L6)</f>
         <v>0.93060928286479605</v>
       </c>
-      <c r="P6" s="89">
+      <c r="P6" s="84">
         <f t="shared" ref="P6:P15" si="2">N6/O6</f>
         <v>-0.66244973206322688</v>
       </c>
@@ -17904,55 +18138,55 @@
       <c r="A7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="77">
         <v>22.777200000000001</v>
       </c>
-      <c r="C7" s="80">
+      <c r="C7" s="78">
         <v>45.276400000000002</v>
       </c>
-      <c r="D7" s="73">
+      <c r="D7" s="71">
         <v>0.50307003206968748</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="77">
         <v>1.4491999999999998</v>
       </c>
-      <c r="F7" s="80">
+      <c r="F7" s="78">
         <v>2.1161000000000003</v>
       </c>
-      <c r="G7" s="73">
+      <c r="G7" s="71">
         <v>0.68484476158971674</v>
       </c>
-      <c r="H7" s="79">
+      <c r="H7" s="77">
         <v>0.32403453694048001</v>
       </c>
       <c r="I7" s="57">
         <v>0.85640371307185381</v>
       </c>
-      <c r="J7" s="73">
+      <c r="J7" s="71">
         <v>0.37836657174008881</v>
       </c>
-      <c r="K7" s="79">
+      <c r="K7" s="77">
         <v>6.5999564974747599E-2</v>
       </c>
       <c r="L7" s="57">
         <v>0.13238380964895011</v>
       </c>
-      <c r="M7" s="73">
+      <c r="M7" s="71">
         <v>0.49854710443643002</v>
       </c>
-      <c r="N7" s="89">
+      <c r="N7" s="84">
         <f t="shared" si="0"/>
         <v>0.39003410191522758</v>
       </c>
-      <c r="O7" s="89">
+      <c r="O7" s="84">
         <f t="shared" si="1"/>
         <v>0.98878752272080395</v>
       </c>
-      <c r="P7" s="89">
+      <c r="P7" s="84">
         <f t="shared" si="2"/>
         <v>0.39445694140839033</v>
       </c>
-      <c r="Q7" s="75">
+      <c r="Q7" s="73">
         <v>-0.3027637470411495</v>
       </c>
     </row>
@@ -17960,51 +18194,51 @@
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="77">
         <v>6.8207000000000022</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="79">
         <v>36.733499999999999</v>
       </c>
-      <c r="D8" s="73">
+      <c r="D8" s="71">
         <v>0.18568064573209747</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="77">
         <v>1.7446000000000002</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="79">
         <v>1.8083</v>
       </c>
-      <c r="G8" s="73">
+      <c r="G8" s="71">
         <v>0.9647735442127966</v>
       </c>
-      <c r="H8" s="79">
+      <c r="H8" s="77">
         <v>0.60606999005902462</v>
       </c>
       <c r="I8" s="59">
         <v>0.72662826606468844</v>
       </c>
-      <c r="J8" s="73">
+      <c r="J8" s="71">
         <v>0.83408534785112387</v>
       </c>
-      <c r="K8" s="79">
+      <c r="K8" s="77">
         <v>0.11179122774730278</v>
       </c>
       <c r="L8" s="59">
         <v>0.12090681526084991</v>
       </c>
-      <c r="M8" s="73">
+      <c r="M8" s="71">
         <v>0.9246065038279212</v>
       </c>
-      <c r="N8" s="89">
+      <c r="N8" s="84">
         <f t="shared" si="0"/>
         <v>0.71786121780632739</v>
       </c>
-      <c r="O8" s="89">
+      <c r="O8" s="84">
         <f t="shared" si="1"/>
         <v>0.84753508132553834</v>
       </c>
-      <c r="P8" s="89">
+      <c r="P8" s="84">
         <f t="shared" si="2"/>
         <v>0.84699882473725807</v>
       </c>
@@ -18016,51 +18250,51 @@
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="77">
         <v>-20.381</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="75">
         <v>49.902200000000001</v>
       </c>
-      <c r="D9" s="73">
+      <c r="D9" s="71">
         <v>-0.40841886730444749</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="77">
         <v>-2.5282000000000004</v>
       </c>
-      <c r="F9" s="77">
+      <c r="F9" s="75">
         <v>4.6973000000000003</v>
       </c>
-      <c r="G9" s="73">
+      <c r="G9" s="71">
         <v>-0.53822408617716566</v>
       </c>
-      <c r="H9" s="79">
+      <c r="H9" s="77">
         <v>-0.97839859793628414</v>
       </c>
       <c r="I9" s="60">
         <v>1.8501772853971479</v>
       </c>
-      <c r="J9" s="73">
+      <c r="J9" s="71">
         <v>-0.52881343083090926</v>
       </c>
-      <c r="K9" s="79">
+      <c r="K9" s="77">
         <v>-0.17582642709759452</v>
       </c>
       <c r="L9" s="60">
         <v>0.32174543062421551</v>
       </c>
-      <c r="M9" s="73">
+      <c r="M9" s="71">
         <v>-0.54647684275259234</v>
       </c>
-      <c r="N9" s="89">
+      <c r="N9" s="84">
         <f t="shared" si="0"/>
         <v>-1.1542250250338786</v>
       </c>
-      <c r="O9" s="89">
-        <f t="shared" si="1"/>
+      <c r="O9" s="84">
+        <f>SUM(I9,L9)</f>
         <v>2.1719227160213634</v>
       </c>
-      <c r="P9" s="89">
+      <c r="P9" s="84">
         <f t="shared" si="2"/>
         <v>-0.5314300626443309</v>
       </c>
@@ -18072,51 +18306,51 @@
       <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="79">
+      <c r="B10" s="77">
         <v>-2.4313000000000038</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="75">
         <v>24.480800000000002</v>
       </c>
-      <c r="D10" s="73">
+      <c r="D10" s="71">
         <v>-9.9314564883500683E-2</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="77">
         <v>-0.83049999999999935</v>
       </c>
-      <c r="F10" s="77">
+      <c r="F10" s="75">
         <v>2.8880999999999997</v>
       </c>
-      <c r="G10" s="73">
+      <c r="G10" s="71">
         <v>-0.28755929503826028</v>
       </c>
-      <c r="H10" s="79">
+      <c r="H10" s="77">
         <v>-0.5998312651887292</v>
       </c>
       <c r="I10" s="60">
         <v>1.2831694146713353</v>
       </c>
-      <c r="J10" s="73">
+      <c r="J10" s="71">
         <v>-0.46746069406771751</v>
       </c>
-      <c r="K10" s="79">
+      <c r="K10" s="77">
         <v>-0.11171399488573321</v>
       </c>
       <c r="L10" s="60">
         <v>0.22065374815008071</v>
       </c>
-      <c r="M10" s="73">
+      <c r="M10" s="71">
         <v>-0.50628641399623708</v>
       </c>
-      <c r="N10" s="89">
+      <c r="N10" s="84">
         <f t="shared" si="0"/>
         <v>-0.71154526007446239</v>
       </c>
-      <c r="O10" s="89">
+      <c r="O10" s="84">
         <f t="shared" si="1"/>
         <v>1.503823162821416</v>
       </c>
-      <c r="P10" s="89">
+      <c r="P10" s="84">
         <f t="shared" si="2"/>
         <v>-0.47315753451987541</v>
       </c>
@@ -18128,51 +18362,51 @@
       <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="79">
+      <c r="B11" s="77">
         <v>0.198599999999999</v>
       </c>
-      <c r="C11" s="82">
+      <c r="C11" s="80">
         <v>58.877499999999998</v>
       </c>
-      <c r="D11" s="73">
+      <c r="D11" s="71">
         <v>3.3731051760010023E-3</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="77">
         <v>-0.74690000000000101</v>
       </c>
-      <c r="F11" s="82">
+      <c r="F11" s="80">
         <v>4.4638000000000009</v>
       </c>
-      <c r="G11" s="73">
+      <c r="G11" s="71">
         <v>-0.1673238048299657</v>
       </c>
-      <c r="H11" s="79">
+      <c r="H11" s="77">
         <v>-0.34028683073031396</v>
       </c>
       <c r="I11" s="61">
         <v>1.7758675553185828</v>
       </c>
-      <c r="J11" s="73">
+      <c r="J11" s="71">
         <v>-0.1916172350303838</v>
       </c>
-      <c r="K11" s="79">
+      <c r="K11" s="77">
         <v>-7.121946965890269E-2</v>
       </c>
       <c r="L11" s="61">
         <v>0.32472434373056097</v>
       </c>
-      <c r="M11" s="73">
+      <c r="M11" s="71">
         <v>-0.21932285347228794</v>
       </c>
-      <c r="N11" s="89">
+      <c r="N11" s="84">
         <f t="shared" si="0"/>
         <v>-0.41150630038921665</v>
       </c>
-      <c r="O11" s="89">
+      <c r="O11" s="84">
         <f t="shared" si="1"/>
         <v>2.1005918990491437</v>
       </c>
-      <c r="P11" s="89">
+      <c r="P11" s="84">
         <f t="shared" si="2"/>
         <v>-0.19590016536552843</v>
       </c>
@@ -18184,51 +18418,51 @@
       <c r="A12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="81">
         <v>-3.4879999999999995</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="80">
         <v>30.0379</v>
       </c>
-      <c r="D12" s="73">
+      <c r="D12" s="71">
         <v>-0.11611996843987095</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="77">
         <v>0.91839999999999966</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="80">
         <v>1.6659000000000002</v>
       </c>
-      <c r="G12" s="73">
+      <c r="G12" s="71">
         <v>0.55129359505372444</v>
       </c>
-      <c r="H12" s="79">
+      <c r="H12" s="77">
         <v>0.18041794101540676</v>
       </c>
       <c r="I12" s="61">
         <v>0.74122198472203027</v>
       </c>
-      <c r="J12" s="73">
+      <c r="J12" s="71">
         <v>0.24340608445804029</v>
       </c>
-      <c r="K12" s="79">
+      <c r="K12" s="77">
         <v>4.7038602982888728E-2</v>
       </c>
       <c r="L12" s="61">
         <v>0.12314691966104313</v>
       </c>
-      <c r="M12" s="73">
+      <c r="M12" s="71">
         <v>0.38197141359573233</v>
       </c>
-      <c r="N12" s="89">
+      <c r="N12" s="84">
         <f t="shared" si="0"/>
         <v>0.22745654399829549</v>
       </c>
-      <c r="O12" s="89">
+      <c r="O12" s="84">
         <f t="shared" si="1"/>
         <v>0.86436890438307334</v>
       </c>
-      <c r="P12" s="89">
+      <c r="P12" s="84">
         <f t="shared" si="2"/>
         <v>0.26314753208369779</v>
       </c>
@@ -18240,55 +18474,55 @@
       <c r="A13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="81">
         <v>2.7140000000000057</v>
       </c>
-      <c r="C13" s="76">
+      <c r="C13" s="74">
         <v>20.923299999999998</v>
       </c>
-      <c r="D13" s="73">
+      <c r="D13" s="71">
         <v>0.12971185233686874</v>
       </c>
-      <c r="E13" s="84">
+      <c r="E13" s="82">
         <v>0.69369999999999976</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="74">
         <v>0.84810000000000008</v>
       </c>
-      <c r="G13" s="73">
+      <c r="G13" s="71">
         <v>0.81794599693432346</v>
       </c>
-      <c r="H13" s="84">
+      <c r="H13" s="82">
         <v>0.24539002087865563</v>
       </c>
       <c r="I13" s="62">
         <v>0.27754676667362871</v>
       </c>
-      <c r="J13" s="73">
+      <c r="J13" s="71">
         <v>0.88413936079901567</v>
       </c>
-      <c r="K13" s="84">
+      <c r="K13" s="82">
         <v>4.5512412826442646E-2</v>
       </c>
       <c r="L13" s="62">
         <v>4.2238846068331719E-2</v>
       </c>
-      <c r="M13" s="73">
+      <c r="M13" s="71">
         <v>1.0775013302402989</v>
       </c>
-      <c r="N13" s="89">
+      <c r="N13" s="84">
         <f t="shared" si="0"/>
         <v>0.29090243370509827</v>
       </c>
-      <c r="O13" s="89">
+      <c r="O13" s="84">
         <f t="shared" si="1"/>
         <v>0.31978561274196043</v>
       </c>
-      <c r="P13" s="89">
+      <c r="P13" s="84">
         <f t="shared" si="2"/>
         <v>0.90967955440769499</v>
       </c>
-      <c r="Q13" s="75">
+      <c r="Q13" s="73">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
@@ -18296,55 +18530,55 @@
       <c r="A14" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="81">
         <v>-2.5859999999999985</v>
       </c>
-      <c r="C14" s="76">
+      <c r="C14" s="74">
         <v>15.7163</v>
       </c>
-      <c r="D14" s="73">
+      <c r="D14" s="71">
         <v>-0.16454254500104976</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="82">
         <v>0.2581</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="74">
         <v>1.2909999999999999</v>
       </c>
-      <c r="G14" s="73">
+      <c r="G14" s="71">
         <v>0.19992254066615028</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="82">
         <v>9.9373120994324493E-2</v>
       </c>
       <c r="I14" s="62">
         <v>0.43786631137597964</v>
       </c>
-      <c r="J14" s="73">
+      <c r="J14" s="71">
         <v>0.22694854208365087</v>
       </c>
-      <c r="K14" s="84">
+      <c r="K14" s="82">
         <v>1.1007356080440442E-2</v>
       </c>
       <c r="L14" s="62">
         <v>6.5591352842813269E-2</v>
       </c>
-      <c r="M14" s="73">
+      <c r="M14" s="71">
         <v>0.16781718326223696</v>
       </c>
-      <c r="N14" s="89">
+      <c r="N14" s="84">
         <f t="shared" si="0"/>
         <v>0.11038047707476493</v>
       </c>
-      <c r="O14" s="89">
+      <c r="O14" s="84">
         <f t="shared" si="1"/>
         <v>0.5034576642187929</v>
       </c>
-      <c r="P14" s="89">
+      <c r="P14" s="84">
         <f t="shared" si="2"/>
         <v>0.21924480431942681</v>
       </c>
-      <c r="Q14" s="75">
+      <c r="Q14" s="73">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
@@ -18352,51 +18586,51 @@
       <c r="A15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="81">
         <v>-3.3091000000000044</v>
       </c>
-      <c r="C15" s="78">
+      <c r="C15" s="76">
         <v>33.042800000000007</v>
       </c>
-      <c r="D15" s="73">
+      <c r="D15" s="71">
         <v>-0.10014587141525548</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="82">
         <v>-0.45510000000000028</v>
       </c>
-      <c r="F15" s="78">
+      <c r="F15" s="76">
         <v>1.8968000000000003</v>
       </c>
-      <c r="G15" s="73">
+      <c r="G15" s="71">
         <v>-0.23993040911008026</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="82">
         <v>-0.10441429543657543</v>
       </c>
       <c r="I15" s="55">
         <v>0.62089966474505043</v>
       </c>
-      <c r="J15" s="73">
+      <c r="J15" s="71">
         <v>-0.16816613273490705</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="82">
         <v>-2.1770204424107042E-2</v>
       </c>
       <c r="L15" s="55">
         <v>0.10207224320241665</v>
       </c>
-      <c r="M15" s="73">
+      <c r="M15" s="71">
         <v>-0.21328231594690392</v>
       </c>
-      <c r="N15" s="89">
+      <c r="N15" s="84">
         <f t="shared" si="0"/>
         <v>-0.12618449986068248</v>
       </c>
-      <c r="O15" s="89">
+      <c r="O15" s="84">
         <f t="shared" si="1"/>
         <v>0.72297190794746702</v>
       </c>
-      <c r="P15" s="89">
+      <c r="P15" s="84">
         <f t="shared" si="2"/>
         <v>-0.17453582701286835</v>
       </c>
@@ -18405,60 +18639,60 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93"/>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93"/>
-      <c r="O17" s="93"/>
-      <c r="P17" s="93"/>
-      <c r="Q17" s="94"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="113"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
+      <c r="L17" s="113"/>
+      <c r="M17" s="113"/>
+      <c r="N17" s="113"/>
+      <c r="O17" s="113"/>
+      <c r="P17" s="113"/>
+      <c r="Q17" s="114"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86" t="s">
+      <c r="A18" s="83"/>
+      <c r="B18" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="86" t="s">
+      <c r="C18" s="116"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="H18" s="86" t="s">
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="87"/>
-      <c r="J18" s="88"/>
-      <c r="K18" s="86" t="s">
+      <c r="I18" s="116"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="87"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="71" t="s">
+      <c r="L18" s="116"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
+      <c r="O18" s="118"/>
+      <c r="P18" s="118"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="72" t="s">
+      <c r="B19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="46" t="s">
@@ -18467,7 +18701,7 @@
       <c r="D19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="F19" s="46" t="s">
@@ -18476,7 +18710,7 @@
       <c r="G19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="72" t="s">
+      <c r="H19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="I19" s="46" t="s">
@@ -18485,7 +18719,7 @@
       <c r="J19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="72" t="s">
+      <c r="K19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L19" s="46" t="s">
@@ -18494,7 +18728,7 @@
       <c r="M19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="72" t="s">
+      <c r="N19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="O19" s="46" t="s">
@@ -18511,55 +18745,55 @@
       <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="73">
+      <c r="B20" s="71">
         <v>0.13540000000000063</v>
       </c>
       <c r="C20" s="56">
         <v>5.7880000000000003</v>
       </c>
-      <c r="D20" s="73">
+      <c r="D20" s="71">
         <v>2.3393227366966245E-2</v>
       </c>
-      <c r="E20" s="73">
+      <c r="E20" s="71">
         <v>1.1347000000000005</v>
       </c>
       <c r="F20" s="56">
         <v>5.3543000000000003</v>
       </c>
-      <c r="G20" s="73">
+      <c r="G20" s="71">
         <v>0.21192312720617082</v>
       </c>
-      <c r="H20" s="73">
+      <c r="H20" s="71">
         <v>0.25153775546419443</v>
       </c>
       <c r="I20" s="56">
         <v>1.3886876520681266</v>
       </c>
-      <c r="J20" s="73">
+      <c r="J20" s="71">
         <v>0.18113342844921793</v>
       </c>
-      <c r="K20" s="73">
+      <c r="K20" s="71">
         <v>3.6685446490482859E-2</v>
       </c>
       <c r="L20" s="56">
         <v>0.20310881995133825</v>
       </c>
-      <c r="M20" s="73">
+      <c r="M20" s="71">
         <v>0.18061966240201743</v>
       </c>
-      <c r="N20" s="89">
+      <c r="N20" s="84">
         <f>SUM(H20,K20)</f>
         <v>0.28822320195467732</v>
       </c>
-      <c r="O20" s="89">
+      <c r="O20" s="84">
         <f>SUM(I20,L20)</f>
         <v>1.5917964720194648</v>
       </c>
-      <c r="P20" s="89">
+      <c r="P20" s="84">
         <f>N20/O20</f>
         <v>0.18106787332492144</v>
       </c>
-      <c r="Q20" s="74">
+      <c r="Q20" s="72">
         <v>-0.10058679002726996</v>
       </c>
     </row>
@@ -18567,55 +18801,55 @@
       <c r="A21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="79">
+      <c r="B21" s="77">
         <v>4.0187999999999988</v>
       </c>
-      <c r="C21" s="75">
+      <c r="C21" s="73">
         <v>6.0135000000000005</v>
       </c>
-      <c r="D21" s="73">
+      <c r="D21" s="71">
         <v>0.66829633325018678</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="77">
         <v>0.8338000000000001</v>
       </c>
-      <c r="F21" s="75">
+      <c r="F21" s="73">
         <v>4.1173999999999999</v>
       </c>
-      <c r="G21" s="73">
+      <c r="G21" s="71">
         <v>0.20250643610045177</v>
       </c>
-      <c r="H21" s="79">
+      <c r="H21" s="77">
         <v>0.45660631134760643</v>
       </c>
-      <c r="I21" s="75">
+      <c r="I21" s="73">
         <v>1.2269792930976999</v>
       </c>
-      <c r="J21" s="73">
+      <c r="J21" s="71">
         <v>0.37213856331253387</v>
       </c>
-      <c r="K21" s="79">
+      <c r="K21" s="77">
         <v>4.7747439937281255E-2</v>
       </c>
-      <c r="L21" s="75">
+      <c r="L21" s="73">
         <v>0.18703707902634226</v>
       </c>
-      <c r="M21" s="73">
+      <c r="M21" s="71">
         <v>0.25528328492852753</v>
       </c>
-      <c r="N21" s="89">
+      <c r="N21" s="84">
         <f t="shared" ref="N21:N27" si="3">SUM(H21,K21)</f>
         <v>0.50435375128488769</v>
       </c>
-      <c r="O21" s="89">
+      <c r="O21" s="84">
         <f t="shared" ref="O21:O27" si="4">SUM(I21,L21)</f>
         <v>1.4140163721240422</v>
       </c>
-      <c r="P21" s="89">
+      <c r="P21" s="84">
         <f t="shared" ref="P21:P27" si="5">N21/O21</f>
         <v>0.35668169140593525</v>
       </c>
-      <c r="Q21" s="76">
+      <c r="Q21" s="74">
         <v>-0.32001589401318453</v>
       </c>
     </row>
@@ -18623,55 +18857,55 @@
       <c r="A22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="79">
+      <c r="B22" s="77">
         <v>-3.9163000000000014</v>
       </c>
       <c r="C22" s="60">
         <v>11.956300000000001</v>
       </c>
-      <c r="D22" s="73">
+      <c r="D22" s="71">
         <v>-0.32755116549434199</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="77">
         <v>-0.84030000000000094</v>
       </c>
       <c r="F22" s="60">
         <v>7.5605000000000011</v>
       </c>
-      <c r="G22" s="73">
+      <c r="G22" s="71">
         <v>-0.1111434428939886</v>
       </c>
-      <c r="H22" s="79">
+      <c r="H22" s="77">
         <v>-0.71127104721345447</v>
       </c>
       <c r="I22" s="60">
         <v>3.2692590636254515</v>
       </c>
-      <c r="J22" s="73">
+      <c r="J22" s="71">
         <v>-0.21756337854262581</v>
       </c>
-      <c r="K22" s="79">
+      <c r="K22" s="77">
         <v>-9.8289875653147785E-2</v>
       </c>
       <c r="L22" s="60">
         <v>0.45884337735094055</v>
       </c>
-      <c r="M22" s="73">
+      <c r="M22" s="71">
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N22" s="89">
+      <c r="N22" s="84">
         <f t="shared" si="3"/>
         <v>-0.80956092286660231</v>
       </c>
-      <c r="O22" s="89">
+      <c r="O22" s="84">
         <f t="shared" si="4"/>
         <v>3.7281024409763921</v>
       </c>
-      <c r="P22" s="89">
+      <c r="P22" s="84">
         <f t="shared" si="5"/>
         <v>-0.2171509328629333</v>
       </c>
-      <c r="Q22" s="77">
+      <c r="Q22" s="75">
         <v>0.11743877238132332</v>
       </c>
     </row>
@@ -18679,55 +18913,55 @@
       <c r="A23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="79">
+      <c r="B23" s="77">
         <v>-6.4181000000000008</v>
       </c>
       <c r="C23" s="60">
         <v>11.644400000000001</v>
       </c>
-      <c r="D23" s="73">
+      <c r="D23" s="71">
         <v>-0.55117481364432686</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="77">
         <v>0.91669999999999874</v>
       </c>
       <c r="F23" s="60">
         <v>5.0812000000000008</v>
       </c>
-      <c r="G23" s="73">
+      <c r="G23" s="71">
         <v>0.18041013933716418</v>
       </c>
-      <c r="H23" s="79">
+      <c r="H23" s="77">
         <v>0.97315424931338623</v>
       </c>
       <c r="I23" s="60">
         <v>1.5718154373927942</v>
       </c>
-      <c r="J23" s="73">
+      <c r="J23" s="71">
         <v>0.61912755541298103</v>
       </c>
-      <c r="K23" s="79">
+      <c r="K23" s="77">
         <v>-6.4526904685237904E-2</v>
       </c>
       <c r="L23" s="60">
         <v>0.53364981622151375</v>
       </c>
-      <c r="M23" s="73">
+      <c r="M23" s="71">
         <v>-0.12091619396052281</v>
       </c>
-      <c r="N23" s="89">
+      <c r="N23" s="84">
         <f t="shared" si="3"/>
         <v>0.90862734462814831</v>
       </c>
-      <c r="O23" s="89">
+      <c r="O23" s="84">
         <f t="shared" si="4"/>
         <v>2.1054652536143079</v>
       </c>
-      <c r="P23" s="89">
+      <c r="P23" s="84">
         <f t="shared" si="5"/>
         <v>0.43155656122482666</v>
       </c>
-      <c r="Q23" s="77">
+      <c r="Q23" s="75">
         <v>0.11743877238132332</v>
       </c>
     </row>
@@ -18735,51 +18969,51 @@
       <c r="A24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="77">
         <v>-7.3023000000000007</v>
       </c>
       <c r="C24" s="61">
         <v>10.7902</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="71">
         <v>-0.6767529795555226</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="77">
         <v>1.3264000000000005</v>
       </c>
       <c r="F24" s="61">
         <v>3.9233000000000002</v>
       </c>
-      <c r="G24" s="73">
+      <c r="G24" s="71">
         <v>0.33808273647184778</v>
       </c>
-      <c r="H24" s="79">
+      <c r="H24" s="77">
         <v>0.2173185367476036</v>
       </c>
       <c r="I24" s="61">
         <v>1.5476110139131891</v>
       </c>
-      <c r="J24" s="73">
+      <c r="J24" s="71">
         <v>0.14042193729166219</v>
       </c>
-      <c r="K24" s="79">
+      <c r="K24" s="77">
         <v>4.5248200775063058E-2</v>
       </c>
       <c r="L24" s="61">
         <v>0.23523687411480473</v>
       </c>
-      <c r="M24" s="73">
+      <c r="M24" s="71">
         <v>0.19235164956740658</v>
       </c>
-      <c r="N24" s="89">
+      <c r="N24" s="84">
         <f>SUM(H24,K24)</f>
         <v>0.26256673752266668</v>
       </c>
-      <c r="O24" s="89">
+      <c r="O24" s="84">
         <f t="shared" si="4"/>
         <v>1.7828478880279939</v>
       </c>
-      <c r="P24" s="89">
+      <c r="P24" s="84">
         <f t="shared" si="5"/>
         <v>0.14727377432804514</v>
       </c>
@@ -18791,55 +19025,55 @@
       <c r="A25" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="73">
+      <c r="B25" s="71">
         <v>-1.9533999999999994</v>
       </c>
-      <c r="C25" s="75">
+      <c r="C25" s="73">
         <v>7.6037999999999997</v>
       </c>
-      <c r="D25" s="73">
+      <c r="D25" s="71">
         <v>-0.2568978668560456</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="77">
         <v>2.104000000000001</v>
       </c>
       <c r="F25" s="62">
         <v>5.0610999999999997</v>
       </c>
-      <c r="G25" s="73">
+      <c r="G25" s="71">
         <v>0.41571990278793169</v>
       </c>
-      <c r="H25" s="79">
+      <c r="H25" s="77">
         <v>-8.3193172166483365E-2</v>
       </c>
       <c r="I25" s="62">
         <v>1.9493750659736113</v>
       </c>
-      <c r="J25" s="73">
+      <c r="J25" s="71">
         <v>-4.2676842244790236E-2</v>
       </c>
-      <c r="K25" s="79">
+      <c r="K25" s="77">
         <v>1.9282470866228862E-2</v>
       </c>
       <c r="L25" s="62">
         <v>0.27809010795681738</v>
       </c>
-      <c r="M25" s="73">
+      <c r="M25" s="71">
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N25" s="89">
+      <c r="N25" s="84">
         <f t="shared" si="3"/>
         <v>-6.3910701300254502E-2</v>
       </c>
-      <c r="O25" s="89">
+      <c r="O25" s="84">
         <f t="shared" si="4"/>
         <v>2.2274651739304288</v>
       </c>
-      <c r="P25" s="89">
+      <c r="P25" s="84">
         <f t="shared" si="5"/>
         <v>-2.8692121451884323E-2</v>
       </c>
-      <c r="Q25" s="76">
+      <c r="Q25" s="74">
         <v>-0.11251612892623995</v>
       </c>
     </row>
@@ -18847,55 +19081,55 @@
       <c r="A26" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="73">
+      <c r="B26" s="71">
         <v>-2.6469</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="73">
         <v>5.8483000000000001</v>
       </c>
-      <c r="D26" s="73">
+      <c r="D26" s="71">
         <v>-0.45259306123146897</v>
       </c>
-      <c r="E26" s="73">
+      <c r="E26" s="71">
         <v>-4.4399999999998663E-2</v>
       </c>
       <c r="F26" s="62">
         <v>6.3918999999999997</v>
       </c>
-      <c r="G26" s="73">
+      <c r="G26" s="71">
         <v>-6.9462914000529832E-3</v>
       </c>
-      <c r="H26" s="73">
+      <c r="H26" s="71">
         <v>-9.2877062322513915E-2</v>
       </c>
       <c r="I26" s="62">
         <v>2.5746834467120188</v>
       </c>
-      <c r="J26" s="73">
+      <c r="J26" s="71">
         <v>-3.6073196664670334E-2</v>
       </c>
-      <c r="K26" s="73">
+      <c r="K26" s="71">
         <v>0.10979374564456568</v>
       </c>
       <c r="L26" s="62">
         <v>0.3598969808875932</v>
       </c>
-      <c r="M26" s="73">
+      <c r="M26" s="71">
         <v>0.30506992688237528</v>
       </c>
-      <c r="N26" s="89">
+      <c r="N26" s="84">
         <f t="shared" si="3"/>
         <v>1.6916683322051762E-2</v>
       </c>
-      <c r="O26" s="89">
+      <c r="O26" s="84">
         <f t="shared" si="4"/>
         <v>2.9345804275996121</v>
       </c>
-      <c r="P26" s="89">
+      <c r="P26" s="84">
         <f t="shared" si="5"/>
         <v>5.7646003370536479E-3</v>
       </c>
-      <c r="Q26" s="76">
+      <c r="Q26" s="74">
         <v>-0.11251612892623995</v>
       </c>
     </row>
@@ -18903,134 +19137,134 @@
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="73">
+      <c r="B27" s="71">
         <v>-1.7222999999999997</v>
       </c>
       <c r="C27" s="55">
         <v>7.8046999999999995</v>
       </c>
-      <c r="D27" s="73">
+      <c r="D27" s="71">
         <v>-0.22067472164208743</v>
       </c>
-      <c r="E27" s="73">
+      <c r="E27" s="71">
         <v>2.0724000000000009</v>
       </c>
       <c r="F27" s="55">
         <v>5.5801999999999996</v>
       </c>
-      <c r="G27" s="73">
+      <c r="G27" s="71">
         <v>0.37138453818859557</v>
       </c>
-      <c r="H27" s="73">
+      <c r="H27" s="71">
         <v>1.6895305311289952</v>
       </c>
       <c r="I27" s="55">
         <v>1.6979084533737685</v>
       </c>
-      <c r="J27" s="73">
+      <c r="J27" s="71">
         <v>0.99506573971751766</v>
       </c>
-      <c r="K27" s="73">
+      <c r="K27" s="71">
         <v>0.20807480090515129</v>
       </c>
       <c r="L27" s="55">
         <v>0.28163472327520855</v>
       </c>
-      <c r="M27" s="73">
+      <c r="M27" s="71">
         <v>0.73881089123312471</v>
       </c>
-      <c r="N27" s="89">
+      <c r="N27" s="84">
         <f t="shared" si="3"/>
         <v>1.8976053320341464</v>
       </c>
-      <c r="O27" s="89">
+      <c r="O27" s="84">
         <f t="shared" si="4"/>
         <v>1.9795431766489771</v>
       </c>
-      <c r="P27" s="89">
+      <c r="P27" s="84">
         <f t="shared" si="5"/>
         <v>0.95860770021013775</v>
       </c>
-      <c r="Q27" s="78">
+      <c r="Q27" s="76">
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="95" t="s">
+      <c r="A46" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="96"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
-      <c r="P46" s="96"/>
-      <c r="Q46" s="97"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
+      <c r="E46" s="120"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120"/>
+      <c r="H46" s="120"/>
+      <c r="I46" s="120"/>
+      <c r="J46" s="120"/>
+      <c r="K46" s="120"/>
+      <c r="L46" s="120"/>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120"/>
+      <c r="O46" s="120"/>
+      <c r="P46" s="120"/>
+      <c r="Q46" s="121"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="122" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="91"/>
-      <c r="L47" s="91"/>
-      <c r="M47" s="91"/>
-      <c r="N47" s="91"/>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
+      <c r="B47" s="123"/>
+      <c r="C47" s="123"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
+      <c r="F47" s="123"/>
+      <c r="G47" s="123"/>
+      <c r="H47" s="123"/>
+      <c r="I47" s="123"/>
+      <c r="J47" s="123"/>
+      <c r="K47" s="123"/>
+      <c r="L47" s="123"/>
+      <c r="M47" s="123"/>
+      <c r="N47" s="123"/>
+      <c r="O47" s="123"/>
+      <c r="P47" s="123"/>
+      <c r="Q47" s="123"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
-      <c r="B48" s="71" t="s">
+      <c r="A48" s="83"/>
+      <c r="B48" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71" t="s">
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71" t="s">
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71" t="s">
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71" t="s">
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
+      <c r="O48" s="118"/>
+      <c r="P48" s="118"/>
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="72" t="s">
+      <c r="B49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="46" t="s">
@@ -19039,7 +19273,7 @@
       <c r="D49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E49" s="72" t="s">
+      <c r="E49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="F49" s="46" t="s">
@@ -19048,7 +19282,7 @@
       <c r="G49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H49" s="72" t="s">
+      <c r="H49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="I49" s="46" t="s">
@@ -19057,7 +19291,7 @@
       <c r="J49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K49" s="72" t="s">
+      <c r="K49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L49" s="46" t="s">
@@ -19066,7 +19300,7 @@
       <c r="M49" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N49" s="72" t="s">
+      <c r="N49" s="70" t="s">
         <v>39</v>
       </c>
       <c r="O49" s="46" t="s">
@@ -19080,676 +19314,676 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="110" t="s">
+      <c r="A50" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="99">
+      <c r="B50" s="86">
         <v>-16.521599999999999</v>
       </c>
-      <c r="C50" s="74">
+      <c r="C50" s="72">
         <v>30.169899999999998</v>
       </c>
-      <c r="D50" s="118">
+      <c r="D50" s="105">
         <v>-0.54761865302834944</v>
       </c>
-      <c r="E50" s="99">
+      <c r="E50" s="86">
         <v>-2.3841999999999981</v>
       </c>
-      <c r="F50" s="74">
+      <c r="F50" s="72">
         <v>15.686499999999999</v>
       </c>
-      <c r="G50" s="118">
+      <c r="G50" s="105">
         <v>-0.15199056513562606</v>
       </c>
-      <c r="H50" s="99">
+      <c r="H50" s="86">
         <v>-0.39729579455943065</v>
       </c>
-      <c r="I50" s="99">
+      <c r="I50" s="86">
         <v>2.1642984735935578</v>
       </c>
-      <c r="J50" s="118">
+      <c r="J50" s="105">
         <v>-0.18356793178334996</v>
       </c>
-      <c r="K50" s="99">
+      <c r="K50" s="86">
         <v>-3.1232600058148624E-2</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="86">
         <v>0.16000831182380926</v>
       </c>
-      <c r="M50" s="118">
+      <c r="M50" s="105">
         <v>-0.19519361027032103</v>
       </c>
-      <c r="N50" s="89">
+      <c r="N50" s="84">
         <f>SUM(H50+K50)</f>
         <v>-0.4285283946175793</v>
       </c>
-      <c r="O50" s="89">
+      <c r="O50" s="84">
         <f>SUM(I50+L50)</f>
         <v>2.3243067854173671</v>
       </c>
-      <c r="P50" s="89">
+      <c r="P50" s="84">
         <f>N50/O50</f>
         <v>-0.1843682586593792</v>
       </c>
-      <c r="Q50" s="99">
+      <c r="Q50" s="86">
         <v>0.22851828638601948</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="110" t="s">
+      <c r="A51" s="97" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="99">
+      <c r="B51" s="86">
         <v>-4.8291000000000004</v>
       </c>
-      <c r="C51" s="74">
+      <c r="C51" s="72">
         <v>13.648300000000001</v>
       </c>
-      <c r="D51" s="118">
+      <c r="D51" s="105">
         <v>-0.35382428580848896</v>
       </c>
-      <c r="E51" s="99">
+      <c r="E51" s="86">
         <v>-7.9178000000000006</v>
       </c>
-      <c r="F51" s="74">
+      <c r="F51" s="72">
         <v>13.302300000000001</v>
       </c>
-      <c r="G51" s="118">
+      <c r="G51" s="105">
         <v>-0.59522037542379891</v>
       </c>
-      <c r="H51" s="99">
+      <c r="H51" s="86">
         <v>-1.1520290298210343</v>
       </c>
-      <c r="I51" s="99">
+      <c r="I51" s="86">
         <v>1.8076248437061064</v>
       </c>
-      <c r="J51" s="118">
+      <c r="J51" s="105">
         <v>-0.63731643976472008</v>
       </c>
-      <c r="K51" s="99">
+      <c r="K51" s="86">
         <v>-8.6593108308677155E-2</v>
       </c>
-      <c r="L51" s="99">
+      <c r="L51" s="86">
         <v>0.12962202535912964</v>
       </c>
-      <c r="M51" s="118">
+      <c r="M51" s="105">
         <v>-0.66804316680566478</v>
       </c>
-      <c r="N51" s="89">
+      <c r="N51" s="84">
         <f t="shared" ref="N51:N60" si="6">SUM(H51+K51)</f>
         <v>-1.2386221381297113</v>
       </c>
-      <c r="O51" s="89">
+      <c r="O51" s="84">
         <f t="shared" ref="O51:O60" si="7">SUM(I51+L51)</f>
         <v>1.937246869065236</v>
       </c>
-      <c r="P51" s="89">
+      <c r="P51" s="84">
         <f t="shared" ref="P51:P60" si="8">N51/O51</f>
         <v>-0.63937237835226113</v>
       </c>
-      <c r="Q51" s="99">
+      <c r="Q51" s="86">
         <v>0.22851828638601948</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="99">
+      <c r="B52" s="86">
         <v>16.670300000000005</v>
       </c>
-      <c r="C52" s="80">
+      <c r="C52" s="78">
         <v>30.079799999999999</v>
       </c>
-      <c r="D52" s="118">
+      <c r="D52" s="105">
         <v>0.55420248804845795</v>
       </c>
-      <c r="E52" s="99">
+      <c r="E52" s="86">
         <v>7.3421999999999983</v>
       </c>
-      <c r="F52" s="80">
+      <c r="F52" s="78">
         <v>16.905100000000001</v>
       </c>
-      <c r="G52" s="118">
+      <c r="G52" s="105">
         <v>0.43431863757091044</v>
       </c>
-      <c r="H52" s="99">
+      <c r="H52" s="86">
         <v>0.8105395516297047</v>
       </c>
-      <c r="I52" s="101">
+      <c r="I52" s="88">
         <v>1.7951717616012994</v>
       </c>
-      <c r="J52" s="118">
+      <c r="J52" s="105">
         <v>0.45151086317595629</v>
       </c>
-      <c r="K52" s="99">
+      <c r="K52" s="86">
         <v>6.5999564974747599E-2</v>
       </c>
-      <c r="L52" s="101">
+      <c r="L52" s="88">
         <v>0.13238380964895011</v>
       </c>
-      <c r="M52" s="118">
+      <c r="M52" s="105">
         <v>0.49854710443643002</v>
       </c>
-      <c r="N52" s="89">
+      <c r="N52" s="84">
         <f t="shared" si="6"/>
         <v>0.87653911660445227</v>
       </c>
-      <c r="O52" s="89">
+      <c r="O52" s="84">
         <f t="shared" si="7"/>
         <v>1.9275555712502495</v>
       </c>
-      <c r="P52" s="89">
+      <c r="P52" s="84">
         <f t="shared" si="8"/>
         <v>0.45474129497387833</v>
       </c>
-      <c r="Q52" s="108">
+      <c r="Q52" s="95">
         <v>-0.3027637470411495</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="A53" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="99">
+      <c r="B53" s="86">
         <v>-1.115199999999998</v>
       </c>
-      <c r="C53" s="81">
+      <c r="C53" s="79">
         <v>27.011699999999998</v>
       </c>
-      <c r="D53" s="118">
+      <c r="D53" s="105">
         <v>-4.1285813184656947E-2</v>
       </c>
-      <c r="E53" s="99">
+      <c r="E53" s="86">
         <v>9.4342000000000006</v>
       </c>
-      <c r="F53" s="81">
+      <c r="F53" s="79">
         <v>11.104199999999999</v>
       </c>
-      <c r="G53" s="118">
+      <c r="G53" s="105">
         <v>0.849606455215144</v>
       </c>
-      <c r="H53" s="99">
+      <c r="H53" s="86">
         <v>1.3972786932835388</v>
       </c>
-      <c r="I53" s="102">
+      <c r="I53" s="89">
         <v>1.6108243373451037</v>
       </c>
-      <c r="J53" s="118">
+      <c r="J53" s="105">
         <v>0.86743083084185191</v>
       </c>
-      <c r="K53" s="99">
+      <c r="K53" s="86">
         <v>0.11179122774730278</v>
       </c>
-      <c r="L53" s="102">
+      <c r="L53" s="89">
         <v>0.12090681526084991</v>
       </c>
-      <c r="M53" s="118">
+      <c r="M53" s="105">
         <v>0.9246065038279212</v>
       </c>
-      <c r="N53" s="89">
+      <c r="N53" s="84">
         <f t="shared" si="6"/>
         <v>1.5090699210308416</v>
       </c>
-      <c r="O53" s="89">
+      <c r="O53" s="84">
         <f t="shared" si="7"/>
         <v>1.7317311526059536</v>
       </c>
-      <c r="P53" s="89">
+      <c r="P53" s="84">
         <f t="shared" si="8"/>
         <v>0.87142274871012992</v>
       </c>
-      <c r="Q53" s="102">
+      <c r="Q53" s="89">
         <v>-9.3318329100743891E-2</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="113" t="s">
+      <c r="A54" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="99">
+      <c r="B54" s="86">
         <v>-12.028199999999998</v>
       </c>
-      <c r="C54" s="77">
+      <c r="C54" s="75">
         <v>32.3613</v>
       </c>
-      <c r="D54" s="118">
+      <c r="D54" s="105">
         <v>-0.37168469746271005</v>
       </c>
-      <c r="E54" s="99">
+      <c r="E54" s="86">
         <v>-10.448699999999997</v>
       </c>
-      <c r="F54" s="77">
+      <c r="F54" s="75">
         <v>21.376599999999996</v>
       </c>
-      <c r="G54" s="118">
+      <c r="G54" s="105">
         <v>-0.48879148227501096</v>
       </c>
-      <c r="H54" s="99">
+      <c r="H54" s="86">
         <v>-2.1786469707248868</v>
       </c>
-      <c r="I54" s="104">
+      <c r="I54" s="91">
         <v>4.0674559942692206</v>
       </c>
-      <c r="J54" s="118">
+      <c r="J54" s="105">
         <v>-0.53562889771750644</v>
       </c>
-      <c r="K54" s="99">
+      <c r="K54" s="86">
         <v>-0.17582642709759408</v>
       </c>
-      <c r="L54" s="104">
+      <c r="L54" s="91">
         <v>0.32174543062421551</v>
       </c>
-      <c r="M54" s="118">
+      <c r="M54" s="105">
         <v>-0.5464768427525909</v>
       </c>
-      <c r="N54" s="89">
+      <c r="N54" s="84">
         <f t="shared" si="6"/>
         <v>-2.3544733978224808</v>
       </c>
-      <c r="O54" s="89">
+      <c r="O54" s="84">
         <f t="shared" si="7"/>
         <v>4.3892014248934359</v>
       </c>
-      <c r="P54" s="89">
+      <c r="P54" s="84">
         <f t="shared" si="8"/>
         <v>-0.53642409402062119</v>
       </c>
-      <c r="Q54" s="104">
+      <c r="Q54" s="91">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="113" t="s">
+      <c r="A55" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="99">
+      <c r="B55" s="86">
         <v>0.53389999999999915</v>
       </c>
-      <c r="C55" s="77">
+      <c r="C55" s="75">
         <v>13.872400000000001</v>
       </c>
-      <c r="D55" s="118">
+      <c r="D55" s="105">
         <v>3.8486491162307832E-2</v>
       </c>
-      <c r="E55" s="99">
+      <c r="E55" s="86">
         <v>-4.0897000000000006</v>
       </c>
-      <c r="F55" s="77">
+      <c r="F55" s="75">
         <v>12.863</v>
       </c>
-      <c r="G55" s="118">
+      <c r="G55" s="105">
         <v>-0.31794293710642935</v>
       </c>
-      <c r="H55" s="99">
+      <c r="H55" s="86">
         <v>-0.97333483705212842</v>
       </c>
-      <c r="I55" s="104">
+      <c r="I55" s="91">
         <v>2.5636871963176899</v>
       </c>
-      <c r="J55" s="118">
+      <c r="J55" s="105">
         <v>-0.37966208921671957</v>
       </c>
-      <c r="K55" s="99">
+      <c r="K55" s="86">
         <v>-0.11171399488573321</v>
       </c>
-      <c r="L55" s="104">
+      <c r="L55" s="91">
         <v>0.22065374815008071</v>
       </c>
-      <c r="M55" s="118">
+      <c r="M55" s="105">
         <v>-0.50628641399623708</v>
       </c>
-      <c r="N55" s="89">
+      <c r="N55" s="84">
         <f t="shared" si="6"/>
         <v>-1.0850488319378617</v>
       </c>
-      <c r="O55" s="89">
+      <c r="O55" s="84">
         <f t="shared" si="7"/>
         <v>2.7843409444677705</v>
       </c>
-      <c r="P55" s="89">
+      <c r="P55" s="84">
         <f t="shared" si="8"/>
         <v>-0.38969682721282894</v>
       </c>
-      <c r="Q55" s="104">
+      <c r="Q55" s="91">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="114" t="s">
+      <c r="A56" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="99">
+      <c r="B56" s="86">
         <v>0.25489999999999924</v>
       </c>
-      <c r="C56" s="82">
+      <c r="C56" s="80">
         <v>43.567</v>
       </c>
-      <c r="D56" s="118">
+      <c r="D56" s="105">
         <v>5.8507586016939249E-3</v>
       </c>
-      <c r="E56" s="99">
+      <c r="E56" s="86">
         <v>-0.71209999999999951</v>
       </c>
-      <c r="F56" s="82">
+      <c r="F56" s="80">
         <v>18.895600000000002</v>
       </c>
-      <c r="G56" s="118">
+      <c r="G56" s="105">
         <v>-3.7686022142721029E-2</v>
       </c>
-      <c r="H56" s="99">
+      <c r="H56" s="86">
         <v>-0.64333331341470545</v>
       </c>
-      <c r="I56" s="106">
+      <c r="I56" s="93">
         <v>3.6723632263988888</v>
       </c>
-      <c r="J56" s="118">
+      <c r="J56" s="105">
         <v>-0.17518237542247603</v>
       </c>
-      <c r="K56" s="99">
+      <c r="K56" s="86">
         <v>-7.121946965890269E-2</v>
       </c>
-      <c r="L56" s="106">
+      <c r="L56" s="93">
         <v>0.32472434373056097</v>
       </c>
-      <c r="M56" s="118">
+      <c r="M56" s="105">
         <v>-0.21932285347228794</v>
       </c>
-      <c r="N56" s="89">
+      <c r="N56" s="84">
         <f t="shared" si="6"/>
         <v>-0.71455278307360814</v>
       </c>
-      <c r="O56" s="89">
+      <c r="O56" s="84">
         <f t="shared" si="7"/>
         <v>3.9970875701294499</v>
       </c>
-      <c r="P56" s="89">
+      <c r="P56" s="84">
         <f t="shared" si="8"/>
         <v>-0.17876835834509039</v>
       </c>
-      <c r="Q56" s="106">
+      <c r="Q56" s="93">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="114" t="s">
+      <c r="A57" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="99">
+      <c r="B57" s="86">
         <v>-5.1542999999999992</v>
       </c>
-      <c r="C57" s="82">
+      <c r="C57" s="80">
         <v>21.365199999999998</v>
       </c>
-      <c r="D57" s="118">
+      <c r="D57" s="105">
         <v>-0.24124744912287269</v>
       </c>
-      <c r="E57" s="99">
+      <c r="E57" s="86">
         <v>2.4452999999999996</v>
       </c>
-      <c r="F57" s="82">
+      <c r="F57" s="80">
         <v>10.018800000000001</v>
       </c>
-      <c r="G57" s="118">
+      <c r="G57" s="105">
         <v>0.24407114624505924</v>
       </c>
-      <c r="H57" s="99">
+      <c r="H57" s="86">
         <v>0.51746353630445796</v>
       </c>
-      <c r="I57" s="106">
+      <c r="I57" s="93">
         <v>1.5610683051149881</v>
       </c>
-      <c r="J57" s="118">
+      <c r="J57" s="105">
         <v>0.33148039365666426</v>
       </c>
-      <c r="K57" s="99">
+      <c r="K57" s="86">
         <v>4.7038602982888728E-2</v>
       </c>
-      <c r="L57" s="106">
+      <c r="L57" s="93">
         <v>0.12314691966104313</v>
       </c>
-      <c r="M57" s="118">
+      <c r="M57" s="105">
         <v>0.38197141359573233</v>
       </c>
-      <c r="N57" s="89">
+      <c r="N57" s="84">
         <f t="shared" si="6"/>
         <v>0.56450213928734672</v>
       </c>
-      <c r="O57" s="89">
+      <c r="O57" s="84">
         <f t="shared" si="7"/>
         <v>1.6842152247760311</v>
       </c>
-      <c r="P57" s="89">
+      <c r="P57" s="84">
         <f t="shared" si="8"/>
         <v>0.33517221016833809</v>
       </c>
-      <c r="Q57" s="106">
+      <c r="Q57" s="93">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="115" t="s">
+      <c r="A58" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="99">
+      <c r="B58" s="86">
         <v>-5.1999999999985391E-3</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="74">
         <v>16.279599999999999</v>
       </c>
-      <c r="D58" s="118">
+      <c r="D58" s="105">
         <v>-3.1941816752245383E-4</v>
       </c>
-      <c r="E58" s="99">
+      <c r="E58" s="86">
         <v>3.3911999999999995</v>
       </c>
-      <c r="F58" s="76">
+      <c r="F58" s="74">
         <v>5.2179000000000002</v>
       </c>
-      <c r="G58" s="118">
+      <c r="G58" s="105">
         <v>0.64991663312826986</v>
       </c>
-      <c r="H58" s="99">
+      <c r="H58" s="86">
         <v>0.52944834131865048</v>
       </c>
-      <c r="I58" s="108">
+      <c r="I58" s="95">
         <v>0.68218590616009644</v>
       </c>
-      <c r="J58" s="118">
+      <c r="J58" s="105">
         <v>0.77610565761878803</v>
       </c>
-      <c r="K58" s="99">
+      <c r="K58" s="86">
         <v>4.5512412826442646E-2</v>
       </c>
-      <c r="L58" s="108">
+      <c r="L58" s="95">
         <v>4.2238846068331719E-2</v>
       </c>
-      <c r="M58" s="118">
+      <c r="M58" s="105">
         <v>1.0775013302402989</v>
       </c>
-      <c r="N58" s="89">
+      <c r="N58" s="84">
         <f t="shared" si="6"/>
         <v>0.57496075414509318</v>
       </c>
-      <c r="O58" s="89">
+      <c r="O58" s="84">
         <f t="shared" si="7"/>
         <v>0.72442475222842817</v>
       </c>
-      <c r="P58" s="89">
+      <c r="P58" s="84">
         <f t="shared" si="8"/>
         <v>0.79367905690195761</v>
       </c>
-      <c r="Q58" s="108">
+      <c r="Q58" s="95">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="115" t="s">
+      <c r="A59" s="102" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="99">
+      <c r="B59" s="86">
         <v>-1.8081999999999994</v>
       </c>
-      <c r="C59" s="76">
+      <c r="C59" s="74">
         <v>10.2546</v>
       </c>
-      <c r="D59" s="118">
+      <c r="D59" s="105">
         <v>-0.17633062235484556</v>
       </c>
-      <c r="E59" s="99">
+      <c r="E59" s="86">
         <v>-0.62900000000000134</v>
       </c>
-      <c r="F59" s="76">
+      <c r="F59" s="74">
         <v>6.2910000000000004</v>
       </c>
-      <c r="G59" s="118">
+      <c r="G59" s="105">
         <v>-9.9984104275949975E-2</v>
       </c>
-      <c r="H59" s="99">
+      <c r="H59" s="86">
         <v>0.24547311552540219</v>
       </c>
-      <c r="I59" s="108">
+      <c r="I59" s="95">
         <v>1.0662058857023278</v>
       </c>
-      <c r="J59" s="118">
+      <c r="J59" s="105">
         <v>0.23023050127293651</v>
       </c>
-      <c r="K59" s="99">
+      <c r="K59" s="86">
         <v>1.1007356080440442E-2</v>
       </c>
-      <c r="L59" s="108">
+      <c r="L59" s="95">
         <v>6.5591352842813269E-2</v>
       </c>
-      <c r="M59" s="118">
+      <c r="M59" s="105">
         <v>0.16781718326223696</v>
       </c>
-      <c r="N59" s="89">
+      <c r="N59" s="84">
         <f t="shared" si="6"/>
         <v>0.25648047160584264</v>
       </c>
-      <c r="O59" s="89">
+      <c r="O59" s="84">
         <f t="shared" si="7"/>
         <v>1.1317972385451411</v>
       </c>
-      <c r="P59" s="89">
+      <c r="P59" s="84">
         <f t="shared" si="8"/>
         <v>0.22661344529832325</v>
       </c>
-      <c r="Q59" s="108">
+      <c r="Q59" s="95">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="116" t="s">
+      <c r="A60" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="99">
+      <c r="B60" s="86">
         <v>-3.2297000000000011</v>
       </c>
-      <c r="C60" s="78">
+      <c r="C60" s="76">
         <v>21.040900000000001</v>
       </c>
-      <c r="D60" s="118">
+      <c r="D60" s="105">
         <v>-0.15349628580526503</v>
       </c>
-      <c r="E60" s="99">
+      <c r="E60" s="86">
         <v>-0.43830000000000169</v>
       </c>
-      <c r="F60" s="78">
+      <c r="F60" s="76">
         <v>13.398000000000001</v>
       </c>
-      <c r="G60" s="118">
+      <c r="G60" s="105">
         <v>-3.2713837886251804E-2</v>
       </c>
-      <c r="H60" s="99">
+      <c r="H60" s="86">
         <v>-0.23345240457375938</v>
       </c>
-      <c r="I60" s="117">
+      <c r="I60" s="104">
         <v>1.4828472986928873</v>
       </c>
-      <c r="J60" s="118">
+      <c r="J60" s="105">
         <v>-0.15743522935877818</v>
       </c>
-      <c r="K60" s="99">
+      <c r="K60" s="86">
         <v>-2.1770204424107042E-2</v>
       </c>
-      <c r="L60" s="117">
+      <c r="L60" s="104">
         <v>0.10207224320241665</v>
       </c>
-      <c r="M60" s="118">
+      <c r="M60" s="105">
         <v>-0.21328231594690392</v>
       </c>
-      <c r="N60" s="89">
+      <c r="N60" s="84">
         <f t="shared" si="6"/>
         <v>-0.25522260899786642</v>
       </c>
-      <c r="O60" s="89">
+      <c r="O60" s="84">
         <f t="shared" si="7"/>
         <v>1.5849195418953039</v>
       </c>
-      <c r="P60" s="89">
+      <c r="P60" s="84">
         <f t="shared" si="8"/>
         <v>-0.16103190240979806</v>
       </c>
-      <c r="Q60" s="117">
+      <c r="Q60" s="104">
         <v>-3.2730377491297959E-2</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="92" t="s">
+      <c r="A62" s="112" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="93"/>
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="93"/>
-      <c r="F62" s="93"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="93"/>
-      <c r="I62" s="93"/>
-      <c r="J62" s="93"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="93"/>
-      <c r="M62" s="93"/>
-      <c r="N62" s="93"/>
-      <c r="O62" s="93"/>
-      <c r="P62" s="93"/>
-      <c r="Q62" s="94"/>
+      <c r="B62" s="113"/>
+      <c r="C62" s="113"/>
+      <c r="D62" s="113"/>
+      <c r="E62" s="113"/>
+      <c r="F62" s="113"/>
+      <c r="G62" s="113"/>
+      <c r="H62" s="113"/>
+      <c r="I62" s="113"/>
+      <c r="J62" s="113"/>
+      <c r="K62" s="113"/>
+      <c r="L62" s="113"/>
+      <c r="M62" s="113"/>
+      <c r="N62" s="113"/>
+      <c r="O62" s="113"/>
+      <c r="P62" s="113"/>
+      <c r="Q62" s="114"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="85"/>
-      <c r="B63" s="86" t="s">
+      <c r="A63" s="83"/>
+      <c r="B63" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="88"/>
-      <c r="E63" s="86" t="s">
+      <c r="C63" s="116"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="115" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="88"/>
-      <c r="H63" s="86" t="s">
+      <c r="F63" s="116"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="115" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="87"/>
-      <c r="J63" s="88"/>
-      <c r="K63" s="86" t="s">
+      <c r="I63" s="116"/>
+      <c r="J63" s="117"/>
+      <c r="K63" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="87"/>
-      <c r="M63" s="88"/>
-      <c r="N63" s="71" t="s">
+      <c r="L63" s="116"/>
+      <c r="M63" s="117"/>
+      <c r="N63" s="118" t="s">
         <v>55</v>
       </c>
-      <c r="O63" s="71"/>
-      <c r="P63" s="71"/>
+      <c r="O63" s="118"/>
+      <c r="P63" s="118"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="70" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="46" t="s">
@@ -19758,7 +19992,7 @@
       <c r="D64" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E64" s="72" t="s">
+      <c r="E64" s="70" t="s">
         <v>39</v>
       </c>
       <c r="F64" s="46" t="s">
@@ -19767,7 +20001,7 @@
       <c r="G64" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="72" t="s">
+      <c r="H64" s="70" t="s">
         <v>39</v>
       </c>
       <c r="I64" s="46" t="s">
@@ -19776,7 +20010,7 @@
       <c r="J64" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="K64" s="72" t="s">
+      <c r="K64" s="70" t="s">
         <v>39</v>
       </c>
       <c r="L64" s="46" t="s">
@@ -19785,7 +20019,7 @@
       <c r="M64" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N64" s="72" t="s">
+      <c r="N64" s="70" t="s">
         <v>39</v>
       </c>
       <c r="O64" s="46" t="s">
@@ -19799,468 +20033,455 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="98" t="s">
+      <c r="A65" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="99">
+      <c r="B65" s="86">
         <v>-0.59709999999999996</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="72">
         <v>1.5851</v>
       </c>
-      <c r="D65" s="118">
+      <c r="D65" s="105">
         <v>-0.37669547662608038</v>
       </c>
-      <c r="E65" s="99">
+      <c r="E65" s="86">
         <v>0.40596427983817573</v>
       </c>
-      <c r="F65" s="74">
+      <c r="F65" s="72">
         <v>7.529399999999999</v>
       </c>
-      <c r="G65" s="118">
+      <c r="G65" s="105">
         <v>5.3917215161656415E-2</v>
       </c>
-      <c r="H65" s="99">
+      <c r="H65" s="86">
         <v>0.53845027367133813</v>
       </c>
-      <c r="I65" s="99">
+      <c r="I65" s="86">
         <v>3.7933434306569351</v>
       </c>
-      <c r="J65" s="118">
+      <c r="J65" s="105">
         <v>0.14194609149272011</v>
       </c>
-      <c r="K65" s="99">
+      <c r="K65" s="86">
         <v>3.6685446490482859E-2</v>
       </c>
-      <c r="L65" s="99">
+      <c r="L65" s="86">
         <v>0.20310881995133825</v>
       </c>
-      <c r="M65" s="118">
+      <c r="M65" s="105">
         <v>0.18061966240201743</v>
       </c>
-      <c r="N65" s="89">
+      <c r="N65" s="84">
         <f>H65+K65</f>
         <v>0.57513572016182102</v>
       </c>
-      <c r="O65" s="89">
+      <c r="O65" s="84">
         <f>I65+L65</f>
         <v>3.9964522506082734</v>
       </c>
-      <c r="P65" s="89">
+      <c r="P65" s="84">
         <f>N65/O65</f>
         <v>0.14391157058720855</v>
       </c>
-      <c r="Q65" s="119">
+      <c r="Q65" s="106">
         <v>-0.10058679002726996</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="100" t="s">
+      <c r="A66" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="99">
+      <c r="B66" s="86">
         <v>4.7496999999999998</v>
       </c>
-      <c r="C66" s="80">
+      <c r="C66" s="78">
         <v>1.5595000000000001</v>
       </c>
-      <c r="D66" s="118">
+      <c r="D66" s="105">
         <v>3.0456556588650203</v>
       </c>
-      <c r="E66" s="99">
+      <c r="E66" s="86">
         <v>-4.2875485113030187E-2</v>
       </c>
-      <c r="F66" s="80">
+      <c r="F66" s="78">
         <v>7.0016999999999996</v>
       </c>
-      <c r="G66" s="118">
+      <c r="G66" s="105">
         <v>-6.1235821461973795E-3</v>
       </c>
-      <c r="H66" s="99">
+      <c r="H66" s="86">
         <v>0.77072804517574856</v>
       </c>
-      <c r="I66" s="101">
+      <c r="I66" s="88">
         <v>3.2029096365455167</v>
       </c>
-      <c r="J66" s="118">
+      <c r="J66" s="105">
         <v>0.2406337151637577</v>
       </c>
-      <c r="K66" s="99">
+      <c r="K66" s="86">
         <v>4.7747439937281255E-2</v>
       </c>
-      <c r="L66" s="101">
+      <c r="L66" s="88">
         <v>0.18703707902634226</v>
       </c>
-      <c r="M66" s="118">
+      <c r="M66" s="105">
         <v>0.25528328492852753</v>
       </c>
-      <c r="N66" s="89">
+      <c r="N66" s="84">
         <f t="shared" ref="N66:N72" si="9">H66+K66</f>
         <v>0.81847548511302981</v>
       </c>
-      <c r="O66" s="89">
+      <c r="O66" s="84">
         <f t="shared" ref="O66:O71" si="10">I66+L66</f>
         <v>3.3899467155718588</v>
       </c>
-      <c r="P66" s="89">
+      <c r="P66" s="84">
         <f t="shared" ref="P66:P72" si="11">N66/O66</f>
         <v>0.24144199121282031</v>
       </c>
-      <c r="Q66" s="120">
+      <c r="Q66" s="107">
         <v>-0.32001589401318498</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="99">
+      <c r="B67" s="86">
         <v>-2.7269000000000001</v>
       </c>
-      <c r="C67" s="77">
+      <c r="C67" s="75">
         <v>6.3570000000000002</v>
       </c>
-      <c r="D67" s="118">
+      <c r="D67" s="105">
         <v>-0.42896020135283941</v>
       </c>
-      <c r="E67" s="99">
+      <c r="E67" s="86">
         <v>0.11854131335046647</v>
       </c>
-      <c r="F67" s="77">
+      <c r="F67" s="75">
         <v>10.2044</v>
       </c>
-      <c r="G67" s="118">
+      <c r="G67" s="105">
         <v>1.1616686267734161E-2</v>
       </c>
-      <c r="H67" s="99">
+      <c r="H67" s="86">
         <v>-1.5595514376973254</v>
       </c>
-      <c r="I67" s="104">
+      <c r="I67" s="91">
         <v>7.0654710684273754</v>
       </c>
-      <c r="J67" s="118">
+      <c r="J67" s="105">
         <v>-0.22072858590650893</v>
       </c>
-      <c r="K67" s="99">
+      <c r="K67" s="86">
         <v>-9.8289875653147785E-2</v>
       </c>
-      <c r="L67" s="104">
+      <c r="L67" s="91">
         <v>0.45884337735094055</v>
       </c>
-      <c r="M67" s="118">
+      <c r="M67" s="105">
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N67" s="89">
+      <c r="N67" s="84">
         <f t="shared" si="9"/>
         <v>-1.6578413133504732</v>
       </c>
-      <c r="O67" s="89">
+      <c r="O67" s="84">
         <f t="shared" si="10"/>
         <v>7.524314445778316</v>
       </c>
-      <c r="P67" s="89">
+      <c r="P67" s="84">
         <f t="shared" si="11"/>
         <v>-0.22033121094249883</v>
       </c>
-      <c r="Q67" s="121">
+      <c r="Q67" s="108">
         <v>0.11743877238132332</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="103" t="s">
+      <c r="A68" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="99">
+      <c r="B68" s="86">
         <v>-3.7258000000000004</v>
       </c>
-      <c r="C68" s="77">
+      <c r="C68" s="75">
         <v>6.3470000000000004</v>
       </c>
-      <c r="D68" s="118">
+      <c r="D68" s="105">
         <v>-0.58701748857728064</v>
       </c>
-      <c r="E68" s="99">
+      <c r="E68" s="86">
         <v>0.20527559701143749</v>
       </c>
-      <c r="F68" s="77">
+      <c r="F68" s="75">
         <v>8.2335999999999991</v>
       </c>
-      <c r="G68" s="118">
+      <c r="G68" s="105">
         <v>2.4931451249931683E-2</v>
       </c>
-      <c r="H68" s="99">
+      <c r="H68" s="86">
         <v>0.76175130767380761</v>
       </c>
-      <c r="I68" s="104">
+      <c r="I68" s="91">
         <v>5.0778449889732853</v>
       </c>
-      <c r="J68" s="118">
+      <c r="J68" s="105">
         <v>0.15001468326189096</v>
       </c>
-      <c r="K68" s="99">
+      <c r="K68" s="86">
         <v>-6.4526904685237904E-2</v>
       </c>
-      <c r="L68" s="104">
+      <c r="L68" s="91">
         <v>0.53364981622151375</v>
       </c>
-      <c r="M68" s="118">
+      <c r="M68" s="105">
         <v>-0.12091619396052283</v>
       </c>
-      <c r="N68" s="89">
+      <c r="N68" s="84">
         <f t="shared" si="9"/>
         <v>0.69722440298856969</v>
       </c>
-      <c r="O68" s="89">
+      <c r="O68" s="84">
         <f t="shared" si="10"/>
         <v>5.6114948051947993</v>
       </c>
-      <c r="P68" s="89">
+      <c r="P68" s="84">
         <f t="shared" si="11"/>
         <v>0.12424931808599723</v>
       </c>
-      <c r="Q68" s="121">
+      <c r="Q68" s="108">
         <v>0.11743877238132332</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="99">
+      <c r="B69" s="86">
         <v>-5.5202999999999998</v>
       </c>
-      <c r="C69" s="82">
+      <c r="C69" s="80">
         <v>6.3075000000000001</v>
       </c>
-      <c r="D69" s="118">
+      <c r="D69" s="105">
         <v>-0.87519619500594525</v>
       </c>
-      <c r="E69" s="99">
+      <c r="E69" s="86">
         <v>0.25186380023202659</v>
       </c>
-      <c r="F69" s="82">
+      <c r="F69" s="80">
         <v>6.8244000000000007</v>
       </c>
-      <c r="G69" s="118">
+      <c r="G69" s="105">
         <v>3.6906365428759531E-2</v>
       </c>
-      <c r="H69" s="99">
+      <c r="H69" s="86">
         <v>0.65548799899290877</v>
       </c>
-      <c r="I69" s="106">
+      <c r="I69" s="93">
         <v>3.4966024327251528</v>
       </c>
-      <c r="J69" s="118">
+      <c r="J69" s="105">
         <v>0.18746426326828355</v>
       </c>
-      <c r="K69" s="99">
+      <c r="K69" s="86">
         <v>4.5248200775063058E-2</v>
       </c>
-      <c r="L69" s="106">
+      <c r="L69" s="93">
         <v>0.23523687411480473</v>
       </c>
-      <c r="M69" s="118">
+      <c r="M69" s="105">
         <v>0.19235164956740658</v>
       </c>
-      <c r="N69" s="89">
+      <c r="N69" s="84">
         <f t="shared" si="9"/>
         <v>0.70073619976797186</v>
       </c>
-      <c r="O69" s="89">
+      <c r="O69" s="84">
         <f t="shared" si="10"/>
         <v>3.7318393068399573</v>
       </c>
-      <c r="P69" s="89">
+      <c r="P69" s="84">
         <f t="shared" si="11"/>
         <v>0.18777234016577751</v>
       </c>
-      <c r="Q69" s="106">
+      <c r="Q69" s="93">
         <v>-4.5718099286610456E-2</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="107" t="s">
+      <c r="A70" s="94" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="99">
+      <c r="B70" s="86">
         <v>-2.0448999999999997</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="74">
         <v>3.1258999999999997</v>
       </c>
-      <c r="D70" s="118">
+      <c r="D70" s="105">
         <v>-0.65417959627627242</v>
       </c>
-      <c r="E70" s="99">
+      <c r="E70" s="86">
         <v>1.849413921397858</v>
       </c>
-      <c r="F70" s="76">
+      <c r="F70" s="74">
         <v>7.5085999999999995</v>
       </c>
-      <c r="G70" s="118">
+      <c r="G70" s="105">
         <v>0.24630609186770611</v>
       </c>
-      <c r="H70" s="99">
+      <c r="H70" s="86">
         <v>0.63760360773591351</v>
       </c>
-      <c r="I70" s="108">
+      <c r="I70" s="95">
         <v>4.2943881967213136</v>
       </c>
-      <c r="J70" s="118">
+      <c r="J70" s="105">
         <v>0.14847367739663409</v>
       </c>
-      <c r="K70" s="99">
+      <c r="K70" s="86">
         <v>1.9282470866228862E-2</v>
       </c>
-      <c r="L70" s="108">
+      <c r="L70" s="95">
         <v>0.27809010795681738</v>
       </c>
-      <c r="M70" s="118">
+      <c r="M70" s="105">
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N70" s="89">
+      <c r="N70" s="84">
         <f t="shared" si="9"/>
         <v>0.65688607860214243</v>
       </c>
-      <c r="O70" s="89">
+      <c r="O70" s="84">
         <f t="shared" si="10"/>
         <v>4.572478304678131</v>
       </c>
-      <c r="P70" s="89">
+      <c r="P70" s="84">
         <f t="shared" si="11"/>
         <v>0.143660840977655</v>
       </c>
-      <c r="Q70" s="122">
+      <c r="Q70" s="109">
         <v>-0.11251612892623995</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="107" t="s">
+      <c r="A71" s="94" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="99">
+      <c r="B71" s="86">
         <v>-0.77380000000000015</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="74">
         <v>1.2892000000000001</v>
       </c>
-      <c r="D71" s="118">
+      <c r="D71" s="105">
         <v>-0.60021718895439036</v>
       </c>
-      <c r="E71" s="99">
+      <c r="E71" s="86">
         <v>-0.87190683761703458</v>
       </c>
-      <c r="F71" s="76">
+      <c r="F71" s="74">
         <v>8.2502999999999993</v>
       </c>
-      <c r="G71" s="118">
+      <c r="G71" s="105">
         <v>-0.10568183431112016</v>
       </c>
-      <c r="H71" s="99">
+      <c r="H71" s="86">
         <v>0.51081309197247027</v>
       </c>
-      <c r="I71" s="108">
+      <c r="I71" s="95">
         <v>5.5288184321347602</v>
       </c>
-      <c r="J71" s="118">
+      <c r="J71" s="105">
         <v>9.2391005102194612E-2</v>
       </c>
-      <c r="K71" s="99">
+      <c r="K71" s="86">
         <v>0.10979374564456568</v>
       </c>
-      <c r="L71" s="108">
+      <c r="L71" s="95">
         <v>0.3598969808875932</v>
       </c>
-      <c r="M71" s="118">
+      <c r="M71" s="105">
         <v>0.30506992688237528</v>
       </c>
-      <c r="N71" s="89">
+      <c r="N71" s="84">
         <f t="shared" si="9"/>
         <v>0.62060683761703594</v>
       </c>
-      <c r="O71" s="89">
+      <c r="O71" s="84">
         <f t="shared" si="10"/>
         <v>5.8887154130223536</v>
       </c>
-      <c r="P71" s="89">
+      <c r="P71" s="84">
         <f t="shared" si="11"/>
         <v>0.10538917133686251</v>
       </c>
-      <c r="Q71" s="122">
+      <c r="Q71" s="109">
         <v>-0.11251612892623995</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="109" t="s">
+      <c r="A72" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="99">
+      <c r="B72" s="86">
         <v>-0.69299999999999962</v>
       </c>
-      <c r="C72" s="78">
+      <c r="C72" s="76">
         <v>2.1473999999999998</v>
       </c>
-      <c r="D72" s="118">
+      <c r="D72" s="105">
         <v>-0.32271584241408202</v>
       </c>
-      <c r="E72" s="99">
+      <c r="E72" s="86">
         <v>-0.90590974459061657</v>
       </c>
-      <c r="F72" s="78">
+      <c r="F72" s="76">
         <v>9.2515999999999998</v>
       </c>
-      <c r="G72" s="118">
+      <c r="G72" s="105">
         <v>-9.7919251220396103E-2</v>
       </c>
-      <c r="H72" s="99">
+      <c r="H72" s="86">
         <v>2.7966349436854614</v>
       </c>
-      <c r="I72" s="117">
+      <c r="I72" s="104">
         <v>4.0606493176648994</v>
       </c>
-      <c r="J72" s="118">
+      <c r="J72" s="105">
         <v>0.68871619411195129</v>
       </c>
-      <c r="K72" s="99">
+      <c r="K72" s="86">
         <v>0.20807480090515129</v>
       </c>
-      <c r="L72" s="117">
+      <c r="L72" s="104">
         <v>0.28163472327520855</v>
       </c>
-      <c r="M72" s="118">
+      <c r="M72" s="105">
         <v>0.73881089123312471</v>
       </c>
-      <c r="N72" s="89">
+      <c r="N72" s="84">
         <f t="shared" si="9"/>
         <v>3.0047097445906128</v>
       </c>
-      <c r="O72" s="89">
+      <c r="O72" s="84">
         <f>I72+L72</f>
         <v>4.3422840409401076</v>
       </c>
-      <c r="P72" s="89">
+      <c r="P72" s="84">
         <f t="shared" si="11"/>
         <v>0.69196526902926669</v>
       </c>
-      <c r="Q72" s="123">
+      <c r="Q72" s="110">
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="A17:Q17"/>
@@ -20274,8 +20495,2689 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFBB6E-B81B-4231-90DF-0A454EA05932}">
+  <dimension ref="A1:AE49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="16.5703125" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.140625" customWidth="1"/>
+    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1" s="124" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="124"/>
+      <c r="I1" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="157"/>
+      <c r="O1" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="121"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="126" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="M2" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="122" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
+      <c r="R2" s="123"/>
+      <c r="S2" s="123"/>
+      <c r="T2" s="123"/>
+      <c r="U2" s="123"/>
+      <c r="V2" s="123"/>
+      <c r="W2" s="123"/>
+      <c r="X2" s="123"/>
+      <c r="Y2" s="123"/>
+      <c r="Z2" s="123"/>
+      <c r="AA2" s="123"/>
+      <c r="AB2" s="123"/>
+      <c r="AC2" s="123"/>
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="127">
+        <v>47.014299999999999</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44.028299999999994</v>
+      </c>
+      <c r="E3" s="16">
+        <v>2.3685</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0.95561165589832309</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.16000831182380906</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="152">
+        <f>MIN(D3:D13)</f>
+        <v>15.7163</v>
+      </c>
+      <c r="K3" s="152">
+        <f>MAX(D3:D13)</f>
+        <v>58.877499999999998</v>
+      </c>
+      <c r="L3" s="158">
+        <f>_xlfn.PERCENTILE.EXC(D3:D13, 0.1)</f>
+        <v>16.7577</v>
+      </c>
+      <c r="M3" s="158">
+        <f>_xlfn.PERCENTILE.INC(D3:D13, 0.1)</f>
+        <v>20.923299999999998</v>
+      </c>
+      <c r="O3" s="83"/>
+      <c r="P3" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="118"/>
+      <c r="R3" s="118"/>
+      <c r="S3" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="118"/>
+      <c r="U3" s="118"/>
+      <c r="V3" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="118"/>
+      <c r="X3" s="118"/>
+      <c r="Y3" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC3" s="118"/>
+      <c r="AD3" s="118"/>
+      <c r="AE3" s="10"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="127">
+        <v>29.554200000000002</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="D4" s="16">
+        <v>27.388499999999997</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2.0897999999999999</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0.80098725750566646</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0.12962202535912964</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="152">
+        <f>MIN(E3:E13)</f>
+        <v>0.84810000000000008</v>
+      </c>
+      <c r="K4" s="152">
+        <f>MAX(E3:E13)</f>
+        <v>4.6973000000000003</v>
+      </c>
+      <c r="L4" s="84">
+        <f>_xlfn.PERCENTILE.EXC(E3:E13, 0.1)</f>
+        <v>0.93668000000000018</v>
+      </c>
+      <c r="M4" s="84">
+        <f>_xlfn.PERCENTILE.INC(E3:E13, 0.1)</f>
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P4" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" s="148" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB4" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD4" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE4" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="128">
+        <v>47.488500000000002</v>
+      </c>
+      <c r="C5" s="35">
+        <v>-0.3027637470411495</v>
+      </c>
+      <c r="D5" s="17">
+        <v>45.276400000000002</v>
+      </c>
+      <c r="E5" s="17">
+        <v>2.1161000000000003</v>
+      </c>
+      <c r="F5" s="38">
+        <v>0.85640371307185381</v>
+      </c>
+      <c r="G5" s="39">
+        <v>0.13238380964895011</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="84">
+        <f>MIN(F3:F13)</f>
+        <v>0.27754676667362871</v>
+      </c>
+      <c r="K5" s="84">
+        <f>MAX(F3:F13)</f>
+        <v>1.8501772853971479</v>
+      </c>
+      <c r="L5" s="159">
+        <f>_xlfn.PERCENTILE.EXC(F3:F13, 0.1)</f>
+        <v>0.30961067561409894</v>
+      </c>
+      <c r="M5" s="159">
+        <f>_xlfn.PERCENTILE.INC(F3:F13, 0.1)</f>
+        <v>0.43786631137597964</v>
+      </c>
+      <c r="O5" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="149">
+        <f>D16-D3</f>
+        <v>-18.643499999999996</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>44.028299999999994</v>
+      </c>
+      <c r="R5" s="144">
+        <f>P5/Q5</f>
+        <v>-0.42344355789344579</v>
+      </c>
+      <c r="S5" s="150">
+        <f>E16-E3</f>
+        <v>-0.34287500000000026</v>
+      </c>
+      <c r="T5" s="16">
+        <v>2.3685</v>
+      </c>
+      <c r="U5" s="144">
+        <f>S5/T5</f>
+        <v>-0.14476461895714599</v>
+      </c>
+      <c r="V5" s="150">
+        <f>F16-F3</f>
+        <v>-0.16332090060751703</v>
+      </c>
+      <c r="W5" s="30">
+        <v>0.95561165589832309</v>
+      </c>
+      <c r="X5" s="144">
+        <f>V5/W5</f>
+        <v>-0.17090718766294993</v>
+      </c>
+      <c r="Y5" s="149">
+        <f>G16-G3</f>
+        <v>-3.123260005814843E-2</v>
+      </c>
+      <c r="Z5" s="37">
+        <v>0.16000831182380906</v>
+      </c>
+      <c r="AA5" s="144">
+        <f>Y5/Z5</f>
+        <v>-0.19519361027032006</v>
+      </c>
+      <c r="AB5" s="84">
+        <f>SUM(V5,Y5)</f>
+        <v>-0.19455350066566546</v>
+      </c>
+      <c r="AC5" s="84">
+        <f>SUM(W5,Z5)</f>
+        <v>1.1156199677221321</v>
+      </c>
+      <c r="AD5" s="84">
+        <f>AB5/AC5</f>
+        <v>-0.17439047910096475</v>
+      </c>
+      <c r="AE5" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="129">
+        <v>38.784700000000001</v>
+      </c>
+      <c r="C6" s="32">
+        <v>-9.3318329100743891E-2</v>
+      </c>
+      <c r="D6" s="18">
+        <v>36.733499999999999</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1.8083</v>
+      </c>
+      <c r="F6" s="32">
+        <v>0.72662826606468844</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.12090681526084991</v>
+      </c>
+      <c r="I6" s="126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="156">
+        <f>MIN(G3:G13)</f>
+        <v>4.2238846068331719E-2</v>
+      </c>
+      <c r="K6" s="156">
+        <f>MAX(G3:G13)</f>
+        <v>0.32472434373056097</v>
+      </c>
+      <c r="L6" s="159">
+        <f>_xlfn.PERCENTILE.EXC(G3:G13, 0.1)</f>
+        <v>4.6909347423228033E-2</v>
+      </c>
+      <c r="M6" s="159">
+        <f>_xlfn.PERCENTILE.INC(G3:G13, 0.1)</f>
+        <v>6.5591352842813269E-2</v>
+      </c>
+      <c r="O6" s="127" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="149">
+        <f>D17-D4</f>
+        <v>-13.749399999999996</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>27.388499999999997</v>
+      </c>
+      <c r="R6" s="144">
+        <f t="shared" ref="R6:R15" si="0">P6/Q6</f>
+        <v>-0.5020136188546287</v>
+      </c>
+      <c r="S6" s="150">
+        <f>E17-E4</f>
+        <v>-1.3113999999999999</v>
+      </c>
+      <c r="T6" s="16">
+        <v>2.0897999999999999</v>
+      </c>
+      <c r="U6" s="144">
+        <f t="shared" ref="U6:U15" si="1">S6/T6</f>
+        <v>-0.62752416499186525</v>
+      </c>
+      <c r="V6" s="150">
+        <f>F17-F4</f>
+        <v>-0.52988876178065869</v>
+      </c>
+      <c r="W6" s="30">
+        <v>0.80098725750566646</v>
+      </c>
+      <c r="X6" s="144">
+        <f t="shared" ref="X6:X15" si="2">V6/W6</f>
+        <v>-0.66154455868720241</v>
+      </c>
+      <c r="Y6" s="149">
+        <f>G17-G4</f>
+        <v>-8.6593108308677155E-2</v>
+      </c>
+      <c r="Z6" s="37">
+        <v>0.12962202535912964</v>
+      </c>
+      <c r="AA6" s="144">
+        <f t="shared" ref="AA6:AA15" si="3">Y6/Z6</f>
+        <v>-0.66804316680566478</v>
+      </c>
+      <c r="AB6" s="84">
+        <f t="shared" ref="AB6:AC15" si="4">SUM(V6,Y6)</f>
+        <v>-0.61648187008933586</v>
+      </c>
+      <c r="AC6" s="84">
+        <f t="shared" si="4"/>
+        <v>0.93060928286479605</v>
+      </c>
+      <c r="AD6" s="84">
+        <f t="shared" ref="AD6:AD15" si="5">AB6/AC6</f>
+        <v>-0.66244973206322688</v>
+      </c>
+      <c r="AE6" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="13">
+        <v>54.746600000000001</v>
+      </c>
+      <c r="C7" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="D7" s="19">
+        <v>49.902200000000001</v>
+      </c>
+      <c r="E7" s="19">
+        <v>4.6973000000000003</v>
+      </c>
+      <c r="F7" s="33">
+        <v>1.8501772853971479</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.32174543062421551</v>
+      </c>
+      <c r="O7" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="149">
+        <f>D18-D5</f>
+        <v>22.777200000000001</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>45.276400000000002</v>
+      </c>
+      <c r="R7" s="144">
+        <f t="shared" si="0"/>
+        <v>0.50307003206968748</v>
+      </c>
+      <c r="S7" s="150">
+        <f>E18-E5</f>
+        <v>1.4491999999999998</v>
+      </c>
+      <c r="T7" s="17">
+        <v>2.1161000000000003</v>
+      </c>
+      <c r="U7" s="144">
+        <f t="shared" si="1"/>
+        <v>0.68484476158971674</v>
+      </c>
+      <c r="V7" s="150">
+        <f>F18-F5</f>
+        <v>0.32403453694048001</v>
+      </c>
+      <c r="W7" s="38">
+        <v>0.85640371307185381</v>
+      </c>
+      <c r="X7" s="144">
+        <f t="shared" si="2"/>
+        <v>0.37836657174008881</v>
+      </c>
+      <c r="Y7" s="149">
+        <f>G18-G5</f>
+        <v>6.5999564974747599E-2</v>
+      </c>
+      <c r="Z7" s="39">
+        <v>0.13238380964895011</v>
+      </c>
+      <c r="AA7" s="144">
+        <f t="shared" si="3"/>
+        <v>0.49854710443643002</v>
+      </c>
+      <c r="AB7" s="84">
+        <f>SUM(V7,Y7)</f>
+        <v>0.39003410191522758</v>
+      </c>
+      <c r="AC7" s="84">
+        <f>SUM(W7,Z7)</f>
+        <v>0.98878752272080395</v>
+      </c>
+      <c r="AD7" s="84">
+        <f t="shared" si="5"/>
+        <v>0.39445694140839033</v>
+      </c>
+      <c r="AE7" s="35">
+        <v>-0.3027637470411495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="13">
+        <v>27.5703</v>
+      </c>
+      <c r="C8" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="D8" s="19">
+        <v>24.480800000000002</v>
+      </c>
+      <c r="E8" s="19">
+        <v>2.8880999999999997</v>
+      </c>
+      <c r="F8" s="33">
+        <v>1.2831694146713353</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.22065374815008071</v>
+      </c>
+      <c r="I8" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" s="157"/>
+      <c r="O8" s="129" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="149">
+        <f>D19-D6</f>
+        <v>6.8207000000000022</v>
+      </c>
+      <c r="Q8" s="18">
+        <v>36.733499999999999</v>
+      </c>
+      <c r="R8" s="144">
+        <f t="shared" si="0"/>
+        <v>0.18568064573209747</v>
+      </c>
+      <c r="S8" s="150">
+        <f>E19-E6</f>
+        <v>1.7446000000000002</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1.8083</v>
+      </c>
+      <c r="U8" s="144">
+        <f t="shared" si="1"/>
+        <v>0.9647735442127966</v>
+      </c>
+      <c r="V8" s="150">
+        <f>F19-F6</f>
+        <v>0.60606999005902462</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0.72662826606468844</v>
+      </c>
+      <c r="X8" s="144">
+        <f t="shared" si="2"/>
+        <v>0.83408534785112387</v>
+      </c>
+      <c r="Y8" s="149">
+        <f>G19-G6</f>
+        <v>0.11179122774730278</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>0.12090681526084991</v>
+      </c>
+      <c r="AA8" s="144">
+        <f t="shared" si="3"/>
+        <v>0.9246065038279212</v>
+      </c>
+      <c r="AB8" s="84">
+        <f t="shared" si="4"/>
+        <v>0.71786121780632739</v>
+      </c>
+      <c r="AC8" s="84">
+        <f t="shared" si="4"/>
+        <v>0.84753508132553834</v>
+      </c>
+      <c r="AD8" s="84">
+        <f t="shared" si="5"/>
+        <v>0.84699882473725807</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>-9.3318329100743891E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="14">
+        <v>63.384900000000002</v>
+      </c>
+      <c r="C9" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="D9" s="20">
+        <v>58.877499999999998</v>
+      </c>
+      <c r="E9" s="20">
+        <v>4.4638000000000009</v>
+      </c>
+      <c r="F9" s="34">
+        <v>1.7758675553185828</v>
+      </c>
+      <c r="G9" s="40">
+        <v>0.32472434373056097</v>
+      </c>
+      <c r="I9" s="155" t="s">
+        <v>65</v>
+      </c>
+      <c r="J9" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="155" t="s">
+        <v>67</v>
+      </c>
+      <c r="M9" s="155" t="s">
+        <v>68</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="149">
+        <f>D20-D7</f>
+        <v>-20.381</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>49.902200000000001</v>
+      </c>
+      <c r="R9" s="144">
+        <f t="shared" si="0"/>
+        <v>-0.40841886730444749</v>
+      </c>
+      <c r="S9" s="150">
+        <f>E20-E7</f>
+        <v>-2.5282000000000004</v>
+      </c>
+      <c r="T9" s="19">
+        <v>4.6973000000000003</v>
+      </c>
+      <c r="U9" s="144">
+        <f t="shared" si="1"/>
+        <v>-0.53822408617716566</v>
+      </c>
+      <c r="V9" s="150">
+        <f>F20-F7</f>
+        <v>-0.97839859793628414</v>
+      </c>
+      <c r="W9" s="33">
+        <v>1.8501772853971479</v>
+      </c>
+      <c r="X9" s="144">
+        <f t="shared" si="2"/>
+        <v>-0.52881343083090926</v>
+      </c>
+      <c r="Y9" s="149">
+        <f>G20-G7</f>
+        <v>-0.17582642709759452</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>0.32174543062421551</v>
+      </c>
+      <c r="AA9" s="144">
+        <f t="shared" si="3"/>
+        <v>-0.54647684275259234</v>
+      </c>
+      <c r="AB9" s="84">
+        <f t="shared" si="4"/>
+        <v>-1.1542250250338786</v>
+      </c>
+      <c r="AC9" s="84">
+        <f>SUM(W9,Z9)</f>
+        <v>2.1719227160213634</v>
+      </c>
+      <c r="AD9" s="84">
+        <f t="shared" si="5"/>
+        <v>-0.5314300626443309</v>
+      </c>
+      <c r="AE9" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="14">
+        <v>31.8675</v>
+      </c>
+      <c r="C10" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="D10" s="20">
+        <v>30.0379</v>
+      </c>
+      <c r="E10" s="20">
+        <v>1.6659000000000002</v>
+      </c>
+      <c r="F10" s="34">
+        <v>0.74122198472203027</v>
+      </c>
+      <c r="G10" s="40">
+        <v>0.12314691966104313</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" s="156">
+        <f>MIN(D30:D38)</f>
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="K10" s="156">
+        <f>MAX(D30:D38)</f>
+        <v>11.956300000000001</v>
+      </c>
+      <c r="L10" s="158">
+        <f>_xlfn.PERCENTILE.EXC(D30:D38, 0.1)</f>
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="M10" s="158">
+        <f>_xlfn.PERCENTILE.INC(D30:D38, 0.1)</f>
+        <v>5.2502000000000004</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" s="149">
+        <f>D21-D8</f>
+        <v>-2.4313000000000038</v>
+      </c>
+      <c r="Q10" s="19">
+        <v>24.480800000000002</v>
+      </c>
+      <c r="R10" s="144">
+        <f t="shared" si="0"/>
+        <v>-9.9314564883500683E-2</v>
+      </c>
+      <c r="S10" s="150">
+        <f>E21-E8</f>
+        <v>-0.83049999999999935</v>
+      </c>
+      <c r="T10" s="19">
+        <v>2.8880999999999997</v>
+      </c>
+      <c r="U10" s="144">
+        <f t="shared" si="1"/>
+        <v>-0.28755929503826028</v>
+      </c>
+      <c r="V10" s="150">
+        <f>F21-F8</f>
+        <v>-0.5998312651887292</v>
+      </c>
+      <c r="W10" s="33">
+        <v>1.2831694146713353</v>
+      </c>
+      <c r="X10" s="144">
+        <f t="shared" si="2"/>
+        <v>-0.46746069406771751</v>
+      </c>
+      <c r="Y10" s="149">
+        <f>G21-G8</f>
+        <v>-0.11171399488573321</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>0.22065374815008071</v>
+      </c>
+      <c r="AA10" s="144">
+        <f t="shared" si="3"/>
+        <v>-0.50628641399623708</v>
+      </c>
+      <c r="AB10" s="84">
+        <f t="shared" si="4"/>
+        <v>-0.71154526007446239</v>
+      </c>
+      <c r="AC10" s="84">
+        <f t="shared" si="4"/>
+        <v>1.503823162821416</v>
+      </c>
+      <c r="AD10" s="84">
+        <f t="shared" si="5"/>
+        <v>-0.47315753451987541</v>
+      </c>
+      <c r="AE10" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="128">
+        <v>21.8202</v>
+      </c>
+      <c r="C11" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="D11" s="21">
+        <v>20.923299999999998</v>
+      </c>
+      <c r="E11" s="160">
+        <v>0.84810000000000008</v>
+      </c>
+      <c r="F11" s="31">
+        <v>0.27754676667362871</v>
+      </c>
+      <c r="G11" s="41">
+        <v>4.2238846068331719E-2</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="156">
+        <f>MIN(E30:E38)</f>
+        <v>3.9233000000000002</v>
+      </c>
+      <c r="K11" s="156">
+        <f>MAX(E30:E38)</f>
+        <v>7.5605000000000011</v>
+      </c>
+      <c r="L11" s="158">
+        <f>_xlfn.PERCENTILE.EXC(E30:E38, 0.1)</f>
+        <v>3.9233000000000002</v>
+      </c>
+      <c r="M11" s="158">
+        <f>_xlfn.PERCENTILE.INC(E30:E38, 0.1)</f>
+        <v>4.0785799999999997</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" s="149">
+        <f>D22-D9</f>
+        <v>0.198599999999999</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>58.877499999999998</v>
+      </c>
+      <c r="R11" s="144">
+        <f t="shared" si="0"/>
+        <v>3.3731051760010023E-3</v>
+      </c>
+      <c r="S11" s="150">
+        <f>E22-E9</f>
+        <v>-0.74690000000000101</v>
+      </c>
+      <c r="T11" s="20">
+        <v>4.4638000000000009</v>
+      </c>
+      <c r="U11" s="144">
+        <f t="shared" si="1"/>
+        <v>-0.1673238048299657</v>
+      </c>
+      <c r="V11" s="150">
+        <f>F22-F9</f>
+        <v>-0.34028683073031396</v>
+      </c>
+      <c r="W11" s="34">
+        <v>1.7758675553185828</v>
+      </c>
+      <c r="X11" s="144">
+        <f t="shared" si="2"/>
+        <v>-0.1916172350303838</v>
+      </c>
+      <c r="Y11" s="149">
+        <f>G22-G9</f>
+        <v>-7.121946965890269E-2</v>
+      </c>
+      <c r="Z11" s="40">
+        <v>0.32472434373056097</v>
+      </c>
+      <c r="AA11" s="144">
+        <f t="shared" si="3"/>
+        <v>-0.21932285347228794</v>
+      </c>
+      <c r="AB11" s="84">
+        <f t="shared" si="4"/>
+        <v>-0.41150630038921665</v>
+      </c>
+      <c r="AC11" s="84">
+        <f t="shared" si="4"/>
+        <v>2.1005918990491437</v>
+      </c>
+      <c r="AD11" s="84">
+        <f t="shared" si="5"/>
+        <v>-0.19590016536552843</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="128">
+        <v>17.0562</v>
+      </c>
+      <c r="C12" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="D12" s="160">
+        <v>15.7163</v>
+      </c>
+      <c r="E12" s="21">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0.43786631137597964</v>
+      </c>
+      <c r="G12" s="41">
+        <v>6.5591352842813269E-2</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="156">
+        <f>MIN(F30:F38)</f>
+        <v>1.2269792930976999</v>
+      </c>
+      <c r="K12" s="156">
+        <f>MAX(F30:F38)</f>
+        <v>3.2692590636254515</v>
+      </c>
+      <c r="L12" s="158">
+        <f>_xlfn.PERCENTILE.EXC(F30:F38, 0.1)</f>
+        <v>1.2269792930976999</v>
+      </c>
+      <c r="M12" s="158">
+        <f>_xlfn.PERCENTILE.INC(F30:F38, 0.1)</f>
+        <v>1.3563459802740412</v>
+      </c>
+      <c r="O12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="149">
+        <f>D23-D10</f>
+        <v>-3.4879999999999995</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>30.0379</v>
+      </c>
+      <c r="R12" s="144">
+        <f t="shared" si="0"/>
+        <v>-0.11611996843987095</v>
+      </c>
+      <c r="S12" s="150">
+        <f>E23-E10</f>
+        <v>0.91839999999999966</v>
+      </c>
+      <c r="T12" s="20">
+        <v>1.6659000000000002</v>
+      </c>
+      <c r="U12" s="144">
+        <f t="shared" si="1"/>
+        <v>0.55129359505372444</v>
+      </c>
+      <c r="V12" s="150">
+        <f>F23-F10</f>
+        <v>0.18041794101540676</v>
+      </c>
+      <c r="W12" s="34">
+        <v>0.74122198472203027</v>
+      </c>
+      <c r="X12" s="144">
+        <f t="shared" si="2"/>
+        <v>0.24340608445804029</v>
+      </c>
+      <c r="Y12" s="149">
+        <f>G23-G10</f>
+        <v>4.7038602982888728E-2</v>
+      </c>
+      <c r="Z12" s="40">
+        <v>0.12314691966104313</v>
+      </c>
+      <c r="AA12" s="144">
+        <f t="shared" si="3"/>
+        <v>0.38197141359573233</v>
+      </c>
+      <c r="AB12" s="84">
+        <f t="shared" si="4"/>
+        <v>0.22745654399829549</v>
+      </c>
+      <c r="AC12" s="84">
+        <f t="shared" si="4"/>
+        <v>0.86436890438307334</v>
+      </c>
+      <c r="AD12" s="84">
+        <f t="shared" si="5"/>
+        <v>0.26314753208369779</v>
+      </c>
+      <c r="AE12" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="130">
+        <v>35.043199999999999</v>
+      </c>
+      <c r="C13" s="36">
+        <v>-3.2730377491297959E-2</v>
+      </c>
+      <c r="D13" s="22">
+        <v>33.042800000000007</v>
+      </c>
+      <c r="E13" s="22">
+        <v>1.8968000000000003</v>
+      </c>
+      <c r="F13" s="36">
+        <v>0.62089966474505043</v>
+      </c>
+      <c r="G13" s="42">
+        <v>0.10207224320241665</v>
+      </c>
+      <c r="I13" s="126" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="156">
+        <f>MIN(G30:G38)</f>
+        <v>0.18703707902634226</v>
+      </c>
+      <c r="K13" s="156">
+        <f>MAX(G30:G38)</f>
+        <v>0.53364981622151375</v>
+      </c>
+      <c r="L13" s="158">
+        <f>_xlfn.PERCENTILE.EXC(G30:G38, 0.1)</f>
+        <v>0.18703707902634226</v>
+      </c>
+      <c r="M13" s="158">
+        <f>_xlfn.PERCENTILE.INC(G30:G38, 0.1)</f>
+        <v>0.19989447176633907</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="P13" s="149">
+        <f>D24-D11</f>
+        <v>2.7140000000000057</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>20.923299999999998</v>
+      </c>
+      <c r="R13" s="144">
+        <f t="shared" si="0"/>
+        <v>0.12971185233686874</v>
+      </c>
+      <c r="S13" s="150">
+        <f>E24-E11</f>
+        <v>0.69369999999999976</v>
+      </c>
+      <c r="T13" s="21">
+        <v>0.84810000000000008</v>
+      </c>
+      <c r="U13" s="144">
+        <f t="shared" si="1"/>
+        <v>0.81794599693432346</v>
+      </c>
+      <c r="V13" s="150">
+        <f>F24-F11</f>
+        <v>0.24539002087865563</v>
+      </c>
+      <c r="W13" s="31">
+        <v>0.27754676667362871</v>
+      </c>
+      <c r="X13" s="144">
+        <f t="shared" si="2"/>
+        <v>0.88413936079901567</v>
+      </c>
+      <c r="Y13" s="149">
+        <f>G24-G11</f>
+        <v>4.5512412826442646E-2</v>
+      </c>
+      <c r="Z13" s="41">
+        <v>4.2238846068331719E-2</v>
+      </c>
+      <c r="AA13" s="144">
+        <f t="shared" si="3"/>
+        <v>1.0775013302402989</v>
+      </c>
+      <c r="AB13" s="84">
+        <f t="shared" si="4"/>
+        <v>0.29090243370509827</v>
+      </c>
+      <c r="AC13" s="84">
+        <f t="shared" si="4"/>
+        <v>0.31978561274196043</v>
+      </c>
+      <c r="AD13" s="84">
+        <f t="shared" si="5"/>
+        <v>0.90967955440769499</v>
+      </c>
+      <c r="AE13" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B14" s="141" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="142"/>
+      <c r="O14" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P14" s="149">
+        <f>D25-D12</f>
+        <v>-2.5859999999999985</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>15.7163</v>
+      </c>
+      <c r="R14" s="144">
+        <f t="shared" si="0"/>
+        <v>-0.16454254500104976</v>
+      </c>
+      <c r="S14" s="150">
+        <f>E25-E12</f>
+        <v>0.2581</v>
+      </c>
+      <c r="T14" s="21">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="U14" s="144">
+        <f t="shared" si="1"/>
+        <v>0.19992254066615028</v>
+      </c>
+      <c r="V14" s="150">
+        <f>F25-F12</f>
+        <v>9.9373120994324493E-2</v>
+      </c>
+      <c r="W14" s="31">
+        <v>0.43786631137597964</v>
+      </c>
+      <c r="X14" s="144">
+        <f t="shared" si="2"/>
+        <v>0.22694854208365087</v>
+      </c>
+      <c r="Y14" s="149">
+        <f>G25-G12</f>
+        <v>1.1007356080440442E-2</v>
+      </c>
+      <c r="Z14" s="41">
+        <v>6.5591352842813269E-2</v>
+      </c>
+      <c r="AA14" s="144">
+        <f t="shared" si="3"/>
+        <v>0.16781718326223696</v>
+      </c>
+      <c r="AB14" s="84">
+        <f t="shared" si="4"/>
+        <v>0.11038047707476493</v>
+      </c>
+      <c r="AC14" s="84">
+        <f t="shared" si="4"/>
+        <v>0.5034576642187929</v>
+      </c>
+      <c r="AD14" s="84">
+        <f t="shared" si="5"/>
+        <v>0.21924480431942681</v>
+      </c>
+      <c r="AE14" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="149">
+        <f>D26-D13</f>
+        <v>-3.3091000000000044</v>
+      </c>
+      <c r="Q15" s="22">
+        <v>33.042800000000007</v>
+      </c>
+      <c r="R15" s="144">
+        <f t="shared" si="0"/>
+        <v>-0.10014587141525548</v>
+      </c>
+      <c r="S15" s="150">
+        <f>E26-E13</f>
+        <v>-0.45510000000000028</v>
+      </c>
+      <c r="T15" s="22">
+        <v>1.8968000000000003</v>
+      </c>
+      <c r="U15" s="144">
+        <f t="shared" si="1"/>
+        <v>-0.23993040911008026</v>
+      </c>
+      <c r="V15" s="145">
+        <f>F26-F13</f>
+        <v>-0.10441429543657543</v>
+      </c>
+      <c r="W15" s="36">
+        <v>0.62089966474505043</v>
+      </c>
+      <c r="X15" s="144">
+        <f t="shared" si="2"/>
+        <v>-0.16816613273490705</v>
+      </c>
+      <c r="Y15" s="146">
+        <f>G26-G13</f>
+        <v>-2.1770204424107042E-2</v>
+      </c>
+      <c r="Z15" s="42">
+        <v>0.10207224320241665</v>
+      </c>
+      <c r="AA15" s="144">
+        <f t="shared" si="3"/>
+        <v>-0.21328231594690392</v>
+      </c>
+      <c r="AB15" s="84">
+        <f t="shared" si="4"/>
+        <v>-0.12618449986068248</v>
+      </c>
+      <c r="AC15" s="84">
+        <f t="shared" si="4"/>
+        <v>0.72297190794746702</v>
+      </c>
+      <c r="AD15" s="84">
+        <f t="shared" si="5"/>
+        <v>-0.17453582701286835</v>
+      </c>
+      <c r="AE15" s="36">
+        <v>-3.2730377491297959E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="127">
+        <v>27.528300000000002</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="D16" s="16">
+        <v>25.384799999999998</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.0256249999999998</v>
+      </c>
+      <c r="F16" s="30">
+        <v>0.79229075529080606</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.12877571176566063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="127">
+        <v>14.5052</v>
+      </c>
+      <c r="C17" s="30">
+        <v>0.22851828638601948</v>
+      </c>
+      <c r="D17" s="16">
+        <v>13.639100000000001</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0.77839999999999998</v>
+      </c>
+      <c r="F17" s="30">
+        <v>0.27109849572500783</v>
+      </c>
+      <c r="G17" s="30">
+        <v>4.3028917050452489E-2</v>
+      </c>
+      <c r="O17" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="154"/>
+      <c r="T17" s="154"/>
+      <c r="U17" s="154"/>
+      <c r="V17" s="154"/>
+      <c r="W17" s="154"/>
+      <c r="X17" s="154"/>
+      <c r="Y17" s="154"/>
+      <c r="Z17" s="154"/>
+      <c r="AA17" s="154"/>
+      <c r="AB17" s="154"/>
+      <c r="AC17" s="154"/>
+      <c r="AD17" s="154"/>
+      <c r="AE17" s="154"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="128">
+        <v>71.694199999999995</v>
+      </c>
+      <c r="C18" s="35">
+        <v>-0.3027637470411495</v>
+      </c>
+      <c r="D18" s="17">
+        <v>68.053600000000003</v>
+      </c>
+      <c r="E18" s="17">
+        <v>3.5653000000000001</v>
+      </c>
+      <c r="F18" s="31">
+        <v>1.1804382500123338</v>
+      </c>
+      <c r="G18" s="31">
+        <v>0.19838337462369771</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="118" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="118"/>
+      <c r="R18" s="118"/>
+      <c r="S18" s="118" t="s">
+        <v>35</v>
+      </c>
+      <c r="T18" s="118"/>
+      <c r="U18" s="118"/>
+      <c r="V18" s="118" t="s">
+        <v>36</v>
+      </c>
+      <c r="W18" s="118"/>
+      <c r="X18" s="118"/>
+      <c r="Y18" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z18" s="118"/>
+      <c r="AA18" s="118"/>
+      <c r="AB18" s="118" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC18" s="118"/>
+      <c r="AD18" s="118"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="129">
+        <v>47.312199999999997</v>
+      </c>
+      <c r="C19" s="32">
+        <v>-9.3318329100743891E-2</v>
+      </c>
+      <c r="D19" s="18">
+        <v>43.554200000000002</v>
+      </c>
+      <c r="E19" s="18">
+        <v>3.5529000000000002</v>
+      </c>
+      <c r="F19" s="32">
+        <v>1.3326982561237131</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.23269804300815269</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="P19" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="S19" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="V19" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y19" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z19" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA19" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC19" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE19" s="46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="13">
+        <v>31.810600000000001</v>
+      </c>
+      <c r="C20" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="D20" s="19">
+        <v>29.5212</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2.1690999999999998</v>
+      </c>
+      <c r="F20" s="33">
+        <v>0.87177868746086373</v>
+      </c>
+      <c r="G20" s="33">
+        <v>0.14591900352662099</v>
+      </c>
+      <c r="O20" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="P20" s="151">
+        <f>D41-D30</f>
+        <v>0.13540000000000063</v>
+      </c>
+      <c r="Q20" s="37">
+        <v>5.7880000000000003</v>
+      </c>
+      <c r="R20" s="147">
+        <f>P20/Q20</f>
+        <v>2.3393227366966245E-2</v>
+      </c>
+      <c r="S20" s="147">
+        <f>E41-E30</f>
+        <v>1.1347000000000005</v>
+      </c>
+      <c r="T20" s="37">
+        <v>5.3543000000000003</v>
+      </c>
+      <c r="U20" s="147">
+        <f>S20/T20</f>
+        <v>0.21192312720617082</v>
+      </c>
+      <c r="V20" s="151">
+        <f>F41-F30</f>
+        <v>0.25153775546419443</v>
+      </c>
+      <c r="W20" s="30">
+        <v>1.3886876520681266</v>
+      </c>
+      <c r="X20" s="147">
+        <f>V20/W20</f>
+        <v>0.18113342844921793</v>
+      </c>
+      <c r="Y20" s="147">
+        <v>3.6685446490482859E-2</v>
+      </c>
+      <c r="Z20" s="30">
+        <v>0.20310881995133825</v>
+      </c>
+      <c r="AA20" s="147">
+        <f>Y20/Z20</f>
+        <v>0.18061966240201743</v>
+      </c>
+      <c r="AB20" s="84">
+        <f>SUM(V20,Y20)</f>
+        <v>0.28822320195467732</v>
+      </c>
+      <c r="AC20" s="84">
+        <f>SUM(W20,Z20)</f>
+        <v>1.5917964720194648</v>
+      </c>
+      <c r="AD20" s="84">
+        <f>AB20/AC20</f>
+        <v>0.18106787332492144</v>
+      </c>
+      <c r="AE20" s="132">
+        <v>-0.10058679002726996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="13">
+        <v>24.152100000000001</v>
+      </c>
+      <c r="C21" s="33">
+        <v>5.0766638815107075E-2</v>
+      </c>
+      <c r="D21" s="19">
+        <v>22.049499999999998</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2.0576000000000003</v>
+      </c>
+      <c r="F21" s="33">
+        <v>0.68333814948260607</v>
+      </c>
+      <c r="G21" s="33">
+        <v>0.1089397532643475</v>
+      </c>
+      <c r="O21" s="128" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="151">
+        <f>D43-D32</f>
+        <v>4.0187999999999988</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>6.0135000000000005</v>
+      </c>
+      <c r="R21" s="147">
+        <f>P21/Q21</f>
+        <v>0.66829633325018678</v>
+      </c>
+      <c r="S21" s="147">
+        <f>E43-E32</f>
+        <v>0.8338000000000001</v>
+      </c>
+      <c r="T21" s="44">
+        <v>4.1173999999999999</v>
+      </c>
+      <c r="U21" s="147">
+        <f>S21/T21</f>
+        <v>0.20250643610045177</v>
+      </c>
+      <c r="V21" s="151">
+        <f>F43-F32</f>
+        <v>0.45660631134760643</v>
+      </c>
+      <c r="W21" s="35">
+        <v>1.2269792930976999</v>
+      </c>
+      <c r="X21" s="147">
+        <f t="shared" ref="X21:X27" si="6">V21/W21</f>
+        <v>0.37213856331253387</v>
+      </c>
+      <c r="Y21" s="151">
+        <v>4.7747439937281255E-2</v>
+      </c>
+      <c r="Z21" s="35">
+        <v>0.18703707902634226</v>
+      </c>
+      <c r="AA21" s="147">
+        <f t="shared" ref="AA21:AA27" si="7">Y21/Z21</f>
+        <v>0.25528328492852753</v>
+      </c>
+      <c r="AB21" s="84">
+        <f t="shared" ref="AB21:AB30" si="8">SUM(V21,Y21)</f>
+        <v>0.50435375128488769</v>
+      </c>
+      <c r="AC21" s="84">
+        <f t="shared" ref="AC21:AC30" si="9">SUM(W21,Z21)</f>
+        <v>1.4140163721240422</v>
+      </c>
+      <c r="AD21" s="84">
+        <f t="shared" ref="AD21:AD27" si="10">AB21/AC21</f>
+        <v>0.35668169140593525</v>
+      </c>
+      <c r="AE21" s="134">
+        <v>-0.32001589401318453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14">
+        <v>62.840499999999999</v>
+      </c>
+      <c r="C22" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="D22" s="20">
+        <v>59.076099999999997</v>
+      </c>
+      <c r="E22" s="20">
+        <v>3.7168999999999999</v>
+      </c>
+      <c r="F22" s="34">
+        <v>1.4355807245882688</v>
+      </c>
+      <c r="G22" s="34">
+        <v>0.25350487407165828</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22" s="151">
+        <f t="shared" ref="P22:P28" si="11">D44-D33</f>
+        <v>-3.9163000000000014</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>11.956300000000001</v>
+      </c>
+      <c r="R22" s="147">
+        <f t="shared" ref="R22:R27" si="12">P22/Q22</f>
+        <v>-0.32755116549434199</v>
+      </c>
+      <c r="S22" s="147">
+        <f t="shared" ref="S22:S27" si="13">E44-E33</f>
+        <v>-0.84030000000000094</v>
+      </c>
+      <c r="T22" s="13">
+        <v>7.5605000000000011</v>
+      </c>
+      <c r="U22" s="147">
+        <f>S22/T22</f>
+        <v>-0.1111434428939886</v>
+      </c>
+      <c r="V22" s="151">
+        <f t="shared" ref="V22:V26" si="14">F44-F33</f>
+        <v>-0.71127104721345447</v>
+      </c>
+      <c r="W22" s="33">
+        <v>3.2692590636254515</v>
+      </c>
+      <c r="X22" s="147">
+        <f t="shared" si="6"/>
+        <v>-0.21756337854262581</v>
+      </c>
+      <c r="Y22" s="151">
+        <v>-9.8289875653147785E-2</v>
+      </c>
+      <c r="Z22" s="33">
+        <v>0.45884337735094055</v>
+      </c>
+      <c r="AA22" s="147">
+        <f t="shared" si="7"/>
+        <v>-0.2142122573951242</v>
+      </c>
+      <c r="AB22" s="84">
+        <f>SUM(V22,Y22)</f>
+        <v>-0.80956092286660231</v>
+      </c>
+      <c r="AC22" s="84">
+        <f>SUM(W22,Z22)</f>
+        <v>3.7281024409763921</v>
+      </c>
+      <c r="AD22" s="84">
+        <f t="shared" si="10"/>
+        <v>-0.2171509328629333</v>
+      </c>
+      <c r="AE22" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14">
+        <v>29.180700000000002</v>
+      </c>
+      <c r="C23" s="34">
+        <v>-3.8520880931257544E-2</v>
+      </c>
+      <c r="D23" s="20">
+        <v>26.549900000000001</v>
+      </c>
+      <c r="E23" s="20">
+        <v>2.5842999999999998</v>
+      </c>
+      <c r="F23" s="34">
+        <v>0.92163992573743703</v>
+      </c>
+      <c r="G23" s="34">
+        <v>0.17018552264393186</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" s="151">
+        <f t="shared" si="11"/>
+        <v>-6.4181000000000008</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>11.644400000000001</v>
+      </c>
+      <c r="R23" s="147">
+        <f t="shared" si="12"/>
+        <v>-0.55117481364432686</v>
+      </c>
+      <c r="S23" s="147">
+        <f t="shared" si="13"/>
+        <v>0.91669999999999874</v>
+      </c>
+      <c r="T23" s="13">
+        <v>5.0812000000000008</v>
+      </c>
+      <c r="U23" s="147">
+        <f t="shared" ref="U23:U27" si="15">S23/T23</f>
+        <v>0.18041013933716418</v>
+      </c>
+      <c r="V23" s="151">
+        <f t="shared" si="14"/>
+        <v>0.97315424931338623</v>
+      </c>
+      <c r="W23" s="33">
+        <v>1.5718154373927942</v>
+      </c>
+      <c r="X23" s="147">
+        <f t="shared" si="6"/>
+        <v>0.61912755541298103</v>
+      </c>
+      <c r="Y23" s="151">
+        <v>-6.4526904685237904E-2</v>
+      </c>
+      <c r="Z23" s="33">
+        <v>0.53364981622151375</v>
+      </c>
+      <c r="AA23" s="147">
+        <f>Y23/Z23</f>
+        <v>-0.12091619396052281</v>
+      </c>
+      <c r="AB23" s="84">
+        <f t="shared" ref="AB23:AB27" si="16">SUM(V23,Y23)</f>
+        <v>0.90862734462814831</v>
+      </c>
+      <c r="AC23" s="84">
+        <f t="shared" ref="AC23:AC30" si="17">SUM(W23,Z23)</f>
+        <v>2.1054652536143079</v>
+      </c>
+      <c r="AD23" s="84">
+        <f t="shared" si="10"/>
+        <v>0.43155656122482666</v>
+      </c>
+      <c r="AE23" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="128">
+        <v>25.196200000000001</v>
+      </c>
+      <c r="C24" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="D24" s="21">
+        <v>23.637300000000003</v>
+      </c>
+      <c r="E24" s="21">
+        <v>1.5417999999999998</v>
+      </c>
+      <c r="F24" s="35">
+        <v>0.52293678755228434</v>
+      </c>
+      <c r="G24" s="35">
+        <v>8.7751258894774364E-2</v>
+      </c>
+      <c r="O24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="P24" s="151">
+        <f t="shared" si="11"/>
+        <v>-7.3023000000000007</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>10.7902</v>
+      </c>
+      <c r="R24" s="147">
+        <f t="shared" si="12"/>
+        <v>-0.6767529795555226</v>
+      </c>
+      <c r="S24" s="147">
+        <f t="shared" si="13"/>
+        <v>1.3264000000000005</v>
+      </c>
+      <c r="T24" s="14">
+        <v>3.9233000000000002</v>
+      </c>
+      <c r="U24" s="147">
+        <f t="shared" si="15"/>
+        <v>0.33808273647184778</v>
+      </c>
+      <c r="V24" s="151">
+        <f t="shared" si="14"/>
+        <v>0.2173185367476036</v>
+      </c>
+      <c r="W24" s="34">
+        <v>1.5476110139131891</v>
+      </c>
+      <c r="X24" s="147">
+        <f t="shared" si="6"/>
+        <v>0.14042193729166219</v>
+      </c>
+      <c r="Y24" s="151">
+        <v>4.5248200775063058E-2</v>
+      </c>
+      <c r="Z24" s="34">
+        <v>0.23523687411480473</v>
+      </c>
+      <c r="AA24" s="147">
+        <f t="shared" si="7"/>
+        <v>0.19235164956740658</v>
+      </c>
+      <c r="AB24" s="84">
+        <f t="shared" si="16"/>
+        <v>0.26256673752266668</v>
+      </c>
+      <c r="AC24" s="84">
+        <f>SUM(W24,Z24)</f>
+        <v>1.7828478880279939</v>
+      </c>
+      <c r="AD24" s="84">
+        <f t="shared" si="10"/>
+        <v>0.14727377432804514</v>
+      </c>
+      <c r="AE24" s="34">
+        <v>-4.5718099286610456E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="128">
+        <v>14.8794</v>
+      </c>
+      <c r="C25" s="35">
+        <v>-6.340384840026668E-2</v>
+      </c>
+      <c r="D25" s="21">
+        <v>13.130300000000002</v>
+      </c>
+      <c r="E25" s="21">
+        <v>1.5490999999999999</v>
+      </c>
+      <c r="F25" s="35">
+        <v>0.53723943237030414</v>
+      </c>
+      <c r="G25" s="35">
+        <v>7.6598708923253711E-2</v>
+      </c>
+      <c r="O25" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="P25" s="151">
+        <f t="shared" si="11"/>
+        <v>-1.9533999999999994</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>7.6037999999999997</v>
+      </c>
+      <c r="R25" s="147">
+        <f t="shared" si="12"/>
+        <v>-0.2568978668560456</v>
+      </c>
+      <c r="S25" s="147">
+        <f t="shared" si="13"/>
+        <v>2.104000000000001</v>
+      </c>
+      <c r="T25" s="45">
+        <v>5.0610999999999997</v>
+      </c>
+      <c r="U25" s="147">
+        <f t="shared" si="15"/>
+        <v>0.41571990278793169</v>
+      </c>
+      <c r="V25" s="151">
+        <f t="shared" si="14"/>
+        <v>-8.3193172166483365E-2</v>
+      </c>
+      <c r="W25" s="31">
+        <v>1.9493750659736113</v>
+      </c>
+      <c r="X25" s="147">
+        <f t="shared" si="6"/>
+        <v>-4.2676842244790236E-2</v>
+      </c>
+      <c r="Y25" s="151">
+        <v>1.9282470866228862E-2</v>
+      </c>
+      <c r="Z25" s="31">
+        <v>0.27809010795681738</v>
+      </c>
+      <c r="AA25" s="147">
+        <f t="shared" si="7"/>
+        <v>6.9338931211544927E-2</v>
+      </c>
+      <c r="AB25" s="84">
+        <f t="shared" si="16"/>
+        <v>-6.3910701300254502E-2</v>
+      </c>
+      <c r="AC25" s="84">
+        <f t="shared" ref="AC25:AC27" si="18">SUM(W25,Z25)</f>
+        <v>2.2274651739304288</v>
+      </c>
+      <c r="AD25" s="84">
+        <f t="shared" si="10"/>
+        <v>-2.8692121451884323E-2</v>
+      </c>
+      <c r="AE25" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="130">
+        <v>31.258299999999998</v>
+      </c>
+      <c r="C26" s="36">
+        <v>-3.2730377491297959E-2</v>
+      </c>
+      <c r="D26" s="22">
+        <v>29.733700000000002</v>
+      </c>
+      <c r="E26" s="22">
+        <v>1.4417</v>
+      </c>
+      <c r="F26" s="36">
+        <v>0.516485369308475</v>
+      </c>
+      <c r="G26" s="36">
+        <v>8.0302038778309603E-2</v>
+      </c>
+      <c r="O26" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="P26" s="151">
+        <f t="shared" si="11"/>
+        <v>-2.6469</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>5.8483000000000001</v>
+      </c>
+      <c r="R26" s="147">
+        <f t="shared" si="12"/>
+        <v>-0.45259306123146897</v>
+      </c>
+      <c r="S26" s="147">
+        <f t="shared" si="13"/>
+        <v>-4.4399999999998663E-2</v>
+      </c>
+      <c r="T26" s="45">
+        <v>6.3918999999999997</v>
+      </c>
+      <c r="U26" s="147">
+        <f t="shared" si="15"/>
+        <v>-6.9462914000529832E-3</v>
+      </c>
+      <c r="V26" s="151">
+        <f t="shared" si="14"/>
+        <v>-9.2877062322513915E-2</v>
+      </c>
+      <c r="W26" s="31">
+        <v>2.5746834467120188</v>
+      </c>
+      <c r="X26" s="147">
+        <f t="shared" si="6"/>
+        <v>-3.6073196664670334E-2</v>
+      </c>
+      <c r="Y26" s="151">
+        <v>0.10979374564456568</v>
+      </c>
+      <c r="Z26" s="31">
+        <v>0.3598969808875932</v>
+      </c>
+      <c r="AA26" s="147">
+        <f t="shared" si="7"/>
+        <v>0.30506992688237528</v>
+      </c>
+      <c r="AB26" s="84">
+        <f t="shared" si="16"/>
+        <v>1.6916683322051762E-2</v>
+      </c>
+      <c r="AC26" s="84">
+        <f t="shared" si="18"/>
+        <v>2.9345804275996121</v>
+      </c>
+      <c r="AD26" s="84">
+        <f t="shared" si="10"/>
+        <v>5.7646003370536479E-3</v>
+      </c>
+      <c r="AE26" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="O27" s="130" t="s">
+        <v>50</v>
+      </c>
+      <c r="P27" s="151">
+        <f t="shared" si="11"/>
+        <v>-1.7222999999999997</v>
+      </c>
+      <c r="Q27" s="42">
+        <v>7.8046999999999995</v>
+      </c>
+      <c r="R27" s="147">
+        <f t="shared" si="12"/>
+        <v>-0.22067472164208743</v>
+      </c>
+      <c r="S27" s="147">
+        <f t="shared" si="13"/>
+        <v>2.0724000000000009</v>
+      </c>
+      <c r="T27" s="130">
+        <v>5.5801999999999996</v>
+      </c>
+      <c r="U27" s="147">
+        <f t="shared" si="15"/>
+        <v>0.37138453818859557</v>
+      </c>
+      <c r="V27" s="151">
+        <f>F49-F38</f>
+        <v>1.6895305311289952</v>
+      </c>
+      <c r="W27" s="36">
+        <v>1.6979084533737685</v>
+      </c>
+      <c r="X27" s="147">
+        <f t="shared" si="6"/>
+        <v>0.99506573971751766</v>
+      </c>
+      <c r="Y27" s="147">
+        <v>0.20807480090515129</v>
+      </c>
+      <c r="Z27" s="36">
+        <v>0.28163472327520855</v>
+      </c>
+      <c r="AA27" s="147">
+        <f t="shared" si="7"/>
+        <v>0.73881089123312471</v>
+      </c>
+      <c r="AB27" s="84">
+        <f t="shared" si="16"/>
+        <v>1.8976053320341464</v>
+      </c>
+      <c r="AC27" s="84">
+        <f t="shared" si="18"/>
+        <v>1.9795431766489771</v>
+      </c>
+      <c r="AD27" s="84">
+        <f t="shared" si="10"/>
+        <v>0.95860770021013775</v>
+      </c>
+      <c r="AE27" s="137">
+        <v>-4.9570413884485784E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="124" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="124"/>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B29" s="131" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB29" s="84"/>
+      <c r="AC29" s="84"/>
+      <c r="AD29" s="84"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="127">
+        <v>11.398899999999999</v>
+      </c>
+      <c r="C30" s="132">
+        <v>-0.10058679002726996</v>
+      </c>
+      <c r="D30" s="37">
+        <v>5.7880000000000003</v>
+      </c>
+      <c r="E30" s="37">
+        <v>5.3543000000000003</v>
+      </c>
+      <c r="F30" s="35">
+        <v>1.3886876520681266</v>
+      </c>
+      <c r="G30" s="35">
+        <v>0.20310881995133825</v>
+      </c>
+      <c r="AB30" s="84"/>
+      <c r="AC30" s="84"/>
+      <c r="AD30" s="84"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="127">
+        <v>8.5109999999999992</v>
+      </c>
+      <c r="C31" s="132">
+        <v>-0.10058679002726996</v>
+      </c>
+      <c r="D31" s="37">
+        <v>3.0990000000000002</v>
+      </c>
+      <c r="E31" s="127">
+        <v>5.3919000000000006</v>
+      </c>
+      <c r="F31" s="35">
+        <v>1.7753653918970083</v>
+      </c>
+      <c r="G31" s="35">
+        <v>0.24768143380032806</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" s="133">
+        <v>10.304</v>
+      </c>
+      <c r="C32" s="134">
+        <v>-0.32001589401318453</v>
+      </c>
+      <c r="D32" s="43">
+        <v>6.0135000000000005</v>
+      </c>
+      <c r="E32" s="44">
+        <v>4.1173999999999999</v>
+      </c>
+      <c r="F32" s="35">
+        <v>1.2269792930976999</v>
+      </c>
+      <c r="G32" s="35">
+        <v>0.18703707902634226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="10">
+        <v>20.031400000000001</v>
+      </c>
+      <c r="C33" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+      <c r="D33" s="11">
+        <v>11.956300000000001</v>
+      </c>
+      <c r="E33" s="13">
+        <v>7.5605000000000011</v>
+      </c>
+      <c r="F33" s="35">
+        <v>3.2692590636254515</v>
+      </c>
+      <c r="G33" s="35">
+        <v>0.45884337735094055</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="10">
+        <v>16.980599999999999</v>
+      </c>
+      <c r="C34" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+      <c r="D34" s="11">
+        <v>11.644400000000001</v>
+      </c>
+      <c r="E34" s="13">
+        <v>5.0812000000000008</v>
+      </c>
+      <c r="F34" s="136">
+        <v>1.5718154373927942</v>
+      </c>
+      <c r="G34" s="136">
+        <v>0.53364981622151375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="10">
+        <v>15.056900000000001</v>
+      </c>
+      <c r="C35" s="34">
+        <v>-4.5718099286610456E-2</v>
+      </c>
+      <c r="D35" s="40">
+        <v>10.7902</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3.9233000000000002</v>
+      </c>
+      <c r="F35" s="136">
+        <v>1.5476110139131891</v>
+      </c>
+      <c r="G35" s="136">
+        <v>0.23523687411480473</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="10">
+        <v>12.7844</v>
+      </c>
+      <c r="C36" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+      <c r="D36" s="43">
+        <v>7.6037999999999997</v>
+      </c>
+      <c r="E36" s="45">
+        <v>5.0610999999999997</v>
+      </c>
+      <c r="F36" s="136">
+        <v>1.9493750659736113</v>
+      </c>
+      <c r="G36" s="136">
+        <v>0.27809010795681738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <v>12.443300000000001</v>
+      </c>
+      <c r="C37" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+      <c r="D37" s="43">
+        <v>5.8483000000000001</v>
+      </c>
+      <c r="E37" s="45">
+        <v>6.3918999999999997</v>
+      </c>
+      <c r="F37" s="136">
+        <v>2.5746834467120188</v>
+      </c>
+      <c r="G37" s="136">
+        <v>0.3598969808875932</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="10">
+        <v>13.622999999999999</v>
+      </c>
+      <c r="C38" s="137">
+        <v>-4.9570413884485784E-2</v>
+      </c>
+      <c r="D38" s="42">
+        <v>7.8046999999999995</v>
+      </c>
+      <c r="E38" s="130">
+        <v>5.5801999999999996</v>
+      </c>
+      <c r="F38" s="136">
+        <v>1.6979084533737685</v>
+      </c>
+      <c r="G38" s="136">
+        <v>0.28163472327520855</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="141" t="s">
+        <v>62</v>
+      </c>
+      <c r="C39" s="142"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="125" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="127">
+        <v>12.6114</v>
+      </c>
+      <c r="C41" s="132">
+        <v>-0.10058679002726996</v>
+      </c>
+      <c r="D41" s="138">
+        <v>5.9234000000000009</v>
+      </c>
+      <c r="E41" s="139">
+        <v>6.4890000000000008</v>
+      </c>
+      <c r="F41" s="35">
+        <v>1.640225407532321</v>
+      </c>
+      <c r="G41" s="35">
+        <v>0.23979426644182111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="127">
+        <v>16.5716</v>
+      </c>
+      <c r="C42" s="132">
+        <v>-0.10058679002726996</v>
+      </c>
+      <c r="D42" s="37">
+        <v>8.3877800000000011</v>
+      </c>
+      <c r="E42" s="64">
+        <v>7.9660000000000002</v>
+      </c>
+      <c r="F42" s="35">
+        <v>2.7887087546877027</v>
+      </c>
+      <c r="G42" s="35">
+        <v>0.3607486615802406</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="133">
+        <v>15.135</v>
+      </c>
+      <c r="C43" s="134">
+        <v>-0.32001589401318453</v>
+      </c>
+      <c r="D43" s="43">
+        <v>10.032299999999999</v>
+      </c>
+      <c r="E43" s="44">
+        <v>4.9512</v>
+      </c>
+      <c r="F43" s="35">
+        <v>1.6835856044453064</v>
+      </c>
+      <c r="G43" s="35">
+        <v>0.23478451896362351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="10">
+        <v>14.8985</v>
+      </c>
+      <c r="C44" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+      <c r="D44" s="11">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="E44" s="66">
+        <v>6.7202000000000002</v>
+      </c>
+      <c r="F44" s="136">
+        <v>2.557988016411997</v>
+      </c>
+      <c r="G44" s="136">
+        <v>0.36055350169779277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="10">
+        <v>11.488099999999999</v>
+      </c>
+      <c r="C45" s="135">
+        <v>0.11743877238132332</v>
+      </c>
+      <c r="D45" s="11">
+        <v>5.2263000000000002</v>
+      </c>
+      <c r="E45" s="13">
+        <v>5.9978999999999996</v>
+      </c>
+      <c r="F45" s="136">
+        <v>2.5449696867061804</v>
+      </c>
+      <c r="G45" s="140">
+        <v>0.46912291153627583</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="10">
+        <v>8.8271999999999995</v>
+      </c>
+      <c r="C46" s="34">
+        <v>-4.5718099286610456E-2</v>
+      </c>
+      <c r="D46" s="40">
+        <v>3.4878999999999998</v>
+      </c>
+      <c r="E46" s="67">
+        <v>5.2497000000000007</v>
+      </c>
+      <c r="F46" s="136">
+        <v>1.7649295506607927</v>
+      </c>
+      <c r="G46" s="136">
+        <v>0.28048507488986779</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="10">
+        <v>13.1127</v>
+      </c>
+      <c r="C47" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+      <c r="D47" s="43">
+        <v>5.6504000000000003</v>
+      </c>
+      <c r="E47" s="45">
+        <v>7.1651000000000007</v>
+      </c>
+      <c r="F47" s="136">
+        <v>1.866181893807128</v>
+      </c>
+      <c r="G47" s="136">
+        <v>0.29737257882304624</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" s="10">
+        <v>9.6720000000000006</v>
+      </c>
+      <c r="C48" s="134">
+        <v>-0.11251612892623995</v>
+      </c>
+      <c r="D48" s="43">
+        <v>3.2014</v>
+      </c>
+      <c r="E48" s="68">
+        <v>6.347500000000001</v>
+      </c>
+      <c r="F48" s="136">
+        <v>2.4818063843895048</v>
+      </c>
+      <c r="G48" s="136">
+        <v>0.46969072653215888</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="10">
+        <v>13.8108</v>
+      </c>
+      <c r="C49" s="137">
+        <v>-4.9570413884485784E-2</v>
+      </c>
+      <c r="D49" s="42">
+        <v>6.0823999999999998</v>
+      </c>
+      <c r="E49" s="69">
+        <v>7.6526000000000005</v>
+      </c>
+      <c r="F49" s="136">
+        <v>3.3874389845027637</v>
+      </c>
+      <c r="G49" s="136">
+        <v>0.48970952418035985</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="O17:AE17"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
+++ b/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\baskets_new_sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EDAF278-F19B-4BF0-A90C-A69A6FF45841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E439E63-9065-425D-B505-ABC8629CA11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="78">
   <si>
     <t>T1A</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>NEW SIZE RANGE</t>
+  </si>
+  <si>
+    <t>In spring, I should get rid of T7A (and T7D if we consider the inclusive cutoff)</t>
+  </si>
+  <si>
+    <t>In summer, get rid of T2A if only fines, T6 if fine sand is included</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1157,57 +1163,6 @@
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1241,9 +1196,6 @@
     <xf numFmtId="165" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1261,9 +1213,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1358,6 +1307,75 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4287,10 +4305,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AE$18:$AE$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AE$18:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.10058679002726996</c:v>
                 </c:pt>
@@ -4310,9 +4328,6 @@
                   <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.32001589401318453</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4320,10 +4335,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$R$18:$R$25</c:f>
+              <c:f>'HF - minimum cutoff'!$R$18:$R$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.3393227366966245E-2</c:v>
                 </c:pt>
@@ -4343,9 +4358,6 @@
                   <c:v>-0.22067472164208743</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66829633325018678</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-0.6767529795555226</c:v>
                 </c:pt>
               </c:numCache>
@@ -4451,10 +4463,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AE$18:$AE$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AE$18:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.10058679002726996</c:v>
                 </c:pt>
@@ -4474,9 +4486,6 @@
                   <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.32001589401318453</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4484,10 +4493,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$U$18:$U$25</c:f>
+              <c:f>'HF - minimum cutoff'!$U$18:$U$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.21192312720617082</c:v>
                 </c:pt>
@@ -4507,9 +4516,6 @@
                   <c:v>0.37138453818859557</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.20250643610045177</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.33808273647184778</c:v>
                 </c:pt>
               </c:numCache>
@@ -4615,10 +4621,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AE$18:$AE$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AE$18:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.10058679002726996</c:v>
                 </c:pt>
@@ -4638,9 +4644,6 @@
                   <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.32001589401318453</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4648,10 +4651,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$X$18:$X$25</c:f>
+              <c:f>'HF - minimum cutoff'!$X$18:$X$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.18113342844921793</c:v>
                 </c:pt>
@@ -4671,9 +4674,6 @@
                   <c:v>0.99506573971751766</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.37213856331253387</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.14042193729166219</c:v>
                 </c:pt>
               </c:numCache>
@@ -4779,10 +4779,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AE$18:$AE$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AE$18:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.10058679002726996</c:v>
                 </c:pt>
@@ -4802,9 +4802,6 @@
                   <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.32001589401318453</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4812,10 +4809,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AA$18:$AA$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AA$18:$AA$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.18061966240201743</c:v>
                 </c:pt>
@@ -4835,9 +4832,6 @@
                   <c:v>0.73881089123312471</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25528328492852753</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.19235164956740658</c:v>
                 </c:pt>
               </c:numCache>
@@ -4943,10 +4937,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AE$18:$AE$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AE$18:$AE$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>-0.10058679002726996</c:v>
                 </c:pt>
@@ -4966,9 +4960,6 @@
                   <c:v>-4.9570413884485784E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.32001589401318453</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>-4.5718099286610456E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -4976,10 +4967,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'HF - minimum cutoff'!$AD$18:$AD$25</c:f>
+              <c:f>'HF - minimum cutoff'!$AD$18:$AD$24</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0.18106787332492144</c:v>
                 </c:pt>
@@ -4999,9 +4990,6 @@
                   <c:v>0.95860770021013775</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.35668169140593525</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>0.14727377432804514</c:v>
                 </c:pt>
               </c:numCache>
@@ -5011,6 +4999,2290 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-A1CE-48B1-9D0B-9AD037A12D1C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="924399151"/>
+        <c:axId val="924400111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="924399151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924400111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="924400111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924399151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Spring</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> - New Sizes - Cutoff</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$P$47:$R$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand (0.2-2 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10805972794748953"/>
+                  <c:y val="-0.42704256545146085"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$49:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$R$49:$R$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.54761865302834944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.35382428580848896</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55420248804845795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.1285813184656947E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.37168469746271005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8486491162307832E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8507586016939249E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.24124744912287269</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15349628580526503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E222-4BCF-AE5F-61271C75B204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$S$47:$U$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand (0.02-0.2 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.5289919927445438E-2"/>
+                  <c:y val="-0.41480023493416718"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$49:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$U$49:$U$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.15199056513562606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.59522037542379891</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43431863757091044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.849606455215144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.48879148227501096</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.31794293710642935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.7686022142721029E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24407114624505924</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2713837886251804E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E222-4BCF-AE5F-61271C75B204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$V$47:$X$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silt (0.002-0.02 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.11103730980402822"/>
+                  <c:y val="-0.3625882161122595"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$49:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$X$49:$X$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.18356793178334996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.63731643976472008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45151086317595629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86743083084185191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53562889771750644</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.37966208921671957</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17518237542247603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33148039365666426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.15743522935877818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E222-4BCF-AE5F-61271C75B204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$Y$47:$AA$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clay (&lt;0.002 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.0819364879445451E-2"/>
+                  <c:y val="-0.36963531473087874"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$49:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AA$49:$AA$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.19519361027032103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.66804316680566478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49854710443643002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9246065038279212</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.5464768427525909</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.50628641399623708</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.21932285347228794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38197141359573233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.21328231594690392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E222-4BCF-AE5F-61271C75B204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$AB$47:$AD$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silt and Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10805972794748953"/>
+                  <c:y val="-0.30136019718659546"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$49:$AE$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.22851828638601948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3027637470411495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.3318329100743891E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0766638815107075E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.8520880931257544E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-3.2730377491297959E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AD$49:$AD$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-0.1843682586593792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.63937237835226113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.45474129497387833</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.87142274871012992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.53642409402062119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.38969682721282894</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.17876835834509039</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.33517221016833809</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.16103190240979806</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E222-4BCF-AE5F-61271C75B204}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="924399151"/>
+        <c:axId val="924400111"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="924399151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924400111"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="924400111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="924399151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="8"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="9"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Summer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>- Original Sizes - Cutoff</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.23225496075889776"/>
+          <c:y val="3.9217454299313788E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$P$3:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Coarse Sand (0.2-2 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.1827974779423362E-3"/>
+                  <c:y val="-0.34528899558232362"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$62:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5718099286610456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$R$62:$R$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.37669547662608038</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.42896020135283941</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.58701748857728064</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.65417959627627242</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.60021718895439036</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.32271584241408202</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.87519619500594525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7860-454A-BB95-4C158529FEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$S$3:$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fine Sand (0.02-0.2 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.16025639368503233"/>
+                  <c:y val="-0.19874047123940125"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$62:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5718099286610456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$U$62:$U$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.3917215161656415E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1616686267734161E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4931451249931683E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24630609186770611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.10568183431112016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.7919251220396103E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6906365428759531E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7860-454A-BB95-4C158529FEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$V$3:$X$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silt (0.002-0.02 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.046591887329478E-2"/>
+                  <c:y val="-0.12862614772813596"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$62:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5718099286610456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$X$62:$X$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14194609149272011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22072858590650893</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15001468326189096</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14847367739663409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.2391005102194612E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.68871619411195129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18746426326828355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-7860-454A-BB95-4C158529FEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$Y$3:$AA$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Clay (&lt;0.002 mm)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14856848151757762"/>
+                  <c:y val="-0.15601320917972525"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="20000"/>
+                    <a:lumOff val="80000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$62:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5718099286610456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AA$62:$AA$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.18061966240201743</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.2142122573951242</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.12091619396052283</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9338931211544927E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30506992688237528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73881089123312471</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19235164956740658</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-7860-454A-BB95-4C158529FEA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'HF - minimum cutoff'!$AB$3:$AD$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Silt and Clay</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3749040268647225E-2"/>
+                  <c:y val="-5.7453261749641944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="40000"/>
+                    <a:lumOff val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AE$62:$AE$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.10058679002726996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11743877238132332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.11251612892623995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.9570413884485784E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.5718099286610456E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'HF - minimum cutoff'!$AD$62:$AD$68</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.14391157058720855</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.22033121094249883</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12424931808599723</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.143660840977655</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10538917133686251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69196526902926669</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18777234016577751</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-7860-454A-BB95-4C158529FEA1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -13189,6 +15461,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -15046,6 +17398,1038 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -20140,16 +23524,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>28016</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>124385</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>767044</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>124239</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>722221</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12180</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20176,16 +23560,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>814668</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>769845</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>11766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>424143</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123679</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>356908</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>11620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -20207,6 +23591,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>818028</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>593351</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167943</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DA11CD1-2287-405E-B250-DCC93AAF9E50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>786092</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>167942</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5ED3D44-3F27-41B8-8C09-5A21B10AFA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20495,10 +23955,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="191" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="141"/>
+      <c r="B2" s="191"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -20798,10 +24258,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="141" t="s">
+      <c r="A17" s="191" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="141"/>
+      <c r="B17" s="191"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -21078,10 +24538,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="141" t="s">
+      <c r="A31" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="141"/>
+      <c r="B31" s="191"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -21358,10 +24818,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="191" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="141"/>
+      <c r="B45" s="191"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
@@ -21669,74 +25129,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
-      <c r="K1" s="149"/>
-      <c r="L1" s="149"/>
-      <c r="M1" s="149"/>
-      <c r="N1" s="149"/>
-      <c r="O1" s="149"/>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="150"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="201"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="147"/>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="203"/>
+      <c r="J2" s="203"/>
+      <c r="K2" s="203"/>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="83"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142" t="s">
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142" t="s">
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142" t="s">
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="142"/>
-      <c r="M3" s="142"/>
-      <c r="N3" s="142" t="s">
+      <c r="L3" s="198"/>
+      <c r="M3" s="198"/>
+      <c r="N3" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="142"/>
-      <c r="P3" s="142"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -22409,53 +25869,53 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="144"/>
-      <c r="D17" s="144"/>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="144"/>
-      <c r="I17" s="144"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="144"/>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144"/>
-      <c r="O17" s="144"/>
-      <c r="P17" s="144"/>
-      <c r="Q17" s="145"/>
+      <c r="B17" s="193"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="193"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
+      <c r="L17" s="193"/>
+      <c r="M17" s="193"/>
+      <c r="N17" s="193"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="193"/>
+      <c r="Q17" s="194"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="83"/>
-      <c r="B18" s="151" t="s">
+      <c r="B18" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="152"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="151" t="s">
+      <c r="C18" s="196"/>
+      <c r="D18" s="197"/>
+      <c r="E18" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="152"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="151" t="s">
+      <c r="F18" s="196"/>
+      <c r="G18" s="197"/>
+      <c r="H18" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="152"/>
-      <c r="J18" s="153"/>
-      <c r="K18" s="151" t="s">
+      <c r="I18" s="196"/>
+      <c r="J18" s="197"/>
+      <c r="K18" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="152"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="142" t="s">
+      <c r="L18" s="196"/>
+      <c r="M18" s="197"/>
+      <c r="N18" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="142"/>
-      <c r="P18" s="142"/>
+      <c r="O18" s="198"/>
+      <c r="P18" s="198"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -22960,74 +26420,74 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="148" t="s">
+      <c r="A46" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="149"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="149"/>
-      <c r="I46" s="149"/>
-      <c r="J46" s="149"/>
-      <c r="K46" s="149"/>
-      <c r="L46" s="149"/>
-      <c r="M46" s="149"/>
-      <c r="N46" s="149"/>
-      <c r="O46" s="149"/>
-      <c r="P46" s="149"/>
-      <c r="Q46" s="150"/>
+      <c r="B46" s="200"/>
+      <c r="C46" s="200"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="200"/>
+      <c r="K46" s="200"/>
+      <c r="L46" s="200"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
+      <c r="O46" s="200"/>
+      <c r="P46" s="200"/>
+      <c r="Q46" s="201"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="146" t="s">
+      <c r="A47" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="147"/>
-      <c r="C47" s="147"/>
-      <c r="D47" s="147"/>
-      <c r="E47" s="147"/>
-      <c r="F47" s="147"/>
-      <c r="G47" s="147"/>
-      <c r="H47" s="147"/>
-      <c r="I47" s="147"/>
-      <c r="J47" s="147"/>
-      <c r="K47" s="147"/>
-      <c r="L47" s="147"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
-      <c r="O47" s="147"/>
-      <c r="P47" s="147"/>
-      <c r="Q47" s="147"/>
+      <c r="B47" s="203"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="203"/>
+      <c r="K47" s="203"/>
+      <c r="L47" s="203"/>
+      <c r="M47" s="203"/>
+      <c r="N47" s="203"/>
+      <c r="O47" s="203"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="203"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="83"/>
-      <c r="B48" s="142" t="s">
+      <c r="B48" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142" t="s">
+      <c r="C48" s="198"/>
+      <c r="D48" s="198"/>
+      <c r="E48" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="142" t="s">
+      <c r="F48" s="198"/>
+      <c r="G48" s="198"/>
+      <c r="H48" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="142"/>
-      <c r="J48" s="142"/>
-      <c r="K48" s="142" t="s">
+      <c r="I48" s="198"/>
+      <c r="J48" s="198"/>
+      <c r="K48" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="142"/>
-      <c r="M48" s="142"/>
-      <c r="N48" s="142" t="s">
+      <c r="L48" s="198"/>
+      <c r="M48" s="198"/>
+      <c r="N48" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="142"/>
-      <c r="P48" s="142"/>
+      <c r="O48" s="198"/>
+      <c r="P48" s="198"/>
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -23700,53 +27160,53 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="143" t="s">
+      <c r="A62" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="144"/>
-      <c r="C62" s="144"/>
-      <c r="D62" s="144"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="144"/>
-      <c r="G62" s="144"/>
-      <c r="H62" s="144"/>
-      <c r="I62" s="144"/>
-      <c r="J62" s="144"/>
-      <c r="K62" s="144"/>
-      <c r="L62" s="144"/>
-      <c r="M62" s="144"/>
-      <c r="N62" s="144"/>
-      <c r="O62" s="144"/>
-      <c r="P62" s="144"/>
-      <c r="Q62" s="145"/>
+      <c r="B62" s="193"/>
+      <c r="C62" s="193"/>
+      <c r="D62" s="193"/>
+      <c r="E62" s="193"/>
+      <c r="F62" s="193"/>
+      <c r="G62" s="193"/>
+      <c r="H62" s="193"/>
+      <c r="I62" s="193"/>
+      <c r="J62" s="193"/>
+      <c r="K62" s="193"/>
+      <c r="L62" s="193"/>
+      <c r="M62" s="193"/>
+      <c r="N62" s="193"/>
+      <c r="O62" s="193"/>
+      <c r="P62" s="193"/>
+      <c r="Q62" s="194"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="83"/>
-      <c r="B63" s="151" t="s">
+      <c r="B63" s="195" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="152"/>
-      <c r="D63" s="153"/>
-      <c r="E63" s="151" t="s">
+      <c r="C63" s="196"/>
+      <c r="D63" s="197"/>
+      <c r="E63" s="195" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="152"/>
-      <c r="G63" s="153"/>
-      <c r="H63" s="151" t="s">
+      <c r="F63" s="196"/>
+      <c r="G63" s="197"/>
+      <c r="H63" s="195" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="152"/>
-      <c r="J63" s="153"/>
-      <c r="K63" s="151" t="s">
+      <c r="I63" s="196"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="195" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="152"/>
-      <c r="M63" s="153"/>
-      <c r="N63" s="142" t="s">
+      <c r="L63" s="196"/>
+      <c r="M63" s="197"/>
+      <c r="N63" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="O63" s="142"/>
-      <c r="P63" s="142"/>
+      <c r="O63" s="198"/>
+      <c r="P63" s="198"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -24252,19 +27712,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="A17:Q17"/>
@@ -24278,6 +27725,19 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24288,8 +27748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFBB6E-B81B-4231-90DF-0A454EA05932}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="L23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD52" sqref="AD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24314,40 +27774,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="155" t="s">
+      <c r="B1" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="155"/>
+      <c r="C1" s="206"/>
       <c r="I1" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="169" t="s">
+      <c r="J1" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="169"/>
-      <c r="L1" s="154" t="s">
+      <c r="K1" s="208"/>
+      <c r="L1" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="154"/>
-      <c r="O1" s="148" t="s">
+      <c r="M1" s="209"/>
+      <c r="O1" s="199" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="149"/>
-      <c r="Q1" s="149"/>
-      <c r="R1" s="149"/>
-      <c r="S1" s="149"/>
-      <c r="T1" s="149"/>
-      <c r="U1" s="149"/>
-      <c r="V1" s="149"/>
-      <c r="W1" s="149"/>
-      <c r="X1" s="149"/>
-      <c r="Y1" s="149"/>
-      <c r="Z1" s="149"/>
-      <c r="AA1" s="149"/>
-      <c r="AB1" s="149"/>
-      <c r="AC1" s="149"/>
-      <c r="AD1" s="149"/>
-      <c r="AE1" s="150"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
+      <c r="T1" s="200"/>
+      <c r="U1" s="200"/>
+      <c r="V1" s="200"/>
+      <c r="W1" s="200"/>
+      <c r="X1" s="200"/>
+      <c r="Y1" s="200"/>
+      <c r="Z1" s="200"/>
+      <c r="AA1" s="200"/>
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="200"/>
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="201"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -24378,31 +27838,31 @@
       <c r="K2" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="166" t="s">
+      <c r="L2" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="165" t="s">
+      <c r="M2" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="146" t="s">
+      <c r="O2" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="147"/>
-      <c r="V2" s="147"/>
-      <c r="W2" s="147"/>
-      <c r="X2" s="147"/>
-      <c r="Y2" s="147"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="147"/>
-      <c r="AB2" s="147"/>
-      <c r="AC2" s="147"/>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="R2" s="203"/>
+      <c r="S2" s="203"/>
+      <c r="T2" s="203"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
+      <c r="AA2" s="203"/>
+      <c r="AB2" s="203"/>
+      <c r="AC2" s="203"/>
+      <c r="AD2" s="203"/>
+      <c r="AE2" s="203"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -24446,31 +27906,31 @@
         <v>20.923299999999998</v>
       </c>
       <c r="O3" s="83"/>
-      <c r="P3" s="142" t="s">
+      <c r="P3" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="142"/>
-      <c r="R3" s="142"/>
-      <c r="S3" s="142" t="s">
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142" t="s">
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="142"/>
-      <c r="X3" s="142"/>
-      <c r="Y3" s="142" t="s">
+      <c r="W3" s="198"/>
+      <c r="X3" s="198"/>
+      <c r="Y3" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="142"/>
-      <c r="AA3" s="142"/>
-      <c r="AB3" s="142" t="s">
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="142"/>
-      <c r="AD3" s="142"/>
+      <c r="AC3" s="198"/>
+      <c r="AD3" s="198"/>
       <c r="AE3" s="10"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -24884,14 +28344,14 @@
       <c r="I8" s="136" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="169" t="s">
+      <c r="J8" s="208" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="169"/>
-      <c r="L8" s="154" t="s">
+      <c r="K8" s="208"/>
+      <c r="L8" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="154"/>
+      <c r="M8" s="209"/>
       <c r="O8" s="115" t="s">
         <v>53</v>
       </c>
@@ -24986,10 +28446,10 @@
       <c r="K9" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="166" t="s">
+      <c r="L9" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="165" t="s">
+      <c r="M9" s="148" t="s">
         <v>68</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -25169,16 +28629,16 @@
       <c r="C11" s="35">
         <v>-6.340384840026668E-2</v>
       </c>
-      <c r="D11" s="162">
+      <c r="D11" s="145">
         <v>20.923299999999998</v>
       </c>
       <c r="E11" s="140">
         <v>0.84810000000000008</v>
       </c>
-      <c r="F11" s="158">
+      <c r="F11" s="141">
         <v>0.27754676667362871</v>
       </c>
-      <c r="G11" s="159">
+      <c r="G11" s="142">
         <v>4.2238846068331719E-2</v>
       </c>
       <c r="I11" s="12" t="s">
@@ -25276,13 +28736,13 @@
       <c r="D12" s="140">
         <v>15.7163</v>
       </c>
-      <c r="E12" s="162">
+      <c r="E12" s="145">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F12" s="163">
+      <c r="F12" s="146">
         <v>0.43786631137597964</v>
       </c>
-      <c r="G12" s="164">
+      <c r="G12" s="147">
         <v>6.5591352842813269E-2</v>
       </c>
       <c r="I12" s="12" t="s">
@@ -25472,10 +28932,10 @@
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="156" t="s">
+      <c r="B14" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="157"/>
+      <c r="C14" s="205"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
@@ -25497,28 +28957,28 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="160" t="s">
+      <c r="I15" s="143" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="155" t="s">
+      <c r="O15" s="206" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="155"/>
-      <c r="Q15" s="155"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="155"/>
+      <c r="P15" s="206"/>
+      <c r="Q15" s="206"/>
+      <c r="R15" s="206"/>
+      <c r="S15" s="206"/>
+      <c r="T15" s="206"/>
+      <c r="U15" s="206"/>
+      <c r="V15" s="206"/>
+      <c r="W15" s="206"/>
+      <c r="X15" s="206"/>
+      <c r="Y15" s="206"/>
+      <c r="Z15" s="206"/>
+      <c r="AA15" s="206"/>
+      <c r="AB15" s="206"/>
+      <c r="AC15" s="206"/>
+      <c r="AD15" s="206"/>
+      <c r="AE15" s="206"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -25542,35 +29002,35 @@
       <c r="G16" s="30">
         <v>0.12877571176566063</v>
       </c>
-      <c r="I16" s="160" t="s">
+      <c r="I16" s="143" t="s">
         <v>72</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="155" t="s">
+      <c r="P16" s="206" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="155"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155" t="s">
+      <c r="Q16" s="206"/>
+      <c r="R16" s="206"/>
+      <c r="S16" s="206" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155" t="s">
+      <c r="T16" s="206"/>
+      <c r="U16" s="206"/>
+      <c r="V16" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155" t="s">
+      <c r="W16" s="206"/>
+      <c r="X16" s="206"/>
+      <c r="Y16" s="206" t="s">
         <v>37</v>
       </c>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155" t="s">
+      <c r="Z16" s="206"/>
+      <c r="AA16" s="206"/>
+      <c r="AB16" s="206" t="s">
         <v>55</v>
       </c>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
+      <c r="AC16" s="206"/>
+      <c r="AD16" s="206"/>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -26059,7 +29519,7 @@
         <v>1.6916683322051762E-2</v>
       </c>
       <c r="AC22" s="84">
-        <f t="shared" ref="AC21:AC23" si="17">SUM(W22,Z22)</f>
+        <f t="shared" ref="AC22:AC23" si="17">SUM(W22,Z22)</f>
         <v>2.9345804275996121</v>
       </c>
       <c r="AD22" s="84">
@@ -26176,66 +29636,66 @@
       <c r="G24" s="35">
         <v>8.7751258894774364E-2</v>
       </c>
-      <c r="O24" s="114" t="s">
-        <v>44</v>
+      <c r="O24" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="P24" s="135">
-        <f>D43-D32</f>
-        <v>4.0187999999999988</v>
-      </c>
-      <c r="Q24" s="43">
-        <v>6.0135000000000005</v>
+        <f>D46-D35</f>
+        <v>-7.3023000000000007</v>
+      </c>
+      <c r="Q24" s="40">
+        <v>10.7902</v>
       </c>
       <c r="R24" s="131">
         <f>P24/Q24</f>
-        <v>0.66829633325018678</v>
+        <v>-0.6767529795555226</v>
       </c>
       <c r="S24" s="131">
-        <f>E43-E32</f>
-        <v>0.8338000000000001</v>
-      </c>
-      <c r="T24" s="44">
-        <v>4.1173999999999999</v>
+        <f>E46-E35</f>
+        <v>1.3264000000000005</v>
+      </c>
+      <c r="T24" s="14">
+        <v>3.9233000000000002</v>
       </c>
       <c r="U24" s="131">
         <f>S24/T24</f>
-        <v>0.20250643610045177</v>
+        <v>0.33808273647184778</v>
       </c>
       <c r="V24" s="135">
-        <f>F43-F32</f>
-        <v>0.45660631134760643</v>
-      </c>
-      <c r="W24" s="35">
-        <v>1.2269792930976999</v>
+        <f>F46-F35</f>
+        <v>0.2173185367476036</v>
+      </c>
+      <c r="W24" s="34">
+        <v>1.5476110139131891</v>
       </c>
       <c r="X24" s="131">
         <f>V24/W24</f>
-        <v>0.37213856331253387</v>
+        <v>0.14042193729166219</v>
       </c>
       <c r="Y24" s="135">
-        <v>4.7747439937281255E-2</v>
-      </c>
-      <c r="Z24" s="35">
-        <v>0.18703707902634226</v>
+        <v>4.5248200775063058E-2</v>
+      </c>
+      <c r="Z24" s="34">
+        <v>0.23523687411480473</v>
       </c>
       <c r="AA24" s="131">
         <f>Y24/Z24</f>
-        <v>0.25528328492852753</v>
+        <v>0.19235164956740658</v>
       </c>
       <c r="AB24" s="84">
-        <f t="shared" ref="AB24" si="18">SUM(V24,Y24)</f>
-        <v>0.50435375128488769</v>
+        <f>SUM(V24,Y24)</f>
+        <v>0.26256673752266668</v>
       </c>
       <c r="AC24" s="84">
-        <f t="shared" ref="AC24" si="19">SUM(W24,Z24)</f>
-        <v>1.4140163721240422</v>
+        <f>SUM(W24,Z24)</f>
+        <v>1.7828478880279939</v>
       </c>
       <c r="AD24" s="84">
         <f>AB24/AC24</f>
-        <v>0.35668169140593525</v>
-      </c>
-      <c r="AE24" s="120">
-        <v>-0.32001589401318453</v>
+        <v>0.14727377432804514</v>
+      </c>
+      <c r="AE24" s="34">
+        <v>-4.5718099286610456E-2</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.25">
@@ -26260,66 +29720,66 @@
       <c r="G25" s="35">
         <v>7.6598708923253711E-2</v>
       </c>
-      <c r="O25" s="14" t="s">
-        <v>47</v>
+      <c r="O25" s="114" t="s">
+        <v>44</v>
       </c>
       <c r="P25" s="135">
-        <f>D46-D35</f>
-        <v>-7.3023000000000007</v>
-      </c>
-      <c r="Q25" s="40">
-        <v>10.7902</v>
+        <f>D43-D32</f>
+        <v>4.0187999999999988</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>6.0135000000000005</v>
       </c>
       <c r="R25" s="131">
         <f>P25/Q25</f>
-        <v>-0.6767529795555226</v>
+        <v>0.66829633325018678</v>
       </c>
       <c r="S25" s="131">
-        <f>E46-E35</f>
-        <v>1.3264000000000005</v>
-      </c>
-      <c r="T25" s="14">
-        <v>3.9233000000000002</v>
+        <f>E43-E32</f>
+        <v>0.8338000000000001</v>
+      </c>
+      <c r="T25" s="44">
+        <v>4.1173999999999999</v>
       </c>
       <c r="U25" s="131">
         <f>S25/T25</f>
-        <v>0.33808273647184778</v>
+        <v>0.20250643610045177</v>
       </c>
       <c r="V25" s="135">
-        <f>F46-F35</f>
-        <v>0.2173185367476036</v>
-      </c>
-      <c r="W25" s="34">
-        <v>1.5476110139131891</v>
+        <f>F43-F32</f>
+        <v>0.45660631134760643</v>
+      </c>
+      <c r="W25" s="35">
+        <v>1.2269792930976999</v>
       </c>
       <c r="X25" s="131">
         <f>V25/W25</f>
-        <v>0.14042193729166219</v>
+        <v>0.37213856331253387</v>
       </c>
       <c r="Y25" s="135">
-        <v>4.5248200775063058E-2</v>
-      </c>
-      <c r="Z25" s="34">
-        <v>0.23523687411480473</v>
+        <v>4.7747439937281255E-2</v>
+      </c>
+      <c r="Z25" s="35">
+        <v>0.18703707902634226</v>
       </c>
       <c r="AA25" s="131">
         <f>Y25/Z25</f>
-        <v>0.19235164956740658</v>
+        <v>0.25528328492852753</v>
       </c>
       <c r="AB25" s="84">
-        <f>SUM(V25,Y25)</f>
-        <v>0.26256673752266668</v>
+        <f t="shared" ref="AB25" si="18">SUM(V25,Y25)</f>
+        <v>0.50435375128488769</v>
       </c>
       <c r="AC25" s="84">
-        <f>SUM(W25,Z25)</f>
-        <v>1.7828478880279939</v>
+        <f t="shared" ref="AC25" si="19">SUM(W25,Z25)</f>
+        <v>1.4140163721240422</v>
       </c>
       <c r="AD25" s="84">
         <f>AB25/AC25</f>
-        <v>0.14727377432804514</v>
-      </c>
-      <c r="AE25" s="34">
-        <v>-4.5718099286610456E-2</v>
+        <v>0.35668169140593525</v>
+      </c>
+      <c r="AE25" s="120">
+        <v>-0.32001589401318453</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
@@ -26347,10 +29807,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="155" t="s">
+      <c r="B28" s="206" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="155"/>
+      <c r="C28" s="206"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="117" t="s">
@@ -26405,7 +29865,7 @@
       <c r="C31" s="118">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D31" s="161">
+      <c r="D31" s="144">
         <v>3.0990000000000002</v>
       </c>
       <c r="E31" s="113">
@@ -26434,10 +29894,10 @@
       <c r="E32" s="44">
         <v>4.1173999999999999</v>
       </c>
-      <c r="F32" s="168">
+      <c r="F32" s="151">
         <v>1.2269792930976999</v>
       </c>
-      <c r="G32" s="168">
+      <c r="G32" s="151">
         <v>0.18703707902634226</v>
       </c>
     </row>
@@ -26500,7 +29960,7 @@
       <c r="D35" s="40">
         <v>10.7902</v>
       </c>
-      <c r="E35" s="167">
+      <c r="E35" s="150">
         <v>3.9233000000000002</v>
       </c>
       <c r="F35" s="122">
@@ -26580,10 +30040,10 @@
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="156" t="s">
+      <c r="B39" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="157"/>
+      <c r="C39" s="205"/>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
@@ -26719,25 +30179,25 @@
       <c r="G45" s="126">
         <v>0.46912291153627583</v>
       </c>
-      <c r="O45" s="148" t="s">
+      <c r="O45" s="199" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="149"/>
-      <c r="Q45" s="149"/>
-      <c r="R45" s="149"/>
-      <c r="S45" s="149"/>
-      <c r="T45" s="149"/>
-      <c r="U45" s="149"/>
-      <c r="V45" s="149"/>
-      <c r="W45" s="149"/>
-      <c r="X45" s="149"/>
-      <c r="Y45" s="149"/>
-      <c r="Z45" s="149"/>
-      <c r="AA45" s="149"/>
-      <c r="AB45" s="149"/>
-      <c r="AC45" s="149"/>
-      <c r="AD45" s="149"/>
-      <c r="AE45" s="150"/>
+      <c r="P45" s="200"/>
+      <c r="Q45" s="200"/>
+      <c r="R45" s="200"/>
+      <c r="S45" s="200"/>
+      <c r="T45" s="200"/>
+      <c r="U45" s="200"/>
+      <c r="V45" s="200"/>
+      <c r="W45" s="200"/>
+      <c r="X45" s="200"/>
+      <c r="Y45" s="200"/>
+      <c r="Z45" s="200"/>
+      <c r="AA45" s="200"/>
+      <c r="AB45" s="200"/>
+      <c r="AC45" s="200"/>
+      <c r="AD45" s="200"/>
+      <c r="AE45" s="201"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -26761,25 +30221,25 @@
       <c r="G46" s="122">
         <v>0.28048507488986779</v>
       </c>
-      <c r="O46" s="146" t="s">
+      <c r="O46" s="202" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="147"/>
-      <c r="Q46" s="147"/>
-      <c r="R46" s="147"/>
-      <c r="S46" s="147"/>
-      <c r="T46" s="147"/>
-      <c r="U46" s="147"/>
-      <c r="V46" s="147"/>
-      <c r="W46" s="147"/>
-      <c r="X46" s="147"/>
-      <c r="Y46" s="147"/>
-      <c r="Z46" s="147"/>
-      <c r="AA46" s="147"/>
-      <c r="AB46" s="147"/>
-      <c r="AC46" s="147"/>
-      <c r="AD46" s="147"/>
-      <c r="AE46" s="147"/>
+      <c r="P46" s="203"/>
+      <c r="Q46" s="203"/>
+      <c r="R46" s="203"/>
+      <c r="S46" s="203"/>
+      <c r="T46" s="203"/>
+      <c r="U46" s="203"/>
+      <c r="V46" s="203"/>
+      <c r="W46" s="203"/>
+      <c r="X46" s="203"/>
+      <c r="Y46" s="203"/>
+      <c r="Z46" s="203"/>
+      <c r="AA46" s="203"/>
+      <c r="AB46" s="203"/>
+      <c r="AC46" s="203"/>
+      <c r="AD46" s="203"/>
+      <c r="AE46" s="203"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -26804,31 +30264,31 @@
         <v>0.29737257882304624</v>
       </c>
       <c r="O47" s="83"/>
-      <c r="P47" s="142" t="s">
+      <c r="P47" s="198" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="142"/>
-      <c r="R47" s="142"/>
-      <c r="S47" s="142" t="s">
+      <c r="Q47" s="198"/>
+      <c r="R47" s="198"/>
+      <c r="S47" s="198" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="142"/>
-      <c r="U47" s="142"/>
-      <c r="V47" s="142" t="s">
+      <c r="T47" s="198"/>
+      <c r="U47" s="198"/>
+      <c r="V47" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="W47" s="142"/>
-      <c r="X47" s="142"/>
-      <c r="Y47" s="142" t="s">
+      <c r="W47" s="198"/>
+      <c r="X47" s="198"/>
+      <c r="Y47" s="198" t="s">
         <v>37</v>
       </c>
-      <c r="Z47" s="142"/>
-      <c r="AA47" s="142"/>
-      <c r="AB47" s="142" t="s">
+      <c r="Z47" s="198"/>
+      <c r="AA47" s="198"/>
+      <c r="AB47" s="198" t="s">
         <v>55</v>
       </c>
-      <c r="AC47" s="142"/>
-      <c r="AD47" s="142"/>
+      <c r="AC47" s="198"/>
+      <c r="AD47" s="198"/>
       <c r="AE47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -27023,7 +30483,7 @@
         <v>-0.66804316680566478</v>
       </c>
       <c r="AB50" s="84">
-        <f t="shared" ref="AB50:AC59" si="20">SUM(V50+Y50)</f>
+        <f t="shared" ref="AB50:AC57" si="20">SUM(V50+Y50)</f>
         <v>-1.2386221381297113</v>
       </c>
       <c r="AC50" s="84">
@@ -27031,7 +30491,7 @@
         <v>1.937246869065236</v>
       </c>
       <c r="AD50" s="84">
-        <f t="shared" ref="AD50:AD59" si="21">AB50/AC50</f>
+        <f t="shared" ref="AD50:AD57" si="21">AB50/AC50</f>
         <v>-0.63937237835226113</v>
       </c>
       <c r="AE50" s="86">
@@ -27039,26 +30499,26 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="169" t="s">
+      <c r="A51" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="169"/>
-      <c r="E51" s="169"/>
-      <c r="F51" s="169"/>
-      <c r="G51" s="169"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="208"/>
+      <c r="D51" s="208"/>
+      <c r="E51" s="208"/>
+      <c r="F51" s="208"/>
+      <c r="G51" s="208"/>
       <c r="I51" s="139" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="169" t="s">
+      <c r="J51" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="169"/>
-      <c r="L51" s="154" t="s">
+      <c r="K51" s="208"/>
+      <c r="L51" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="M51" s="154"/>
+      <c r="M51" s="209"/>
       <c r="O51" s="98" t="s">
         <v>44</v>
       </c>
@@ -27115,10 +30575,10 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="206" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="155"/>
+      <c r="C52" s="206"/>
       <c r="I52" s="137" t="s">
         <v>65</v>
       </c>
@@ -27128,10 +30588,10 @@
       <c r="K52" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="166" t="s">
+      <c r="L52" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="M52" s="165" t="s">
+      <c r="M52" s="148" t="s">
         <v>68</v>
       </c>
       <c r="O52" s="99" t="s">
@@ -27190,23 +30650,23 @@
       </c>
     </row>
     <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="170"/>
-      <c r="B53" s="181" t="s">
+      <c r="A53" s="152"/>
+      <c r="B53" s="162" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="181" t="s">
+      <c r="E53" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="181" t="s">
+      <c r="F53" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="181" t="s">
+      <c r="G53" s="162" t="s">
         <v>74</v>
       </c>
       <c r="I53" s="12" t="s">
@@ -27284,13 +30744,13 @@
       </c>
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B54" s="97">
         <v>47.014299999999999</v>
       </c>
-      <c r="C54" s="188">
+      <c r="C54" s="169">
         <v>0.24235650000000003</v>
       </c>
       <c r="D54" s="114">
@@ -27380,13 +30840,13 @@
       </c>
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="171" t="s">
+      <c r="A55" s="153" t="s">
         <v>1</v>
       </c>
       <c r="B55" s="97">
         <v>29.554200000000002</v>
       </c>
-      <c r="C55" s="188">
+      <c r="C55" s="169">
         <v>0.24235650000000003</v>
       </c>
       <c r="D55" s="114">
@@ -27476,13 +30936,13 @@
       </c>
     </row>
     <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="172" t="s">
+      <c r="A56" s="154" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="193">
+      <c r="B56" s="174">
         <v>47.488500000000002</v>
       </c>
-      <c r="C56" s="194">
+      <c r="C56" s="175">
         <v>-0.29172375000000034</v>
       </c>
       <c r="D56" s="114">
@@ -27572,13 +31032,13 @@
       </c>
     </row>
     <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="185" t="s">
+      <c r="A57" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="186">
+      <c r="B57" s="167">
         <v>38.784700000000001</v>
       </c>
-      <c r="C57" s="195">
+      <c r="C57" s="176">
         <v>-7.9807612500000069E-2</v>
       </c>
       <c r="D57" s="114">
@@ -27593,69 +31053,69 @@
       <c r="G57" s="36">
         <v>0.12090681526084991</v>
       </c>
-      <c r="O57" s="102" t="s">
-        <v>48</v>
+      <c r="O57" s="103" t="s">
+        <v>50</v>
       </c>
       <c r="P57" s="86">
-        <v>-5.1999999999985391E-3</v>
-      </c>
-      <c r="Q57" s="74">
-        <v>16.279599999999999</v>
+        <v>-3.2297000000000011</v>
+      </c>
+      <c r="Q57" s="76">
+        <v>21.040900000000001</v>
       </c>
       <c r="R57" s="105">
-        <v>-3.1941816752245383E-4</v>
+        <v>-0.15349628580526503</v>
       </c>
       <c r="S57" s="86">
-        <v>3.3911999999999995</v>
-      </c>
-      <c r="T57" s="74">
-        <v>5.2179000000000002</v>
+        <v>-0.43830000000000169</v>
+      </c>
+      <c r="T57" s="76">
+        <v>13.398000000000001</v>
       </c>
       <c r="U57" s="105">
-        <v>0.64991663312826986</v>
+        <v>-3.2713837886251804E-2</v>
       </c>
       <c r="V57" s="86">
-        <v>0.52944834131865048</v>
-      </c>
-      <c r="W57" s="95">
-        <v>0.68218590616009644</v>
+        <v>-0.23345240457375938</v>
+      </c>
+      <c r="W57" s="104">
+        <v>1.4828472986928873</v>
       </c>
       <c r="X57" s="105">
-        <v>0.77610565761878803</v>
+        <v>-0.15743522935877818</v>
       </c>
       <c r="Y57" s="86">
-        <v>4.5512412826442646E-2</v>
-      </c>
-      <c r="Z57" s="95">
-        <v>4.2238846068331719E-2</v>
+        <v>-2.1770204424107042E-2</v>
+      </c>
+      <c r="Z57" s="104">
+        <v>0.10207224320241665</v>
       </c>
       <c r="AA57" s="105">
-        <v>1.0775013302402989</v>
+        <v>-0.21328231594690392</v>
       </c>
       <c r="AB57" s="84">
         <f t="shared" si="20"/>
-        <v>0.57496075414509318</v>
+        <v>-0.25522260899786642</v>
       </c>
       <c r="AC57" s="84">
         <f t="shared" si="20"/>
-        <v>0.72442475222842817</v>
+        <v>1.5849195418953039</v>
       </c>
       <c r="AD57" s="84">
         <f t="shared" si="21"/>
-        <v>0.79367905690195761</v>
-      </c>
-      <c r="AE57" s="95">
-        <v>-6.340384840026668E-2</v>
+        <v>-0.16103190240979806</v>
+      </c>
+      <c r="AE57" s="104">
+        <v>-3.2730377491297959E-2</v>
       </c>
     </row>
     <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="173" t="s">
+      <c r="A58" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B58" s="100">
         <v>54.746600000000001</v>
       </c>
-      <c r="C58" s="190">
+      <c r="C58" s="171">
         <v>7.4400954545454687E-2</v>
       </c>
       <c r="D58" s="114">
@@ -27673,77 +31133,23 @@
       <c r="I58" s="139" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="169" t="s">
+      <c r="J58" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="169"/>
-      <c r="L58" s="154" t="s">
+      <c r="K58" s="208"/>
+      <c r="L58" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="M58" s="154"/>
-      <c r="O58" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="P58" s="86">
-        <v>-1.8081999999999994</v>
-      </c>
-      <c r="Q58" s="74">
-        <v>10.2546</v>
-      </c>
-      <c r="R58" s="105">
-        <v>-0.17633062235484556</v>
-      </c>
-      <c r="S58" s="86">
-        <v>-0.62900000000000134</v>
-      </c>
-      <c r="T58" s="74">
-        <v>6.2910000000000004</v>
-      </c>
-      <c r="U58" s="105">
-        <v>-9.9984104275949975E-2</v>
-      </c>
-      <c r="V58" s="86">
-        <v>0.24547311552540219</v>
-      </c>
-      <c r="W58" s="95">
-        <v>1.0662058857023278</v>
-      </c>
-      <c r="X58" s="105">
-        <v>0.23023050127293651</v>
-      </c>
-      <c r="Y58" s="86">
-        <v>1.1007356080440442E-2</v>
-      </c>
-      <c r="Z58" s="95">
-        <v>6.5591352842813269E-2</v>
-      </c>
-      <c r="AA58" s="105">
-        <v>0.16781718326223696</v>
-      </c>
-      <c r="AB58" s="84">
-        <f t="shared" si="20"/>
-        <v>0.25648047160584264</v>
-      </c>
-      <c r="AC58" s="84">
-        <f t="shared" si="20"/>
-        <v>1.1317972385451411</v>
-      </c>
-      <c r="AD58" s="84">
-        <f t="shared" si="21"/>
-        <v>0.22661344529832325</v>
-      </c>
-      <c r="AE58" s="95">
-        <v>-6.340384840026668E-2</v>
-      </c>
+      <c r="M58" s="209"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="173" t="s">
+      <c r="A59" s="155" t="s">
         <v>5</v>
       </c>
       <c r="B59" s="100">
         <v>27.5703</v>
       </c>
-      <c r="C59" s="190">
+      <c r="C59" s="171">
         <v>7.4400954545454687E-2</v>
       </c>
       <c r="D59" s="114">
@@ -27767,75 +31173,40 @@
       <c r="K59" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="L59" s="166" t="s">
+      <c r="L59" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="165" t="s">
+      <c r="M59" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="P59" s="86">
-        <v>-3.2297000000000011</v>
-      </c>
-      <c r="Q59" s="76">
-        <v>21.040900000000001</v>
-      </c>
-      <c r="R59" s="105">
-        <v>-0.15349628580526503</v>
-      </c>
-      <c r="S59" s="86">
-        <v>-0.43830000000000169</v>
-      </c>
-      <c r="T59" s="76">
-        <v>13.398000000000001</v>
-      </c>
-      <c r="U59" s="105">
-        <v>-3.2713837886251804E-2</v>
-      </c>
-      <c r="V59" s="86">
-        <v>-0.23345240457375938</v>
-      </c>
-      <c r="W59" s="104">
-        <v>1.4828472986928873</v>
-      </c>
-      <c r="X59" s="105">
-        <v>-0.15743522935877818</v>
-      </c>
-      <c r="Y59" s="86">
-        <v>-2.1770204424107042E-2</v>
-      </c>
-      <c r="Z59" s="104">
-        <v>0.10207224320241665</v>
-      </c>
-      <c r="AA59" s="105">
-        <v>-0.21328231594690392</v>
-      </c>
-      <c r="AB59" s="84">
-        <f t="shared" si="20"/>
-        <v>-0.25522260899786642</v>
-      </c>
-      <c r="AC59" s="84">
-        <f t="shared" si="20"/>
-        <v>1.5849195418953039</v>
-      </c>
-      <c r="AD59" s="84">
-        <f t="shared" si="21"/>
-        <v>-0.16103190240979806</v>
-      </c>
-      <c r="AE59" s="104">
-        <v>-3.2730377491297959E-2</v>
-      </c>
+      <c r="O59" s="192" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="193"/>
+      <c r="Q59" s="193"/>
+      <c r="R59" s="193"/>
+      <c r="S59" s="193"/>
+      <c r="T59" s="193"/>
+      <c r="U59" s="193"/>
+      <c r="V59" s="193"/>
+      <c r="W59" s="193"/>
+      <c r="X59" s="193"/>
+      <c r="Y59" s="193"/>
+      <c r="Z59" s="193"/>
+      <c r="AA59" s="193"/>
+      <c r="AB59" s="193"/>
+      <c r="AC59" s="193"/>
+      <c r="AD59" s="193"/>
+      <c r="AE59" s="194"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="174" t="s">
+      <c r="A60" s="156" t="s">
         <v>6</v>
       </c>
       <c r="B60" s="101">
         <v>63.384900000000002</v>
       </c>
-      <c r="C60" s="191">
+      <c r="C60" s="172">
         <v>-2.9873056909090877E-2</v>
       </c>
       <c r="D60" s="114">
@@ -27869,15 +31240,42 @@
         <f>_xlfn.PERCENTILE.INC(D84:D94, 0.1)</f>
         <v>0.98799999999999999</v>
       </c>
+      <c r="O60" s="83"/>
+      <c r="P60" s="195" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q60" s="196"/>
+      <c r="R60" s="197"/>
+      <c r="S60" s="195" t="s">
+        <v>35</v>
+      </c>
+      <c r="T60" s="196"/>
+      <c r="U60" s="197"/>
+      <c r="V60" s="195" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="196"/>
+      <c r="X60" s="197"/>
+      <c r="Y60" s="195" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z60" s="196"/>
+      <c r="AA60" s="197"/>
+      <c r="AB60" s="198" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC60" s="198"/>
+      <c r="AD60" s="198"/>
+      <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="174" t="s">
+      <c r="A61" s="156" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="101">
         <v>31.8675</v>
       </c>
-      <c r="C61" s="191">
+      <c r="C61" s="172">
         <v>-2.9873056909090877E-2</v>
       </c>
       <c r="D61" s="114">
@@ -27911,46 +31309,78 @@
         <f>_xlfn.PERCENTILE.INC(E84:E94, 0.1)</f>
         <v>7.0016999999999996</v>
       </c>
-      <c r="O61" s="143" t="s">
-        <v>33</v>
-      </c>
-      <c r="P61" s="144"/>
-      <c r="Q61" s="144"/>
-      <c r="R61" s="144"/>
-      <c r="S61" s="144"/>
-      <c r="T61" s="144"/>
-      <c r="U61" s="144"/>
-      <c r="V61" s="144"/>
-      <c r="W61" s="144"/>
-      <c r="X61" s="144"/>
-      <c r="Y61" s="144"/>
-      <c r="Z61" s="144"/>
-      <c r="AA61" s="144"/>
-      <c r="AB61" s="144"/>
-      <c r="AC61" s="144"/>
-      <c r="AD61" s="144"/>
-      <c r="AE61" s="145"/>
+      <c r="O61" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q61" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="R61" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="S61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="T61" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="U61" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="V61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="W61" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z61" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA61" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB61" s="70" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC61" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD61" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE61" s="46" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="175" t="s">
+      <c r="A62" s="157" t="s">
         <v>8</v>
       </c>
       <c r="B62" s="98">
         <v>21.8202</v>
       </c>
-      <c r="C62" s="189">
+      <c r="C62" s="170">
         <v>-8.9525781818181854E-2</v>
       </c>
       <c r="D62" s="114">
         <v>16.279599999999999</v>
       </c>
-      <c r="E62" s="114">
+      <c r="E62" s="210">
         <v>5.2179000000000002</v>
       </c>
-      <c r="F62" s="36">
+      <c r="F62" s="212">
         <v>0.68218590616009644</v>
       </c>
-      <c r="G62" s="36">
+      <c r="G62" s="212">
         <v>4.2238846068331719E-2</v>
       </c>
       <c r="I62" s="12" t="s">
@@ -27972,54 +31402,81 @@
         <f>_xlfn.PERCENTILE.INC(F84:F94, 0.1)</f>
         <v>3.4966024327251528</v>
       </c>
-      <c r="O62" s="83"/>
-      <c r="P62" s="151" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q62" s="152"/>
-      <c r="R62" s="153"/>
-      <c r="S62" s="151" t="s">
-        <v>35</v>
-      </c>
-      <c r="T62" s="152"/>
-      <c r="U62" s="153"/>
-      <c r="V62" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="W62" s="152"/>
-      <c r="X62" s="153"/>
-      <c r="Y62" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z62" s="152"/>
-      <c r="AA62" s="153"/>
-      <c r="AB62" s="142" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC62" s="142"/>
-      <c r="AD62" s="142"/>
-      <c r="AE62" s="1"/>
+      <c r="O62" s="85" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" s="86">
+        <v>-0.59709999999999996</v>
+      </c>
+      <c r="Q62" s="72">
+        <v>1.5851</v>
+      </c>
+      <c r="R62" s="105">
+        <v>-0.37669547662608038</v>
+      </c>
+      <c r="S62" s="86">
+        <v>0.40596427983817573</v>
+      </c>
+      <c r="T62" s="72">
+        <v>7.529399999999999</v>
+      </c>
+      <c r="U62" s="105">
+        <v>5.3917215161656415E-2</v>
+      </c>
+      <c r="V62" s="86">
+        <v>0.53845027367133813</v>
+      </c>
+      <c r="W62" s="86">
+        <v>3.7933434306569351</v>
+      </c>
+      <c r="X62" s="105">
+        <v>0.14194609149272011</v>
+      </c>
+      <c r="Y62" s="86">
+        <v>3.6685446490482859E-2</v>
+      </c>
+      <c r="Z62" s="86">
+        <v>0.20310881995133825</v>
+      </c>
+      <c r="AA62" s="105">
+        <v>0.18061966240201743</v>
+      </c>
+      <c r="AB62" s="84">
+        <f>V62+Y62</f>
+        <v>0.57513572016182102</v>
+      </c>
+      <c r="AC62" s="84">
+        <f>W62+Z62</f>
+        <v>3.9964522506082734</v>
+      </c>
+      <c r="AD62" s="84">
+        <f>AB62/AC62</f>
+        <v>0.14391157058720855</v>
+      </c>
+      <c r="AE62" s="106">
+        <v>-0.10058679002726996</v>
+      </c>
     </row>
     <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="175" t="s">
+      <c r="A63" s="157" t="s">
         <v>9</v>
       </c>
       <c r="B63" s="98">
         <v>17.0562</v>
       </c>
-      <c r="C63" s="189">
+      <c r="C63" s="170">
         <v>-8.9525781818181854E-2</v>
       </c>
-      <c r="D63" s="114">
+      <c r="D63" s="210">
         <v>10.2546</v>
       </c>
-      <c r="E63" s="114">
+      <c r="E63" s="211">
         <v>6.2910000000000004</v>
       </c>
-      <c r="F63" s="36">
+      <c r="F63" s="213">
         <v>1.0662058857023278</v>
       </c>
-      <c r="G63" s="36">
+      <c r="G63" s="213">
         <v>6.5591352842813269E-2</v>
       </c>
       <c r="I63" s="112" t="s">
@@ -28041,69 +31498,72 @@
         <f>_xlfn.PERCENTILE.INC(G84:G94, 0.1)</f>
         <v>0.20310881995133825</v>
       </c>
-      <c r="O63" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="P63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q63" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="R63" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="S63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="T63" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="U63" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="V63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="W63" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="X63" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z63" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA63" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB63" s="70" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC63" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="AD63" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE63" s="46" t="s">
-        <v>42</v>
+      <c r="O63" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="P63" s="86">
+        <v>-2.7269000000000001</v>
+      </c>
+      <c r="Q63" s="75">
+        <v>6.3570000000000002</v>
+      </c>
+      <c r="R63" s="105">
+        <v>-0.42896020135283941</v>
+      </c>
+      <c r="S63" s="86">
+        <v>0.11854131335046647</v>
+      </c>
+      <c r="T63" s="75">
+        <v>10.2044</v>
+      </c>
+      <c r="U63" s="105">
+        <v>1.1616686267734161E-2</v>
+      </c>
+      <c r="V63" s="86">
+        <v>-1.5595514376973254</v>
+      </c>
+      <c r="W63" s="91">
+        <v>7.0654710684273754</v>
+      </c>
+      <c r="X63" s="105">
+        <v>-0.22072858590650893</v>
+      </c>
+      <c r="Y63" s="86">
+        <v>-9.8289875653147785E-2</v>
+      </c>
+      <c r="Z63" s="91">
+        <v>0.45884337735094055</v>
+      </c>
+      <c r="AA63" s="105">
+        <v>-0.2142122573951242</v>
+      </c>
+      <c r="AB63" s="84">
+        <f t="shared" ref="AB63:AC67" si="22">V63+Y63</f>
+        <v>-1.6578413133504732</v>
+      </c>
+      <c r="AC63" s="84">
+        <f t="shared" si="22"/>
+        <v>7.524314445778316</v>
+      </c>
+      <c r="AD63" s="84">
+        <f t="shared" ref="AD63:AD67" si="23">AB63/AC63</f>
+        <v>-0.22033121094249883</v>
+      </c>
+      <c r="AE63" s="108">
+        <v>0.11743877238132332</v>
       </c>
     </row>
     <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="176" t="s">
+      <c r="A64" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B64" s="103">
         <v>23.997399999999999</v>
       </c>
-      <c r="C64" s="192">
+      <c r="C64" s="173">
         <v>-2.9404039090909065E-2</v>
       </c>
-      <c r="D64" s="114">
+      <c r="D64" s="211">
         <v>13.4611</v>
       </c>
       <c r="E64" s="114">
@@ -28115,69 +31575,69 @@
       <c r="G64" s="36">
         <v>0.14223859065114886</v>
       </c>
-      <c r="O64" s="85" t="s">
-        <v>43</v>
+      <c r="O64" s="90" t="s">
+        <v>46</v>
       </c>
       <c r="P64" s="86">
-        <v>-0.59709999999999996</v>
-      </c>
-      <c r="Q64" s="72">
-        <v>1.5851</v>
+        <v>-3.7258000000000004</v>
+      </c>
+      <c r="Q64" s="75">
+        <v>6.3470000000000004</v>
       </c>
       <c r="R64" s="105">
-        <v>-0.37669547662608038</v>
+        <v>-0.58701748857728064</v>
       </c>
       <c r="S64" s="86">
-        <v>0.40596427983817573</v>
-      </c>
-      <c r="T64" s="72">
-        <v>7.529399999999999</v>
+        <v>0.20527559701143749</v>
+      </c>
+      <c r="T64" s="75">
+        <v>8.2335999999999991</v>
       </c>
       <c r="U64" s="105">
-        <v>5.3917215161656415E-2</v>
+        <v>2.4931451249931683E-2</v>
       </c>
       <c r="V64" s="86">
-        <v>0.53845027367133813</v>
-      </c>
-      <c r="W64" s="86">
-        <v>3.7933434306569351</v>
+        <v>0.76175130767380761</v>
+      </c>
+      <c r="W64" s="91">
+        <v>5.0778449889732853</v>
       </c>
       <c r="X64" s="105">
-        <v>0.14194609149272011</v>
+        <v>0.15001468326189096</v>
       </c>
       <c r="Y64" s="86">
-        <v>3.6685446490482859E-2</v>
-      </c>
-      <c r="Z64" s="86">
-        <v>0.20310881995133825</v>
+        <v>-6.4526904685237904E-2</v>
+      </c>
+      <c r="Z64" s="91">
+        <v>0.53364981622151375</v>
       </c>
       <c r="AA64" s="105">
-        <v>0.18061966240201743</v>
+        <v>-0.12091619396052283</v>
       </c>
       <c r="AB64" s="84">
-        <f>V64+Y64</f>
-        <v>0.57513572016182102</v>
+        <f t="shared" si="22"/>
+        <v>0.69722440298856969</v>
       </c>
       <c r="AC64" s="84">
-        <f>W64+Z64</f>
-        <v>3.9964522506082734</v>
+        <f t="shared" si="22"/>
+        <v>5.6114948051947993</v>
       </c>
       <c r="AD64" s="84">
-        <f>AB64/AC64</f>
-        <v>0.14391157058720855</v>
-      </c>
-      <c r="AE64" s="106">
-        <v>-0.10058679002726996</v>
+        <f t="shared" si="23"/>
+        <v>0.12424931808599723</v>
+      </c>
+      <c r="AE64" s="108">
+        <v>0.11743877238132332</v>
       </c>
     </row>
     <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="176" t="s">
+      <c r="A65" s="158" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="103">
         <v>35.043199999999999</v>
       </c>
-      <c r="C65" s="192">
+      <c r="C65" s="173">
         <v>-2.9404039090909065E-2</v>
       </c>
       <c r="D65" s="114">
@@ -28192,175 +31652,181 @@
       <c r="G65" s="36">
         <v>0.10207224320241665</v>
       </c>
-      <c r="O65" s="87" t="s">
-        <v>44</v>
+      <c r="I65" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="O65" s="94" t="s">
+        <v>48</v>
       </c>
       <c r="P65" s="86">
-        <v>4.7496999999999998</v>
-      </c>
-      <c r="Q65" s="78">
-        <v>1.5595000000000001</v>
+        <v>-2.0448999999999997</v>
+      </c>
+      <c r="Q65" s="74">
+        <v>3.1258999999999997</v>
       </c>
       <c r="R65" s="105">
-        <v>3.0456556588650203</v>
+        <v>-0.65417959627627242</v>
       </c>
       <c r="S65" s="86">
-        <v>-4.2875485113030187E-2</v>
-      </c>
-      <c r="T65" s="78">
-        <v>7.0016999999999996</v>
+        <v>1.849413921397858</v>
+      </c>
+      <c r="T65" s="74">
+        <v>7.5085999999999995</v>
       </c>
       <c r="U65" s="105">
-        <v>-6.1235821461973795E-3</v>
+        <v>0.24630609186770611</v>
       </c>
       <c r="V65" s="86">
-        <v>0.77072804517574856</v>
-      </c>
-      <c r="W65" s="88">
-        <v>3.2029096365455167</v>
+        <v>0.63760360773591351</v>
+      </c>
+      <c r="W65" s="95">
+        <v>4.2943881967213136</v>
       </c>
       <c r="X65" s="105">
-        <v>0.2406337151637577</v>
+        <v>0.14847367739663409</v>
       </c>
       <c r="Y65" s="86">
-        <v>4.7747439937281255E-2</v>
-      </c>
-      <c r="Z65" s="88">
-        <v>0.18703707902634226</v>
+        <v>1.9282470866228862E-2</v>
+      </c>
+      <c r="Z65" s="95">
+        <v>0.27809010795681738</v>
       </c>
       <c r="AA65" s="105">
-        <v>0.25528328492852753</v>
+        <v>6.9338931211544927E-2</v>
       </c>
       <c r="AB65" s="84">
-        <f t="shared" ref="AB65:AC71" si="22">V65+Y65</f>
-        <v>0.81847548511302981</v>
+        <f t="shared" si="22"/>
+        <v>0.65688607860214243</v>
       </c>
       <c r="AC65" s="84">
         <f t="shared" si="22"/>
-        <v>3.3899467155718588</v>
+        <v>4.572478304678131</v>
       </c>
       <c r="AD65" s="84">
-        <f t="shared" ref="AD65:AD71" si="23">AB65/AC65</f>
-        <v>0.24144199121282031</v>
-      </c>
-      <c r="AE65" s="107">
-        <v>-0.32001589401318498</v>
+        <f t="shared" si="23"/>
+        <v>0.143660840977655</v>
+      </c>
+      <c r="AE65" s="109">
+        <v>-0.11251612892623995</v>
       </c>
     </row>
     <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O66" s="90" t="s">
-        <v>45</v>
+      <c r="I66" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="O66" s="94" t="s">
+        <v>49</v>
       </c>
       <c r="P66" s="86">
-        <v>-2.7269000000000001</v>
-      </c>
-      <c r="Q66" s="75">
-        <v>6.3570000000000002</v>
+        <v>-0.77380000000000015</v>
+      </c>
+      <c r="Q66" s="74">
+        <v>1.2892000000000001</v>
       </c>
       <c r="R66" s="105">
-        <v>-0.42896020135283941</v>
+        <v>-0.60021718895439036</v>
       </c>
       <c r="S66" s="86">
-        <v>0.11854131335046647</v>
-      </c>
-      <c r="T66" s="75">
-        <v>10.2044</v>
+        <v>-0.87190683761703458</v>
+      </c>
+      <c r="T66" s="74">
+        <v>8.2502999999999993</v>
       </c>
       <c r="U66" s="105">
-        <v>1.1616686267734161E-2</v>
+        <v>-0.10568183431112016</v>
       </c>
       <c r="V66" s="86">
-        <v>-1.5595514376973254</v>
-      </c>
-      <c r="W66" s="91">
-        <v>7.0654710684273754</v>
+        <v>0.51081309197247027</v>
+      </c>
+      <c r="W66" s="95">
+        <v>5.5288184321347602</v>
       </c>
       <c r="X66" s="105">
-        <v>-0.22072858590650893</v>
+        <v>9.2391005102194612E-2</v>
       </c>
       <c r="Y66" s="86">
-        <v>-9.8289875653147785E-2</v>
-      </c>
-      <c r="Z66" s="91">
-        <v>0.45884337735094055</v>
+        <v>0.10979374564456568</v>
+      </c>
+      <c r="Z66" s="95">
+        <v>0.3598969808875932</v>
       </c>
       <c r="AA66" s="105">
-        <v>-0.2142122573951242</v>
+        <v>0.30506992688237528</v>
       </c>
       <c r="AB66" s="84">
         <f t="shared" si="22"/>
-        <v>-1.6578413133504732</v>
+        <v>0.62060683761703594</v>
       </c>
       <c r="AC66" s="84">
         <f t="shared" si="22"/>
-        <v>7.524314445778316</v>
+        <v>5.8887154130223536</v>
       </c>
       <c r="AD66" s="84">
         <f t="shared" si="23"/>
-        <v>-0.22033121094249883</v>
-      </c>
-      <c r="AE66" s="108">
-        <v>0.11743877238132332</v>
+        <v>0.10538917133686251</v>
+      </c>
+      <c r="AE66" s="109">
+        <v>-0.11251612892623995</v>
       </c>
     </row>
     <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B67" s="156" t="s">
+      <c r="B67" s="204" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="157"/>
-      <c r="O67" s="90" t="s">
-        <v>46</v>
+      <c r="C67" s="205"/>
+      <c r="O67" s="96" t="s">
+        <v>50</v>
       </c>
       <c r="P67" s="86">
-        <v>-3.7258000000000004</v>
-      </c>
-      <c r="Q67" s="75">
-        <v>6.3470000000000004</v>
+        <v>-0.69299999999999962</v>
+      </c>
+      <c r="Q67" s="76">
+        <v>2.1473999999999998</v>
       </c>
       <c r="R67" s="105">
-        <v>-0.58701748857728064</v>
+        <v>-0.32271584241408202</v>
       </c>
       <c r="S67" s="86">
-        <v>0.20527559701143749</v>
-      </c>
-      <c r="T67" s="75">
-        <v>8.2335999999999991</v>
+        <v>-0.90590974459061657</v>
+      </c>
+      <c r="T67" s="76">
+        <v>9.2515999999999998</v>
       </c>
       <c r="U67" s="105">
-        <v>2.4931451249931683E-2</v>
+        <v>-9.7919251220396103E-2</v>
       </c>
       <c r="V67" s="86">
-        <v>0.76175130767380761</v>
-      </c>
-      <c r="W67" s="91">
-        <v>5.0778449889732853</v>
+        <v>2.7966349436854614</v>
+      </c>
+      <c r="W67" s="104">
+        <v>4.0606493176648994</v>
       </c>
       <c r="X67" s="105">
-        <v>0.15001468326189096</v>
+        <v>0.68871619411195129</v>
       </c>
       <c r="Y67" s="86">
-        <v>-6.4526904685237904E-2</v>
-      </c>
-      <c r="Z67" s="91">
-        <v>0.53364981622151375</v>
+        <v>0.20807480090515129</v>
+      </c>
+      <c r="Z67" s="104">
+        <v>0.28163472327520855</v>
       </c>
       <c r="AA67" s="105">
-        <v>-0.12091619396052283</v>
+        <v>0.73881089123312471</v>
       </c>
       <c r="AB67" s="84">
         <f t="shared" si="22"/>
-        <v>0.69722440298856969</v>
+        <v>3.0047097445906128</v>
       </c>
       <c r="AC67" s="84">
-        <f t="shared" si="22"/>
-        <v>5.6114948051947993</v>
+        <f>W67+Z67</f>
+        <v>4.3422840409401076</v>
       </c>
       <c r="AD67" s="84">
         <f t="shared" si="23"/>
-        <v>0.12424931808599723</v>
-      </c>
-      <c r="AE67" s="108">
-        <v>0.11743877238132332</v>
+        <v>0.69196526902926669</v>
+      </c>
+      <c r="AE67" s="110">
+        <v>-4.9570413884485784E-2</v>
       </c>
     </row>
     <row r="68" spans="1:31" x14ac:dyDescent="0.25">
@@ -28371,16 +31837,16 @@
       <c r="C68" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="181" t="s">
+      <c r="D68" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="181" t="s">
+      <c r="E68" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="181" t="s">
+      <c r="F68" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="181" t="s">
+      <c r="G68" s="162" t="s">
         <v>74</v>
       </c>
       <c r="O68" s="92" t="s">
@@ -28423,15 +31889,15 @@
         <v>0.19235164956740658</v>
       </c>
       <c r="AB68" s="84">
-        <f t="shared" si="22"/>
+        <f>V68+Y68</f>
         <v>0.70073619976797186</v>
       </c>
       <c r="AC68" s="84">
-        <f t="shared" si="22"/>
+        <f>W68+Z68</f>
         <v>3.7318393068399573</v>
       </c>
       <c r="AD68" s="84">
-        <f t="shared" si="23"/>
+        <f>AB68/AC68</f>
         <v>0.18777234016577751</v>
       </c>
       <c r="AE68" s="93">
@@ -28439,13 +31905,13 @@
       </c>
     </row>
     <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="171" t="s">
+      <c r="A69" s="153" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="97">
         <v>27.528300000000002</v>
       </c>
-      <c r="C69" s="196">
+      <c r="C69" s="177">
         <v>0.24235650000000003</v>
       </c>
       <c r="D69" s="107">
@@ -28460,69 +31926,69 @@
       <c r="G69" s="72">
         <v>0.12877571176566063</v>
       </c>
-      <c r="O69" s="94" t="s">
-        <v>48</v>
+      <c r="O69" s="87" t="s">
+        <v>44</v>
       </c>
       <c r="P69" s="86">
-        <v>-2.0448999999999997</v>
-      </c>
-      <c r="Q69" s="74">
-        <v>3.1258999999999997</v>
+        <v>4.7496999999999998</v>
+      </c>
+      <c r="Q69" s="78">
+        <v>1.5595000000000001</v>
       </c>
       <c r="R69" s="105">
-        <v>-0.65417959627627242</v>
+        <v>3.0456556588650203</v>
       </c>
       <c r="S69" s="86">
-        <v>1.849413921397858</v>
-      </c>
-      <c r="T69" s="74">
-        <v>7.5085999999999995</v>
+        <v>-4.2875485113030187E-2</v>
+      </c>
+      <c r="T69" s="78">
+        <v>7.0016999999999996</v>
       </c>
       <c r="U69" s="105">
-        <v>0.24630609186770611</v>
+        <v>-6.1235821461973795E-3</v>
       </c>
       <c r="V69" s="86">
-        <v>0.63760360773591351</v>
-      </c>
-      <c r="W69" s="95">
-        <v>4.2943881967213136</v>
+        <v>0.77072804517574856</v>
+      </c>
+      <c r="W69" s="88">
+        <v>3.2029096365455167</v>
       </c>
       <c r="X69" s="105">
-        <v>0.14847367739663409</v>
+        <v>0.2406337151637577</v>
       </c>
       <c r="Y69" s="86">
-        <v>1.9282470866228862E-2</v>
-      </c>
-      <c r="Z69" s="95">
-        <v>0.27809010795681738</v>
+        <v>4.7747439937281255E-2</v>
+      </c>
+      <c r="Z69" s="88">
+        <v>0.18703707902634226</v>
       </c>
       <c r="AA69" s="105">
-        <v>6.9338931211544927E-2</v>
+        <v>0.25528328492852753</v>
       </c>
       <c r="AB69" s="84">
-        <f t="shared" si="22"/>
-        <v>0.65688607860214243</v>
+        <f>V69+Y69</f>
+        <v>0.81847548511302981</v>
       </c>
       <c r="AC69" s="84">
-        <f t="shared" si="22"/>
-        <v>4.572478304678131</v>
+        <f>W69+Z69</f>
+        <v>3.3899467155718588</v>
       </c>
       <c r="AD69" s="84">
-        <f t="shared" si="23"/>
-        <v>0.143660840977655</v>
-      </c>
-      <c r="AE69" s="109">
-        <v>-0.11251612892623995</v>
+        <f>AB69/AC69</f>
+        <v>0.24144199121282031</v>
+      </c>
+      <c r="AE69" s="107">
+        <v>-0.32001589401318498</v>
       </c>
     </row>
     <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="171" t="s">
+      <c r="A70" s="153" t="s">
         <v>15</v>
       </c>
       <c r="B70" s="97">
         <v>14.5052</v>
       </c>
-      <c r="C70" s="196">
+      <c r="C70" s="177">
         <v>0.24235650000000003</v>
       </c>
       <c r="D70" s="107">
@@ -28537,69 +32003,15 @@
       <c r="G70" s="72">
         <v>4.3028917050452489E-2</v>
       </c>
-      <c r="O70" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="P70" s="86">
-        <v>-0.77380000000000015</v>
-      </c>
-      <c r="Q70" s="74">
-        <v>1.2892000000000001</v>
-      </c>
-      <c r="R70" s="105">
-        <v>-0.60021718895439036</v>
-      </c>
-      <c r="S70" s="86">
-        <v>-0.87190683761703458</v>
-      </c>
-      <c r="T70" s="74">
-        <v>8.2502999999999993</v>
-      </c>
-      <c r="U70" s="105">
-        <v>-0.10568183431112016</v>
-      </c>
-      <c r="V70" s="86">
-        <v>0.51081309197247027</v>
-      </c>
-      <c r="W70" s="95">
-        <v>5.5288184321347602</v>
-      </c>
-      <c r="X70" s="105">
-        <v>9.2391005102194612E-2</v>
-      </c>
-      <c r="Y70" s="86">
-        <v>0.10979374564456568</v>
-      </c>
-      <c r="Z70" s="95">
-        <v>0.3598969808875932</v>
-      </c>
-      <c r="AA70" s="105">
-        <v>0.30506992688237528</v>
-      </c>
-      <c r="AB70" s="84">
-        <f t="shared" si="22"/>
-        <v>0.62060683761703594</v>
-      </c>
-      <c r="AC70" s="84">
-        <f t="shared" si="22"/>
-        <v>5.8887154130223536</v>
-      </c>
-      <c r="AD70" s="84">
-        <f t="shared" si="23"/>
-        <v>0.10538917133686251</v>
-      </c>
-      <c r="AE70" s="109">
-        <v>-0.11251612892623995</v>
-      </c>
     </row>
     <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="201" t="s">
+      <c r="A71" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="193">
+      <c r="B71" s="174">
         <v>71.694199999999995</v>
       </c>
-      <c r="C71" s="202">
+      <c r="C71" s="183">
         <v>-0.29172375000000034</v>
       </c>
       <c r="D71" s="107">
@@ -28614,69 +32026,15 @@
       <c r="G71" s="72">
         <v>0.19838337462369771</v>
       </c>
-      <c r="O71" s="96" t="s">
-        <v>50</v>
-      </c>
-      <c r="P71" s="86">
-        <v>-0.69299999999999962</v>
-      </c>
-      <c r="Q71" s="76">
-        <v>2.1473999999999998</v>
-      </c>
-      <c r="R71" s="105">
-        <v>-0.32271584241408202</v>
-      </c>
-      <c r="S71" s="86">
-        <v>-0.90590974459061657</v>
-      </c>
-      <c r="T71" s="76">
-        <v>9.2515999999999998</v>
-      </c>
-      <c r="U71" s="105">
-        <v>-9.7919251220396103E-2</v>
-      </c>
-      <c r="V71" s="86">
-        <v>2.7966349436854614</v>
-      </c>
-      <c r="W71" s="104">
-        <v>4.0606493176648994</v>
-      </c>
-      <c r="X71" s="105">
-        <v>0.68871619411195129</v>
-      </c>
-      <c r="Y71" s="86">
-        <v>0.20807480090515129</v>
-      </c>
-      <c r="Z71" s="104">
-        <v>0.28163472327520855</v>
-      </c>
-      <c r="AA71" s="105">
-        <v>0.73881089123312471</v>
-      </c>
-      <c r="AB71" s="84">
-        <f t="shared" si="22"/>
-        <v>3.0047097445906128</v>
-      </c>
-      <c r="AC71" s="84">
-        <f>W71+Z71</f>
-        <v>4.3422840409401076</v>
-      </c>
-      <c r="AD71" s="84">
-        <f t="shared" si="23"/>
-        <v>0.69196526902926669</v>
-      </c>
-      <c r="AE71" s="110">
-        <v>-4.9570413884485784E-2</v>
-      </c>
     </row>
     <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="185" t="s">
+      <c r="A72" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="186">
+      <c r="B72" s="167">
         <v>47.312199999999997</v>
       </c>
-      <c r="C72" s="203">
+      <c r="C72" s="184">
         <v>-7.9807612500000069E-2</v>
       </c>
       <c r="D72" s="107">
@@ -28693,13 +32051,13 @@
       </c>
     </row>
     <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="173" t="s">
+      <c r="A73" s="155" t="s">
         <v>18</v>
       </c>
       <c r="B73" s="100">
         <v>31.810600000000001</v>
       </c>
-      <c r="C73" s="198">
+      <c r="C73" s="179">
         <v>7.4400954545454687E-2</v>
       </c>
       <c r="D73" s="88">
@@ -28716,13 +32074,13 @@
       </c>
     </row>
     <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="173" t="s">
+      <c r="A74" s="155" t="s">
         <v>19</v>
       </c>
       <c r="B74" s="100">
         <v>24.152100000000001</v>
       </c>
-      <c r="C74" s="198">
+      <c r="C74" s="179">
         <v>7.4400954545454687E-2</v>
       </c>
       <c r="D74" s="88">
@@ -28739,13 +32097,13 @@
       </c>
     </row>
     <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="174" t="s">
+      <c r="A75" s="156" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="101">
         <v>62.840499999999999</v>
       </c>
-      <c r="C75" s="199">
+      <c r="C75" s="180">
         <v>-2.9873056909090877E-2</v>
       </c>
       <c r="D75" s="88">
@@ -28762,13 +32120,13 @@
       </c>
     </row>
     <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="174" t="s">
+      <c r="A76" s="156" t="s">
         <v>21</v>
       </c>
       <c r="B76" s="101">
         <v>29.180700000000002</v>
       </c>
-      <c r="C76" s="199">
+      <c r="C76" s="180">
         <v>-2.9873056909090877E-2</v>
       </c>
       <c r="D76" s="88">
@@ -28785,13 +32143,13 @@
       </c>
     </row>
     <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="175" t="s">
+      <c r="A77" s="157" t="s">
         <v>22</v>
       </c>
       <c r="B77" s="98">
         <v>25.196200000000001</v>
       </c>
-      <c r="C77" s="197">
+      <c r="C77" s="178">
         <v>-8.9525781818181854E-2</v>
       </c>
       <c r="D77" s="88">
@@ -28808,13 +32166,13 @@
       </c>
     </row>
     <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="175" t="s">
+      <c r="A78" s="157" t="s">
         <v>23</v>
       </c>
       <c r="B78" s="98">
         <v>14.8794</v>
       </c>
-      <c r="C78" s="197">
+      <c r="C78" s="178">
         <v>-8.9525781818181854E-2</v>
       </c>
       <c r="D78" s="88">
@@ -28831,13 +32189,13 @@
       </c>
     </row>
     <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="176" t="s">
+      <c r="A79" s="158" t="s">
         <v>24</v>
       </c>
       <c r="B79" s="103">
         <v>31.258299999999998</v>
       </c>
-      <c r="C79" s="200">
+      <c r="C79" s="181">
         <v>-2.9404039090909065E-2</v>
       </c>
       <c r="D79" s="88">
@@ -28854,40 +32212,40 @@
       </c>
     </row>
     <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D80" s="184"/>
-      <c r="E80" s="184"/>
-      <c r="F80" s="184"/>
-      <c r="G80" s="184"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="165"/>
+      <c r="F80" s="165"/>
+      <c r="G80" s="165"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="156" t="s">
+      <c r="B82" s="204" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="177"/>
+      <c r="C82" s="207"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="170"/>
-      <c r="B83" s="181" t="s">
+      <c r="A83" s="152"/>
+      <c r="B83" s="162" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="178" t="s">
+      <c r="D83" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="178" t="s">
+      <c r="E83" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="181" t="s">
+      <c r="F83" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="181" t="s">
+      <c r="G83" s="162" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="153" t="s">
         <v>0</v>
       </c>
       <c r="B84" s="97">
@@ -28896,21 +32254,21 @@
       <c r="C84" s="106">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D84" s="179">
+      <c r="D84" s="160">
         <v>1.5851</v>
       </c>
-      <c r="E84" s="180">
+      <c r="E84" s="161">
         <v>7.529399999999999</v>
       </c>
-      <c r="F84" s="182">
+      <c r="F84" s="163">
         <v>3.7933434306569351</v>
       </c>
-      <c r="G84" s="209">
+      <c r="G84" s="190">
         <v>0.20310881995133825</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="153" t="s">
         <v>1</v>
       </c>
       <c r="B85" s="97">
@@ -28919,21 +32277,21 @@
       <c r="C85" s="106">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D85" s="206">
+      <c r="D85" s="187">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E85" s="179">
+      <c r="E85" s="160">
         <v>8.8132999999999999</v>
       </c>
-      <c r="F85" s="182">
+      <c r="F85" s="163">
         <v>4.2427262400605823</v>
       </c>
-      <c r="G85" s="196">
+      <c r="G85" s="177">
         <v>0.24768143380032806</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="172" t="s">
+      <c r="A86" s="154" t="s">
         <v>2</v>
       </c>
       <c r="B86" s="98">
@@ -28942,44 +32300,44 @@
       <c r="C86" s="109">
         <v>-0.30298566155398499</v>
       </c>
-      <c r="D86" s="180">
+      <c r="D86" s="161">
         <v>1.5595000000000001</v>
       </c>
-      <c r="E86" s="206">
+      <c r="E86" s="187">
         <v>7.0016999999999996</v>
       </c>
-      <c r="F86" s="205">
+      <c r="F86" s="186">
         <v>3.2029096365455167</v>
       </c>
-      <c r="G86" s="208">
+      <c r="G86" s="189">
         <v>0.18703707902634226</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="185" t="s">
+      <c r="A87" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="186">
+      <c r="B87" s="167">
         <v>19.3034</v>
       </c>
-      <c r="C87" s="183">
+      <c r="C87" s="164">
         <v>-0.32001589401318498</v>
       </c>
-      <c r="D87" s="179">
+      <c r="D87" s="160">
         <v>4.3765000000000001</v>
       </c>
-      <c r="E87" s="179">
+      <c r="E87" s="160">
         <v>11.661999999999999</v>
       </c>
-      <c r="F87" s="182">
+      <c r="F87" s="163">
         <v>5.822843398413668</v>
       </c>
-      <c r="G87" s="196">
+      <c r="G87" s="177">
         <v>0.3635123062843198</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="173" t="s">
+      <c r="A88" s="155" t="s">
         <v>4</v>
       </c>
       <c r="B88" s="100">
@@ -28994,15 +32352,15 @@
       <c r="E88" s="102">
         <v>10.2044</v>
       </c>
-      <c r="F88" s="182">
+      <c r="F88" s="163">
         <v>7.0654710684273754</v>
       </c>
-      <c r="G88" s="196">
+      <c r="G88" s="177">
         <v>0.45884337735094055</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="173" t="s">
+      <c r="A89" s="155" t="s">
         <v>5</v>
       </c>
       <c r="B89" s="100">
@@ -29017,15 +32375,15 @@
       <c r="E89" s="102">
         <v>8.2335999999999991</v>
       </c>
-      <c r="F89" s="182">
+      <c r="F89" s="163">
         <v>5.0778449889732853</v>
       </c>
-      <c r="G89" s="196">
+      <c r="G89" s="177">
         <v>0.53364981622151375</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="174" t="s">
+      <c r="A90" s="156" t="s">
         <v>7</v>
       </c>
       <c r="B90" s="101">
@@ -29037,18 +32395,18 @@
       <c r="D90" s="102">
         <v>6.3075000000000001</v>
       </c>
-      <c r="E90" s="204">
+      <c r="E90" s="185">
         <v>6.8244000000000007</v>
       </c>
-      <c r="F90" s="207">
+      <c r="F90" s="188">
         <v>3.4966024327251528</v>
       </c>
-      <c r="G90" s="196">
+      <c r="G90" s="177">
         <v>0.23523687411480473</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="175" t="s">
+      <c r="A91" s="157" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="98">
@@ -29063,15 +32421,15 @@
       <c r="E91" s="102">
         <v>7.5085999999999995</v>
       </c>
-      <c r="F91" s="182">
+      <c r="F91" s="163">
         <v>4.2943881967213136</v>
       </c>
-      <c r="G91" s="196">
+      <c r="G91" s="177">
         <v>0.27809010795681738</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="175" t="s">
+      <c r="A92" s="157" t="s">
         <v>9</v>
       </c>
       <c r="B92" s="98">
@@ -29086,15 +32444,15 @@
       <c r="E92" s="102">
         <v>8.2502999999999993</v>
       </c>
-      <c r="F92" s="182">
+      <c r="F92" s="163">
         <v>5.5288184321347602</v>
       </c>
-      <c r="G92" s="196">
+      <c r="G92" s="177">
         <v>0.3598969808875932</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="176" t="s">
+      <c r="A93" s="158" t="s">
         <v>10</v>
       </c>
       <c r="B93" s="103">
@@ -29103,21 +32461,21 @@
       <c r="C93" s="110">
         <v>-4.9570413884485784E-2</v>
       </c>
-      <c r="D93" s="204">
+      <c r="D93" s="185">
         <v>0.41239999999999999</v>
       </c>
       <c r="E93" s="102">
         <v>9.6692</v>
       </c>
-      <c r="F93" s="182">
+      <c r="F93" s="163">
         <v>6.9407622366288502</v>
       </c>
-      <c r="G93" s="196">
+      <c r="G93" s="177">
         <v>0.8784301134521878</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="176" t="s">
+      <c r="A94" s="158" t="s">
         <v>11</v>
       </c>
       <c r="B94" s="103">
@@ -29132,18 +32490,18 @@
       <c r="E94" s="102">
         <v>9.2515999999999998</v>
       </c>
-      <c r="F94" s="182">
+      <c r="F94" s="163">
         <v>4.0606493176648994</v>
       </c>
-      <c r="G94" s="196">
+      <c r="G94" s="177">
         <v>0.28163472327520855</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="156" t="s">
+      <c r="B96" s="204" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="157"/>
+      <c r="C96" s="205"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
@@ -29153,21 +32511,21 @@
       <c r="C97" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="181" t="s">
+      <c r="D97" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="E97" s="181" t="s">
+      <c r="E97" s="162" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="181" t="s">
+      <c r="F97" s="162" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="181" t="s">
+      <c r="G97" s="162" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="171" t="s">
+      <c r="A98" s="153" t="s">
         <v>14</v>
       </c>
       <c r="B98" s="97">
@@ -29176,13 +32534,13 @@
       <c r="C98" s="106">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D98" s="179">
+      <c r="D98" s="160">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E98" s="179">
+      <c r="E98" s="160">
         <v>8.8132999999999999</v>
       </c>
-      <c r="F98" s="182">
+      <c r="F98" s="163">
         <v>4.3317937043282733</v>
       </c>
       <c r="G98" s="72">
@@ -29190,7 +32548,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="171" t="s">
+      <c r="A99" s="153" t="s">
         <v>15</v>
       </c>
       <c r="B99" s="97">
@@ -29199,13 +32557,13 @@
       <c r="C99" s="106">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D99" s="179">
+      <c r="D99" s="160">
         <v>1.8402000000000001</v>
       </c>
-      <c r="E99" s="179">
+      <c r="E99" s="160">
         <v>11.34998</v>
       </c>
-      <c r="F99" s="182">
+      <c r="F99" s="163">
         <v>6.4575747575326545</v>
       </c>
       <c r="G99" s="72">
@@ -29213,7 +32571,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="172" t="s">
+      <c r="A100" s="154" t="s">
         <v>16</v>
       </c>
       <c r="B100" s="98">
@@ -29222,13 +32580,13 @@
       <c r="C100" s="109">
         <v>-0.30298566155398499</v>
       </c>
-      <c r="D100" s="179">
+      <c r="D100" s="160">
         <v>6.3091999999999997</v>
       </c>
-      <c r="E100" s="179">
+      <c r="E100" s="160">
         <v>6.6124999999999998</v>
       </c>
-      <c r="F100" s="182">
+      <c r="F100" s="163">
         <v>3.9736376817212653</v>
       </c>
       <c r="G100" s="72">
@@ -29236,22 +32594,22 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="185" t="s">
+      <c r="A101" s="166" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="186">
+      <c r="B101" s="167">
         <v>4.6359000000000004</v>
       </c>
-      <c r="C101" s="187">
+      <c r="C101" s="168">
         <v>-0.32001589401318453</v>
       </c>
-      <c r="D101" s="179">
+      <c r="D101" s="160">
         <v>0.54489999999999994</v>
       </c>
-      <c r="E101" s="179">
+      <c r="E101" s="160">
         <v>3.1219000000000001</v>
       </c>
-      <c r="F101" s="182">
+      <c r="F101" s="163">
         <v>2.2229107544469429</v>
       </c>
       <c r="G101" s="72">
@@ -29259,7 +32617,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="173" t="s">
+      <c r="A102" s="155" t="s">
         <v>18</v>
       </c>
       <c r="B102" s="100">
@@ -29274,7 +32632,7 @@
       <c r="E102" s="102">
         <v>8.4920000000000009</v>
       </c>
-      <c r="F102" s="182">
+      <c r="F102" s="163">
         <v>5.50591963073005</v>
       </c>
       <c r="G102" s="72">
@@ -29282,7 +32640,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="173" t="s">
+      <c r="A103" s="155" t="s">
         <v>19</v>
       </c>
       <c r="B103" s="100">
@@ -29297,7 +32655,7 @@
       <c r="E103" s="102">
         <v>5.7622000000000009</v>
       </c>
-      <c r="F103" s="182">
+      <c r="F103" s="163">
         <v>5.8395962966470929</v>
       </c>
       <c r="G103" s="72">
@@ -29305,7 +32663,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="174" t="s">
+      <c r="A104" s="156" t="s">
         <v>20</v>
       </c>
       <c r="B104" s="101">
@@ -29320,7 +32678,7 @@
       <c r="E104" s="102">
         <v>11.0939</v>
       </c>
-      <c r="F104" s="182">
+      <c r="F104" s="163">
         <v>5.7129808341416108</v>
       </c>
       <c r="G104" s="72">
@@ -29328,7 +32686,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="174" t="s">
+      <c r="A105" s="156" t="s">
         <v>21</v>
       </c>
       <c r="B105" s="101">
@@ -29343,7 +32701,7 @@
       <c r="E105" s="102">
         <v>5.5735000000000001</v>
       </c>
-      <c r="F105" s="182">
+      <c r="F105" s="163">
         <v>4.1520904317180616</v>
       </c>
       <c r="G105" s="72">
@@ -29351,7 +32709,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="175" t="s">
+      <c r="A106" s="157" t="s">
         <v>22</v>
       </c>
       <c r="B106" s="98">
@@ -29366,7 +32724,7 @@
       <c r="E106" s="102">
         <v>8.8879999999999999</v>
       </c>
-      <c r="F106" s="182">
+      <c r="F106" s="163">
         <v>4.9319918044572271</v>
       </c>
       <c r="G106" s="72">
@@ -29374,7 +32732,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="175" t="s">
+      <c r="A107" s="157" t="s">
         <v>23</v>
       </c>
       <c r="B107" s="98">
@@ -29389,7 +32747,7 @@
       <c r="E107" s="102">
         <v>6.3197999999999999</v>
       </c>
-      <c r="F107" s="182">
+      <c r="F107" s="163">
         <v>6.0396315241072305</v>
       </c>
       <c r="G107" s="72">
@@ -29397,7 +32755,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="176" t="s">
+      <c r="A108" s="158" t="s">
         <v>24</v>
       </c>
       <c r="B108" s="103">
@@ -29412,7 +32770,7 @@
       <c r="E108" s="102">
         <v>9.8343000000000007</v>
       </c>
-      <c r="F108" s="182">
+      <c r="F108" s="163">
         <v>6.8572842613503608</v>
       </c>
       <c r="G108" s="72">
@@ -29421,14 +32779,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="O61:AE61"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="S62:U62"/>
-    <mergeCell ref="V62:X62"/>
-    <mergeCell ref="Y62:AA62"/>
-    <mergeCell ref="AB62:AD62"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="O15:AE15"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="O45:AE45"/>
@@ -29443,27 +32814,14 @@
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="O15:AE15"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="O59:AE59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
+++ b/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\baskets_new_sizes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\GSD\baskets_new_sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E439E63-9065-425D-B505-ABC8629CA11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F429241-383C-4610-97C5-1AADFC37A04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocity vs Deposition" sheetId="1" r:id="rId1"/>
     <sheet name="HF regressions - S&amp;C combined" sheetId="2" r:id="rId2"/>
     <sheet name="HF - minimum cutoff" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -745,7 +746,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -973,9 +974,6 @@
     <xf numFmtId="165" fontId="6" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1136,28 +1134,22 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1169,7 +1161,7 @@
     <xf numFmtId="164" fontId="13" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,10 +1176,10 @@
     <xf numFmtId="164" fontId="15" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1309,7 +1301,22 @@
     <xf numFmtId="164" fontId="14" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1321,16 +1328,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,10 +1343,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1354,28 +1364,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23944,23 +23936,23 @@
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="191" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="192" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="191"/>
+      <c r="B2" s="192"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>12</v>
@@ -23981,7 +23973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -24004,7 +23996,7 @@
         <v>0.16000831182380906</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -24027,7 +24019,7 @@
         <v>0.12962202535912964</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -24050,7 +24042,7 @@
         <v>0.13238380964895011</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -24073,7 +24065,7 @@
         <v>0.12090681526084991</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -24096,7 +24088,7 @@
         <v>0.32174543062421551</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -24119,7 +24111,7 @@
         <v>0.22065374815008071</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -24142,7 +24134,7 @@
         <v>0.32472434373056097</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
@@ -24165,7 +24157,7 @@
         <v>0.12314691966104313</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>8</v>
       </c>
@@ -24188,7 +24180,7 @@
         <v>4.2238846068331719E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>9</v>
       </c>
@@ -24211,7 +24203,7 @@
         <v>6.5591352842813269E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>10</v>
       </c>
@@ -24234,7 +24226,7 @@
         <v>0.14223859065114886</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>11</v>
       </c>
@@ -24257,13 +24249,13 @@
         <v>0.10207224320241665</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="191" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="192" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="191"/>
+      <c r="B17" s="192"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>12</v>
@@ -24284,7 +24276,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -24307,7 +24299,7 @@
         <v>0.12877571176566063</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -24330,7 +24322,7 @@
         <v>4.3028917050452489E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>16</v>
       </c>
@@ -24353,7 +24345,7 @@
         <v>0.19838337462369771</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -24376,7 +24368,7 @@
         <v>0.23269804300815269</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
@@ -24399,7 +24391,7 @@
         <v>0.14591900352662143</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>19</v>
       </c>
@@ -24422,7 +24414,7 @@
         <v>0.1089397532643475</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>20</v>
       </c>
@@ -24445,7 +24437,7 @@
         <v>0.25350487407165828</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>21</v>
       </c>
@@ -24468,7 +24460,7 @@
         <v>0.17018552264393186</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>22</v>
       </c>
@@ -24491,7 +24483,7 @@
         <v>8.7751258894774364E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -24514,7 +24506,7 @@
         <v>7.6598708923253711E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>24</v>
       </c>
@@ -24537,13 +24529,13 @@
         <v>8.0302038778309603E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="191" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="191"/>
+      <c r="B31" s="192"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -24564,7 +24556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -24587,7 +24579,7 @@
         <v>0.20310881995133825</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>1</v>
       </c>
@@ -24610,7 +24602,7 @@
         <v>0.24768143380032806</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>2</v>
       </c>
@@ -24633,7 +24625,7 @@
         <v>0.18703707902634226</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>3</v>
       </c>
@@ -24656,7 +24648,7 @@
         <v>0.3635123062843198</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>4</v>
       </c>
@@ -24679,7 +24671,7 @@
         <v>0.45884337735094055</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
         <v>5</v>
       </c>
@@ -24702,7 +24694,7 @@
         <v>0.53364981622151375</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>7</v>
       </c>
@@ -24725,7 +24717,7 @@
         <v>0.23523687411480473</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>8</v>
       </c>
@@ -24748,7 +24740,7 @@
         <v>0.27809010795681738</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>9</v>
       </c>
@@ -24771,7 +24763,7 @@
         <v>0.3598969808875932</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>10</v>
       </c>
@@ -24794,7 +24786,7 @@
         <v>0.8784301134521878</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>11</v>
       </c>
@@ -24817,13 +24809,13 @@
         <v>0.28163472327520855</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="191" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="192" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="191"/>
+      <c r="B45" s="192"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10"/>
       <c r="B46" s="5" t="s">
         <v>12</v>
@@ -24844,7 +24836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>14</v>
       </c>
@@ -24867,7 +24859,7 @@
         <v>0.23979426644182111</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>15</v>
       </c>
@@ -24890,7 +24882,7 @@
         <v>0.3607486615802406</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
@@ -24913,7 +24905,7 @@
         <v>0.23478451896362351</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>17</v>
       </c>
@@ -24936,7 +24928,7 @@
         <v>0.17418830505009195</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
         <v>18</v>
       </c>
@@ -24959,7 +24951,7 @@
         <v>0.36055350169779277</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>19</v>
       </c>
@@ -24982,7 +24974,7 @@
         <v>0.46912291153627583</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
@@ -25005,7 +24997,7 @@
         <v>0.39221973811833188</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
@@ -25028,7 +25020,7 @@
         <v>0.28048507488986779</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>22</v>
       </c>
@@ -25051,7 +25043,7 @@
         <v>0.29737257882304624</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>23</v>
       </c>
@@ -25074,7 +25066,7 @@
         <v>0.46969072653215888</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>24</v>
       </c>
@@ -25117,18 +25109,18 @@
       <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="15" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="199" t="s">
         <v>56</v>
       </c>
@@ -25149,57 +25141,57 @@
       <c r="P1" s="200"/>
       <c r="Q1" s="201"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="203"/>
-      <c r="C2" s="203"/>
-      <c r="D2" s="203"/>
-      <c r="E2" s="203"/>
-      <c r="F2" s="203"/>
-      <c r="G2" s="203"/>
-      <c r="H2" s="203"/>
-      <c r="I2" s="203"/>
-      <c r="J2" s="203"/>
-      <c r="K2" s="203"/>
-      <c r="L2" s="203"/>
-      <c r="M2" s="203"/>
-      <c r="N2" s="203"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="198"/>
+      <c r="E2" s="198"/>
+      <c r="F2" s="198"/>
+      <c r="G2" s="198"/>
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="198"/>
+      <c r="K2" s="198"/>
+      <c r="L2" s="198"/>
+      <c r="M2" s="198"/>
+      <c r="N2" s="198"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
-      <c r="B3" s="198" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="82"/>
+      <c r="B3" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198" t="s">
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198" t="s">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198" t="s">
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="198" t="s">
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="198"/>
-      <c r="P3" s="198"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>38</v>
       </c>
@@ -25252,11 +25244,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="77">
+      <c r="B5" s="71">
         <v>-18.643499999999996</v>
       </c>
       <c r="C5" s="72">
@@ -25265,7 +25257,7 @@
       <c r="D5" s="71">
         <v>-0.42344355789344579</v>
       </c>
-      <c r="E5" s="77">
+      <c r="E5" s="71">
         <v>-0.34287500000000026</v>
       </c>
       <c r="F5" s="72">
@@ -25274,7 +25266,7 @@
       <c r="G5" s="71">
         <v>-0.14476461895714599</v>
       </c>
-      <c r="H5" s="77">
+      <c r="H5" s="71">
         <v>-0.16332090060751703</v>
       </c>
       <c r="I5" s="56">
@@ -25283,7 +25275,7 @@
       <c r="J5" s="71">
         <v>-0.17090718766294993</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="71">
         <v>-3.123260005814843E-2</v>
       </c>
       <c r="L5" s="56">
@@ -25292,15 +25284,15 @@
       <c r="M5" s="71">
         <v>-0.19519361027032006</v>
       </c>
-      <c r="N5" s="84">
+      <c r="N5" s="83">
         <f>SUM(H5,K5)</f>
         <v>-0.19455350066566546</v>
       </c>
-      <c r="O5" s="84">
+      <c r="O5" s="83">
         <f>SUM(I5,L5)</f>
         <v>1.1156199677221321</v>
       </c>
-      <c r="P5" s="84">
+      <c r="P5" s="83">
         <f>N5/O5</f>
         <v>-0.17439047910096475</v>
       </c>
@@ -25308,11 +25300,11 @@
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="77">
+      <c r="B6" s="71">
         <v>-13.749399999999996</v>
       </c>
       <c r="C6" s="72">
@@ -25321,7 +25313,7 @@
       <c r="D6" s="71">
         <v>-0.5020136188546287</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="71">
         <v>-1.3113999999999999</v>
       </c>
       <c r="F6" s="72">
@@ -25330,7 +25322,7 @@
       <c r="G6" s="71">
         <v>-0.62752416499186525</v>
       </c>
-      <c r="H6" s="77">
+      <c r="H6" s="71">
         <v>-0.52988876178065869</v>
       </c>
       <c r="I6" s="56">
@@ -25339,7 +25331,7 @@
       <c r="J6" s="71">
         <v>-0.66154455868720241</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="71">
         <v>-8.6593108308677155E-2</v>
       </c>
       <c r="L6" s="56">
@@ -25348,15 +25340,15 @@
       <c r="M6" s="71">
         <v>-0.66804316680566478</v>
       </c>
-      <c r="N6" s="84">
+      <c r="N6" s="83">
         <f t="shared" ref="N6:N15" si="0">SUM(H6,K6)</f>
         <v>-0.61648187008933586</v>
       </c>
-      <c r="O6" s="84">
+      <c r="O6" s="83">
         <f t="shared" ref="O6:O15" si="1">SUM(I6,L6)</f>
         <v>0.93060928286479605</v>
       </c>
-      <c r="P6" s="84">
+      <c r="P6" s="83">
         <f t="shared" ref="P6:P15" si="2">N6/O6</f>
         <v>-0.66244973206322688</v>
       </c>
@@ -25364,29 +25356,29 @@
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="77">
+      <c r="B7" s="71">
         <v>22.777200000000001</v>
       </c>
-      <c r="C7" s="78">
+      <c r="C7" s="77">
         <v>45.276400000000002</v>
       </c>
       <c r="D7" s="71">
         <v>0.50307003206968748</v>
       </c>
-      <c r="E7" s="77">
+      <c r="E7" s="71">
         <v>1.4491999999999998</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="77">
         <v>2.1161000000000003</v>
       </c>
       <c r="G7" s="71">
         <v>0.68484476158971674</v>
       </c>
-      <c r="H7" s="77">
+      <c r="H7" s="71">
         <v>0.32403453694048001</v>
       </c>
       <c r="I7" s="57">
@@ -25395,7 +25387,7 @@
       <c r="J7" s="71">
         <v>0.37836657174008881</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="71">
         <v>6.5999564974747599E-2</v>
       </c>
       <c r="L7" s="57">
@@ -25404,15 +25396,15 @@
       <c r="M7" s="71">
         <v>0.49854710443643002</v>
       </c>
-      <c r="N7" s="84">
+      <c r="N7" s="83">
         <f t="shared" si="0"/>
         <v>0.39003410191522758</v>
       </c>
-      <c r="O7" s="84">
+      <c r="O7" s="83">
         <f t="shared" si="1"/>
         <v>0.98878752272080395</v>
       </c>
-      <c r="P7" s="84">
+      <c r="P7" s="83">
         <f t="shared" si="2"/>
         <v>0.39445694140839033</v>
       </c>
@@ -25420,29 +25412,29 @@
         <v>-0.3027637470411495</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="77">
+      <c r="B8" s="71">
         <v>6.8207000000000022</v>
       </c>
-      <c r="C8" s="79">
+      <c r="C8" s="78">
         <v>36.733499999999999</v>
       </c>
       <c r="D8" s="71">
         <v>0.18568064573209747</v>
       </c>
-      <c r="E8" s="77">
+      <c r="E8" s="71">
         <v>1.7446000000000002</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="78">
         <v>1.8083</v>
       </c>
       <c r="G8" s="71">
         <v>0.9647735442127966</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="71">
         <v>0.60606999005902462</v>
       </c>
       <c r="I8" s="59">
@@ -25451,7 +25443,7 @@
       <c r="J8" s="71">
         <v>0.83408534785112387</v>
       </c>
-      <c r="K8" s="77">
+      <c r="K8" s="71">
         <v>0.11179122774730278</v>
       </c>
       <c r="L8" s="59">
@@ -25460,15 +25452,15 @@
       <c r="M8" s="71">
         <v>0.9246065038279212</v>
       </c>
-      <c r="N8" s="84">
+      <c r="N8" s="83">
         <f t="shared" si="0"/>
         <v>0.71786121780632739</v>
       </c>
-      <c r="O8" s="84">
+      <c r="O8" s="83">
         <f t="shared" si="1"/>
         <v>0.84753508132553834</v>
       </c>
-      <c r="P8" s="84">
+      <c r="P8" s="83">
         <f t="shared" si="2"/>
         <v>0.84699882473725807</v>
       </c>
@@ -25476,11 +25468,11 @@
         <v>-9.3318329100743891E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="71">
         <v>-20.381</v>
       </c>
       <c r="C9" s="75">
@@ -25489,7 +25481,7 @@
       <c r="D9" s="71">
         <v>-0.40841886730444749</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="71">
         <v>-2.5282000000000004</v>
       </c>
       <c r="F9" s="75">
@@ -25498,7 +25490,7 @@
       <c r="G9" s="71">
         <v>-0.53822408617716566</v>
       </c>
-      <c r="H9" s="77">
+      <c r="H9" s="71">
         <v>-0.97839859793628414</v>
       </c>
       <c r="I9" s="60">
@@ -25507,7 +25499,7 @@
       <c r="J9" s="71">
         <v>-0.52881343083090926</v>
       </c>
-      <c r="K9" s="77">
+      <c r="K9" s="71">
         <v>-0.17582642709759452</v>
       </c>
       <c r="L9" s="60">
@@ -25516,15 +25508,15 @@
       <c r="M9" s="71">
         <v>-0.54647684275259234</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="83">
         <f t="shared" si="0"/>
         <v>-1.1542250250338786</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="83">
         <f>SUM(I9,L9)</f>
         <v>2.1719227160213634</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="83">
         <f t="shared" si="2"/>
         <v>-0.5314300626443309</v>
       </c>
@@ -25532,11 +25524,11 @@
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="77">
+      <c r="B10" s="71">
         <v>-2.4313000000000038</v>
       </c>
       <c r="C10" s="75">
@@ -25545,7 +25537,7 @@
       <c r="D10" s="71">
         <v>-9.9314564883500683E-2</v>
       </c>
-      <c r="E10" s="77">
+      <c r="E10" s="71">
         <v>-0.83049999999999935</v>
       </c>
       <c r="F10" s="75">
@@ -25554,7 +25546,7 @@
       <c r="G10" s="71">
         <v>-0.28755929503826028</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H10" s="71">
         <v>-0.5998312651887292</v>
       </c>
       <c r="I10" s="60">
@@ -25563,7 +25555,7 @@
       <c r="J10" s="71">
         <v>-0.46746069406771751</v>
       </c>
-      <c r="K10" s="77">
+      <c r="K10" s="71">
         <v>-0.11171399488573321</v>
       </c>
       <c r="L10" s="60">
@@ -25572,15 +25564,15 @@
       <c r="M10" s="71">
         <v>-0.50628641399623708</v>
       </c>
-      <c r="N10" s="84">
+      <c r="N10" s="83">
         <f t="shared" si="0"/>
         <v>-0.71154526007446239</v>
       </c>
-      <c r="O10" s="84">
+      <c r="O10" s="83">
         <f t="shared" si="1"/>
         <v>1.503823162821416</v>
       </c>
-      <c r="P10" s="84">
+      <c r="P10" s="83">
         <f t="shared" si="2"/>
         <v>-0.47315753451987541</v>
       </c>
@@ -25588,29 +25580,29 @@
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="77">
+      <c r="B11" s="71">
         <v>0.198599999999999</v>
       </c>
-      <c r="C11" s="80">
+      <c r="C11" s="79">
         <v>58.877499999999998</v>
       </c>
       <c r="D11" s="71">
         <v>3.3731051760010023E-3</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="71">
         <v>-0.74690000000000101</v>
       </c>
-      <c r="F11" s="80">
+      <c r="F11" s="79">
         <v>4.4638000000000009</v>
       </c>
       <c r="G11" s="71">
         <v>-0.1673238048299657</v>
       </c>
-      <c r="H11" s="77">
+      <c r="H11" s="71">
         <v>-0.34028683073031396</v>
       </c>
       <c r="I11" s="61">
@@ -25619,7 +25611,7 @@
       <c r="J11" s="71">
         <v>-0.1916172350303838</v>
       </c>
-      <c r="K11" s="77">
+      <c r="K11" s="71">
         <v>-7.121946965890269E-2</v>
       </c>
       <c r="L11" s="61">
@@ -25628,15 +25620,15 @@
       <c r="M11" s="71">
         <v>-0.21932285347228794</v>
       </c>
-      <c r="N11" s="84">
+      <c r="N11" s="83">
         <f t="shared" si="0"/>
         <v>-0.41150630038921665</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="83">
         <f t="shared" si="1"/>
         <v>2.1005918990491437</v>
       </c>
-      <c r="P11" s="84">
+      <c r="P11" s="83">
         <f t="shared" si="2"/>
         <v>-0.19590016536552843</v>
       </c>
@@ -25644,29 +25636,29 @@
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="80">
         <v>-3.4879999999999995</v>
       </c>
-      <c r="C12" s="80">
+      <c r="C12" s="79">
         <v>30.0379</v>
       </c>
       <c r="D12" s="71">
         <v>-0.11611996843987095</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="71">
         <v>0.91839999999999966</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="79">
         <v>1.6659000000000002</v>
       </c>
       <c r="G12" s="71">
         <v>0.55129359505372444</v>
       </c>
-      <c r="H12" s="77">
+      <c r="H12" s="71">
         <v>0.18041794101540676</v>
       </c>
       <c r="I12" s="61">
@@ -25675,7 +25667,7 @@
       <c r="J12" s="71">
         <v>0.24340608445804029</v>
       </c>
-      <c r="K12" s="77">
+      <c r="K12" s="71">
         <v>4.7038602982888728E-2</v>
       </c>
       <c r="L12" s="61">
@@ -25684,15 +25676,15 @@
       <c r="M12" s="71">
         <v>0.38197141359573233</v>
       </c>
-      <c r="N12" s="84">
+      <c r="N12" s="83">
         <f t="shared" si="0"/>
         <v>0.22745654399829549</v>
       </c>
-      <c r="O12" s="84">
+      <c r="O12" s="83">
         <f t="shared" si="1"/>
         <v>0.86436890438307334</v>
       </c>
-      <c r="P12" s="84">
+      <c r="P12" s="83">
         <f t="shared" si="2"/>
         <v>0.26314753208369779</v>
       </c>
@@ -25700,11 +25692,11 @@
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="80">
         <v>2.7140000000000057</v>
       </c>
       <c r="C13" s="74">
@@ -25713,7 +25705,7 @@
       <c r="D13" s="71">
         <v>0.12971185233686874</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="81">
         <v>0.69369999999999976</v>
       </c>
       <c r="F13" s="74">
@@ -25722,7 +25714,7 @@
       <c r="G13" s="71">
         <v>0.81794599693432346</v>
       </c>
-      <c r="H13" s="82">
+      <c r="H13" s="81">
         <v>0.24539002087865563</v>
       </c>
       <c r="I13" s="62">
@@ -25731,7 +25723,7 @@
       <c r="J13" s="71">
         <v>0.88413936079901567</v>
       </c>
-      <c r="K13" s="82">
+      <c r="K13" s="81">
         <v>4.5512412826442646E-2</v>
       </c>
       <c r="L13" s="62">
@@ -25740,15 +25732,15 @@
       <c r="M13" s="71">
         <v>1.0775013302402989</v>
       </c>
-      <c r="N13" s="84">
+      <c r="N13" s="83">
         <f t="shared" si="0"/>
         <v>0.29090243370509827</v>
       </c>
-      <c r="O13" s="84">
+      <c r="O13" s="83">
         <f t="shared" si="1"/>
         <v>0.31978561274196043</v>
       </c>
-      <c r="P13" s="84">
+      <c r="P13" s="83">
         <f t="shared" si="2"/>
         <v>0.90967955440769499</v>
       </c>
@@ -25756,11 +25748,11 @@
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="81">
+      <c r="B14" s="80">
         <v>-2.5859999999999985</v>
       </c>
       <c r="C14" s="74">
@@ -25769,7 +25761,7 @@
       <c r="D14" s="71">
         <v>-0.16454254500104976</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="81">
         <v>0.2581</v>
       </c>
       <c r="F14" s="74">
@@ -25778,7 +25770,7 @@
       <c r="G14" s="71">
         <v>0.19992254066615028</v>
       </c>
-      <c r="H14" s="82">
+      <c r="H14" s="81">
         <v>9.9373120994324493E-2</v>
       </c>
       <c r="I14" s="62">
@@ -25787,7 +25779,7 @@
       <c r="J14" s="71">
         <v>0.22694854208365087</v>
       </c>
-      <c r="K14" s="82">
+      <c r="K14" s="81">
         <v>1.1007356080440442E-2</v>
       </c>
       <c r="L14" s="62">
@@ -25796,15 +25788,15 @@
       <c r="M14" s="71">
         <v>0.16781718326223696</v>
       </c>
-      <c r="N14" s="84">
+      <c r="N14" s="83">
         <f t="shared" si="0"/>
         <v>0.11038047707476493</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="83">
         <f t="shared" si="1"/>
         <v>0.5034576642187929</v>
       </c>
-      <c r="P14" s="84">
+      <c r="P14" s="83">
         <f t="shared" si="2"/>
         <v>0.21924480431942681</v>
       </c>
@@ -25812,11 +25804,11 @@
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="81">
+      <c r="B15" s="80">
         <v>-3.3091000000000044</v>
       </c>
       <c r="C15" s="76">
@@ -25825,7 +25817,7 @@
       <c r="D15" s="71">
         <v>-0.10014587141525548</v>
       </c>
-      <c r="E15" s="82">
+      <c r="E15" s="81">
         <v>-0.45510000000000028</v>
       </c>
       <c r="F15" s="76">
@@ -25834,7 +25826,7 @@
       <c r="G15" s="71">
         <v>-0.23993040911008026</v>
       </c>
-      <c r="H15" s="82">
+      <c r="H15" s="81">
         <v>-0.10441429543657543</v>
       </c>
       <c r="I15" s="55">
@@ -25843,7 +25835,7 @@
       <c r="J15" s="71">
         <v>-0.16816613273490705</v>
       </c>
-      <c r="K15" s="82">
+      <c r="K15" s="81">
         <v>-2.1770204424107042E-2</v>
       </c>
       <c r="L15" s="55">
@@ -25852,15 +25844,15 @@
       <c r="M15" s="71">
         <v>-0.21328231594690392</v>
       </c>
-      <c r="N15" s="84">
+      <c r="N15" s="83">
         <f t="shared" si="0"/>
         <v>-0.12618449986068248</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="83">
         <f t="shared" si="1"/>
         <v>0.72297190794746702</v>
       </c>
-      <c r="P15" s="84">
+      <c r="P15" s="83">
         <f t="shared" si="2"/>
         <v>-0.17453582701286835</v>
       </c>
@@ -25868,57 +25860,57 @@
         <v>-3.2730377491297959E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="193"/>
-      <c r="C17" s="193"/>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="193"/>
-      <c r="M17" s="193"/>
-      <c r="N17" s="193"/>
-      <c r="O17" s="193"/>
-      <c r="P17" s="193"/>
-      <c r="Q17" s="194"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
+      <c r="L17" s="195"/>
+      <c r="M17" s="195"/>
+      <c r="N17" s="195"/>
+      <c r="O17" s="195"/>
+      <c r="P17" s="195"/>
+      <c r="Q17" s="196"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="195" t="s">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="196"/>
-      <c r="D18" s="197"/>
-      <c r="E18" s="195" t="s">
+      <c r="C18" s="203"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="196"/>
-      <c r="G18" s="197"/>
-      <c r="H18" s="195" t="s">
+      <c r="F18" s="203"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="196"/>
-      <c r="J18" s="197"/>
-      <c r="K18" s="195" t="s">
+      <c r="I18" s="203"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="196"/>
-      <c r="M18" s="197"/>
-      <c r="N18" s="198" t="s">
+      <c r="L18" s="203"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="198"/>
-      <c r="P18" s="198"/>
+      <c r="O18" s="193"/>
+      <c r="P18" s="193"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
         <v>38</v>
       </c>
@@ -25971,7 +25963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
         <v>43</v>
       </c>
@@ -26011,15 +26003,15 @@
       <c r="M20" s="71">
         <v>0.18061966240201743</v>
       </c>
-      <c r="N20" s="84">
+      <c r="N20" s="83">
         <f>SUM(H20,K20)</f>
         <v>0.28822320195467732</v>
       </c>
-      <c r="O20" s="84">
+      <c r="O20" s="83">
         <f>SUM(I20,L20)</f>
         <v>1.5917964720194648</v>
       </c>
-      <c r="P20" s="84">
+      <c r="P20" s="83">
         <f>N20/O20</f>
         <v>0.18106787332492144</v>
       </c>
@@ -26027,11 +26019,11 @@
         <v>-0.10058679002726996</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="77">
+      <c r="B21" s="71">
         <v>4.0187999999999988</v>
       </c>
       <c r="C21" s="73">
@@ -26040,7 +26032,7 @@
       <c r="D21" s="71">
         <v>0.66829633325018678</v>
       </c>
-      <c r="E21" s="77">
+      <c r="E21" s="71">
         <v>0.8338000000000001</v>
       </c>
       <c r="F21" s="73">
@@ -26049,7 +26041,7 @@
       <c r="G21" s="71">
         <v>0.20250643610045177</v>
       </c>
-      <c r="H21" s="77">
+      <c r="H21" s="71">
         <v>0.45660631134760643</v>
       </c>
       <c r="I21" s="73">
@@ -26058,7 +26050,7 @@
       <c r="J21" s="71">
         <v>0.37213856331253387</v>
       </c>
-      <c r="K21" s="77">
+      <c r="K21" s="71">
         <v>4.7747439937281255E-2</v>
       </c>
       <c r="L21" s="73">
@@ -26067,15 +26059,15 @@
       <c r="M21" s="71">
         <v>0.25528328492852753</v>
       </c>
-      <c r="N21" s="84">
+      <c r="N21" s="83">
         <f t="shared" ref="N21:N27" si="3">SUM(H21,K21)</f>
         <v>0.50435375128488769</v>
       </c>
-      <c r="O21" s="84">
+      <c r="O21" s="83">
         <f t="shared" ref="O21:O27" si="4">SUM(I21,L21)</f>
         <v>1.4140163721240422</v>
       </c>
-      <c r="P21" s="84">
+      <c r="P21" s="83">
         <f t="shared" ref="P21:P27" si="5">N21/O21</f>
         <v>0.35668169140593525</v>
       </c>
@@ -26083,11 +26075,11 @@
         <v>-0.32001589401318453</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="77">
+      <c r="B22" s="71">
         <v>-3.9163000000000014</v>
       </c>
       <c r="C22" s="60">
@@ -26096,7 +26088,7 @@
       <c r="D22" s="71">
         <v>-0.32755116549434199</v>
       </c>
-      <c r="E22" s="77">
+      <c r="E22" s="71">
         <v>-0.84030000000000094</v>
       </c>
       <c r="F22" s="60">
@@ -26105,7 +26097,7 @@
       <c r="G22" s="71">
         <v>-0.1111434428939886</v>
       </c>
-      <c r="H22" s="77">
+      <c r="H22" s="71">
         <v>-0.71127104721345447</v>
       </c>
       <c r="I22" s="60">
@@ -26114,7 +26106,7 @@
       <c r="J22" s="71">
         <v>-0.21756337854262581</v>
       </c>
-      <c r="K22" s="77">
+      <c r="K22" s="71">
         <v>-9.8289875653147785E-2</v>
       </c>
       <c r="L22" s="60">
@@ -26123,15 +26115,15 @@
       <c r="M22" s="71">
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N22" s="84">
+      <c r="N22" s="83">
         <f t="shared" si="3"/>
         <v>-0.80956092286660231</v>
       </c>
-      <c r="O22" s="84">
+      <c r="O22" s="83">
         <f t="shared" si="4"/>
         <v>3.7281024409763921</v>
       </c>
-      <c r="P22" s="84">
+      <c r="P22" s="83">
         <f t="shared" si="5"/>
         <v>-0.2171509328629333</v>
       </c>
@@ -26139,11 +26131,11 @@
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="77">
+      <c r="B23" s="71">
         <v>-6.4181000000000008</v>
       </c>
       <c r="C23" s="60">
@@ -26152,7 +26144,7 @@
       <c r="D23" s="71">
         <v>-0.55117481364432686</v>
       </c>
-      <c r="E23" s="77">
+      <c r="E23" s="71">
         <v>0.91669999999999874</v>
       </c>
       <c r="F23" s="60">
@@ -26161,7 +26153,7 @@
       <c r="G23" s="71">
         <v>0.18041013933716418</v>
       </c>
-      <c r="H23" s="77">
+      <c r="H23" s="71">
         <v>0.97315424931338623</v>
       </c>
       <c r="I23" s="60">
@@ -26170,7 +26162,7 @@
       <c r="J23" s="71">
         <v>0.61912755541298103</v>
       </c>
-      <c r="K23" s="77">
+      <c r="K23" s="71">
         <v>-6.4526904685237904E-2</v>
       </c>
       <c r="L23" s="60">
@@ -26179,15 +26171,15 @@
       <c r="M23" s="71">
         <v>-0.12091619396052281</v>
       </c>
-      <c r="N23" s="84">
+      <c r="N23" s="83">
         <f t="shared" si="3"/>
         <v>0.90862734462814831</v>
       </c>
-      <c r="O23" s="84">
+      <c r="O23" s="83">
         <f t="shared" si="4"/>
         <v>2.1054652536143079</v>
       </c>
-      <c r="P23" s="84">
+      <c r="P23" s="83">
         <f t="shared" si="5"/>
         <v>0.43155656122482666</v>
       </c>
@@ -26195,11 +26187,11 @@
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="77">
+      <c r="B24" s="71">
         <v>-7.3023000000000007</v>
       </c>
       <c r="C24" s="61">
@@ -26208,7 +26200,7 @@
       <c r="D24" s="71">
         <v>-0.6767529795555226</v>
       </c>
-      <c r="E24" s="77">
+      <c r="E24" s="71">
         <v>1.3264000000000005</v>
       </c>
       <c r="F24" s="61">
@@ -26217,7 +26209,7 @@
       <c r="G24" s="71">
         <v>0.33808273647184778</v>
       </c>
-      <c r="H24" s="77">
+      <c r="H24" s="71">
         <v>0.2173185367476036</v>
       </c>
       <c r="I24" s="61">
@@ -26226,7 +26218,7 @@
       <c r="J24" s="71">
         <v>0.14042193729166219</v>
       </c>
-      <c r="K24" s="77">
+      <c r="K24" s="71">
         <v>4.5248200775063058E-2</v>
       </c>
       <c r="L24" s="61">
@@ -26235,15 +26227,15 @@
       <c r="M24" s="71">
         <v>0.19235164956740658</v>
       </c>
-      <c r="N24" s="84">
+      <c r="N24" s="83">
         <f>SUM(H24,K24)</f>
         <v>0.26256673752266668</v>
       </c>
-      <c r="O24" s="84">
+      <c r="O24" s="83">
         <f t="shared" si="4"/>
         <v>1.7828478880279939</v>
       </c>
-      <c r="P24" s="84">
+      <c r="P24" s="83">
         <f t="shared" si="5"/>
         <v>0.14727377432804514</v>
       </c>
@@ -26251,7 +26243,7 @@
         <v>-4.5718099286610456E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="53" t="s">
         <v>48</v>
       </c>
@@ -26264,7 +26256,7 @@
       <c r="D25" s="71">
         <v>-0.2568978668560456</v>
       </c>
-      <c r="E25" s="77">
+      <c r="E25" s="71">
         <v>2.104000000000001</v>
       </c>
       <c r="F25" s="62">
@@ -26273,7 +26265,7 @@
       <c r="G25" s="71">
         <v>0.41571990278793169</v>
       </c>
-      <c r="H25" s="77">
+      <c r="H25" s="71">
         <v>-8.3193172166483365E-2</v>
       </c>
       <c r="I25" s="62">
@@ -26282,7 +26274,7 @@
       <c r="J25" s="71">
         <v>-4.2676842244790236E-2</v>
       </c>
-      <c r="K25" s="77">
+      <c r="K25" s="71">
         <v>1.9282470866228862E-2</v>
       </c>
       <c r="L25" s="62">
@@ -26291,15 +26283,15 @@
       <c r="M25" s="71">
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N25" s="84">
+      <c r="N25" s="83">
         <f t="shared" si="3"/>
         <v>-6.3910701300254502E-2</v>
       </c>
-      <c r="O25" s="84">
+      <c r="O25" s="83">
         <f t="shared" si="4"/>
         <v>2.2274651739304288</v>
       </c>
-      <c r="P25" s="84">
+      <c r="P25" s="83">
         <f t="shared" si="5"/>
         <v>-2.8692121451884323E-2</v>
       </c>
@@ -26307,7 +26299,7 @@
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="53" t="s">
         <v>49</v>
       </c>
@@ -26347,15 +26339,15 @@
       <c r="M26" s="71">
         <v>0.30506992688237528</v>
       </c>
-      <c r="N26" s="84">
+      <c r="N26" s="83">
         <f t="shared" si="3"/>
         <v>1.6916683322051762E-2</v>
       </c>
-      <c r="O26" s="84">
+      <c r="O26" s="83">
         <f t="shared" si="4"/>
         <v>2.9345804275996121</v>
       </c>
-      <c r="P26" s="84">
+      <c r="P26" s="83">
         <f t="shared" si="5"/>
         <v>5.7646003370536479E-3</v>
       </c>
@@ -26363,7 +26355,7 @@
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>50</v>
       </c>
@@ -26403,15 +26395,15 @@
       <c r="M27" s="71">
         <v>0.73881089123312471</v>
       </c>
-      <c r="N27" s="84">
+      <c r="N27" s="83">
         <f t="shared" si="3"/>
         <v>1.8976053320341464</v>
       </c>
-      <c r="O27" s="84">
+      <c r="O27" s="83">
         <f t="shared" si="4"/>
         <v>1.9795431766489771</v>
       </c>
-      <c r="P27" s="84">
+      <c r="P27" s="83">
         <f t="shared" si="5"/>
         <v>0.95860770021013775</v>
       </c>
@@ -26419,7 +26411,7 @@
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="199" t="s">
         <v>57</v>
       </c>
@@ -26440,57 +26432,57 @@
       <c r="P46" s="200"/>
       <c r="Q46" s="201"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="202" t="s">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="203"/>
-      <c r="C47" s="203"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="203"/>
-      <c r="K47" s="203"/>
-      <c r="L47" s="203"/>
-      <c r="M47" s="203"/>
-      <c r="N47" s="203"/>
-      <c r="O47" s="203"/>
-      <c r="P47" s="203"/>
-      <c r="Q47" s="203"/>
+      <c r="B47" s="198"/>
+      <c r="C47" s="198"/>
+      <c r="D47" s="198"/>
+      <c r="E47" s="198"/>
+      <c r="F47" s="198"/>
+      <c r="G47" s="198"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="198"/>
+      <c r="J47" s="198"/>
+      <c r="K47" s="198"/>
+      <c r="L47" s="198"/>
+      <c r="M47" s="198"/>
+      <c r="N47" s="198"/>
+      <c r="O47" s="198"/>
+      <c r="P47" s="198"/>
+      <c r="Q47" s="198"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="83"/>
-      <c r="B48" s="198" t="s">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" s="82"/>
+      <c r="B48" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="198"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198" t="s">
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
-      <c r="H48" s="198" t="s">
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="198"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="198" t="s">
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="198"/>
-      <c r="M48" s="198"/>
-      <c r="N48" s="198" t="s">
+      <c r="L48" s="193"/>
+      <c r="M48" s="193"/>
+      <c r="N48" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="198"/>
-      <c r="P48" s="198"/>
+      <c r="O48" s="193"/>
+      <c r="P48" s="193"/>
       <c r="Q48" s="10"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="46" t="s">
         <v>38</v>
       </c>
@@ -26543,673 +26535,673 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="97" t="s">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="86">
+      <c r="B50" s="85">
         <v>-16.521599999999999</v>
       </c>
       <c r="C50" s="72">
         <v>30.169899999999998</v>
       </c>
-      <c r="D50" s="105">
+      <c r="D50" s="104">
         <v>-0.54761865302834944</v>
       </c>
-      <c r="E50" s="86">
+      <c r="E50" s="85">
         <v>-2.3841999999999981</v>
       </c>
       <c r="F50" s="72">
         <v>15.686499999999999</v>
       </c>
-      <c r="G50" s="105">
+      <c r="G50" s="104">
         <v>-0.15199056513562606</v>
       </c>
-      <c r="H50" s="86">
+      <c r="H50" s="85">
         <v>-0.39729579455943065</v>
       </c>
-      <c r="I50" s="86">
+      <c r="I50" s="85">
         <v>2.1642984735935578</v>
       </c>
-      <c r="J50" s="105">
+      <c r="J50" s="104">
         <v>-0.18356793178334996</v>
       </c>
-      <c r="K50" s="86">
+      <c r="K50" s="85">
         <v>-3.1232600058148624E-2</v>
       </c>
-      <c r="L50" s="86">
+      <c r="L50" s="85">
         <v>0.16000831182380926</v>
       </c>
-      <c r="M50" s="105">
+      <c r="M50" s="104">
         <v>-0.19519361027032103</v>
       </c>
-      <c r="N50" s="84">
+      <c r="N50" s="83">
         <f>SUM(H50+K50)</f>
         <v>-0.4285283946175793</v>
       </c>
-      <c r="O50" s="84">
+      <c r="O50" s="83">
         <f>SUM(I50+L50)</f>
         <v>2.3243067854173671</v>
       </c>
-      <c r="P50" s="84">
+      <c r="P50" s="83">
         <f>N50/O50</f>
         <v>-0.1843682586593792</v>
       </c>
-      <c r="Q50" s="86">
+      <c r="Q50" s="85">
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="97" t="s">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="86">
+      <c r="B51" s="85">
         <v>-4.8291000000000004</v>
       </c>
       <c r="C51" s="72">
         <v>13.648300000000001</v>
       </c>
-      <c r="D51" s="105">
+      <c r="D51" s="104">
         <v>-0.35382428580848896</v>
       </c>
-      <c r="E51" s="86">
+      <c r="E51" s="85">
         <v>-7.9178000000000006</v>
       </c>
       <c r="F51" s="72">
         <v>13.302300000000001</v>
       </c>
-      <c r="G51" s="105">
+      <c r="G51" s="104">
         <v>-0.59522037542379891</v>
       </c>
-      <c r="H51" s="86">
+      <c r="H51" s="85">
         <v>-1.1520290298210343</v>
       </c>
-      <c r="I51" s="86">
+      <c r="I51" s="85">
         <v>1.8076248437061064</v>
       </c>
-      <c r="J51" s="105">
+      <c r="J51" s="104">
         <v>-0.63731643976472008</v>
       </c>
-      <c r="K51" s="86">
+      <c r="K51" s="85">
         <v>-8.6593108308677155E-2</v>
       </c>
-      <c r="L51" s="86">
+      <c r="L51" s="85">
         <v>0.12962202535912964</v>
       </c>
-      <c r="M51" s="105">
+      <c r="M51" s="104">
         <v>-0.66804316680566478</v>
       </c>
-      <c r="N51" s="84">
+      <c r="N51" s="83">
         <f t="shared" ref="N51:N60" si="6">SUM(H51+K51)</f>
         <v>-1.2386221381297113</v>
       </c>
-      <c r="O51" s="84">
+      <c r="O51" s="83">
         <f t="shared" ref="O51:O60" si="7">SUM(I51+L51)</f>
         <v>1.937246869065236</v>
       </c>
-      <c r="P51" s="84">
+      <c r="P51" s="83">
         <f t="shared" ref="P51:P60" si="8">N51/O51</f>
         <v>-0.63937237835226113</v>
       </c>
-      <c r="Q51" s="86">
+      <c r="Q51" s="85">
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="s">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="86">
+      <c r="B52" s="85">
         <v>16.670300000000005</v>
       </c>
-      <c r="C52" s="78">
+      <c r="C52" s="77">
         <v>30.079799999999999</v>
       </c>
-      <c r="D52" s="105">
+      <c r="D52" s="104">
         <v>0.55420248804845795</v>
       </c>
-      <c r="E52" s="86">
+      <c r="E52" s="85">
         <v>7.3421999999999983</v>
       </c>
-      <c r="F52" s="78">
+      <c r="F52" s="77">
         <v>16.905100000000001</v>
       </c>
-      <c r="G52" s="105">
+      <c r="G52" s="104">
         <v>0.43431863757091044</v>
       </c>
-      <c r="H52" s="86">
+      <c r="H52" s="85">
         <v>0.8105395516297047</v>
       </c>
-      <c r="I52" s="88">
+      <c r="I52" s="87">
         <v>1.7951717616012994</v>
       </c>
-      <c r="J52" s="105">
+      <c r="J52" s="104">
         <v>0.45151086317595629</v>
       </c>
-      <c r="K52" s="86">
+      <c r="K52" s="85">
         <v>6.5999564974747599E-2</v>
       </c>
-      <c r="L52" s="88">
+      <c r="L52" s="87">
         <v>0.13238380964895011</v>
       </c>
-      <c r="M52" s="105">
+      <c r="M52" s="104">
         <v>0.49854710443643002</v>
       </c>
-      <c r="N52" s="84">
+      <c r="N52" s="83">
         <f t="shared" si="6"/>
         <v>0.87653911660445227</v>
       </c>
-      <c r="O52" s="84">
+      <c r="O52" s="83">
         <f t="shared" si="7"/>
         <v>1.9275555712502495</v>
       </c>
-      <c r="P52" s="84">
+      <c r="P52" s="83">
         <f t="shared" si="8"/>
         <v>0.45474129497387833</v>
       </c>
-      <c r="Q52" s="95">
+      <c r="Q52" s="94">
         <v>-0.3027637470411495</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="99" t="s">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="86">
+      <c r="B53" s="85">
         <v>-1.115199999999998</v>
       </c>
-      <c r="C53" s="79">
+      <c r="C53" s="78">
         <v>27.011699999999998</v>
       </c>
-      <c r="D53" s="105">
+      <c r="D53" s="104">
         <v>-4.1285813184656947E-2</v>
       </c>
-      <c r="E53" s="86">
+      <c r="E53" s="85">
         <v>9.4342000000000006</v>
       </c>
-      <c r="F53" s="79">
+      <c r="F53" s="78">
         <v>11.104199999999999</v>
       </c>
-      <c r="G53" s="105">
+      <c r="G53" s="104">
         <v>0.849606455215144</v>
       </c>
-      <c r="H53" s="86">
+      <c r="H53" s="85">
         <v>1.3972786932835388</v>
       </c>
-      <c r="I53" s="89">
+      <c r="I53" s="88">
         <v>1.6108243373451037</v>
       </c>
-      <c r="J53" s="105">
+      <c r="J53" s="104">
         <v>0.86743083084185191</v>
       </c>
-      <c r="K53" s="86">
+      <c r="K53" s="85">
         <v>0.11179122774730278</v>
       </c>
-      <c r="L53" s="89">
+      <c r="L53" s="88">
         <v>0.12090681526084991</v>
       </c>
-      <c r="M53" s="105">
+      <c r="M53" s="104">
         <v>0.9246065038279212</v>
       </c>
-      <c r="N53" s="84">
+      <c r="N53" s="83">
         <f t="shared" si="6"/>
         <v>1.5090699210308416</v>
       </c>
-      <c r="O53" s="84">
+      <c r="O53" s="83">
         <f t="shared" si="7"/>
         <v>1.7317311526059536</v>
       </c>
-      <c r="P53" s="84">
+      <c r="P53" s="83">
         <f t="shared" si="8"/>
         <v>0.87142274871012992</v>
       </c>
-      <c r="Q53" s="89">
+      <c r="Q53" s="88">
         <v>-9.3318329100743891E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="100" t="s">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="86">
+      <c r="B54" s="85">
         <v>-12.028199999999998</v>
       </c>
       <c r="C54" s="75">
         <v>32.3613</v>
       </c>
-      <c r="D54" s="105">
+      <c r="D54" s="104">
         <v>-0.37168469746271005</v>
       </c>
-      <c r="E54" s="86">
+      <c r="E54" s="85">
         <v>-10.448699999999997</v>
       </c>
       <c r="F54" s="75">
         <v>21.376599999999996</v>
       </c>
-      <c r="G54" s="105">
+      <c r="G54" s="104">
         <v>-0.48879148227501096</v>
       </c>
-      <c r="H54" s="86">
+      <c r="H54" s="85">
         <v>-2.1786469707248868</v>
       </c>
-      <c r="I54" s="91">
+      <c r="I54" s="90">
         <v>4.0674559942692206</v>
       </c>
-      <c r="J54" s="105">
+      <c r="J54" s="104">
         <v>-0.53562889771750644</v>
       </c>
-      <c r="K54" s="86">
+      <c r="K54" s="85">
         <v>-0.17582642709759408</v>
       </c>
-      <c r="L54" s="91">
+      <c r="L54" s="90">
         <v>0.32174543062421551</v>
       </c>
-      <c r="M54" s="105">
+      <c r="M54" s="104">
         <v>-0.5464768427525909</v>
       </c>
-      <c r="N54" s="84">
+      <c r="N54" s="83">
         <f t="shared" si="6"/>
         <v>-2.3544733978224808</v>
       </c>
-      <c r="O54" s="84">
+      <c r="O54" s="83">
         <f t="shared" si="7"/>
         <v>4.3892014248934359</v>
       </c>
-      <c r="P54" s="84">
+      <c r="P54" s="83">
         <f t="shared" si="8"/>
         <v>-0.53642409402062119</v>
       </c>
-      <c r="Q54" s="91">
+      <c r="Q54" s="90">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="100" t="s">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="B55" s="86">
+      <c r="B55" s="85">
         <v>0.53389999999999915</v>
       </c>
       <c r="C55" s="75">
         <v>13.872400000000001</v>
       </c>
-      <c r="D55" s="105">
+      <c r="D55" s="104">
         <v>3.8486491162307832E-2</v>
       </c>
-      <c r="E55" s="86">
+      <c r="E55" s="85">
         <v>-4.0897000000000006</v>
       </c>
       <c r="F55" s="75">
         <v>12.863</v>
       </c>
-      <c r="G55" s="105">
+      <c r="G55" s="104">
         <v>-0.31794293710642935</v>
       </c>
-      <c r="H55" s="86">
+      <c r="H55" s="85">
         <v>-0.97333483705212842</v>
       </c>
-      <c r="I55" s="91">
+      <c r="I55" s="90">
         <v>2.5636871963176899</v>
       </c>
-      <c r="J55" s="105">
+      <c r="J55" s="104">
         <v>-0.37966208921671957</v>
       </c>
-      <c r="K55" s="86">
+      <c r="K55" s="85">
         <v>-0.11171399488573321</v>
       </c>
-      <c r="L55" s="91">
+      <c r="L55" s="90">
         <v>0.22065374815008071</v>
       </c>
-      <c r="M55" s="105">
+      <c r="M55" s="104">
         <v>-0.50628641399623708</v>
       </c>
-      <c r="N55" s="84">
+      <c r="N55" s="83">
         <f t="shared" si="6"/>
         <v>-1.0850488319378617</v>
       </c>
-      <c r="O55" s="84">
+      <c r="O55" s="83">
         <f t="shared" si="7"/>
         <v>2.7843409444677705</v>
       </c>
-      <c r="P55" s="84">
+      <c r="P55" s="83">
         <f t="shared" si="8"/>
         <v>-0.38969682721282894</v>
       </c>
-      <c r="Q55" s="91">
+      <c r="Q55" s="90">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="101" t="s">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="86">
+      <c r="B56" s="85">
         <v>0.25489999999999924</v>
       </c>
-      <c r="C56" s="80">
+      <c r="C56" s="79">
         <v>43.567</v>
       </c>
-      <c r="D56" s="105">
+      <c r="D56" s="104">
         <v>5.8507586016939249E-3</v>
       </c>
-      <c r="E56" s="86">
+      <c r="E56" s="85">
         <v>-0.71209999999999951</v>
       </c>
-      <c r="F56" s="80">
+      <c r="F56" s="79">
         <v>18.895600000000002</v>
       </c>
-      <c r="G56" s="105">
+      <c r="G56" s="104">
         <v>-3.7686022142721029E-2</v>
       </c>
-      <c r="H56" s="86">
+      <c r="H56" s="85">
         <v>-0.64333331341470545</v>
       </c>
-      <c r="I56" s="93">
+      <c r="I56" s="92">
         <v>3.6723632263988888</v>
       </c>
-      <c r="J56" s="105">
+      <c r="J56" s="104">
         <v>-0.17518237542247603</v>
       </c>
-      <c r="K56" s="86">
+      <c r="K56" s="85">
         <v>-7.121946965890269E-2</v>
       </c>
-      <c r="L56" s="93">
+      <c r="L56" s="92">
         <v>0.32472434373056097</v>
       </c>
-      <c r="M56" s="105">
+      <c r="M56" s="104">
         <v>-0.21932285347228794</v>
       </c>
-      <c r="N56" s="84">
+      <c r="N56" s="83">
         <f t="shared" si="6"/>
         <v>-0.71455278307360814</v>
       </c>
-      <c r="O56" s="84">
+      <c r="O56" s="83">
         <f t="shared" si="7"/>
         <v>3.9970875701294499</v>
       </c>
-      <c r="P56" s="84">
+      <c r="P56" s="83">
         <f t="shared" si="8"/>
         <v>-0.17876835834509039</v>
       </c>
-      <c r="Q56" s="93">
+      <c r="Q56" s="92">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="101" t="s">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A57" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B57" s="86">
+      <c r="B57" s="85">
         <v>-5.1542999999999992</v>
       </c>
-      <c r="C57" s="80">
+      <c r="C57" s="79">
         <v>21.365199999999998</v>
       </c>
-      <c r="D57" s="105">
+      <c r="D57" s="104">
         <v>-0.24124744912287269</v>
       </c>
-      <c r="E57" s="86">
+      <c r="E57" s="85">
         <v>2.4452999999999996</v>
       </c>
-      <c r="F57" s="80">
+      <c r="F57" s="79">
         <v>10.018800000000001</v>
       </c>
-      <c r="G57" s="105">
+      <c r="G57" s="104">
         <v>0.24407114624505924</v>
       </c>
-      <c r="H57" s="86">
+      <c r="H57" s="85">
         <v>0.51746353630445796</v>
       </c>
-      <c r="I57" s="93">
+      <c r="I57" s="92">
         <v>1.5610683051149881</v>
       </c>
-      <c r="J57" s="105">
+      <c r="J57" s="104">
         <v>0.33148039365666426</v>
       </c>
-      <c r="K57" s="86">
+      <c r="K57" s="85">
         <v>4.7038602982888728E-2</v>
       </c>
-      <c r="L57" s="93">
+      <c r="L57" s="92">
         <v>0.12314691966104313</v>
       </c>
-      <c r="M57" s="105">
+      <c r="M57" s="104">
         <v>0.38197141359573233</v>
       </c>
-      <c r="N57" s="84">
+      <c r="N57" s="83">
         <f t="shared" si="6"/>
         <v>0.56450213928734672</v>
       </c>
-      <c r="O57" s="84">
+      <c r="O57" s="83">
         <f t="shared" si="7"/>
         <v>1.6842152247760311</v>
       </c>
-      <c r="P57" s="84">
+      <c r="P57" s="83">
         <f t="shared" si="8"/>
         <v>0.33517221016833809</v>
       </c>
-      <c r="Q57" s="93">
+      <c r="Q57" s="92">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="102" t="s">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A58" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="B58" s="86">
+      <c r="B58" s="85">
         <v>-5.1999999999985391E-3</v>
       </c>
       <c r="C58" s="74">
         <v>16.279599999999999</v>
       </c>
-      <c r="D58" s="105">
+      <c r="D58" s="104">
         <v>-3.1941816752245383E-4</v>
       </c>
-      <c r="E58" s="86">
+      <c r="E58" s="85">
         <v>3.3911999999999995</v>
       </c>
       <c r="F58" s="74">
         <v>5.2179000000000002</v>
       </c>
-      <c r="G58" s="105">
+      <c r="G58" s="104">
         <v>0.64991663312826986</v>
       </c>
-      <c r="H58" s="86">
+      <c r="H58" s="85">
         <v>0.52944834131865048</v>
       </c>
-      <c r="I58" s="95">
+      <c r="I58" s="94">
         <v>0.68218590616009644</v>
       </c>
-      <c r="J58" s="105">
+      <c r="J58" s="104">
         <v>0.77610565761878803</v>
       </c>
-      <c r="K58" s="86">
+      <c r="K58" s="85">
         <v>4.5512412826442646E-2</v>
       </c>
-      <c r="L58" s="95">
+      <c r="L58" s="94">
         <v>4.2238846068331719E-2</v>
       </c>
-      <c r="M58" s="105">
+      <c r="M58" s="104">
         <v>1.0775013302402989</v>
       </c>
-      <c r="N58" s="84">
+      <c r="N58" s="83">
         <f t="shared" si="6"/>
         <v>0.57496075414509318</v>
       </c>
-      <c r="O58" s="84">
+      <c r="O58" s="83">
         <f t="shared" si="7"/>
         <v>0.72442475222842817</v>
       </c>
-      <c r="P58" s="84">
+      <c r="P58" s="83">
         <f t="shared" si="8"/>
         <v>0.79367905690195761</v>
       </c>
-      <c r="Q58" s="95">
+      <c r="Q58" s="94">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="102" t="s">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="B59" s="86">
+      <c r="B59" s="85">
         <v>-1.8081999999999994</v>
       </c>
       <c r="C59" s="74">
         <v>10.2546</v>
       </c>
-      <c r="D59" s="105">
+      <c r="D59" s="104">
         <v>-0.17633062235484556</v>
       </c>
-      <c r="E59" s="86">
+      <c r="E59" s="85">
         <v>-0.62900000000000134</v>
       </c>
       <c r="F59" s="74">
         <v>6.2910000000000004</v>
       </c>
-      <c r="G59" s="105">
+      <c r="G59" s="104">
         <v>-9.9984104275949975E-2</v>
       </c>
-      <c r="H59" s="86">
+      <c r="H59" s="85">
         <v>0.24547311552540219</v>
       </c>
-      <c r="I59" s="95">
+      <c r="I59" s="94">
         <v>1.0662058857023278</v>
       </c>
-      <c r="J59" s="105">
+      <c r="J59" s="104">
         <v>0.23023050127293651</v>
       </c>
-      <c r="K59" s="86">
+      <c r="K59" s="85">
         <v>1.1007356080440442E-2</v>
       </c>
-      <c r="L59" s="95">
+      <c r="L59" s="94">
         <v>6.5591352842813269E-2</v>
       </c>
-      <c r="M59" s="105">
+      <c r="M59" s="104">
         <v>0.16781718326223696</v>
       </c>
-      <c r="N59" s="84">
+      <c r="N59" s="83">
         <f t="shared" si="6"/>
         <v>0.25648047160584264</v>
       </c>
-      <c r="O59" s="84">
+      <c r="O59" s="83">
         <f t="shared" si="7"/>
         <v>1.1317972385451411</v>
       </c>
-      <c r="P59" s="84">
+      <c r="P59" s="83">
         <f t="shared" si="8"/>
         <v>0.22661344529832325</v>
       </c>
-      <c r="Q59" s="95">
+      <c r="Q59" s="94">
         <v>-6.340384840026668E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="103" t="s">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="86">
+      <c r="B60" s="85">
         <v>-3.2297000000000011</v>
       </c>
       <c r="C60" s="76">
         <v>21.040900000000001</v>
       </c>
-      <c r="D60" s="105">
+      <c r="D60" s="104">
         <v>-0.15349628580526503</v>
       </c>
-      <c r="E60" s="86">
+      <c r="E60" s="85">
         <v>-0.43830000000000169</v>
       </c>
       <c r="F60" s="76">
         <v>13.398000000000001</v>
       </c>
-      <c r="G60" s="105">
+      <c r="G60" s="104">
         <v>-3.2713837886251804E-2</v>
       </c>
-      <c r="H60" s="86">
+      <c r="H60" s="85">
         <v>-0.23345240457375938</v>
       </c>
-      <c r="I60" s="104">
+      <c r="I60" s="103">
         <v>1.4828472986928873</v>
       </c>
-      <c r="J60" s="105">
+      <c r="J60" s="104">
         <v>-0.15743522935877818</v>
       </c>
-      <c r="K60" s="86">
+      <c r="K60" s="85">
         <v>-2.1770204424107042E-2</v>
       </c>
-      <c r="L60" s="104">
+      <c r="L60" s="103">
         <v>0.10207224320241665</v>
       </c>
-      <c r="M60" s="105">
+      <c r="M60" s="104">
         <v>-0.21328231594690392</v>
       </c>
-      <c r="N60" s="84">
+      <c r="N60" s="83">
         <f t="shared" si="6"/>
         <v>-0.25522260899786642</v>
       </c>
-      <c r="O60" s="84">
+      <c r="O60" s="83">
         <f t="shared" si="7"/>
         <v>1.5849195418953039</v>
       </c>
-      <c r="P60" s="84">
+      <c r="P60" s="83">
         <f t="shared" si="8"/>
         <v>-0.16103190240979806</v>
       </c>
-      <c r="Q60" s="104">
+      <c r="Q60" s="103">
         <v>-3.2730377491297959E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="192" t="s">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="193"/>
-      <c r="C62" s="193"/>
-      <c r="D62" s="193"/>
-      <c r="E62" s="193"/>
-      <c r="F62" s="193"/>
-      <c r="G62" s="193"/>
-      <c r="H62" s="193"/>
-      <c r="I62" s="193"/>
-      <c r="J62" s="193"/>
-      <c r="K62" s="193"/>
-      <c r="L62" s="193"/>
-      <c r="M62" s="193"/>
-      <c r="N62" s="193"/>
-      <c r="O62" s="193"/>
-      <c r="P62" s="193"/>
-      <c r="Q62" s="194"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="195"/>
+      <c r="D62" s="195"/>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="195"/>
+      <c r="H62" s="195"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
+      <c r="K62" s="195"/>
+      <c r="L62" s="195"/>
+      <c r="M62" s="195"/>
+      <c r="N62" s="195"/>
+      <c r="O62" s="195"/>
+      <c r="P62" s="195"/>
+      <c r="Q62" s="196"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="195" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" s="82"/>
+      <c r="B63" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="196"/>
-      <c r="D63" s="197"/>
-      <c r="E63" s="195" t="s">
+      <c r="C63" s="203"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="196"/>
-      <c r="G63" s="197"/>
-      <c r="H63" s="195" t="s">
+      <c r="F63" s="203"/>
+      <c r="G63" s="204"/>
+      <c r="H63" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="196"/>
-      <c r="J63" s="197"/>
-      <c r="K63" s="195" t="s">
+      <c r="I63" s="203"/>
+      <c r="J63" s="204"/>
+      <c r="K63" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="196"/>
-      <c r="M63" s="197"/>
-      <c r="N63" s="198" t="s">
+      <c r="L63" s="203"/>
+      <c r="M63" s="204"/>
+      <c r="N63" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="O63" s="198"/>
-      <c r="P63" s="198"/>
+      <c r="O63" s="193"/>
+      <c r="P63" s="193"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="46" t="s">
         <v>38</v>
       </c>
@@ -27262,456 +27254,469 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="85" t="s">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="86">
+      <c r="B65" s="85">
         <v>-0.59709999999999996</v>
       </c>
       <c r="C65" s="72">
         <v>1.5851</v>
       </c>
-      <c r="D65" s="105">
+      <c r="D65" s="104">
         <v>-0.37669547662608038</v>
       </c>
-      <c r="E65" s="86">
+      <c r="E65" s="85">
         <v>0.40596427983817573</v>
       </c>
       <c r="F65" s="72">
         <v>7.529399999999999</v>
       </c>
-      <c r="G65" s="105">
+      <c r="G65" s="104">
         <v>5.3917215161656415E-2</v>
       </c>
-      <c r="H65" s="86">
+      <c r="H65" s="85">
         <v>0.53845027367133813</v>
       </c>
-      <c r="I65" s="86">
+      <c r="I65" s="85">
         <v>3.7933434306569351</v>
       </c>
-      <c r="J65" s="105">
+      <c r="J65" s="104">
         <v>0.14194609149272011</v>
       </c>
-      <c r="K65" s="86">
+      <c r="K65" s="85">
         <v>3.6685446490482859E-2</v>
       </c>
-      <c r="L65" s="86">
+      <c r="L65" s="85">
         <v>0.20310881995133825</v>
       </c>
-      <c r="M65" s="105">
+      <c r="M65" s="104">
         <v>0.18061966240201743</v>
       </c>
-      <c r="N65" s="84">
+      <c r="N65" s="83">
         <f>H65+K65</f>
         <v>0.57513572016182102</v>
       </c>
-      <c r="O65" s="84">
+      <c r="O65" s="83">
         <f>I65+L65</f>
         <v>3.9964522506082734</v>
       </c>
-      <c r="P65" s="84">
+      <c r="P65" s="83">
         <f>N65/O65</f>
         <v>0.14391157058720855</v>
       </c>
-      <c r="Q65" s="106">
+      <c r="Q65" s="105">
         <v>-0.10058679002726996</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="87" t="s">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="B66" s="86">
+      <c r="B66" s="85">
         <v>4.7496999999999998</v>
       </c>
-      <c r="C66" s="78">
+      <c r="C66" s="77">
         <v>1.5595000000000001</v>
       </c>
-      <c r="D66" s="105">
+      <c r="D66" s="104">
         <v>3.0456556588650203</v>
       </c>
-      <c r="E66" s="86">
+      <c r="E66" s="85">
         <v>-4.2875485113030187E-2</v>
       </c>
-      <c r="F66" s="78">
+      <c r="F66" s="77">
         <v>7.0016999999999996</v>
       </c>
-      <c r="G66" s="105">
+      <c r="G66" s="104">
         <v>-6.1235821461973795E-3</v>
       </c>
-      <c r="H66" s="86">
+      <c r="H66" s="85">
         <v>0.77072804517574856</v>
       </c>
-      <c r="I66" s="88">
+      <c r="I66" s="87">
         <v>3.2029096365455167</v>
       </c>
-      <c r="J66" s="105">
+      <c r="J66" s="104">
         <v>0.2406337151637577</v>
       </c>
-      <c r="K66" s="86">
+      <c r="K66" s="85">
         <v>4.7747439937281255E-2</v>
       </c>
-      <c r="L66" s="88">
+      <c r="L66" s="87">
         <v>0.18703707902634226</v>
       </c>
-      <c r="M66" s="105">
+      <c r="M66" s="104">
         <v>0.25528328492852753</v>
       </c>
-      <c r="N66" s="84">
+      <c r="N66" s="83">
         <f t="shared" ref="N66:N72" si="9">H66+K66</f>
         <v>0.81847548511302981</v>
       </c>
-      <c r="O66" s="84">
+      <c r="O66" s="83">
         <f t="shared" ref="O66:O71" si="10">I66+L66</f>
         <v>3.3899467155718588</v>
       </c>
-      <c r="P66" s="84">
+      <c r="P66" s="83">
         <f t="shared" ref="P66:P72" si="11">N66/O66</f>
         <v>0.24144199121282031</v>
       </c>
-      <c r="Q66" s="107">
+      <c r="Q66" s="106">
         <v>-0.32001589401318498</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="90" t="s">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B67" s="86">
+      <c r="B67" s="85">
         <v>-2.7269000000000001</v>
       </c>
       <c r="C67" s="75">
         <v>6.3570000000000002</v>
       </c>
-      <c r="D67" s="105">
+      <c r="D67" s="104">
         <v>-0.42896020135283941</v>
       </c>
-      <c r="E67" s="86">
+      <c r="E67" s="85">
         <v>0.11854131335046647</v>
       </c>
       <c r="F67" s="75">
         <v>10.2044</v>
       </c>
-      <c r="G67" s="105">
+      <c r="G67" s="104">
         <v>1.1616686267734161E-2</v>
       </c>
-      <c r="H67" s="86">
+      <c r="H67" s="85">
         <v>-1.5595514376973254</v>
       </c>
-      <c r="I67" s="91">
+      <c r="I67" s="90">
         <v>7.0654710684273754</v>
       </c>
-      <c r="J67" s="105">
+      <c r="J67" s="104">
         <v>-0.22072858590650893</v>
       </c>
-      <c r="K67" s="86">
+      <c r="K67" s="85">
         <v>-9.8289875653147785E-2</v>
       </c>
-      <c r="L67" s="91">
+      <c r="L67" s="90">
         <v>0.45884337735094055</v>
       </c>
-      <c r="M67" s="105">
+      <c r="M67" s="104">
         <v>-0.2142122573951242</v>
       </c>
-      <c r="N67" s="84">
+      <c r="N67" s="83">
         <f t="shared" si="9"/>
         <v>-1.6578413133504732</v>
       </c>
-      <c r="O67" s="84">
+      <c r="O67" s="83">
         <f t="shared" si="10"/>
         <v>7.524314445778316</v>
       </c>
-      <c r="P67" s="84">
+      <c r="P67" s="83">
         <f t="shared" si="11"/>
         <v>-0.22033121094249883</v>
       </c>
-      <c r="Q67" s="108">
+      <c r="Q67" s="107">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="90" t="s">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="B68" s="86">
+      <c r="B68" s="85">
         <v>-3.7258000000000004</v>
       </c>
       <c r="C68" s="75">
         <v>6.3470000000000004</v>
       </c>
-      <c r="D68" s="105">
+      <c r="D68" s="104">
         <v>-0.58701748857728064</v>
       </c>
-      <c r="E68" s="86">
+      <c r="E68" s="85">
         <v>0.20527559701143749</v>
       </c>
       <c r="F68" s="75">
         <v>8.2335999999999991</v>
       </c>
-      <c r="G68" s="105">
+      <c r="G68" s="104">
         <v>2.4931451249931683E-2</v>
       </c>
-      <c r="H68" s="86">
+      <c r="H68" s="85">
         <v>0.76175130767380761</v>
       </c>
-      <c r="I68" s="91">
+      <c r="I68" s="90">
         <v>5.0778449889732853</v>
       </c>
-      <c r="J68" s="105">
+      <c r="J68" s="104">
         <v>0.15001468326189096</v>
       </c>
-      <c r="K68" s="86">
+      <c r="K68" s="85">
         <v>-6.4526904685237904E-2</v>
       </c>
-      <c r="L68" s="91">
+      <c r="L68" s="90">
         <v>0.53364981622151375</v>
       </c>
-      <c r="M68" s="105">
+      <c r="M68" s="104">
         <v>-0.12091619396052283</v>
       </c>
-      <c r="N68" s="84">
+      <c r="N68" s="83">
         <f t="shared" si="9"/>
         <v>0.69722440298856969</v>
       </c>
-      <c r="O68" s="84">
+      <c r="O68" s="83">
         <f t="shared" si="10"/>
         <v>5.6114948051947993</v>
       </c>
-      <c r="P68" s="84">
+      <c r="P68" s="83">
         <f t="shared" si="11"/>
         <v>0.12424931808599723</v>
       </c>
-      <c r="Q68" s="108">
+      <c r="Q68" s="107">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="92" t="s">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="B69" s="86">
+      <c r="B69" s="85">
         <v>-5.5202999999999998</v>
       </c>
-      <c r="C69" s="80">
+      <c r="C69" s="79">
         <v>6.3075000000000001</v>
       </c>
-      <c r="D69" s="105">
+      <c r="D69" s="104">
         <v>-0.87519619500594525</v>
       </c>
-      <c r="E69" s="86">
+      <c r="E69" s="85">
         <v>0.25186380023202659</v>
       </c>
-      <c r="F69" s="80">
+      <c r="F69" s="79">
         <v>6.8244000000000007</v>
       </c>
-      <c r="G69" s="105">
+      <c r="G69" s="104">
         <v>3.6906365428759531E-2</v>
       </c>
-      <c r="H69" s="86">
+      <c r="H69" s="85">
         <v>0.65548799899290877</v>
       </c>
-      <c r="I69" s="93">
+      <c r="I69" s="92">
         <v>3.4966024327251528</v>
       </c>
-      <c r="J69" s="105">
+      <c r="J69" s="104">
         <v>0.18746426326828355</v>
       </c>
-      <c r="K69" s="86">
+      <c r="K69" s="85">
         <v>4.5248200775063058E-2</v>
       </c>
-      <c r="L69" s="93">
+      <c r="L69" s="92">
         <v>0.23523687411480473</v>
       </c>
-      <c r="M69" s="105">
+      <c r="M69" s="104">
         <v>0.19235164956740658</v>
       </c>
-      <c r="N69" s="84">
+      <c r="N69" s="83">
         <f t="shared" si="9"/>
         <v>0.70073619976797186</v>
       </c>
-      <c r="O69" s="84">
+      <c r="O69" s="83">
         <f t="shared" si="10"/>
         <v>3.7318393068399573</v>
       </c>
-      <c r="P69" s="84">
+      <c r="P69" s="83">
         <f t="shared" si="11"/>
         <v>0.18777234016577751</v>
       </c>
-      <c r="Q69" s="93">
+      <c r="Q69" s="92">
         <v>-4.5718099286610456E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="94" t="s">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B70" s="86">
+      <c r="B70" s="85">
         <v>-2.0448999999999997</v>
       </c>
       <c r="C70" s="74">
         <v>3.1258999999999997</v>
       </c>
-      <c r="D70" s="105">
+      <c r="D70" s="104">
         <v>-0.65417959627627242</v>
       </c>
-      <c r="E70" s="86">
+      <c r="E70" s="85">
         <v>1.849413921397858</v>
       </c>
       <c r="F70" s="74">
         <v>7.5085999999999995</v>
       </c>
-      <c r="G70" s="105">
+      <c r="G70" s="104">
         <v>0.24630609186770611</v>
       </c>
-      <c r="H70" s="86">
+      <c r="H70" s="85">
         <v>0.63760360773591351</v>
       </c>
-      <c r="I70" s="95">
+      <c r="I70" s="94">
         <v>4.2943881967213136</v>
       </c>
-      <c r="J70" s="105">
+      <c r="J70" s="104">
         <v>0.14847367739663409</v>
       </c>
-      <c r="K70" s="86">
+      <c r="K70" s="85">
         <v>1.9282470866228862E-2</v>
       </c>
-      <c r="L70" s="95">
+      <c r="L70" s="94">
         <v>0.27809010795681738</v>
       </c>
-      <c r="M70" s="105">
+      <c r="M70" s="104">
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="N70" s="84">
+      <c r="N70" s="83">
         <f t="shared" si="9"/>
         <v>0.65688607860214243</v>
       </c>
-      <c r="O70" s="84">
+      <c r="O70" s="83">
         <f t="shared" si="10"/>
         <v>4.572478304678131</v>
       </c>
-      <c r="P70" s="84">
+      <c r="P70" s="83">
         <f t="shared" si="11"/>
         <v>0.143660840977655</v>
       </c>
-      <c r="Q70" s="109">
+      <c r="Q70" s="108">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="94" t="s">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B71" s="86">
+      <c r="B71" s="85">
         <v>-0.77380000000000015</v>
       </c>
       <c r="C71" s="74">
         <v>1.2892000000000001</v>
       </c>
-      <c r="D71" s="105">
+      <c r="D71" s="104">
         <v>-0.60021718895439036</v>
       </c>
-      <c r="E71" s="86">
+      <c r="E71" s="85">
         <v>-0.87190683761703458</v>
       </c>
       <c r="F71" s="74">
         <v>8.2502999999999993</v>
       </c>
-      <c r="G71" s="105">
+      <c r="G71" s="104">
         <v>-0.10568183431112016</v>
       </c>
-      <c r="H71" s="86">
+      <c r="H71" s="85">
         <v>0.51081309197247027</v>
       </c>
-      <c r="I71" s="95">
+      <c r="I71" s="94">
         <v>5.5288184321347602</v>
       </c>
-      <c r="J71" s="105">
+      <c r="J71" s="104">
         <v>9.2391005102194612E-2</v>
       </c>
-      <c r="K71" s="86">
+      <c r="K71" s="85">
         <v>0.10979374564456568</v>
       </c>
-      <c r="L71" s="95">
+      <c r="L71" s="94">
         <v>0.3598969808875932</v>
       </c>
-      <c r="M71" s="105">
+      <c r="M71" s="104">
         <v>0.30506992688237528</v>
       </c>
-      <c r="N71" s="84">
+      <c r="N71" s="83">
         <f t="shared" si="9"/>
         <v>0.62060683761703594</v>
       </c>
-      <c r="O71" s="84">
+      <c r="O71" s="83">
         <f t="shared" si="10"/>
         <v>5.8887154130223536</v>
       </c>
-      <c r="P71" s="84">
+      <c r="P71" s="83">
         <f t="shared" si="11"/>
         <v>0.10538917133686251</v>
       </c>
-      <c r="Q71" s="109">
+      <c r="Q71" s="108">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="96" t="s">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B72" s="86">
+      <c r="B72" s="85">
         <v>-0.69299999999999962</v>
       </c>
       <c r="C72" s="76">
         <v>2.1473999999999998</v>
       </c>
-      <c r="D72" s="105">
+      <c r="D72" s="104">
         <v>-0.32271584241408202</v>
       </c>
-      <c r="E72" s="86">
+      <c r="E72" s="85">
         <v>-0.90590974459061657</v>
       </c>
       <c r="F72" s="76">
         <v>9.2515999999999998</v>
       </c>
-      <c r="G72" s="105">
+      <c r="G72" s="104">
         <v>-9.7919251220396103E-2</v>
       </c>
-      <c r="H72" s="86">
+      <c r="H72" s="85">
         <v>2.7966349436854614</v>
       </c>
-      <c r="I72" s="104">
+      <c r="I72" s="103">
         <v>4.0606493176648994</v>
       </c>
-      <c r="J72" s="105">
+      <c r="J72" s="104">
         <v>0.68871619411195129</v>
       </c>
-      <c r="K72" s="86">
+      <c r="K72" s="85">
         <v>0.20807480090515129</v>
       </c>
-      <c r="L72" s="104">
+      <c r="L72" s="103">
         <v>0.28163472327520855</v>
       </c>
-      <c r="M72" s="105">
+      <c r="M72" s="104">
         <v>0.73881089123312471</v>
       </c>
-      <c r="N72" s="84">
+      <c r="N72" s="83">
         <f t="shared" si="9"/>
         <v>3.0047097445906128</v>
       </c>
-      <c r="O72" s="84">
+      <c r="O72" s="83">
         <f>I72+L72</f>
         <v>4.3422840409401076</v>
       </c>
-      <c r="P72" s="84">
+      <c r="P72" s="83">
         <f t="shared" si="11"/>
         <v>0.69196526902926669</v>
       </c>
-      <c r="Q72" s="110">
+      <c r="Q72" s="109">
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="A17:Q17"/>
@@ -27725,19 +27730,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -27748,47 +27740,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ACFBB6E-B81B-4231-90DF-0A454EA05932}">
   <dimension ref="A1:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD52" sqref="AD52"/>
+    <sheetView topLeftCell="G17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD53" sqref="AD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" customWidth="1"/>
     <col min="17" max="17" width="13" customWidth="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.140625" customWidth="1"/>
-    <col min="31" max="31" width="12.7109375" customWidth="1"/>
+    <col min="20" max="20" width="12.5546875" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
+    <col min="26" max="26" width="14.5546875" customWidth="1"/>
+    <col min="29" max="29" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B1" s="206" t="s">
         <v>58</v>
       </c>
       <c r="C1" s="206"/>
-      <c r="I1" s="136" t="s">
+      <c r="I1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="208" t="s">
+      <c r="J1" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="208"/>
-      <c r="L1" s="209" t="s">
+      <c r="K1" s="209"/>
+      <c r="L1" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="209"/>
+      <c r="M1" s="205"/>
       <c r="O1" s="199" t="s">
         <v>56</v>
       </c>
@@ -27809,12 +27801,12 @@
       <c r="AD1" s="200"/>
       <c r="AE1" s="201"/>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -27826,49 +27818,49 @@
       <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="112" t="s">
+      <c r="G2" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="137" t="s">
+      <c r="J2" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="137" t="s">
+      <c r="K2" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="149" t="s">
+      <c r="L2" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="M2" s="148" t="s">
+      <c r="M2" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="202" t="s">
+      <c r="O2" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="203"/>
-      <c r="Q2" s="203"/>
-      <c r="R2" s="203"/>
-      <c r="S2" s="203"/>
-      <c r="T2" s="203"/>
-      <c r="U2" s="203"/>
-      <c r="V2" s="203"/>
-      <c r="W2" s="203"/>
-      <c r="X2" s="203"/>
-      <c r="Y2" s="203"/>
-      <c r="Z2" s="203"/>
-      <c r="AA2" s="203"/>
-      <c r="AB2" s="203"/>
-      <c r="AC2" s="203"/>
-      <c r="AD2" s="203"/>
-      <c r="AE2" s="203"/>
+      <c r="P2" s="198"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="198"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
+      <c r="W2" s="198"/>
+      <c r="X2" s="198"/>
+      <c r="Y2" s="198"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="198"/>
+      <c r="AB2" s="198"/>
+      <c r="AC2" s="198"/>
+      <c r="AD2" s="198"/>
+      <c r="AE2" s="198"/>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="113">
+      <c r="B3" s="112">
         <v>47.014299999999999</v>
       </c>
       <c r="C3" s="30">
@@ -27889,55 +27881,55 @@
       <c r="I3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="136">
+      <c r="J3" s="134">
         <f>MIN(D3:D13)</f>
         <v>15.7163</v>
       </c>
-      <c r="K3" s="136">
+      <c r="K3" s="134">
         <f>MAX(D3:D13)</f>
         <v>58.877499999999998</v>
       </c>
-      <c r="L3" s="84">
+      <c r="L3" s="83">
         <f>_xlfn.PERCENTILE.EXC(D3:D13, 0.1)</f>
         <v>16.7577</v>
       </c>
-      <c r="M3" s="84">
+      <c r="M3" s="83">
         <f>_xlfn.PERCENTILE.INC(D3:D13, 0.1)</f>
         <v>20.923299999999998</v>
       </c>
-      <c r="O3" s="83"/>
-      <c r="P3" s="198" t="s">
+      <c r="O3" s="82"/>
+      <c r="P3" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="198"/>
-      <c r="R3" s="198"/>
-      <c r="S3" s="198" t="s">
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198" t="s">
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198" t="s">
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="198"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="198" t="s">
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="198"/>
-      <c r="AD3" s="198"/>
+      <c r="AC3" s="193"/>
+      <c r="AD3" s="193"/>
       <c r="AE3" s="10"/>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="113">
+      <c r="B4" s="112">
         <v>29.554200000000002</v>
       </c>
       <c r="C4" s="30">
@@ -27958,26 +27950,26 @@
       <c r="I4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="136">
+      <c r="J4" s="134">
         <f>MIN(E3:E13)</f>
         <v>0.84810000000000008</v>
       </c>
-      <c r="K4" s="136">
+      <c r="K4" s="134">
         <f>MAX(E3:E13)</f>
         <v>4.6973000000000003</v>
       </c>
-      <c r="L4" s="84">
+      <c r="L4" s="83">
         <f>_xlfn.PERCENTILE.EXC(E3:E13, 0.1)</f>
         <v>0.93668000000000018</v>
       </c>
-      <c r="M4" s="84">
+      <c r="M4" s="83">
         <f>_xlfn.PERCENTILE.INC(E3:E13, 0.1)</f>
         <v>1.2909999999999999</v>
       </c>
       <c r="O4" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="132" t="s">
+      <c r="P4" s="126" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="12" t="s">
@@ -27986,7 +27978,7 @@
       <c r="R4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="132" t="s">
+      <c r="S4" s="126" t="s">
         <v>39</v>
       </c>
       <c r="T4" s="12" t="s">
@@ -27995,7 +27987,7 @@
       <c r="U4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="132" t="s">
+      <c r="V4" s="126" t="s">
         <v>39</v>
       </c>
       <c r="W4" s="12" t="s">
@@ -28004,7 +27996,7 @@
       <c r="X4" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Y4" s="132" t="s">
+      <c r="Y4" s="126" t="s">
         <v>39</v>
       </c>
       <c r="Z4" s="12" t="s">
@@ -28026,11 +28018,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="114">
+      <c r="B5" s="113">
         <v>47.488500000000002</v>
       </c>
       <c r="C5" s="35">
@@ -28051,78 +28043,78 @@
       <c r="I5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="84">
+      <c r="J5" s="83">
         <f>MIN(F3:F13)</f>
         <v>0.27754676667362871</v>
       </c>
-      <c r="K5" s="84">
+      <c r="K5" s="83">
         <f>MAX(F3:F13)</f>
         <v>1.8501772853971479</v>
       </c>
-      <c r="L5" s="84">
+      <c r="L5" s="83">
         <f>_xlfn.PERCENTILE.EXC(F3:F13, 0.1)</f>
         <v>0.30961067561409894</v>
       </c>
-      <c r="M5" s="84">
+      <c r="M5" s="83">
         <f>_xlfn.PERCENTILE.INC(F3:F13, 0.1)</f>
         <v>0.43786631137597964</v>
       </c>
-      <c r="O5" s="113" t="s">
+      <c r="O5" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="133">
+      <c r="P5" s="131">
         <f t="shared" ref="P5:P12" si="0">D16-D3</f>
         <v>-18.643499999999996</v>
       </c>
       <c r="Q5" s="16">
         <v>44.028299999999994</v>
       </c>
-      <c r="R5" s="128">
+      <c r="R5" s="127">
         <f>P5/Q5</f>
         <v>-0.42344355789344579</v>
       </c>
-      <c r="S5" s="134">
+      <c r="S5" s="132">
         <f t="shared" ref="S5:S12" si="1">E16-E3</f>
         <v>-0.34287500000000026</v>
       </c>
       <c r="T5" s="16">
         <v>2.3685</v>
       </c>
-      <c r="U5" s="128">
+      <c r="U5" s="127">
         <f>S5/T5</f>
         <v>-0.14476461895714599</v>
       </c>
-      <c r="V5" s="134">
+      <c r="V5" s="132">
         <f t="shared" ref="V5:V12" si="2">F16-F3</f>
         <v>-0.16332090060751703</v>
       </c>
       <c r="W5" s="30">
         <v>0.95561165589832309</v>
       </c>
-      <c r="X5" s="128">
+      <c r="X5" s="127">
         <f>V5/W5</f>
         <v>-0.17090718766294993</v>
       </c>
-      <c r="Y5" s="133">
+      <c r="Y5" s="131">
         <f t="shared" ref="Y5:Y12" si="3">G16-G3</f>
         <v>-3.123260005814843E-2</v>
       </c>
       <c r="Z5" s="37">
         <v>0.16000831182380906</v>
       </c>
-      <c r="AA5" s="128">
+      <c r="AA5" s="127">
         <f>Y5/Z5</f>
         <v>-0.19519361027032006</v>
       </c>
-      <c r="AB5" s="84">
+      <c r="AB5" s="83">
         <f>SUM(V5,Y5)</f>
         <v>-0.19455350066566546</v>
       </c>
-      <c r="AC5" s="84">
+      <c r="AC5" s="83">
         <f>SUM(W5,Z5)</f>
         <v>1.1156199677221321</v>
       </c>
-      <c r="AD5" s="84">
+      <c r="AD5" s="83">
         <f>AB5/AC5</f>
         <v>-0.17439047910096475</v>
       </c>
@@ -28130,11 +28122,11 @@
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="115">
+      <c r="B6" s="114">
         <v>38.784700000000001</v>
       </c>
       <c r="C6" s="32">
@@ -28152,81 +28144,81 @@
       <c r="G6" s="9">
         <v>0.12090681526084991</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="138">
+      <c r="J6" s="136">
         <f>MIN(G3:G13)</f>
         <v>4.2238846068331719E-2</v>
       </c>
-      <c r="K6" s="138">
+      <c r="K6" s="136">
         <f>MAX(G3:G13)</f>
         <v>0.32472434373056097</v>
       </c>
-      <c r="L6" s="84">
+      <c r="L6" s="83">
         <f>_xlfn.PERCENTILE.EXC(G3:G13, 0.1)</f>
         <v>4.6909347423228033E-2</v>
       </c>
-      <c r="M6" s="84">
+      <c r="M6" s="83">
         <f>_xlfn.PERCENTILE.INC(G3:G13, 0.1)</f>
         <v>6.5591352842813269E-2</v>
       </c>
-      <c r="O6" s="113" t="s">
+      <c r="O6" s="112" t="s">
         <v>52</v>
       </c>
-      <c r="P6" s="133">
+      <c r="P6" s="131">
         <f t="shared" si="0"/>
         <v>-13.749399999999996</v>
       </c>
       <c r="Q6" s="16">
         <v>27.388499999999997</v>
       </c>
-      <c r="R6" s="128">
+      <c r="R6" s="127">
         <f t="shared" ref="R6:R13" si="4">P6/Q6</f>
         <v>-0.5020136188546287</v>
       </c>
-      <c r="S6" s="134">
+      <c r="S6" s="132">
         <f t="shared" si="1"/>
         <v>-1.3113999999999999</v>
       </c>
       <c r="T6" s="16">
         <v>2.0897999999999999</v>
       </c>
-      <c r="U6" s="128">
+      <c r="U6" s="127">
         <f t="shared" ref="U6:U13" si="5">S6/T6</f>
         <v>-0.62752416499186525</v>
       </c>
-      <c r="V6" s="134">
+      <c r="V6" s="132">
         <f t="shared" si="2"/>
         <v>-0.52988876178065869</v>
       </c>
       <c r="W6" s="30">
         <v>0.80098725750566646</v>
       </c>
-      <c r="X6" s="128">
+      <c r="X6" s="127">
         <f t="shared" ref="X6:X13" si="6">V6/W6</f>
         <v>-0.66154455868720241</v>
       </c>
-      <c r="Y6" s="133">
+      <c r="Y6" s="131">
         <f t="shared" si="3"/>
         <v>-8.6593108308677155E-2</v>
       </c>
       <c r="Z6" s="37">
         <v>0.12962202535912964</v>
       </c>
-      <c r="AA6" s="128">
+      <c r="AA6" s="127">
         <f t="shared" ref="AA6:AA13" si="7">Y6/Z6</f>
         <v>-0.66804316680566478</v>
       </c>
-      <c r="AB6" s="84">
+      <c r="AB6" s="83">
         <f t="shared" ref="AB6:AC13" si="8">SUM(V6,Y6)</f>
         <v>-0.61648187008933586</v>
       </c>
-      <c r="AC6" s="84">
+      <c r="AC6" s="83">
         <f t="shared" si="8"/>
         <v>0.93060928286479605</v>
       </c>
-      <c r="AD6" s="84">
+      <c r="AD6" s="83">
         <f t="shared" ref="AD6:AD13" si="9">AB6/AC6</f>
         <v>-0.66244973206322688</v>
       </c>
@@ -28234,7 +28226,7 @@
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
@@ -28256,62 +28248,62 @@
       <c r="G7" s="11">
         <v>0.32174543062421551</v>
       </c>
-      <c r="O7" s="114" t="s">
+      <c r="O7" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="133">
+      <c r="P7" s="131">
         <f t="shared" si="0"/>
         <v>22.777200000000001</v>
       </c>
       <c r="Q7" s="17">
         <v>45.276400000000002</v>
       </c>
-      <c r="R7" s="128">
+      <c r="R7" s="127">
         <f t="shared" si="4"/>
         <v>0.50307003206968748</v>
       </c>
-      <c r="S7" s="134">
+      <c r="S7" s="132">
         <f t="shared" si="1"/>
         <v>1.4491999999999998</v>
       </c>
       <c r="T7" s="17">
         <v>2.1161000000000003</v>
       </c>
-      <c r="U7" s="128">
+      <c r="U7" s="127">
         <f t="shared" si="5"/>
         <v>0.68484476158971674</v>
       </c>
-      <c r="V7" s="134">
+      <c r="V7" s="132">
         <f t="shared" si="2"/>
         <v>0.32403453694048001</v>
       </c>
       <c r="W7" s="38">
         <v>0.85640371307185381</v>
       </c>
-      <c r="X7" s="128">
+      <c r="X7" s="127">
         <f t="shared" si="6"/>
         <v>0.37836657174008881</v>
       </c>
-      <c r="Y7" s="133">
+      <c r="Y7" s="131">
         <f t="shared" si="3"/>
         <v>6.5999564974747599E-2</v>
       </c>
       <c r="Z7" s="39">
         <v>0.13238380964895011</v>
       </c>
-      <c r="AA7" s="128">
+      <c r="AA7" s="127">
         <f t="shared" si="7"/>
         <v>0.49854710443643002</v>
       </c>
-      <c r="AB7" s="84">
+      <c r="AB7" s="83">
         <f>SUM(V7,Y7)</f>
         <v>0.39003410191522758</v>
       </c>
-      <c r="AC7" s="84">
+      <c r="AC7" s="83">
         <f>SUM(W7,Z7)</f>
         <v>0.98878752272080395</v>
       </c>
-      <c r="AD7" s="84">
+      <c r="AD7" s="83">
         <f t="shared" si="9"/>
         <v>0.39445694140839033</v>
       </c>
@@ -28319,7 +28311,7 @@
         <v>-0.3027637470411495</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -28341,73 +28333,73 @@
       <c r="G8" s="11">
         <v>0.22065374815008071</v>
       </c>
-      <c r="I8" s="136" t="s">
+      <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="208" t="s">
+      <c r="J8" s="209" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="208"/>
-      <c r="L8" s="209" t="s">
+      <c r="K8" s="209"/>
+      <c r="L8" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="209"/>
-      <c r="O8" s="115" t="s">
+      <c r="M8" s="205"/>
+      <c r="O8" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="133">
+      <c r="P8" s="131">
         <f t="shared" si="0"/>
         <v>6.8207000000000022</v>
       </c>
       <c r="Q8" s="18">
         <v>36.733499999999999</v>
       </c>
-      <c r="R8" s="128">
+      <c r="R8" s="127">
         <f t="shared" si="4"/>
         <v>0.18568064573209747</v>
       </c>
-      <c r="S8" s="134">
+      <c r="S8" s="132">
         <f t="shared" si="1"/>
         <v>1.7446000000000002</v>
       </c>
       <c r="T8" s="18">
         <v>1.8083</v>
       </c>
-      <c r="U8" s="128">
+      <c r="U8" s="127">
         <f t="shared" si="5"/>
         <v>0.9647735442127966</v>
       </c>
-      <c r="V8" s="134">
+      <c r="V8" s="132">
         <f t="shared" si="2"/>
         <v>0.60606999005902462</v>
       </c>
       <c r="W8" s="32">
         <v>0.72662826606468844</v>
       </c>
-      <c r="X8" s="128">
+      <c r="X8" s="127">
         <f t="shared" si="6"/>
         <v>0.83408534785112387</v>
       </c>
-      <c r="Y8" s="133">
+      <c r="Y8" s="131">
         <f t="shared" si="3"/>
         <v>0.11179122774730278</v>
       </c>
       <c r="Z8" s="9">
         <v>0.12090681526084991</v>
       </c>
-      <c r="AA8" s="128">
+      <c r="AA8" s="127">
         <f t="shared" si="7"/>
         <v>0.9246065038279212</v>
       </c>
-      <c r="AB8" s="84">
+      <c r="AB8" s="83">
         <f t="shared" si="8"/>
         <v>0.71786121780632739</v>
       </c>
-      <c r="AC8" s="84">
+      <c r="AC8" s="83">
         <f t="shared" si="8"/>
         <v>0.84753508132553834</v>
       </c>
-      <c r="AD8" s="84">
+      <c r="AD8" s="83">
         <f t="shared" si="9"/>
         <v>0.84699882473725807</v>
       </c>
@@ -28415,7 +28407,7 @@
         <v>-9.3318329100743891E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -28437,77 +28429,77 @@
       <c r="G9" s="40">
         <v>0.32472434373056097</v>
       </c>
-      <c r="I9" s="137" t="s">
+      <c r="I9" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="J9" s="137" t="s">
+      <c r="J9" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="K9" s="137" t="s">
+      <c r="K9" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="149" t="s">
+      <c r="L9" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="M9" s="148" t="s">
+      <c r="M9" s="145" t="s">
         <v>68</v>
       </c>
       <c r="O9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P9" s="133">
+      <c r="P9" s="131">
         <f t="shared" si="0"/>
         <v>-20.381</v>
       </c>
       <c r="Q9" s="19">
         <v>49.902200000000001</v>
       </c>
-      <c r="R9" s="128">
+      <c r="R9" s="127">
         <f t="shared" si="4"/>
         <v>-0.40841886730444749</v>
       </c>
-      <c r="S9" s="134">
+      <c r="S9" s="132">
         <f t="shared" si="1"/>
         <v>-2.5282000000000004</v>
       </c>
       <c r="T9" s="19">
         <v>4.6973000000000003</v>
       </c>
-      <c r="U9" s="128">
+      <c r="U9" s="127">
         <f t="shared" si="5"/>
         <v>-0.53822408617716566</v>
       </c>
-      <c r="V9" s="134">
+      <c r="V9" s="132">
         <f t="shared" si="2"/>
         <v>-0.97839859793628414</v>
       </c>
       <c r="W9" s="33">
         <v>1.8501772853971479</v>
       </c>
-      <c r="X9" s="128">
+      <c r="X9" s="127">
         <f t="shared" si="6"/>
         <v>-0.52881343083090926</v>
       </c>
-      <c r="Y9" s="133">
+      <c r="Y9" s="131">
         <f t="shared" si="3"/>
         <v>-0.17582642709759452</v>
       </c>
       <c r="Z9" s="11">
         <v>0.32174543062421551</v>
       </c>
-      <c r="AA9" s="128">
+      <c r="AA9" s="127">
         <f t="shared" si="7"/>
         <v>-0.54647684275259234</v>
       </c>
-      <c r="AB9" s="84">
+      <c r="AB9" s="83">
         <f t="shared" si="8"/>
         <v>-1.1542250250338786</v>
       </c>
-      <c r="AC9" s="84">
+      <c r="AC9" s="83">
         <f>SUM(W9,Z9)</f>
         <v>2.1719227160213634</v>
       </c>
-      <c r="AD9" s="84">
+      <c r="AD9" s="83">
         <f t="shared" si="9"/>
         <v>-0.5314300626443309</v>
       </c>
@@ -28515,7 +28507,7 @@
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
@@ -28540,78 +28532,78 @@
       <c r="I10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J10" s="138">
+      <c r="J10" s="136">
         <f>MIN(D30:D38)</f>
         <v>3.0990000000000002</v>
       </c>
-      <c r="K10" s="138">
+      <c r="K10" s="136">
         <f>MAX(D30:D38)</f>
         <v>11.956300000000001</v>
       </c>
-      <c r="L10" s="138">
+      <c r="L10" s="136">
         <f>_xlfn.PERCENTILE.EXC(D30:D38, 0.1)</f>
         <v>3.0990000000000002</v>
       </c>
-      <c r="M10" s="138">
+      <c r="M10" s="136">
         <f>_xlfn.PERCENTILE.INC(D30:D38, 0.1)</f>
         <v>5.2502000000000004</v>
       </c>
       <c r="O10" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P10" s="133">
+      <c r="P10" s="131">
         <f>D21-D8</f>
         <v>-2.4313000000000038</v>
       </c>
       <c r="Q10" s="19">
         <v>24.480800000000002</v>
       </c>
-      <c r="R10" s="128">
+      <c r="R10" s="127">
         <f t="shared" si="4"/>
         <v>-9.9314564883500683E-2</v>
       </c>
-      <c r="S10" s="134">
+      <c r="S10" s="132">
         <f t="shared" si="1"/>
         <v>-0.83049999999999935</v>
       </c>
       <c r="T10" s="19">
         <v>2.8880999999999997</v>
       </c>
-      <c r="U10" s="128">
+      <c r="U10" s="127">
         <f t="shared" si="5"/>
         <v>-0.28755929503826028</v>
       </c>
-      <c r="V10" s="134">
+      <c r="V10" s="132">
         <f t="shared" si="2"/>
         <v>-0.5998312651887292</v>
       </c>
       <c r="W10" s="33">
         <v>1.2831694146713353</v>
       </c>
-      <c r="X10" s="128">
+      <c r="X10" s="127">
         <f t="shared" si="6"/>
         <v>-0.46746069406771751</v>
       </c>
-      <c r="Y10" s="133">
+      <c r="Y10" s="131">
         <f t="shared" si="3"/>
         <v>-0.11171399488573321</v>
       </c>
       <c r="Z10" s="11">
         <v>0.22065374815008071</v>
       </c>
-      <c r="AA10" s="128">
+      <c r="AA10" s="127">
         <f t="shared" si="7"/>
         <v>-0.50628641399623708</v>
       </c>
-      <c r="AB10" s="84">
+      <c r="AB10" s="83">
         <f t="shared" si="8"/>
         <v>-0.71154526007446239</v>
       </c>
-      <c r="AC10" s="84">
+      <c r="AC10" s="83">
         <f t="shared" si="8"/>
         <v>1.503823162821416</v>
       </c>
-      <c r="AD10" s="84">
+      <c r="AD10" s="83">
         <f t="shared" si="9"/>
         <v>-0.47315753451987541</v>
       </c>
@@ -28619,103 +28611,103 @@
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="114">
+      <c r="B11" s="113">
         <v>21.8202</v>
       </c>
       <c r="C11" s="35">
         <v>-6.340384840026668E-2</v>
       </c>
-      <c r="D11" s="145">
+      <c r="D11" s="142">
         <v>20.923299999999998</v>
       </c>
-      <c r="E11" s="140">
+      <c r="E11" s="137">
         <v>0.84810000000000008</v>
       </c>
-      <c r="F11" s="141">
+      <c r="F11" s="138">
         <v>0.27754676667362871</v>
       </c>
-      <c r="G11" s="142">
+      <c r="G11" s="139">
         <v>4.2238846068331719E-2</v>
       </c>
       <c r="I11" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J11" s="138">
+      <c r="J11" s="136">
         <f>MIN(E30:E38)</f>
         <v>3.9233000000000002</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="136">
         <f>MAX(E30:E38)</f>
         <v>7.5605000000000011</v>
       </c>
-      <c r="L11" s="138">
+      <c r="L11" s="136">
         <f>_xlfn.PERCENTILE.EXC(E30:E38, 0.1)</f>
         <v>3.9233000000000002</v>
       </c>
-      <c r="M11" s="138">
+      <c r="M11" s="136">
         <f>_xlfn.PERCENTILE.INC(E30:E38, 0.1)</f>
         <v>4.0785799999999997</v>
       </c>
       <c r="O11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="133">
+      <c r="P11" s="131">
         <f t="shared" si="0"/>
         <v>0.198599999999999</v>
       </c>
       <c r="Q11" s="20">
         <v>58.877499999999998</v>
       </c>
-      <c r="R11" s="128">
+      <c r="R11" s="127">
         <f t="shared" si="4"/>
         <v>3.3731051760010023E-3</v>
       </c>
-      <c r="S11" s="134">
+      <c r="S11" s="132">
         <f t="shared" si="1"/>
         <v>-0.74690000000000101</v>
       </c>
       <c r="T11" s="20">
         <v>4.4638000000000009</v>
       </c>
-      <c r="U11" s="128">
+      <c r="U11" s="127">
         <f t="shared" si="5"/>
         <v>-0.1673238048299657</v>
       </c>
-      <c r="V11" s="134">
+      <c r="V11" s="132">
         <f t="shared" si="2"/>
         <v>-0.34028683073031396</v>
       </c>
       <c r="W11" s="34">
         <v>1.7758675553185828</v>
       </c>
-      <c r="X11" s="128">
+      <c r="X11" s="127">
         <f t="shared" si="6"/>
         <v>-0.1916172350303838</v>
       </c>
-      <c r="Y11" s="133">
+      <c r="Y11" s="131">
         <f t="shared" si="3"/>
         <v>-7.121946965890269E-2</v>
       </c>
       <c r="Z11" s="40">
         <v>0.32472434373056097</v>
       </c>
-      <c r="AA11" s="128">
+      <c r="AA11" s="127">
         <f t="shared" si="7"/>
         <v>-0.21932285347228794</v>
       </c>
-      <c r="AB11" s="84">
+      <c r="AB11" s="83">
         <f t="shared" si="8"/>
         <v>-0.41150630038921665</v>
       </c>
-      <c r="AC11" s="84">
+      <c r="AC11" s="83">
         <f t="shared" si="8"/>
         <v>2.1005918990491437</v>
       </c>
-      <c r="AD11" s="84">
+      <c r="AD11" s="83">
         <f t="shared" si="9"/>
         <v>-0.19590016536552843</v>
       </c>
@@ -28723,103 +28715,103 @@
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="114">
+      <c r="B12" s="113">
         <v>17.0562</v>
       </c>
       <c r="C12" s="35">
         <v>-6.340384840026668E-2</v>
       </c>
-      <c r="D12" s="140">
+      <c r="D12" s="137">
         <v>15.7163</v>
       </c>
-      <c r="E12" s="145">
+      <c r="E12" s="142">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="143">
         <v>0.43786631137597964</v>
       </c>
-      <c r="G12" s="147">
+      <c r="G12" s="144">
         <v>6.5591352842813269E-2</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="138">
+      <c r="J12" s="136">
         <f>MIN(F30:F38)</f>
         <v>1.2269792930976999</v>
       </c>
-      <c r="K12" s="138">
+      <c r="K12" s="136">
         <f>MAX(F30:F38)</f>
         <v>3.2692590636254515</v>
       </c>
-      <c r="L12" s="138">
+      <c r="L12" s="136">
         <f>_xlfn.PERCENTILE.EXC(F30:F38, 0.1)</f>
         <v>1.2269792930976999</v>
       </c>
-      <c r="M12" s="138">
+      <c r="M12" s="136">
         <f>_xlfn.PERCENTILE.INC(F30:F38, 0.1)</f>
         <v>1.3563459802740412</v>
       </c>
       <c r="O12" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P12" s="133">
+      <c r="P12" s="131">
         <f t="shared" si="0"/>
         <v>-3.4879999999999995</v>
       </c>
       <c r="Q12" s="20">
         <v>30.0379</v>
       </c>
-      <c r="R12" s="128">
+      <c r="R12" s="127">
         <f t="shared" si="4"/>
         <v>-0.11611996843987095</v>
       </c>
-      <c r="S12" s="134">
+      <c r="S12" s="132">
         <f t="shared" si="1"/>
         <v>0.91839999999999966</v>
       </c>
       <c r="T12" s="20">
         <v>1.6659000000000002</v>
       </c>
-      <c r="U12" s="128">
+      <c r="U12" s="127">
         <f t="shared" si="5"/>
         <v>0.55129359505372444</v>
       </c>
-      <c r="V12" s="134">
+      <c r="V12" s="132">
         <f t="shared" si="2"/>
         <v>0.18041794101540676</v>
       </c>
       <c r="W12" s="34">
         <v>0.74122198472203027</v>
       </c>
-      <c r="X12" s="128">
+      <c r="X12" s="127">
         <f t="shared" si="6"/>
         <v>0.24340608445804029</v>
       </c>
-      <c r="Y12" s="133">
+      <c r="Y12" s="131">
         <f t="shared" si="3"/>
         <v>4.7038602982888728E-2</v>
       </c>
       <c r="Z12" s="40">
         <v>0.12314691966104313</v>
       </c>
-      <c r="AA12" s="128">
+      <c r="AA12" s="127">
         <f t="shared" si="7"/>
         <v>0.38197141359573233</v>
       </c>
-      <c r="AB12" s="84">
+      <c r="AB12" s="83">
         <f t="shared" si="8"/>
         <v>0.22745654399829549</v>
       </c>
-      <c r="AC12" s="84">
+      <c r="AC12" s="83">
         <f t="shared" si="8"/>
         <v>0.86436890438307334</v>
       </c>
-      <c r="AD12" s="84">
+      <c r="AD12" s="83">
         <f t="shared" si="9"/>
         <v>0.26314753208369779</v>
       </c>
@@ -28827,11 +28819,11 @@
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="116">
+      <c r="B13" s="115">
         <v>35.043199999999999</v>
       </c>
       <c r="C13" s="36">
@@ -28849,81 +28841,81 @@
       <c r="G13" s="42">
         <v>0.10207224320241665</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="J13" s="138">
+      <c r="J13" s="136">
         <f>MIN(G30:G38)</f>
         <v>0.18703707902634226</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="136">
         <f>MAX(G30:G38)</f>
         <v>0.53364981622151375</v>
       </c>
-      <c r="L13" s="138">
+      <c r="L13" s="136">
         <f>_xlfn.PERCENTILE.EXC(G30:G38, 0.1)</f>
         <v>0.18703707902634226</v>
       </c>
-      <c r="M13" s="138">
+      <c r="M13" s="136">
         <f>_xlfn.PERCENTILE.INC(G30:G38, 0.1)</f>
         <v>0.19989447176633907</v>
       </c>
-      <c r="O13" s="116" t="s">
+      <c r="O13" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="P13" s="133">
+      <c r="P13" s="131">
         <f>D26-D13</f>
         <v>-3.3091000000000044</v>
       </c>
       <c r="Q13" s="22">
         <v>33.042800000000007</v>
       </c>
-      <c r="R13" s="128">
+      <c r="R13" s="127">
         <f t="shared" si="4"/>
         <v>-0.10014587141525548</v>
       </c>
-      <c r="S13" s="134">
+      <c r="S13" s="132">
         <f>E26-E13</f>
         <v>-0.45510000000000028</v>
       </c>
       <c r="T13" s="22">
         <v>1.8968000000000003</v>
       </c>
-      <c r="U13" s="128">
+      <c r="U13" s="127">
         <f t="shared" si="5"/>
         <v>-0.23993040911008026</v>
       </c>
-      <c r="V13" s="129">
+      <c r="V13" s="128">
         <f>F26-F13</f>
         <v>-0.10441429543657543</v>
       </c>
       <c r="W13" s="36">
         <v>0.62089966474505043</v>
       </c>
-      <c r="X13" s="128">
+      <c r="X13" s="127">
         <f t="shared" si="6"/>
         <v>-0.16816613273490705</v>
       </c>
-      <c r="Y13" s="130">
+      <c r="Y13" s="129">
         <f>G26-G13</f>
         <v>-2.1770204424107042E-2</v>
       </c>
       <c r="Z13" s="42">
         <v>0.10207224320241665</v>
       </c>
-      <c r="AA13" s="128">
+      <c r="AA13" s="127">
         <f t="shared" si="7"/>
         <v>-0.21328231594690392</v>
       </c>
-      <c r="AB13" s="84">
+      <c r="AB13" s="83">
         <f t="shared" si="8"/>
         <v>-0.12618449986068248</v>
       </c>
-      <c r="AC13" s="84">
+      <c r="AC13" s="83">
         <f t="shared" si="8"/>
         <v>0.72297190794746702</v>
       </c>
-      <c r="AD13" s="84">
+      <c r="AD13" s="83">
         <f t="shared" si="9"/>
         <v>-0.17453582701286835</v>
       </c>
@@ -28931,18 +28923,18 @@
         <v>-3.2730377491297959E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="204" t="s">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B14" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="205"/>
+      <c r="C14" s="208"/>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="111" t="s">
+      <c r="C15" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="12" t="s">
@@ -28957,7 +28949,7 @@
       <c r="G15" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="143" t="s">
+      <c r="I15" s="140" t="s">
         <v>71</v>
       </c>
       <c r="O15" s="206" t="s">
@@ -28980,11 +28972,11 @@
       <c r="AD15" s="206"/>
       <c r="AE15" s="206"/>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="113">
+      <c r="B16" s="112">
         <v>27.528300000000002</v>
       </c>
       <c r="C16" s="30">
@@ -29002,7 +28994,7 @@
       <c r="G16" s="30">
         <v>0.12877571176566063</v>
       </c>
-      <c r="I16" s="143" t="s">
+      <c r="I16" s="140" t="s">
         <v>72</v>
       </c>
       <c r="O16" s="1"/>
@@ -29033,11 +29025,11 @@
       <c r="AD16" s="206"/>
       <c r="AE16" s="1"/>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="113">
+      <c r="B17" s="112">
         <v>14.5052</v>
       </c>
       <c r="C17" s="30">
@@ -29061,7 +29053,7 @@
       <c r="O17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="P17" s="127" t="s">
+      <c r="P17" s="126" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="12" t="s">
@@ -29070,7 +29062,7 @@
       <c r="R17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="S17" s="127" t="s">
+      <c r="S17" s="126" t="s">
         <v>39</v>
       </c>
       <c r="T17" s="12" t="s">
@@ -29079,7 +29071,7 @@
       <c r="U17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="V17" s="127" t="s">
+      <c r="V17" s="126" t="s">
         <v>39</v>
       </c>
       <c r="W17" s="12" t="s">
@@ -29088,7 +29080,7 @@
       <c r="X17" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="127" t="s">
+      <c r="Y17" s="126" t="s">
         <v>39</v>
       </c>
       <c r="Z17" s="12" t="s">
@@ -29110,11 +29102,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="114">
+      <c r="B18" s="113">
         <v>71.694199999999995</v>
       </c>
       <c r="C18" s="35">
@@ -29132,73 +29124,73 @@
       <c r="G18" s="31">
         <v>0.19838337462369771</v>
       </c>
-      <c r="O18" s="113" t="s">
+      <c r="O18" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="P18" s="135">
+      <c r="P18" s="133">
         <f>D41-D30</f>
         <v>0.13540000000000063</v>
       </c>
       <c r="Q18" s="37">
         <v>5.7880000000000003</v>
       </c>
-      <c r="R18" s="131">
+      <c r="R18" s="130">
         <f>P18/Q18</f>
         <v>2.3393227366966245E-2</v>
       </c>
-      <c r="S18" s="131">
+      <c r="S18" s="130">
         <f>E41-E30</f>
         <v>1.1347000000000005</v>
       </c>
       <c r="T18" s="37">
         <v>5.3543000000000003</v>
       </c>
-      <c r="U18" s="131">
+      <c r="U18" s="130">
         <f>S18/T18</f>
         <v>0.21192312720617082</v>
       </c>
-      <c r="V18" s="135">
+      <c r="V18" s="133">
         <f>F41-F30</f>
         <v>0.25153775546419443</v>
       </c>
       <c r="W18" s="30">
         <v>1.3886876520681266</v>
       </c>
-      <c r="X18" s="131">
+      <c r="X18" s="130">
         <f>V18/W18</f>
         <v>0.18113342844921793</v>
       </c>
-      <c r="Y18" s="131">
+      <c r="Y18" s="130">
         <v>3.6685446490482859E-2</v>
       </c>
       <c r="Z18" s="30">
         <v>0.20310881995133825</v>
       </c>
-      <c r="AA18" s="131">
+      <c r="AA18" s="130">
         <f>Y18/Z18</f>
         <v>0.18061966240201743</v>
       </c>
-      <c r="AB18" s="84">
+      <c r="AB18" s="83">
         <f>SUM(V18,Y18)</f>
         <v>0.28822320195467732</v>
       </c>
-      <c r="AC18" s="84">
+      <c r="AC18" s="83">
         <f>SUM(W18,Z18)</f>
         <v>1.5917964720194648</v>
       </c>
-      <c r="AD18" s="84">
+      <c r="AD18" s="83">
         <f>AB18/AC18</f>
         <v>0.18106787332492144</v>
       </c>
-      <c r="AE18" s="118">
+      <c r="AE18" s="117">
         <v>-0.10058679002726996</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="115">
+      <c r="B19" s="114">
         <v>47.312199999999997</v>
       </c>
       <c r="C19" s="32">
@@ -29219,66 +29211,66 @@
       <c r="O19" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="P19" s="135">
+      <c r="P19" s="133">
         <f>D44-D33</f>
         <v>-3.9163000000000014</v>
       </c>
       <c r="Q19" s="11">
         <v>11.956300000000001</v>
       </c>
-      <c r="R19" s="131">
+      <c r="R19" s="130">
         <f t="shared" ref="R19:R23" si="10">P19/Q19</f>
         <v>-0.32755116549434199</v>
       </c>
-      <c r="S19" s="131">
+      <c r="S19" s="130">
         <f>E44-E33</f>
         <v>-0.84030000000000094</v>
       </c>
       <c r="T19" s="13">
         <v>7.5605000000000011</v>
       </c>
-      <c r="U19" s="131">
+      <c r="U19" s="130">
         <f>S19/T19</f>
         <v>-0.1111434428939886</v>
       </c>
-      <c r="V19" s="135">
+      <c r="V19" s="133">
         <f>F44-F33</f>
         <v>-0.71127104721345447</v>
       </c>
       <c r="W19" s="33">
         <v>3.2692590636254515</v>
       </c>
-      <c r="X19" s="131">
+      <c r="X19" s="130">
         <f t="shared" ref="X19:X23" si="11">V19/W19</f>
         <v>-0.21756337854262581</v>
       </c>
-      <c r="Y19" s="135">
+      <c r="Y19" s="133">
         <v>-9.8289875653147785E-2</v>
       </c>
       <c r="Z19" s="33">
         <v>0.45884337735094055</v>
       </c>
-      <c r="AA19" s="131">
+      <c r="AA19" s="130">
         <f t="shared" ref="AA19:AA23" si="12">Y19/Z19</f>
         <v>-0.2142122573951242</v>
       </c>
-      <c r="AB19" s="84">
+      <c r="AB19" s="83">
         <f>SUM(V19,Y19)</f>
         <v>-0.80956092286660231</v>
       </c>
-      <c r="AC19" s="84">
+      <c r="AC19" s="83">
         <f>SUM(W19,Z19)</f>
         <v>3.7281024409763921</v>
       </c>
-      <c r="AD19" s="84">
+      <c r="AD19" s="83">
         <f t="shared" ref="AD19:AD23" si="13">AB19/AC19</f>
         <v>-0.2171509328629333</v>
       </c>
-      <c r="AE19" s="121">
+      <c r="AE19" s="120">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>18</v>
       </c>
@@ -29303,66 +29295,66 @@
       <c r="O20" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="P20" s="135">
+      <c r="P20" s="133">
         <f>D45-D34</f>
         <v>-6.4181000000000008</v>
       </c>
       <c r="Q20" s="11">
         <v>11.644400000000001</v>
       </c>
-      <c r="R20" s="131">
+      <c r="R20" s="130">
         <f t="shared" si="10"/>
         <v>-0.55117481364432686</v>
       </c>
-      <c r="S20" s="131">
+      <c r="S20" s="130">
         <f>E45-E34</f>
         <v>0.91669999999999874</v>
       </c>
       <c r="T20" s="13">
         <v>5.0812000000000008</v>
       </c>
-      <c r="U20" s="131">
+      <c r="U20" s="130">
         <f t="shared" ref="U20:U23" si="14">S20/T20</f>
         <v>0.18041013933716418</v>
       </c>
-      <c r="V20" s="135">
+      <c r="V20" s="133">
         <f>F45-F34</f>
         <v>0.97315424931338623</v>
       </c>
       <c r="W20" s="33">
         <v>1.5718154373927942</v>
       </c>
-      <c r="X20" s="131">
+      <c r="X20" s="130">
         <f t="shared" si="11"/>
         <v>0.61912755541298103</v>
       </c>
-      <c r="Y20" s="135">
+      <c r="Y20" s="133">
         <v>-6.4526904685237904E-2</v>
       </c>
       <c r="Z20" s="33">
         <v>0.53364981622151375</v>
       </c>
-      <c r="AA20" s="131">
+      <c r="AA20" s="130">
         <f>Y20/Z20</f>
         <v>-0.12091619396052281</v>
       </c>
-      <c r="AB20" s="84">
+      <c r="AB20" s="83">
         <f t="shared" ref="AB20:AB23" si="15">SUM(V20,Y20)</f>
         <v>0.90862734462814831</v>
       </c>
-      <c r="AC20" s="84">
+      <c r="AC20" s="83">
         <f t="shared" ref="AC20" si="16">SUM(W20,Z20)</f>
         <v>2.1054652536143079</v>
       </c>
-      <c r="AD20" s="84">
+      <c r="AD20" s="83">
         <f t="shared" si="13"/>
         <v>0.43155656122482666</v>
       </c>
-      <c r="AE20" s="121">
+      <c r="AE20" s="120">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>19</v>
       </c>
@@ -29387,66 +29379,66 @@
       <c r="O21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="P21" s="135">
+      <c r="P21" s="133">
         <f>D47-D36</f>
         <v>-1.9533999999999994</v>
       </c>
       <c r="Q21" s="43">
         <v>7.6037999999999997</v>
       </c>
-      <c r="R21" s="131">
+      <c r="R21" s="130">
         <f>P21/Q21</f>
         <v>-0.2568978668560456</v>
       </c>
-      <c r="S21" s="131">
+      <c r="S21" s="130">
         <f>E47-E36</f>
         <v>2.104000000000001</v>
       </c>
       <c r="T21" s="45">
         <v>5.0610999999999997</v>
       </c>
-      <c r="U21" s="131">
+      <c r="U21" s="130">
         <f>S21/T21</f>
         <v>0.41571990278793169</v>
       </c>
-      <c r="V21" s="135">
+      <c r="V21" s="133">
         <f>F47-F36</f>
         <v>-8.3193172166483365E-2</v>
       </c>
       <c r="W21" s="31">
         <v>1.9493750659736113</v>
       </c>
-      <c r="X21" s="131">
+      <c r="X21" s="130">
         <f>V21/W21</f>
         <v>-4.2676842244790236E-2</v>
       </c>
-      <c r="Y21" s="135">
+      <c r="Y21" s="133">
         <v>1.9282470866228862E-2</v>
       </c>
       <c r="Z21" s="31">
         <v>0.27809010795681738</v>
       </c>
-      <c r="AA21" s="131">
+      <c r="AA21" s="130">
         <f>Y21/Z21</f>
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="AB21" s="84">
+      <c r="AB21" s="83">
         <f>SUM(V21,Y21)</f>
         <v>-6.3910701300254502E-2</v>
       </c>
-      <c r="AC21" s="84">
+      <c r="AC21" s="83">
         <f>SUM(W21,Z21)</f>
         <v>2.2274651739304288</v>
       </c>
-      <c r="AD21" s="84">
+      <c r="AD21" s="83">
         <f>AB21/AC21</f>
         <v>-2.8692121451884323E-2</v>
       </c>
-      <c r="AE21" s="120">
+      <c r="AE21" s="119">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>20</v>
       </c>
@@ -29471,66 +29463,66 @@
       <c r="O22" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="P22" s="135">
+      <c r="P22" s="133">
         <f>D48-D37</f>
         <v>-2.6469</v>
       </c>
       <c r="Q22" s="43">
         <v>5.8483000000000001</v>
       </c>
-      <c r="R22" s="131">
+      <c r="R22" s="130">
         <f t="shared" si="10"/>
         <v>-0.45259306123146897</v>
       </c>
-      <c r="S22" s="131">
+      <c r="S22" s="130">
         <f>E48-E37</f>
         <v>-4.4399999999998663E-2</v>
       </c>
       <c r="T22" s="45">
         <v>6.3918999999999997</v>
       </c>
-      <c r="U22" s="131">
+      <c r="U22" s="130">
         <f t="shared" si="14"/>
         <v>-6.9462914000529832E-3</v>
       </c>
-      <c r="V22" s="135">
+      <c r="V22" s="133">
         <f>F48-F37</f>
         <v>-9.2877062322513915E-2</v>
       </c>
       <c r="W22" s="31">
         <v>2.5746834467120188</v>
       </c>
-      <c r="X22" s="131">
+      <c r="X22" s="130">
         <f t="shared" si="11"/>
         <v>-3.6073196664670334E-2</v>
       </c>
-      <c r="Y22" s="135">
+      <c r="Y22" s="133">
         <v>0.10979374564456568</v>
       </c>
       <c r="Z22" s="31">
         <v>0.3598969808875932</v>
       </c>
-      <c r="AA22" s="131">
+      <c r="AA22" s="130">
         <f t="shared" si="12"/>
         <v>0.30506992688237528</v>
       </c>
-      <c r="AB22" s="84">
+      <c r="AB22" s="83">
         <f t="shared" si="15"/>
         <v>1.6916683322051762E-2</v>
       </c>
-      <c r="AC22" s="84">
+      <c r="AC22" s="83">
         <f t="shared" ref="AC22:AC23" si="17">SUM(W22,Z22)</f>
         <v>2.9345804275996121</v>
       </c>
-      <c r="AD22" s="84">
+      <c r="AD22" s="83">
         <f t="shared" si="13"/>
         <v>5.7646003370536479E-3</v>
       </c>
-      <c r="AE22" s="120">
+      <c r="AE22" s="119">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>21</v>
       </c>
@@ -29552,73 +29544,73 @@
       <c r="G23" s="34">
         <v>0.17018552264393186</v>
       </c>
-      <c r="O23" s="116" t="s">
+      <c r="O23" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="P23" s="135">
+      <c r="P23" s="133">
         <f>D49-D38</f>
         <v>-1.7222999999999997</v>
       </c>
       <c r="Q23" s="42">
         <v>7.8046999999999995</v>
       </c>
-      <c r="R23" s="131">
+      <c r="R23" s="130">
         <f t="shared" si="10"/>
         <v>-0.22067472164208743</v>
       </c>
-      <c r="S23" s="131">
+      <c r="S23" s="130">
         <f>E49-E38</f>
         <v>2.0724000000000009</v>
       </c>
-      <c r="T23" s="116">
+      <c r="T23" s="115">
         <v>5.5801999999999996</v>
       </c>
-      <c r="U23" s="131">
+      <c r="U23" s="130">
         <f t="shared" si="14"/>
         <v>0.37138453818859557</v>
       </c>
-      <c r="V23" s="135">
+      <c r="V23" s="133">
         <f>F49-F38</f>
         <v>1.6895305311289952</v>
       </c>
       <c r="W23" s="36">
         <v>1.6979084533737685</v>
       </c>
-      <c r="X23" s="131">
+      <c r="X23" s="130">
         <f t="shared" si="11"/>
         <v>0.99506573971751766</v>
       </c>
-      <c r="Y23" s="131">
+      <c r="Y23" s="130">
         <v>0.20807480090515129</v>
       </c>
       <c r="Z23" s="36">
         <v>0.28163472327520855</v>
       </c>
-      <c r="AA23" s="131">
+      <c r="AA23" s="130">
         <f t="shared" si="12"/>
         <v>0.73881089123312471</v>
       </c>
-      <c r="AB23" s="84">
+      <c r="AB23" s="83">
         <f t="shared" si="15"/>
         <v>1.8976053320341464</v>
       </c>
-      <c r="AC23" s="84">
+      <c r="AC23" s="83">
         <f t="shared" si="17"/>
         <v>1.9795431766489771</v>
       </c>
-      <c r="AD23" s="84">
+      <c r="AD23" s="83">
         <f t="shared" si="13"/>
         <v>0.95860770021013775</v>
       </c>
-      <c r="AE23" s="123">
+      <c r="AE23" s="122">
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="114">
+      <c r="B24" s="113">
         <v>25.196200000000001</v>
       </c>
       <c r="C24" s="35">
@@ -29639,58 +29631,58 @@
       <c r="O24" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="P24" s="135">
+      <c r="P24" s="133">
         <f>D46-D35</f>
         <v>-7.3023000000000007</v>
       </c>
       <c r="Q24" s="40">
         <v>10.7902</v>
       </c>
-      <c r="R24" s="131">
+      <c r="R24" s="130">
         <f>P24/Q24</f>
         <v>-0.6767529795555226</v>
       </c>
-      <c r="S24" s="131">
+      <c r="S24" s="130">
         <f>E46-E35</f>
         <v>1.3264000000000005</v>
       </c>
       <c r="T24" s="14">
         <v>3.9233000000000002</v>
       </c>
-      <c r="U24" s="131">
+      <c r="U24" s="130">
         <f>S24/T24</f>
         <v>0.33808273647184778</v>
       </c>
-      <c r="V24" s="135">
+      <c r="V24" s="133">
         <f>F46-F35</f>
         <v>0.2173185367476036</v>
       </c>
       <c r="W24" s="34">
         <v>1.5476110139131891</v>
       </c>
-      <c r="X24" s="131">
+      <c r="X24" s="130">
         <f>V24/W24</f>
         <v>0.14042193729166219</v>
       </c>
-      <c r="Y24" s="135">
+      <c r="Y24" s="133">
         <v>4.5248200775063058E-2</v>
       </c>
       <c r="Z24" s="34">
         <v>0.23523687411480473</v>
       </c>
-      <c r="AA24" s="131">
+      <c r="AA24" s="130">
         <f>Y24/Z24</f>
         <v>0.19235164956740658</v>
       </c>
-      <c r="AB24" s="84">
+      <c r="AB24" s="83">
         <f>SUM(V24,Y24)</f>
         <v>0.26256673752266668</v>
       </c>
-      <c r="AC24" s="84">
+      <c r="AC24" s="83">
         <f>SUM(W24,Z24)</f>
         <v>1.7828478880279939</v>
       </c>
-      <c r="AD24" s="84">
+      <c r="AD24" s="83">
         <f>AB24/AC24</f>
         <v>0.14727377432804514</v>
       </c>
@@ -29698,11 +29690,11 @@
         <v>-4.5718099286610456E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="114">
+      <c r="B25" s="113">
         <v>14.8794</v>
       </c>
       <c r="C25" s="35">
@@ -29720,73 +29712,73 @@
       <c r="G25" s="35">
         <v>7.6598708923253711E-2</v>
       </c>
-      <c r="O25" s="114" t="s">
+      <c r="O25" s="113" t="s">
         <v>44</v>
       </c>
-      <c r="P25" s="135">
+      <c r="P25" s="133">
         <f>D43-D32</f>
         <v>4.0187999999999988</v>
       </c>
       <c r="Q25" s="43">
         <v>6.0135000000000005</v>
       </c>
-      <c r="R25" s="131">
+      <c r="R25" s="130">
         <f>P25/Q25</f>
         <v>0.66829633325018678</v>
       </c>
-      <c r="S25" s="131">
+      <c r="S25" s="130">
         <f>E43-E32</f>
         <v>0.8338000000000001</v>
       </c>
       <c r="T25" s="44">
         <v>4.1173999999999999</v>
       </c>
-      <c r="U25" s="131">
+      <c r="U25" s="130">
         <f>S25/T25</f>
         <v>0.20250643610045177</v>
       </c>
-      <c r="V25" s="135">
+      <c r="V25" s="133">
         <f>F43-F32</f>
         <v>0.45660631134760643</v>
       </c>
       <c r="W25" s="35">
         <v>1.2269792930976999</v>
       </c>
-      <c r="X25" s="131">
+      <c r="X25" s="130">
         <f>V25/W25</f>
         <v>0.37213856331253387</v>
       </c>
-      <c r="Y25" s="135">
+      <c r="Y25" s="133">
         <v>4.7747439937281255E-2</v>
       </c>
       <c r="Z25" s="35">
         <v>0.18703707902634226</v>
       </c>
-      <c r="AA25" s="131">
+      <c r="AA25" s="130">
         <f>Y25/Z25</f>
         <v>0.25528328492852753</v>
       </c>
-      <c r="AB25" s="84">
+      <c r="AB25" s="83">
         <f t="shared" ref="AB25" si="18">SUM(V25,Y25)</f>
         <v>0.50435375128488769</v>
       </c>
-      <c r="AC25" s="84">
+      <c r="AC25" s="83">
         <f t="shared" ref="AC25" si="19">SUM(W25,Z25)</f>
         <v>1.4140163721240422</v>
       </c>
-      <c r="AD25" s="84">
+      <c r="AD25" s="83">
         <f>AB25/AC25</f>
         <v>0.35668169140593525</v>
       </c>
-      <c r="AE25" s="120">
+      <c r="AE25" s="119">
         <v>-0.32001589401318453</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="116">
+      <c r="B26" s="115">
         <v>31.258299999999998</v>
       </c>
       <c r="C26" s="36">
@@ -29805,18 +29797,18 @@
         <v>8.0302038778309603E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="206" t="s">
         <v>60</v>
       </c>
       <c r="C28" s="206"/>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B29" s="117" t="s">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B29" s="116" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="12" t="s">
@@ -29832,14 +29824,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="113">
+      <c r="B30" s="112">
         <v>11.398899999999999</v>
       </c>
-      <c r="C30" s="118">
+      <c r="C30" s="117">
         <v>-0.10058679002726996</v>
       </c>
       <c r="D30" s="37">
@@ -29855,20 +29847,20 @@
         <v>0.20310881995133825</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="113">
+      <c r="B31" s="112">
         <v>8.5109999999999992</v>
       </c>
-      <c r="C31" s="118">
+      <c r="C31" s="117">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D31" s="144">
+      <c r="D31" s="141">
         <v>3.0990000000000002</v>
       </c>
-      <c r="E31" s="113">
+      <c r="E31" s="112">
         <v>5.3919000000000006</v>
       </c>
       <c r="F31" s="35">
@@ -29878,14 +29870,14 @@
         <v>0.24768143380032806</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="119">
+      <c r="B32" s="118">
         <v>10.304</v>
       </c>
-      <c r="C32" s="120">
+      <c r="C32" s="119">
         <v>-0.32001589401318453</v>
       </c>
       <c r="D32" s="43">
@@ -29894,21 +29886,21 @@
       <c r="E32" s="44">
         <v>4.1173999999999999</v>
       </c>
-      <c r="F32" s="151">
+      <c r="F32" s="148">
         <v>1.2269792930976999</v>
       </c>
-      <c r="G32" s="151">
+      <c r="G32" s="148">
         <v>0.18703707902634226</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="10">
         <v>20.031400000000001</v>
       </c>
-      <c r="C33" s="121">
+      <c r="C33" s="120">
         <v>0.11743877238132332</v>
       </c>
       <c r="D33" s="11">
@@ -29924,14 +29916,14 @@
         <v>0.45884337735094055</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="10">
         <v>16.980599999999999</v>
       </c>
-      <c r="C34" s="121">
+      <c r="C34" s="120">
         <v>0.11743877238132332</v>
       </c>
       <c r="D34" s="11">
@@ -29940,14 +29932,14 @@
       <c r="E34" s="13">
         <v>5.0812000000000008</v>
       </c>
-      <c r="F34" s="122">
+      <c r="F34" s="121">
         <v>1.5718154373927942</v>
       </c>
-      <c r="G34" s="122">
+      <c r="G34" s="121">
         <v>0.53364981622151375</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>7</v>
       </c>
@@ -29960,24 +29952,24 @@
       <c r="D35" s="40">
         <v>10.7902</v>
       </c>
-      <c r="E35" s="150">
+      <c r="E35" s="147">
         <v>3.9233000000000002</v>
       </c>
-      <c r="F35" s="122">
+      <c r="F35" s="121">
         <v>1.5476110139131891</v>
       </c>
-      <c r="G35" s="122">
+      <c r="G35" s="121">
         <v>0.23523687411480473</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B36" s="10">
         <v>12.7844</v>
       </c>
-      <c r="C36" s="120">
+      <c r="C36" s="119">
         <v>-0.11251612892623995</v>
       </c>
       <c r="D36" s="43">
@@ -29986,21 +29978,21 @@
       <c r="E36" s="45">
         <v>5.0610999999999997</v>
       </c>
-      <c r="F36" s="122">
+      <c r="F36" s="121">
         <v>1.9493750659736113</v>
       </c>
-      <c r="G36" s="122">
+      <c r="G36" s="121">
         <v>0.27809010795681738</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B37" s="10">
         <v>12.443300000000001</v>
       </c>
-      <c r="C37" s="120">
+      <c r="C37" s="119">
         <v>-0.11251612892623995</v>
       </c>
       <c r="D37" s="43">
@@ -30009,47 +30001,47 @@
       <c r="E37" s="45">
         <v>6.3918999999999997</v>
       </c>
-      <c r="F37" s="122">
+      <c r="F37" s="121">
         <v>2.5746834467120188</v>
       </c>
-      <c r="G37" s="122">
+      <c r="G37" s="121">
         <v>0.3598969808875932</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B38" s="10">
         <v>13.622999999999999</v>
       </c>
-      <c r="C38" s="123">
+      <c r="C38" s="122">
         <v>-4.9570413884485784E-2</v>
       </c>
       <c r="D38" s="42">
         <v>7.8046999999999995</v>
       </c>
-      <c r="E38" s="116">
+      <c r="E38" s="115">
         <v>5.5801999999999996</v>
       </c>
-      <c r="F38" s="122">
+      <c r="F38" s="121">
         <v>1.6979084533737685</v>
       </c>
-      <c r="G38" s="122">
+      <c r="G38" s="121">
         <v>0.28163472327520855</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B39" s="204" t="s">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B39" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="205"/>
+      <c r="C39" s="208"/>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="111" t="s">
+      <c r="C40" s="110" t="s">
         <v>42</v>
       </c>
       <c r="D40" s="12" t="s">
@@ -30065,20 +30057,20 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B41" s="113">
+      <c r="B41" s="112">
         <v>12.6114</v>
       </c>
-      <c r="C41" s="118">
+      <c r="C41" s="117">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D41" s="124">
+      <c r="D41" s="123">
         <v>5.9234000000000009</v>
       </c>
-      <c r="E41" s="125">
+      <c r="E41" s="124">
         <v>6.4890000000000008</v>
       </c>
       <c r="F41" s="35">
@@ -30088,14 +30080,14 @@
         <v>0.23979426644182111</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="113">
+      <c r="B42" s="112">
         <v>16.5716</v>
       </c>
-      <c r="C42" s="118">
+      <c r="C42" s="117">
         <v>-0.10058679002726996</v>
       </c>
       <c r="D42" s="37">
@@ -30111,14 +30103,14 @@
         <v>0.3607486615802406</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="119">
+      <c r="B43" s="118">
         <v>15.135</v>
       </c>
-      <c r="C43" s="120">
+      <c r="C43" s="119">
         <v>-0.32001589401318453</v>
       </c>
       <c r="D43" s="43">
@@ -30134,14 +30126,14 @@
         <v>0.23478451896362351</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="10">
         <v>14.8985</v>
       </c>
-      <c r="C44" s="121">
+      <c r="C44" s="120">
         <v>0.11743877238132332</v>
       </c>
       <c r="D44" s="11">
@@ -30150,21 +30142,21 @@
       <c r="E44" s="66">
         <v>6.7202000000000002</v>
       </c>
-      <c r="F44" s="122">
+      <c r="F44" s="121">
         <v>2.557988016411997</v>
       </c>
-      <c r="G44" s="122">
+      <c r="G44" s="121">
         <v>0.36055350169779277</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B45" s="10">
         <v>11.488099999999999</v>
       </c>
-      <c r="C45" s="121">
+      <c r="C45" s="120">
         <v>0.11743877238132332</v>
       </c>
       <c r="D45" s="11">
@@ -30173,10 +30165,10 @@
       <c r="E45" s="13">
         <v>5.9978999999999996</v>
       </c>
-      <c r="F45" s="122">
+      <c r="F45" s="121">
         <v>2.5449696867061804</v>
       </c>
-      <c r="G45" s="126">
+      <c r="G45" s="125">
         <v>0.46912291153627583</v>
       </c>
       <c r="O45" s="199" t="s">
@@ -30199,7 +30191,7 @@
       <c r="AD45" s="200"/>
       <c r="AE45" s="201"/>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>21</v>
       </c>
@@ -30215,40 +30207,40 @@
       <c r="E46" s="67">
         <v>5.2497000000000007</v>
       </c>
-      <c r="F46" s="122">
+      <c r="F46" s="121">
         <v>1.7649295506607927</v>
       </c>
-      <c r="G46" s="122">
+      <c r="G46" s="121">
         <v>0.28048507488986779</v>
       </c>
-      <c r="O46" s="202" t="s">
+      <c r="O46" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="203"/>
-      <c r="Q46" s="203"/>
-      <c r="R46" s="203"/>
-      <c r="S46" s="203"/>
-      <c r="T46" s="203"/>
-      <c r="U46" s="203"/>
-      <c r="V46" s="203"/>
-      <c r="W46" s="203"/>
-      <c r="X46" s="203"/>
-      <c r="Y46" s="203"/>
-      <c r="Z46" s="203"/>
-      <c r="AA46" s="203"/>
-      <c r="AB46" s="203"/>
-      <c r="AC46" s="203"/>
-      <c r="AD46" s="203"/>
-      <c r="AE46" s="203"/>
+      <c r="P46" s="198"/>
+      <c r="Q46" s="198"/>
+      <c r="R46" s="198"/>
+      <c r="S46" s="198"/>
+      <c r="T46" s="198"/>
+      <c r="U46" s="198"/>
+      <c r="V46" s="198"/>
+      <c r="W46" s="198"/>
+      <c r="X46" s="198"/>
+      <c r="Y46" s="198"/>
+      <c r="Z46" s="198"/>
+      <c r="AA46" s="198"/>
+      <c r="AB46" s="198"/>
+      <c r="AC46" s="198"/>
+      <c r="AD46" s="198"/>
+      <c r="AE46" s="198"/>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="10">
         <v>13.1127</v>
       </c>
-      <c r="C47" s="120">
+      <c r="C47" s="119">
         <v>-0.11251612892623995</v>
       </c>
       <c r="D47" s="43">
@@ -30257,48 +30249,48 @@
       <c r="E47" s="45">
         <v>7.1651000000000007</v>
       </c>
-      <c r="F47" s="122">
+      <c r="F47" s="121">
         <v>1.866181893807128</v>
       </c>
-      <c r="G47" s="122">
+      <c r="G47" s="121">
         <v>0.29737257882304624</v>
       </c>
-      <c r="O47" s="83"/>
-      <c r="P47" s="198" t="s">
+      <c r="O47" s="82"/>
+      <c r="P47" s="193" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="198"/>
-      <c r="R47" s="198"/>
-      <c r="S47" s="198" t="s">
+      <c r="Q47" s="193"/>
+      <c r="R47" s="193"/>
+      <c r="S47" s="193" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="198"/>
-      <c r="U47" s="198"/>
-      <c r="V47" s="198" t="s">
+      <c r="T47" s="193"/>
+      <c r="U47" s="193"/>
+      <c r="V47" s="193" t="s">
         <v>36</v>
       </c>
-      <c r="W47" s="198"/>
-      <c r="X47" s="198"/>
-      <c r="Y47" s="198" t="s">
+      <c r="W47" s="193"/>
+      <c r="X47" s="193"/>
+      <c r="Y47" s="193" t="s">
         <v>37</v>
       </c>
-      <c r="Z47" s="198"/>
-      <c r="AA47" s="198"/>
-      <c r="AB47" s="198" t="s">
+      <c r="Z47" s="193"/>
+      <c r="AA47" s="193"/>
+      <c r="AB47" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="AC47" s="198"/>
-      <c r="AD47" s="198"/>
+      <c r="AC47" s="193"/>
+      <c r="AD47" s="193"/>
       <c r="AE47" s="10"/>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="10">
         <v>9.6720000000000006</v>
       </c>
-      <c r="C48" s="120">
+      <c r="C48" s="119">
         <v>-0.11251612892623995</v>
       </c>
       <c r="D48" s="43">
@@ -30307,10 +30299,10 @@
       <c r="E48" s="68">
         <v>6.347500000000001</v>
       </c>
-      <c r="F48" s="122">
+      <c r="F48" s="121">
         <v>2.4818063843895048</v>
       </c>
-      <c r="G48" s="122">
+      <c r="G48" s="121">
         <v>0.46969072653215888</v>
       </c>
       <c r="O48" s="46" t="s">
@@ -30365,14 +30357,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B49" s="10">
         <v>13.8108</v>
       </c>
-      <c r="C49" s="123">
+      <c r="C49" s="122">
         <v>-4.9570413884485784E-2</v>
       </c>
       <c r="D49" s="42">
@@ -30381,382 +30373,382 @@
       <c r="E49" s="69">
         <v>7.6526000000000005</v>
       </c>
-      <c r="F49" s="122">
+      <c r="F49" s="121">
         <v>3.3874389845027637</v>
       </c>
-      <c r="G49" s="122">
+      <c r="G49" s="121">
         <v>0.48970952418035985</v>
       </c>
-      <c r="O49" s="97" t="s">
+      <c r="O49" s="96" t="s">
         <v>43</v>
       </c>
-      <c r="P49" s="86">
+      <c r="P49" s="85">
         <v>-16.521599999999999</v>
       </c>
       <c r="Q49" s="72">
         <v>30.169899999999998</v>
       </c>
-      <c r="R49" s="105">
+      <c r="R49" s="104">
         <v>-0.54761865302834944</v>
       </c>
-      <c r="S49" s="86">
+      <c r="S49" s="85">
         <v>-2.3841999999999981</v>
       </c>
       <c r="T49" s="72">
         <v>15.686499999999999</v>
       </c>
-      <c r="U49" s="105">
+      <c r="U49" s="104">
         <v>-0.15199056513562606</v>
       </c>
-      <c r="V49" s="86">
+      <c r="V49" s="85">
         <v>-0.39729579455943065</v>
       </c>
-      <c r="W49" s="86">
+      <c r="W49" s="85">
         <v>2.1642984735935578</v>
       </c>
-      <c r="X49" s="105">
+      <c r="X49" s="104">
         <v>-0.18356793178334996</v>
       </c>
-      <c r="Y49" s="86">
+      <c r="Y49" s="85">
         <v>-3.1232600058148624E-2</v>
       </c>
-      <c r="Z49" s="86">
+      <c r="Z49" s="85">
         <v>0.16000831182380926</v>
       </c>
-      <c r="AA49" s="105">
+      <c r="AA49" s="104">
         <v>-0.19519361027032103</v>
       </c>
-      <c r="AB49" s="84">
+      <c r="AB49" s="83">
         <f>SUM(V49+Y49)</f>
         <v>-0.4285283946175793</v>
       </c>
-      <c r="AC49" s="84">
+      <c r="AC49" s="83">
         <f>SUM(W49+Z49)</f>
         <v>2.3243067854173671</v>
       </c>
-      <c r="AD49" s="84">
+      <c r="AD49" s="83">
         <f>AB49/AC49</f>
         <v>-0.1843682586593792</v>
       </c>
-      <c r="AE49" s="86">
+      <c r="AE49" s="85">
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="O50" s="97" t="s">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O50" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="P50" s="86">
+      <c r="P50" s="85">
         <v>-4.8291000000000004</v>
       </c>
       <c r="Q50" s="72">
         <v>13.648300000000001</v>
       </c>
-      <c r="R50" s="105">
+      <c r="R50" s="104">
         <v>-0.35382428580848896</v>
       </c>
-      <c r="S50" s="86">
+      <c r="S50" s="85">
         <v>-7.9178000000000006</v>
       </c>
       <c r="T50" s="72">
         <v>13.302300000000001</v>
       </c>
-      <c r="U50" s="105">
+      <c r="U50" s="104">
         <v>-0.59522037542379891</v>
       </c>
-      <c r="V50" s="86">
+      <c r="V50" s="85">
         <v>-1.1520290298210343</v>
       </c>
-      <c r="W50" s="86">
+      <c r="W50" s="85">
         <v>1.8076248437061064</v>
       </c>
-      <c r="X50" s="105">
+      <c r="X50" s="104">
         <v>-0.63731643976472008</v>
       </c>
-      <c r="Y50" s="86">
+      <c r="Y50" s="85">
         <v>-8.6593108308677155E-2</v>
       </c>
-      <c r="Z50" s="86">
+      <c r="Z50" s="85">
         <v>0.12962202535912964</v>
       </c>
-      <c r="AA50" s="105">
+      <c r="AA50" s="104">
         <v>-0.66804316680566478</v>
       </c>
-      <c r="AB50" s="84">
+      <c r="AB50" s="83">
         <f t="shared" ref="AB50:AC57" si="20">SUM(V50+Y50)</f>
         <v>-1.2386221381297113</v>
       </c>
-      <c r="AC50" s="84">
+      <c r="AC50" s="83">
         <f t="shared" si="20"/>
         <v>1.937246869065236</v>
       </c>
-      <c r="AD50" s="84">
+      <c r="AD50" s="83">
         <f t="shared" ref="AD50:AD57" si="21">AB50/AC50</f>
         <v>-0.63937237835226113</v>
       </c>
-      <c r="AE50" s="86">
+      <c r="AE50" s="85">
         <v>0.22851828638601948</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="208" t="s">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" s="209" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="208"/>
-      <c r="C51" s="208"/>
-      <c r="D51" s="208"/>
-      <c r="E51" s="208"/>
-      <c r="F51" s="208"/>
-      <c r="G51" s="208"/>
-      <c r="I51" s="139" t="s">
+      <c r="B51" s="209"/>
+      <c r="C51" s="209"/>
+      <c r="D51" s="209"/>
+      <c r="E51" s="209"/>
+      <c r="F51" s="209"/>
+      <c r="G51" s="209"/>
+      <c r="I51" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="208" t="s">
+      <c r="J51" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="208"/>
-      <c r="L51" s="209" t="s">
+      <c r="K51" s="209"/>
+      <c r="L51" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="M51" s="209"/>
-      <c r="O51" s="98" t="s">
+      <c r="M51" s="205"/>
+      <c r="O51" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="P51" s="86">
+      <c r="P51" s="85">
         <v>16.670300000000005</v>
       </c>
-      <c r="Q51" s="78">
+      <c r="Q51" s="77">
         <v>30.079799999999999</v>
       </c>
-      <c r="R51" s="105">
+      <c r="R51" s="104">
         <v>0.55420248804845795</v>
       </c>
-      <c r="S51" s="86">
+      <c r="S51" s="85">
         <v>7.3421999999999983</v>
       </c>
-      <c r="T51" s="78">
+      <c r="T51" s="77">
         <v>16.905100000000001</v>
       </c>
-      <c r="U51" s="105">
+      <c r="U51" s="104">
         <v>0.43431863757091044</v>
       </c>
-      <c r="V51" s="86">
+      <c r="V51" s="85">
         <v>0.8105395516297047</v>
       </c>
-      <c r="W51" s="88">
+      <c r="W51" s="87">
         <v>1.7951717616012994</v>
       </c>
-      <c r="X51" s="105">
+      <c r="X51" s="104">
         <v>0.45151086317595629</v>
       </c>
-      <c r="Y51" s="86">
+      <c r="Y51" s="85">
         <v>6.5999564974747599E-2</v>
       </c>
-      <c r="Z51" s="88">
+      <c r="Z51" s="87">
         <v>0.13238380964895011</v>
       </c>
-      <c r="AA51" s="105">
+      <c r="AA51" s="104">
         <v>0.49854710443643002</v>
       </c>
-      <c r="AB51" s="84">
+      <c r="AB51" s="83">
         <f t="shared" si="20"/>
         <v>0.87653911660445227</v>
       </c>
-      <c r="AC51" s="84">
+      <c r="AC51" s="83">
         <f t="shared" si="20"/>
         <v>1.9275555712502495</v>
       </c>
-      <c r="AD51" s="84">
+      <c r="AD51" s="83">
         <f t="shared" si="21"/>
         <v>0.45474129497387833</v>
       </c>
-      <c r="AE51" s="95">
+      <c r="AE51" s="94">
         <v>-0.3027637470411495</v>
       </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="B52" s="206" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="206"/>
-      <c r="I52" s="137" t="s">
+      <c r="I52" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="J52" s="137" t="s">
+      <c r="J52" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="K52" s="137" t="s">
+      <c r="K52" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="L52" s="149" t="s">
+      <c r="L52" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="M52" s="148" t="s">
+      <c r="M52" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O52" s="99" t="s">
+      <c r="O52" s="98" t="s">
         <v>53</v>
       </c>
-      <c r="P52" s="86">
+      <c r="P52" s="85">
         <v>-1.115199999999998</v>
       </c>
-      <c r="Q52" s="79">
+      <c r="Q52" s="78">
         <v>27.011699999999998</v>
       </c>
-      <c r="R52" s="105">
+      <c r="R52" s="104">
         <v>-4.1285813184656947E-2</v>
       </c>
-      <c r="S52" s="86">
+      <c r="S52" s="85">
         <v>9.4342000000000006</v>
       </c>
-      <c r="T52" s="79">
+      <c r="T52" s="78">
         <v>11.104199999999999</v>
       </c>
-      <c r="U52" s="105">
+      <c r="U52" s="104">
         <v>0.849606455215144</v>
       </c>
-      <c r="V52" s="86">
+      <c r="V52" s="85">
         <v>1.3972786932835388</v>
       </c>
-      <c r="W52" s="89">
+      <c r="W52" s="88">
         <v>1.6108243373451037</v>
       </c>
-      <c r="X52" s="105">
+      <c r="X52" s="104">
         <v>0.86743083084185191</v>
       </c>
-      <c r="Y52" s="86">
+      <c r="Y52" s="85">
         <v>0.11179122774730278</v>
       </c>
-      <c r="Z52" s="89">
+      <c r="Z52" s="88">
         <v>0.12090681526084991</v>
       </c>
-      <c r="AA52" s="105">
+      <c r="AA52" s="104">
         <v>0.9246065038279212</v>
       </c>
-      <c r="AB52" s="84">
+      <c r="AB52" s="83">
         <f t="shared" si="20"/>
         <v>1.5090699210308416</v>
       </c>
-      <c r="AC52" s="84">
+      <c r="AC52" s="83">
         <f t="shared" si="20"/>
         <v>1.7317311526059536</v>
       </c>
-      <c r="AD52" s="84">
+      <c r="AD52" s="83">
         <f t="shared" si="21"/>
         <v>0.87142274871012992</v>
       </c>
-      <c r="AE52" s="89">
+      <c r="AE52" s="88">
         <v>-9.3318329100743891E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A53" s="152"/>
-      <c r="B53" s="162" t="s">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A53" s="149"/>
+      <c r="B53" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="111" t="s">
+      <c r="C53" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="162" t="s">
+      <c r="D53" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="162" t="s">
+      <c r="E53" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F53" s="162" t="s">
+      <c r="F53" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G53" s="162" t="s">
+      <c r="G53" s="159" t="s">
         <v>74</v>
       </c>
       <c r="I53" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J53" s="139">
+      <c r="J53" s="134">
         <f>MIN(D54:D65)</f>
         <v>10.2546</v>
       </c>
-      <c r="K53" s="139">
+      <c r="K53" s="134">
         <f>MAX(D54:D65)</f>
         <v>43.567</v>
       </c>
-      <c r="L53" s="84">
+      <c r="L53" s="83">
         <f>_xlfn.PERCENTILE.EXC(D54:D65, 0.1)</f>
         <v>11.21655</v>
       </c>
-      <c r="M53" s="84">
+      <c r="M53" s="83">
         <f>_xlfn.PERCENTILE.INC(D54:D65, 0.1)</f>
         <v>13.47982</v>
       </c>
-      <c r="O53" s="100" t="s">
+      <c r="O53" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="P53" s="86">
+      <c r="P53" s="85">
         <v>-12.028199999999998</v>
       </c>
       <c r="Q53" s="75">
         <v>32.3613</v>
       </c>
-      <c r="R53" s="105">
+      <c r="R53" s="104">
         <v>-0.37168469746271005</v>
       </c>
-      <c r="S53" s="86">
+      <c r="S53" s="85">
         <v>-10.448699999999997</v>
       </c>
       <c r="T53" s="75">
         <v>21.376599999999996</v>
       </c>
-      <c r="U53" s="105">
+      <c r="U53" s="104">
         <v>-0.48879148227501096</v>
       </c>
-      <c r="V53" s="86">
+      <c r="V53" s="85">
         <v>-2.1786469707248868</v>
       </c>
-      <c r="W53" s="91">
+      <c r="W53" s="90">
         <v>4.0674559942692206</v>
       </c>
-      <c r="X53" s="105">
+      <c r="X53" s="104">
         <v>-0.53562889771750644</v>
       </c>
-      <c r="Y53" s="86">
+      <c r="Y53" s="85">
         <v>-0.17582642709759408</v>
       </c>
-      <c r="Z53" s="91">
+      <c r="Z53" s="90">
         <v>0.32174543062421551</v>
       </c>
-      <c r="AA53" s="105">
+      <c r="AA53" s="104">
         <v>-0.5464768427525909</v>
       </c>
-      <c r="AB53" s="84">
+      <c r="AB53" s="83">
         <f t="shared" si="20"/>
         <v>-2.3544733978224808</v>
       </c>
-      <c r="AC53" s="84">
+      <c r="AC53" s="83">
         <f t="shared" si="20"/>
         <v>4.3892014248934359</v>
       </c>
-      <c r="AD53" s="84">
+      <c r="AD53" s="83">
         <f t="shared" si="21"/>
         <v>-0.53642409402062119</v>
       </c>
-      <c r="AE53" s="91">
+      <c r="AE53" s="90">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A54" s="153" t="s">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B54" s="97">
+      <c r="B54" s="96">
         <v>47.014299999999999</v>
       </c>
-      <c r="C54" s="169">
+      <c r="C54" s="166">
         <v>0.24235650000000003</v>
       </c>
-      <c r="D54" s="114">
+      <c r="D54" s="113">
         <v>30.169900000000002</v>
       </c>
-      <c r="E54" s="114">
+      <c r="E54" s="113">
         <v>15.686499999999999</v>
       </c>
       <c r="F54" s="36">
@@ -30768,91 +30760,91 @@
       <c r="I54" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J54" s="139">
+      <c r="J54" s="134">
         <f>MIN(E54:E65)</f>
         <v>5.2179000000000002</v>
       </c>
-      <c r="K54" s="139">
+      <c r="K54" s="134">
         <f>MAX(E54:E65)</f>
         <v>21.376599999999996</v>
       </c>
-      <c r="L54" s="84">
+      <c r="L54" s="83">
         <f>_xlfn.PERCENTILE.EXC(E54:E65, 0.1)</f>
         <v>5.5398300000000003</v>
       </c>
-      <c r="M54" s="84">
+      <c r="M54" s="83">
         <f>_xlfn.PERCENTILE.INC(E54:E65, 0.1)</f>
         <v>6.6369500000000006</v>
       </c>
-      <c r="O54" s="100" t="s">
+      <c r="O54" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="P54" s="86">
+      <c r="P54" s="85">
         <v>0.53389999999999915</v>
       </c>
       <c r="Q54" s="75">
         <v>13.872400000000001</v>
       </c>
-      <c r="R54" s="105">
+      <c r="R54" s="104">
         <v>3.8486491162307832E-2</v>
       </c>
-      <c r="S54" s="86">
+      <c r="S54" s="85">
         <v>-4.0897000000000006</v>
       </c>
       <c r="T54" s="75">
         <v>12.863</v>
       </c>
-      <c r="U54" s="105">
+      <c r="U54" s="104">
         <v>-0.31794293710642935</v>
       </c>
-      <c r="V54" s="86">
+      <c r="V54" s="85">
         <v>-0.97333483705212842</v>
       </c>
-      <c r="W54" s="91">
+      <c r="W54" s="90">
         <v>2.5636871963176899</v>
       </c>
-      <c r="X54" s="105">
+      <c r="X54" s="104">
         <v>-0.37966208921671957</v>
       </c>
-      <c r="Y54" s="86">
+      <c r="Y54" s="85">
         <v>-0.11171399488573321</v>
       </c>
-      <c r="Z54" s="91">
+      <c r="Z54" s="90">
         <v>0.22065374815008071</v>
       </c>
-      <c r="AA54" s="105">
+      <c r="AA54" s="104">
         <v>-0.50628641399623708</v>
       </c>
-      <c r="AB54" s="84">
+      <c r="AB54" s="83">
         <f t="shared" si="20"/>
         <v>-1.0850488319378617</v>
       </c>
-      <c r="AC54" s="84">
+      <c r="AC54" s="83">
         <f t="shared" si="20"/>
         <v>2.7843409444677705</v>
       </c>
-      <c r="AD54" s="84">
+      <c r="AD54" s="83">
         <f t="shared" si="21"/>
         <v>-0.38969682721282894</v>
       </c>
-      <c r="AE54" s="91">
+      <c r="AE54" s="90">
         <v>5.0766638815107075E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A55" s="153" t="s">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A55" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B55" s="97">
+      <c r="B55" s="96">
         <v>29.554200000000002</v>
       </c>
-      <c r="C55" s="169">
+      <c r="C55" s="166">
         <v>0.24235650000000003</v>
       </c>
-      <c r="D55" s="114">
+      <c r="D55" s="113">
         <v>13.648300000000001</v>
       </c>
-      <c r="E55" s="114">
+      <c r="E55" s="113">
         <v>13.302300000000001</v>
       </c>
       <c r="F55" s="36">
@@ -30864,91 +30856,91 @@
       <c r="I55" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J55" s="84">
+      <c r="J55" s="83">
         <f>MIN(F54:F65)</f>
         <v>0.68218590616009644</v>
       </c>
-      <c r="K55" s="84">
+      <c r="K55" s="83">
         <f>MAX(F54:F65)</f>
         <v>4.0674559942692206</v>
       </c>
-      <c r="L55" s="84">
+      <c r="L55" s="83">
         <f>_xlfn.PERCENTILE.EXC(F54:F65, 0.1)</f>
         <v>0.79739190002276583</v>
       </c>
-      <c r="M55" s="84">
+      <c r="M55" s="83">
         <f>_xlfn.PERCENTILE.INC(F54:F65, 0.1)</f>
         <v>1.1078700270013837</v>
       </c>
-      <c r="O55" s="101" t="s">
+      <c r="O55" s="100" t="s">
         <v>54</v>
       </c>
-      <c r="P55" s="86">
+      <c r="P55" s="85">
         <v>0.25489999999999924</v>
       </c>
-      <c r="Q55" s="80">
+      <c r="Q55" s="79">
         <v>43.567</v>
       </c>
-      <c r="R55" s="105">
+      <c r="R55" s="104">
         <v>5.8507586016939249E-3</v>
       </c>
-      <c r="S55" s="86">
+      <c r="S55" s="85">
         <v>-0.71209999999999951</v>
       </c>
-      <c r="T55" s="80">
+      <c r="T55" s="79">
         <v>18.895600000000002</v>
       </c>
-      <c r="U55" s="105">
+      <c r="U55" s="104">
         <v>-3.7686022142721029E-2</v>
       </c>
-      <c r="V55" s="86">
+      <c r="V55" s="85">
         <v>-0.64333331341470545</v>
       </c>
-      <c r="W55" s="93">
+      <c r="W55" s="92">
         <v>3.6723632263988888</v>
       </c>
-      <c r="X55" s="105">
+      <c r="X55" s="104">
         <v>-0.17518237542247603</v>
       </c>
-      <c r="Y55" s="86">
+      <c r="Y55" s="85">
         <v>-7.121946965890269E-2</v>
       </c>
-      <c r="Z55" s="93">
+      <c r="Z55" s="92">
         <v>0.32472434373056097</v>
       </c>
-      <c r="AA55" s="105">
+      <c r="AA55" s="104">
         <v>-0.21932285347228794</v>
       </c>
-      <c r="AB55" s="84">
+      <c r="AB55" s="83">
         <f t="shared" si="20"/>
         <v>-0.71455278307360814</v>
       </c>
-      <c r="AC55" s="84">
+      <c r="AC55" s="83">
         <f t="shared" si="20"/>
         <v>3.9970875701294499</v>
       </c>
-      <c r="AD55" s="84">
+      <c r="AD55" s="83">
         <f t="shared" si="21"/>
         <v>-0.17876835834509039</v>
       </c>
-      <c r="AE55" s="93">
+      <c r="AE55" s="92">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A56" s="154" t="s">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A56" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B56" s="174">
+      <c r="B56" s="171">
         <v>47.488500000000002</v>
       </c>
-      <c r="C56" s="175">
+      <c r="C56" s="172">
         <v>-0.29172375000000034</v>
       </c>
-      <c r="D56" s="114">
+      <c r="D56" s="113">
         <v>30.079799999999999</v>
       </c>
-      <c r="E56" s="114">
+      <c r="E56" s="113">
         <v>16.905100000000001</v>
       </c>
       <c r="F56" s="36">
@@ -30957,94 +30949,94 @@
       <c r="G56" s="36">
         <v>0.13238380964895011</v>
       </c>
-      <c r="I56" s="112" t="s">
+      <c r="I56" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="J56" s="138">
+      <c r="J56" s="136">
         <f>MIN(G54:G65)</f>
         <v>4.2238846068331719E-2</v>
       </c>
-      <c r="K56" s="138">
+      <c r="K56" s="136">
         <f>MAX(G54:G65)</f>
         <v>0.32472434373056097</v>
       </c>
-      <c r="L56" s="84">
+      <c r="L56" s="83">
         <f>_xlfn.PERCENTILE.EXC(G54:G65, 0.1)</f>
         <v>4.9244598100676183E-2</v>
       </c>
-      <c r="M56" s="84">
+      <c r="M56" s="83">
         <f>_xlfn.PERCENTILE.INC(G54:G65, 0.1)</f>
         <v>6.9239441878773608E-2</v>
       </c>
-      <c r="O56" s="101" t="s">
+      <c r="O56" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="P56" s="86">
+      <c r="P56" s="85">
         <v>-5.1542999999999992</v>
       </c>
-      <c r="Q56" s="80">
+      <c r="Q56" s="79">
         <v>21.365199999999998</v>
       </c>
-      <c r="R56" s="105">
+      <c r="R56" s="104">
         <v>-0.24124744912287269</v>
       </c>
-      <c r="S56" s="86">
+      <c r="S56" s="85">
         <v>2.4452999999999996</v>
       </c>
-      <c r="T56" s="80">
+      <c r="T56" s="79">
         <v>10.018800000000001</v>
       </c>
-      <c r="U56" s="105">
+      <c r="U56" s="104">
         <v>0.24407114624505924</v>
       </c>
-      <c r="V56" s="86">
+      <c r="V56" s="85">
         <v>0.51746353630445796</v>
       </c>
-      <c r="W56" s="93">
+      <c r="W56" s="92">
         <v>1.5610683051149881</v>
       </c>
-      <c r="X56" s="105">
+      <c r="X56" s="104">
         <v>0.33148039365666426</v>
       </c>
-      <c r="Y56" s="86">
+      <c r="Y56" s="85">
         <v>4.7038602982888728E-2</v>
       </c>
-      <c r="Z56" s="93">
+      <c r="Z56" s="92">
         <v>0.12314691966104313</v>
       </c>
-      <c r="AA56" s="105">
+      <c r="AA56" s="104">
         <v>0.38197141359573233</v>
       </c>
-      <c r="AB56" s="84">
+      <c r="AB56" s="83">
         <f t="shared" si="20"/>
         <v>0.56450213928734672</v>
       </c>
-      <c r="AC56" s="84">
+      <c r="AC56" s="83">
         <f t="shared" si="20"/>
         <v>1.6842152247760311</v>
       </c>
-      <c r="AD56" s="84">
+      <c r="AD56" s="83">
         <f t="shared" si="21"/>
         <v>0.33517221016833809</v>
       </c>
-      <c r="AE56" s="93">
+      <c r="AE56" s="92">
         <v>-3.8520880931257544E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A57" s="166" t="s">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A57" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B57" s="167">
+      <c r="B57" s="164">
         <v>38.784700000000001</v>
       </c>
-      <c r="C57" s="176">
+      <c r="C57" s="173">
         <v>-7.9807612500000069E-2</v>
       </c>
-      <c r="D57" s="114">
+      <c r="D57" s="113">
         <v>27.011699999999998</v>
       </c>
-      <c r="E57" s="114">
+      <c r="E57" s="113">
         <v>11.104199999999999</v>
       </c>
       <c r="F57" s="36">
@@ -31053,75 +31045,75 @@
       <c r="G57" s="36">
         <v>0.12090681526084991</v>
       </c>
-      <c r="O57" s="103" t="s">
+      <c r="O57" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="P57" s="86">
+      <c r="P57" s="85">
         <v>-3.2297000000000011</v>
       </c>
       <c r="Q57" s="76">
         <v>21.040900000000001</v>
       </c>
-      <c r="R57" s="105">
+      <c r="R57" s="104">
         <v>-0.15349628580526503</v>
       </c>
-      <c r="S57" s="86">
+      <c r="S57" s="85">
         <v>-0.43830000000000169</v>
       </c>
       <c r="T57" s="76">
         <v>13.398000000000001</v>
       </c>
-      <c r="U57" s="105">
+      <c r="U57" s="104">
         <v>-3.2713837886251804E-2</v>
       </c>
-      <c r="V57" s="86">
+      <c r="V57" s="85">
         <v>-0.23345240457375938</v>
       </c>
-      <c r="W57" s="104">
+      <c r="W57" s="103">
         <v>1.4828472986928873</v>
       </c>
-      <c r="X57" s="105">
+      <c r="X57" s="104">
         <v>-0.15743522935877818</v>
       </c>
-      <c r="Y57" s="86">
+      <c r="Y57" s="85">
         <v>-2.1770204424107042E-2</v>
       </c>
-      <c r="Z57" s="104">
+      <c r="Z57" s="103">
         <v>0.10207224320241665</v>
       </c>
-      <c r="AA57" s="105">
+      <c r="AA57" s="104">
         <v>-0.21328231594690392</v>
       </c>
-      <c r="AB57" s="84">
+      <c r="AB57" s="83">
         <f t="shared" si="20"/>
         <v>-0.25522260899786642</v>
       </c>
-      <c r="AC57" s="84">
+      <c r="AC57" s="83">
         <f t="shared" si="20"/>
         <v>1.5849195418953039</v>
       </c>
-      <c r="AD57" s="84">
+      <c r="AD57" s="83">
         <f t="shared" si="21"/>
         <v>-0.16103190240979806</v>
       </c>
-      <c r="AE57" s="104">
+      <c r="AE57" s="103">
         <v>-3.2730377491297959E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A58" s="155" t="s">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A58" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="100">
+      <c r="B58" s="99">
         <v>54.746600000000001</v>
       </c>
-      <c r="C58" s="171">
+      <c r="C58" s="168">
         <v>7.4400954545454687E-2</v>
       </c>
-      <c r="D58" s="114">
+      <c r="D58" s="113">
         <v>32.3613</v>
       </c>
-      <c r="E58" s="114">
+      <c r="E58" s="113">
         <v>21.376599999999996</v>
       </c>
       <c r="F58" s="36">
@@ -31130,32 +31122,32 @@
       <c r="G58" s="36">
         <v>0.32174543062421551</v>
       </c>
-      <c r="I58" s="139" t="s">
+      <c r="I58" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="208" t="s">
+      <c r="J58" s="209" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="208"/>
-      <c r="L58" s="209" t="s">
+      <c r="K58" s="209"/>
+      <c r="L58" s="205" t="s">
         <v>66</v>
       </c>
-      <c r="M58" s="209"/>
+      <c r="M58" s="205"/>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A59" s="155" t="s">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A59" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="100">
+      <c r="B59" s="99">
         <v>27.5703</v>
       </c>
-      <c r="C59" s="171">
+      <c r="C59" s="168">
         <v>7.4400954545454687E-2</v>
       </c>
-      <c r="D59" s="114">
+      <c r="D59" s="113">
         <v>13.872400000000001</v>
       </c>
-      <c r="E59" s="114">
+      <c r="E59" s="113">
         <v>12.863</v>
       </c>
       <c r="F59" s="36">
@@ -31164,55 +31156,55 @@
       <c r="G59" s="36">
         <v>0.22065374815008071</v>
       </c>
-      <c r="I59" s="137" t="s">
+      <c r="I59" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="J59" s="137" t="s">
+      <c r="J59" s="135" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="137" t="s">
+      <c r="K59" s="135" t="s">
         <v>64</v>
       </c>
-      <c r="L59" s="149" t="s">
+      <c r="L59" s="146" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="148" t="s">
+      <c r="M59" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="192" t="s">
+      <c r="O59" s="194" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="193"/>
-      <c r="Q59" s="193"/>
-      <c r="R59" s="193"/>
-      <c r="S59" s="193"/>
-      <c r="T59" s="193"/>
-      <c r="U59" s="193"/>
-      <c r="V59" s="193"/>
-      <c r="W59" s="193"/>
-      <c r="X59" s="193"/>
-      <c r="Y59" s="193"/>
-      <c r="Z59" s="193"/>
-      <c r="AA59" s="193"/>
-      <c r="AB59" s="193"/>
-      <c r="AC59" s="193"/>
-      <c r="AD59" s="193"/>
-      <c r="AE59" s="194"/>
+      <c r="P59" s="195"/>
+      <c r="Q59" s="195"/>
+      <c r="R59" s="195"/>
+      <c r="S59" s="195"/>
+      <c r="T59" s="195"/>
+      <c r="U59" s="195"/>
+      <c r="V59" s="195"/>
+      <c r="W59" s="195"/>
+      <c r="X59" s="195"/>
+      <c r="Y59" s="195"/>
+      <c r="Z59" s="195"/>
+      <c r="AA59" s="195"/>
+      <c r="AB59" s="195"/>
+      <c r="AC59" s="195"/>
+      <c r="AD59" s="195"/>
+      <c r="AE59" s="196"/>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A60" s="156" t="s">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A60" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="B60" s="101">
+      <c r="B60" s="100">
         <v>63.384900000000002</v>
       </c>
-      <c r="C60" s="172">
+      <c r="C60" s="169">
         <v>-2.9873056909090877E-2</v>
       </c>
-      <c r="D60" s="114">
+      <c r="D60" s="113">
         <v>43.567</v>
       </c>
-      <c r="E60" s="114">
+      <c r="E60" s="113">
         <v>18.895600000000002</v>
       </c>
       <c r="F60" s="36">
@@ -31224,64 +31216,64 @@
       <c r="I60" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J60" s="138">
+      <c r="J60" s="136">
         <f>MIN(D84:D94)</f>
         <v>0.41239999999999999</v>
       </c>
-      <c r="K60" s="138">
+      <c r="K60" s="136">
         <f>MAX(D84:D94)</f>
         <v>6.3570000000000002</v>
       </c>
-      <c r="L60" s="138">
+      <c r="L60" s="136">
         <f>_xlfn.PERCENTILE.EXC(D84:D94, 0.1)</f>
         <v>0.5275200000000001</v>
       </c>
-      <c r="M60" s="138">
+      <c r="M60" s="136">
         <f>_xlfn.PERCENTILE.INC(D84:D94, 0.1)</f>
         <v>0.98799999999999999</v>
       </c>
-      <c r="O60" s="83"/>
-      <c r="P60" s="195" t="s">
+      <c r="O60" s="82"/>
+      <c r="P60" s="202" t="s">
         <v>34</v>
       </c>
-      <c r="Q60" s="196"/>
-      <c r="R60" s="197"/>
-      <c r="S60" s="195" t="s">
+      <c r="Q60" s="203"/>
+      <c r="R60" s="204"/>
+      <c r="S60" s="202" t="s">
         <v>35</v>
       </c>
-      <c r="T60" s="196"/>
-      <c r="U60" s="197"/>
-      <c r="V60" s="195" t="s">
+      <c r="T60" s="203"/>
+      <c r="U60" s="204"/>
+      <c r="V60" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="W60" s="196"/>
-      <c r="X60" s="197"/>
-      <c r="Y60" s="195" t="s">
+      <c r="W60" s="203"/>
+      <c r="X60" s="204"/>
+      <c r="Y60" s="202" t="s">
         <v>37</v>
       </c>
-      <c r="Z60" s="196"/>
-      <c r="AA60" s="197"/>
-      <c r="AB60" s="198" t="s">
+      <c r="Z60" s="203"/>
+      <c r="AA60" s="204"/>
+      <c r="AB60" s="193" t="s">
         <v>55</v>
       </c>
-      <c r="AC60" s="198"/>
-      <c r="AD60" s="198"/>
+      <c r="AC60" s="193"/>
+      <c r="AD60" s="193"/>
       <c r="AE60" s="1"/>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A61" s="156" t="s">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A61" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="101">
+      <c r="B61" s="100">
         <v>31.8675</v>
       </c>
-      <c r="C61" s="172">
+      <c r="C61" s="169">
         <v>-2.9873056909090877E-2</v>
       </c>
-      <c r="D61" s="114">
+      <c r="D61" s="113">
         <v>21.365199999999998</v>
       </c>
-      <c r="E61" s="114">
+      <c r="E61" s="113">
         <v>10.018800000000001</v>
       </c>
       <c r="F61" s="36">
@@ -31293,19 +31285,19 @@
       <c r="I61" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J61" s="138">
+      <c r="J61" s="136">
         <f>MIN(E84:E94)</f>
         <v>6.8244000000000007</v>
       </c>
-      <c r="K61" s="138">
+      <c r="K61" s="136">
         <f>MAX(E84:E94)</f>
         <v>11.661999999999999</v>
       </c>
-      <c r="L61" s="138">
+      <c r="L61" s="136">
         <f>_xlfn.PERCENTILE.EXC(E84:E94, 0.1)</f>
         <v>6.8598600000000003</v>
       </c>
-      <c r="M61" s="138">
+      <c r="M61" s="136">
         <f>_xlfn.PERCENTILE.INC(E84:E94, 0.1)</f>
         <v>7.0016999999999996</v>
       </c>
@@ -31361,212 +31353,212 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A62" s="157" t="s">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A62" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="98">
+      <c r="B62" s="97">
         <v>21.8202</v>
       </c>
-      <c r="C62" s="170">
+      <c r="C62" s="167">
         <v>-8.9525781818181854E-2</v>
       </c>
-      <c r="D62" s="114">
+      <c r="D62" s="113">
         <v>16.279599999999999</v>
       </c>
-      <c r="E62" s="210">
+      <c r="E62" s="188">
         <v>5.2179000000000002</v>
       </c>
-      <c r="F62" s="212">
+      <c r="F62" s="190">
         <v>0.68218590616009644</v>
       </c>
-      <c r="G62" s="212">
+      <c r="G62" s="190">
         <v>4.2238846068331719E-2</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J62" s="138">
+      <c r="J62" s="136">
         <f>MIN(F84:F94)</f>
         <v>3.2029096365455167</v>
       </c>
-      <c r="K62" s="138">
+      <c r="K62" s="136">
         <f>MAX(F84:F94)</f>
         <v>7.0654710684273754</v>
       </c>
-      <c r="L62" s="138">
+      <c r="L62" s="136">
         <f>_xlfn.PERCENTILE.EXC(F84:F94, 0.1)</f>
         <v>3.261648195781444</v>
       </c>
-      <c r="M62" s="138">
+      <c r="M62" s="136">
         <f>_xlfn.PERCENTILE.INC(F84:F94, 0.1)</f>
         <v>3.4966024327251528</v>
       </c>
-      <c r="O62" s="85" t="s">
+      <c r="O62" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="P62" s="86">
+      <c r="P62" s="85">
         <v>-0.59709999999999996</v>
       </c>
       <c r="Q62" s="72">
         <v>1.5851</v>
       </c>
-      <c r="R62" s="105">
+      <c r="R62" s="104">
         <v>-0.37669547662608038</v>
       </c>
-      <c r="S62" s="86">
+      <c r="S62" s="85">
         <v>0.40596427983817573</v>
       </c>
       <c r="T62" s="72">
         <v>7.529399999999999</v>
       </c>
-      <c r="U62" s="105">
+      <c r="U62" s="104">
         <v>5.3917215161656415E-2</v>
       </c>
-      <c r="V62" s="86">
+      <c r="V62" s="85">
         <v>0.53845027367133813</v>
       </c>
-      <c r="W62" s="86">
+      <c r="W62" s="85">
         <v>3.7933434306569351</v>
       </c>
-      <c r="X62" s="105">
+      <c r="X62" s="104">
         <v>0.14194609149272011</v>
       </c>
-      <c r="Y62" s="86">
+      <c r="Y62" s="85">
         <v>3.6685446490482859E-2</v>
       </c>
-      <c r="Z62" s="86">
+      <c r="Z62" s="85">
         <v>0.20310881995133825</v>
       </c>
-      <c r="AA62" s="105">
+      <c r="AA62" s="104">
         <v>0.18061966240201743</v>
       </c>
-      <c r="AB62" s="84">
+      <c r="AB62" s="83">
         <f>V62+Y62</f>
         <v>0.57513572016182102</v>
       </c>
-      <c r="AC62" s="84">
+      <c r="AC62" s="83">
         <f>W62+Z62</f>
         <v>3.9964522506082734</v>
       </c>
-      <c r="AD62" s="84">
+      <c r="AD62" s="83">
         <f>AB62/AC62</f>
         <v>0.14391157058720855</v>
       </c>
-      <c r="AE62" s="106">
+      <c r="AE62" s="105">
         <v>-0.10058679002726996</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A63" s="157" t="s">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A63" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="98">
+      <c r="B63" s="97">
         <v>17.0562</v>
       </c>
-      <c r="C63" s="170">
+      <c r="C63" s="167">
         <v>-8.9525781818181854E-2</v>
       </c>
-      <c r="D63" s="210">
+      <c r="D63" s="188">
         <v>10.2546</v>
       </c>
-      <c r="E63" s="211">
+      <c r="E63" s="189">
         <v>6.2910000000000004</v>
       </c>
-      <c r="F63" s="213">
+      <c r="F63" s="191">
         <v>1.0662058857023278</v>
       </c>
-      <c r="G63" s="213">
+      <c r="G63" s="191">
         <v>6.5591352842813269E-2</v>
       </c>
-      <c r="I63" s="112" t="s">
+      <c r="I63" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="J63" s="138">
+      <c r="J63" s="136">
         <f>MIN(G84:G94)</f>
         <v>0.18703707902634226</v>
       </c>
-      <c r="K63" s="138">
+      <c r="K63" s="136">
         <f>MAX(G84:G94)</f>
         <v>0.8784301134521878</v>
       </c>
-      <c r="L63" s="138">
+      <c r="L63" s="136">
         <f>_xlfn.PERCENTILE.EXC(G84:G94, 0.1)</f>
         <v>0.19025142721134147</v>
       </c>
-      <c r="M63" s="138">
+      <c r="M63" s="136">
         <f>_xlfn.PERCENTILE.INC(G84:G94, 0.1)</f>
         <v>0.20310881995133825</v>
       </c>
-      <c r="O63" s="90" t="s">
+      <c r="O63" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="P63" s="86">
+      <c r="P63" s="85">
         <v>-2.7269000000000001</v>
       </c>
       <c r="Q63" s="75">
         <v>6.3570000000000002</v>
       </c>
-      <c r="R63" s="105">
+      <c r="R63" s="104">
         <v>-0.42896020135283941</v>
       </c>
-      <c r="S63" s="86">
+      <c r="S63" s="85">
         <v>0.11854131335046647</v>
       </c>
       <c r="T63" s="75">
         <v>10.2044</v>
       </c>
-      <c r="U63" s="105">
+      <c r="U63" s="104">
         <v>1.1616686267734161E-2</v>
       </c>
-      <c r="V63" s="86">
+      <c r="V63" s="85">
         <v>-1.5595514376973254</v>
       </c>
-      <c r="W63" s="91">
+      <c r="W63" s="90">
         <v>7.0654710684273754</v>
       </c>
-      <c r="X63" s="105">
+      <c r="X63" s="104">
         <v>-0.22072858590650893</v>
       </c>
-      <c r="Y63" s="86">
+      <c r="Y63" s="85">
         <v>-9.8289875653147785E-2</v>
       </c>
-      <c r="Z63" s="91">
+      <c r="Z63" s="90">
         <v>0.45884337735094055</v>
       </c>
-      <c r="AA63" s="105">
+      <c r="AA63" s="104">
         <v>-0.2142122573951242</v>
       </c>
-      <c r="AB63" s="84">
+      <c r="AB63" s="83">
         <f t="shared" ref="AB63:AC67" si="22">V63+Y63</f>
         <v>-1.6578413133504732</v>
       </c>
-      <c r="AC63" s="84">
+      <c r="AC63" s="83">
         <f t="shared" si="22"/>
         <v>7.524314445778316</v>
       </c>
-      <c r="AD63" s="84">
+      <c r="AD63" s="83">
         <f t="shared" ref="AD63:AD67" si="23">AB63/AC63</f>
         <v>-0.22033121094249883</v>
       </c>
-      <c r="AE63" s="108">
+      <c r="AE63" s="107">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A64" s="158" t="s">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A64" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B64" s="103">
+      <c r="B64" s="102">
         <v>23.997399999999999</v>
       </c>
-      <c r="C64" s="173">
+      <c r="C64" s="170">
         <v>-2.9404039090909065E-2</v>
       </c>
-      <c r="D64" s="211">
+      <c r="D64" s="189">
         <v>13.4611</v>
       </c>
-      <c r="E64" s="114">
+      <c r="E64" s="113">
         <v>9.7505000000000006</v>
       </c>
       <c r="F64" s="36">
@@ -31575,75 +31567,75 @@
       <c r="G64" s="36">
         <v>0.14223859065114886</v>
       </c>
-      <c r="O64" s="90" t="s">
+      <c r="O64" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="P64" s="86">
+      <c r="P64" s="85">
         <v>-3.7258000000000004</v>
       </c>
       <c r="Q64" s="75">
         <v>6.3470000000000004</v>
       </c>
-      <c r="R64" s="105">
+      <c r="R64" s="104">
         <v>-0.58701748857728064</v>
       </c>
-      <c r="S64" s="86">
+      <c r="S64" s="85">
         <v>0.20527559701143749</v>
       </c>
       <c r="T64" s="75">
         <v>8.2335999999999991</v>
       </c>
-      <c r="U64" s="105">
+      <c r="U64" s="104">
         <v>2.4931451249931683E-2</v>
       </c>
-      <c r="V64" s="86">
+      <c r="V64" s="85">
         <v>0.76175130767380761</v>
       </c>
-      <c r="W64" s="91">
+      <c r="W64" s="90">
         <v>5.0778449889732853</v>
       </c>
-      <c r="X64" s="105">
+      <c r="X64" s="104">
         <v>0.15001468326189096</v>
       </c>
-      <c r="Y64" s="86">
+      <c r="Y64" s="85">
         <v>-6.4526904685237904E-2</v>
       </c>
-      <c r="Z64" s="91">
+      <c r="Z64" s="90">
         <v>0.53364981622151375</v>
       </c>
-      <c r="AA64" s="105">
+      <c r="AA64" s="104">
         <v>-0.12091619396052283</v>
       </c>
-      <c r="AB64" s="84">
+      <c r="AB64" s="83">
         <f t="shared" si="22"/>
         <v>0.69722440298856969</v>
       </c>
-      <c r="AC64" s="84">
+      <c r="AC64" s="83">
         <f t="shared" si="22"/>
         <v>5.6114948051947993</v>
       </c>
-      <c r="AD64" s="84">
+      <c r="AD64" s="83">
         <f t="shared" si="23"/>
         <v>0.12424931808599723</v>
       </c>
-      <c r="AE64" s="108">
+      <c r="AE64" s="107">
         <v>0.11743877238132332</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A65" s="158" t="s">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A65" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="103">
+      <c r="B65" s="102">
         <v>35.043199999999999</v>
       </c>
-      <c r="C65" s="173">
+      <c r="C65" s="170">
         <v>-2.9404039090909065E-2</v>
       </c>
-      <c r="D65" s="114">
+      <c r="D65" s="113">
         <v>21.040900000000001</v>
       </c>
-      <c r="E65" s="114">
+      <c r="E65" s="113">
         <v>13.398000000000001</v>
       </c>
       <c r="F65" s="36">
@@ -31652,184 +31644,184 @@
       <c r="G65" s="36">
         <v>0.10207224320241665</v>
       </c>
-      <c r="I65" s="143" t="s">
+      <c r="I65" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="O65" s="94" t="s">
+      <c r="O65" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="P65" s="86">
+      <c r="P65" s="85">
         <v>-2.0448999999999997</v>
       </c>
       <c r="Q65" s="74">
         <v>3.1258999999999997</v>
       </c>
-      <c r="R65" s="105">
+      <c r="R65" s="104">
         <v>-0.65417959627627242</v>
       </c>
-      <c r="S65" s="86">
+      <c r="S65" s="85">
         <v>1.849413921397858</v>
       </c>
       <c r="T65" s="74">
         <v>7.5085999999999995</v>
       </c>
-      <c r="U65" s="105">
+      <c r="U65" s="104">
         <v>0.24630609186770611</v>
       </c>
-      <c r="V65" s="86">
+      <c r="V65" s="85">
         <v>0.63760360773591351</v>
       </c>
-      <c r="W65" s="95">
+      <c r="W65" s="94">
         <v>4.2943881967213136</v>
       </c>
-      <c r="X65" s="105">
+      <c r="X65" s="104">
         <v>0.14847367739663409</v>
       </c>
-      <c r="Y65" s="86">
+      <c r="Y65" s="85">
         <v>1.9282470866228862E-2</v>
       </c>
-      <c r="Z65" s="95">
+      <c r="Z65" s="94">
         <v>0.27809010795681738</v>
       </c>
-      <c r="AA65" s="105">
+      <c r="AA65" s="104">
         <v>6.9338931211544927E-2</v>
       </c>
-      <c r="AB65" s="84">
+      <c r="AB65" s="83">
         <f t="shared" si="22"/>
         <v>0.65688607860214243</v>
       </c>
-      <c r="AC65" s="84">
+      <c r="AC65" s="83">
         <f t="shared" si="22"/>
         <v>4.572478304678131</v>
       </c>
-      <c r="AD65" s="84">
+      <c r="AD65" s="83">
         <f t="shared" si="23"/>
         <v>0.143660840977655</v>
       </c>
-      <c r="AE65" s="109">
+      <c r="AE65" s="108">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="I66" s="143" t="s">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="I66" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="O66" s="94" t="s">
+      <c r="O66" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="P66" s="86">
+      <c r="P66" s="85">
         <v>-0.77380000000000015</v>
       </c>
       <c r="Q66" s="74">
         <v>1.2892000000000001</v>
       </c>
-      <c r="R66" s="105">
+      <c r="R66" s="104">
         <v>-0.60021718895439036</v>
       </c>
-      <c r="S66" s="86">
+      <c r="S66" s="85">
         <v>-0.87190683761703458</v>
       </c>
       <c r="T66" s="74">
         <v>8.2502999999999993</v>
       </c>
-      <c r="U66" s="105">
+      <c r="U66" s="104">
         <v>-0.10568183431112016</v>
       </c>
-      <c r="V66" s="86">
+      <c r="V66" s="85">
         <v>0.51081309197247027</v>
       </c>
-      <c r="W66" s="95">
+      <c r="W66" s="94">
         <v>5.5288184321347602</v>
       </c>
-      <c r="X66" s="105">
+      <c r="X66" s="104">
         <v>9.2391005102194612E-2</v>
       </c>
-      <c r="Y66" s="86">
+      <c r="Y66" s="85">
         <v>0.10979374564456568</v>
       </c>
-      <c r="Z66" s="95">
+      <c r="Z66" s="94">
         <v>0.3598969808875932</v>
       </c>
-      <c r="AA66" s="105">
+      <c r="AA66" s="104">
         <v>0.30506992688237528</v>
       </c>
-      <c r="AB66" s="84">
+      <c r="AB66" s="83">
         <f t="shared" si="22"/>
         <v>0.62060683761703594</v>
       </c>
-      <c r="AC66" s="84">
+      <c r="AC66" s="83">
         <f t="shared" si="22"/>
         <v>5.8887154130223536</v>
       </c>
-      <c r="AD66" s="84">
+      <c r="AD66" s="83">
         <f t="shared" si="23"/>
         <v>0.10538917133686251</v>
       </c>
-      <c r="AE66" s="109">
+      <c r="AE66" s="108">
         <v>-0.11251612892623995</v>
       </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B67" s="204" t="s">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B67" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="C67" s="205"/>
-      <c r="O67" s="96" t="s">
+      <c r="C67" s="208"/>
+      <c r="O67" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="P67" s="86">
+      <c r="P67" s="85">
         <v>-0.69299999999999962</v>
       </c>
       <c r="Q67" s="76">
         <v>2.1473999999999998</v>
       </c>
-      <c r="R67" s="105">
+      <c r="R67" s="104">
         <v>-0.32271584241408202</v>
       </c>
-      <c r="S67" s="86">
+      <c r="S67" s="85">
         <v>-0.90590974459061657</v>
       </c>
       <c r="T67" s="76">
         <v>9.2515999999999998</v>
       </c>
-      <c r="U67" s="105">
+      <c r="U67" s="104">
         <v>-9.7919251220396103E-2</v>
       </c>
-      <c r="V67" s="86">
+      <c r="V67" s="85">
         <v>2.7966349436854614</v>
       </c>
-      <c r="W67" s="104">
+      <c r="W67" s="103">
         <v>4.0606493176648994</v>
       </c>
-      <c r="X67" s="105">
+      <c r="X67" s="104">
         <v>0.68871619411195129</v>
       </c>
-      <c r="Y67" s="86">
+      <c r="Y67" s="85">
         <v>0.20807480090515129</v>
       </c>
-      <c r="Z67" s="104">
+      <c r="Z67" s="103">
         <v>0.28163472327520855</v>
       </c>
-      <c r="AA67" s="105">
+      <c r="AA67" s="104">
         <v>0.73881089123312471</v>
       </c>
-      <c r="AB67" s="84">
+      <c r="AB67" s="83">
         <f t="shared" si="22"/>
         <v>3.0047097445906128</v>
       </c>
-      <c r="AC67" s="84">
+      <c r="AC67" s="83">
         <f>W67+Z67</f>
         <v>4.3422840409401076</v>
       </c>
-      <c r="AD67" s="84">
+      <c r="AD67" s="83">
         <f t="shared" si="23"/>
         <v>0.69196526902926669</v>
       </c>
-      <c r="AE67" s="110">
+      <c r="AE67" s="109">
         <v>-4.9570413884485784E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="12" t="s">
         <v>28</v>
@@ -31837,87 +31829,87 @@
       <c r="C68" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D68" s="162" t="s">
+      <c r="D68" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E68" s="162" t="s">
+      <c r="E68" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F68" s="162" t="s">
+      <c r="F68" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G68" s="162" t="s">
+      <c r="G68" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="O68" s="92" t="s">
+      <c r="O68" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="P68" s="86">
+      <c r="P68" s="85">
         <v>-5.5202999999999998</v>
       </c>
-      <c r="Q68" s="80">
+      <c r="Q68" s="79">
         <v>6.3075000000000001</v>
       </c>
-      <c r="R68" s="105">
+      <c r="R68" s="104">
         <v>-0.87519619500594525</v>
       </c>
-      <c r="S68" s="86">
+      <c r="S68" s="85">
         <v>0.25186380023202659</v>
       </c>
-      <c r="T68" s="80">
+      <c r="T68" s="79">
         <v>6.8244000000000007</v>
       </c>
-      <c r="U68" s="105">
+      <c r="U68" s="104">
         <v>3.6906365428759531E-2</v>
       </c>
-      <c r="V68" s="86">
+      <c r="V68" s="85">
         <v>0.65548799899290877</v>
       </c>
-      <c r="W68" s="93">
+      <c r="W68" s="92">
         <v>3.4966024327251528</v>
       </c>
-      <c r="X68" s="105">
+      <c r="X68" s="104">
         <v>0.18746426326828355</v>
       </c>
-      <c r="Y68" s="86">
+      <c r="Y68" s="85">
         <v>4.5248200775063058E-2</v>
       </c>
-      <c r="Z68" s="93">
+      <c r="Z68" s="92">
         <v>0.23523687411480473</v>
       </c>
-      <c r="AA68" s="105">
+      <c r="AA68" s="104">
         <v>0.19235164956740658</v>
       </c>
-      <c r="AB68" s="84">
+      <c r="AB68" s="83">
         <f>V68+Y68</f>
         <v>0.70073619976797186</v>
       </c>
-      <c r="AC68" s="84">
+      <c r="AC68" s="83">
         <f>W68+Z68</f>
         <v>3.7318393068399573</v>
       </c>
-      <c r="AD68" s="84">
+      <c r="AD68" s="83">
         <f>AB68/AC68</f>
         <v>0.18777234016577751</v>
       </c>
-      <c r="AE68" s="93">
+      <c r="AE68" s="92">
         <v>-4.5718099286610456E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A69" s="153" t="s">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A69" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B69" s="96">
         <v>27.528300000000002</v>
       </c>
-      <c r="C69" s="177">
+      <c r="C69" s="174">
         <v>0.24235650000000003</v>
       </c>
-      <c r="D69" s="107">
+      <c r="D69" s="106">
         <v>13.648300000000001</v>
       </c>
-      <c r="E69" s="107">
+      <c r="E69" s="106">
         <v>13.302300000000001</v>
       </c>
       <c r="F69" s="72">
@@ -31926,75 +31918,75 @@
       <c r="G69" s="72">
         <v>0.12877571176566063</v>
       </c>
-      <c r="O69" s="87" t="s">
+      <c r="O69" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="P69" s="86">
+      <c r="P69" s="85">
         <v>4.7496999999999998</v>
       </c>
-      <c r="Q69" s="78">
+      <c r="Q69" s="77">
         <v>1.5595000000000001</v>
       </c>
-      <c r="R69" s="105">
+      <c r="R69" s="104">
         <v>3.0456556588650203</v>
       </c>
-      <c r="S69" s="86">
+      <c r="S69" s="85">
         <v>-4.2875485113030187E-2</v>
       </c>
-      <c r="T69" s="78">
+      <c r="T69" s="77">
         <v>7.0016999999999996</v>
       </c>
-      <c r="U69" s="105">
+      <c r="U69" s="104">
         <v>-6.1235821461973795E-3</v>
       </c>
-      <c r="V69" s="86">
+      <c r="V69" s="85">
         <v>0.77072804517574856</v>
       </c>
-      <c r="W69" s="88">
+      <c r="W69" s="87">
         <v>3.2029096365455167</v>
       </c>
-      <c r="X69" s="105">
+      <c r="X69" s="104">
         <v>0.2406337151637577</v>
       </c>
-      <c r="Y69" s="86">
+      <c r="Y69" s="85">
         <v>4.7747439937281255E-2</v>
       </c>
-      <c r="Z69" s="88">
+      <c r="Z69" s="87">
         <v>0.18703707902634226</v>
       </c>
-      <c r="AA69" s="105">
+      <c r="AA69" s="104">
         <v>0.25528328492852753</v>
       </c>
-      <c r="AB69" s="84">
+      <c r="AB69" s="83">
         <f>V69+Y69</f>
         <v>0.81847548511302981</v>
       </c>
-      <c r="AC69" s="84">
+      <c r="AC69" s="83">
         <f>W69+Z69</f>
         <v>3.3899467155718588</v>
       </c>
-      <c r="AD69" s="84">
+      <c r="AD69" s="83">
         <f>AB69/AC69</f>
         <v>0.24144199121282031</v>
       </c>
-      <c r="AE69" s="107">
+      <c r="AE69" s="106">
         <v>-0.32001589401318498</v>
       </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A70" s="153" t="s">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A70" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="97">
+      <c r="B70" s="96">
         <v>14.5052</v>
       </c>
-      <c r="C70" s="177">
+      <c r="C70" s="174">
         <v>0.24235650000000003</v>
       </c>
-      <c r="D70" s="107">
+      <c r="D70" s="106">
         <v>8.8192000000000004</v>
       </c>
-      <c r="E70" s="107">
+      <c r="E70" s="106">
         <v>5.3845000000000001</v>
       </c>
       <c r="F70" s="72">
@@ -32004,20 +31996,20 @@
         <v>4.3028917050452489E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A71" s="182" t="s">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A71" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B71" s="174">
+      <c r="B71" s="171">
         <v>71.694199999999995</v>
       </c>
-      <c r="C71" s="183">
+      <c r="C71" s="180">
         <v>-0.29172375000000034</v>
       </c>
-      <c r="D71" s="107">
+      <c r="D71" s="106">
         <v>46.750100000000003</v>
       </c>
-      <c r="E71" s="107">
+      <c r="E71" s="106">
         <v>24.247299999999999</v>
       </c>
       <c r="F71" s="72">
@@ -32027,20 +32019,20 @@
         <v>0.19838337462369771</v>
       </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A72" s="166" t="s">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A72" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="167">
+      <c r="B72" s="164">
         <v>47.312199999999997</v>
       </c>
-      <c r="C72" s="184">
+      <c r="C72" s="181">
         <v>-7.9807612500000069E-2</v>
       </c>
-      <c r="D72" s="107">
+      <c r="D72" s="106">
         <v>25.8965</v>
       </c>
-      <c r="E72" s="107">
+      <c r="E72" s="106">
         <v>20.538399999999999</v>
       </c>
       <c r="F72" s="72">
@@ -32050,20 +32042,20 @@
         <v>0.23269804300815269</v>
       </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A73" s="155" t="s">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A73" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B73" s="100">
+      <c r="B73" s="99">
         <v>31.810600000000001</v>
       </c>
-      <c r="C73" s="179">
+      <c r="C73" s="176">
         <v>7.4400954545454687E-2</v>
       </c>
-      <c r="D73" s="88">
+      <c r="D73" s="87">
         <v>20.333100000000002</v>
       </c>
-      <c r="E73" s="88">
+      <c r="E73" s="87">
         <v>10.927899999999999</v>
       </c>
       <c r="F73" s="72">
@@ -32073,20 +32065,20 @@
         <v>0.14591900352662143</v>
       </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A74" s="155" t="s">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A74" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B74" s="100">
+      <c r="B74" s="99">
         <v>24.152100000000001</v>
       </c>
-      <c r="C74" s="179">
+      <c r="C74" s="176">
         <v>7.4400954545454687E-2</v>
       </c>
-      <c r="D74" s="88">
+      <c r="D74" s="87">
         <v>14.4063</v>
       </c>
-      <c r="E74" s="88">
+      <c r="E74" s="87">
         <v>8.773299999999999</v>
       </c>
       <c r="F74" s="72">
@@ -32096,20 +32088,20 @@
         <v>0.1089397532643475</v>
       </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A75" s="156" t="s">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A75" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="101">
+      <c r="B75" s="100">
         <v>62.840499999999999</v>
       </c>
-      <c r="C75" s="180">
+      <c r="C75" s="177">
         <v>-2.9873056909090877E-2</v>
       </c>
-      <c r="D75" s="88">
+      <c r="D75" s="87">
         <v>43.821899999999999</v>
       </c>
-      <c r="E75" s="88">
+      <c r="E75" s="87">
         <v>18.183500000000002</v>
       </c>
       <c r="F75" s="72">
@@ -32119,20 +32111,20 @@
         <v>0.25350487407165828</v>
       </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A76" s="156" t="s">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A76" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B76" s="101">
+      <c r="B76" s="100">
         <v>29.180700000000002</v>
       </c>
-      <c r="C76" s="180">
+      <c r="C76" s="177">
         <v>-2.9873056909090877E-2</v>
       </c>
-      <c r="D76" s="88">
+      <c r="D76" s="87">
         <v>16.210899999999999</v>
       </c>
-      <c r="E76" s="88">
+      <c r="E76" s="87">
         <v>12.4641</v>
       </c>
       <c r="F76" s="72">
@@ -32142,20 +32134,20 @@
         <v>0.17018552264393186</v>
       </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A77" s="157" t="s">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A77" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B77" s="98">
+      <c r="B77" s="97">
         <v>25.196200000000001</v>
       </c>
-      <c r="C77" s="178">
+      <c r="C77" s="175">
         <v>-8.9525781818181854E-2</v>
       </c>
-      <c r="D77" s="88">
+      <c r="D77" s="87">
         <v>16.2744</v>
       </c>
-      <c r="E77" s="88">
+      <c r="E77" s="87">
         <v>8.6090999999999998</v>
       </c>
       <c r="F77" s="72">
@@ -32165,20 +32157,20 @@
         <v>8.7751258894774364E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A78" s="157" t="s">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A78" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="98">
+      <c r="B78" s="97">
         <v>14.8794</v>
       </c>
-      <c r="C78" s="178">
+      <c r="C78" s="175">
         <v>-8.9525781818181854E-2</v>
       </c>
-      <c r="D78" s="88">
+      <c r="D78" s="87">
         <v>8.4464000000000006</v>
       </c>
-      <c r="E78" s="88">
+      <c r="E78" s="87">
         <v>5.661999999999999</v>
       </c>
       <c r="F78" s="72">
@@ -32188,20 +32180,20 @@
         <v>7.6598708923253711E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A79" s="158" t="s">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A79" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B79" s="103">
+      <c r="B79" s="102">
         <v>31.258299999999998</v>
       </c>
-      <c r="C79" s="181">
+      <c r="C79" s="178">
         <v>-2.9404039090909065E-2</v>
       </c>
-      <c r="D79" s="88">
+      <c r="D79" s="87">
         <v>17.811199999999999</v>
       </c>
-      <c r="E79" s="88">
+      <c r="E79" s="87">
         <v>12.9597</v>
       </c>
       <c r="F79" s="72">
@@ -32211,299 +32203,299 @@
         <v>8.0302038778309603E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="D80" s="165"/>
-      <c r="E80" s="165"/>
-      <c r="F80" s="165"/>
-      <c r="G80" s="165"/>
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="D80" s="162"/>
+      <c r="E80" s="162"/>
+      <c r="F80" s="162"/>
+      <c r="G80" s="162"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="204" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B82" s="207" t="s">
         <v>60</v>
       </c>
-      <c r="C82" s="207"/>
+      <c r="C82" s="210"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="152"/>
-      <c r="B83" s="162" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="149"/>
+      <c r="B83" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="111" t="s">
+      <c r="C83" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D83" s="159" t="s">
+      <c r="D83" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="159" t="s">
+      <c r="E83" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="162" t="s">
+      <c r="F83" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G83" s="162" t="s">
+      <c r="G83" s="159" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="153" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B84" s="97">
+      <c r="B84" s="96">
         <v>11.398899999999999</v>
       </c>
-      <c r="C84" s="106">
+      <c r="C84" s="105">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D84" s="160">
+      <c r="D84" s="157">
         <v>1.5851</v>
       </c>
-      <c r="E84" s="161">
+      <c r="E84" s="158">
         <v>7.529399999999999</v>
       </c>
-      <c r="F84" s="163">
+      <c r="F84" s="160">
         <v>3.7933434306569351</v>
       </c>
-      <c r="G84" s="190">
+      <c r="G84" s="187">
         <v>0.20310881995133825</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="153" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="150" t="s">
         <v>1</v>
       </c>
-      <c r="B85" s="97">
+      <c r="B85" s="96">
         <v>8.5109999999999992</v>
       </c>
-      <c r="C85" s="106">
+      <c r="C85" s="105">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D85" s="187">
+      <c r="D85" s="184">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E85" s="160">
+      <c r="E85" s="157">
         <v>8.8132999999999999</v>
       </c>
-      <c r="F85" s="163">
+      <c r="F85" s="160">
         <v>4.2427262400605823</v>
       </c>
-      <c r="G85" s="177">
+      <c r="G85" s="174">
         <v>0.24768143380032806</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="154" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="151" t="s">
         <v>2</v>
       </c>
-      <c r="B86" s="98">
+      <c r="B86" s="97">
         <v>10.304</v>
       </c>
-      <c r="C86" s="109">
+      <c r="C86" s="108">
         <v>-0.30298566155398499</v>
       </c>
-      <c r="D86" s="161">
+      <c r="D86" s="158">
         <v>1.5595000000000001</v>
       </c>
-      <c r="E86" s="187">
+      <c r="E86" s="184">
         <v>7.0016999999999996</v>
       </c>
-      <c r="F86" s="186">
+      <c r="F86" s="183">
         <v>3.2029096365455167</v>
       </c>
-      <c r="G86" s="189">
+      <c r="G86" s="186">
         <v>0.18703707902634226</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="166" t="s">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B87" s="167">
+      <c r="B87" s="164">
         <v>19.3034</v>
       </c>
-      <c r="C87" s="164">
+      <c r="C87" s="161">
         <v>-0.32001589401318498</v>
       </c>
-      <c r="D87" s="160">
+      <c r="D87" s="157">
         <v>4.3765000000000001</v>
       </c>
-      <c r="E87" s="160">
+      <c r="E87" s="157">
         <v>11.661999999999999</v>
       </c>
-      <c r="F87" s="163">
+      <c r="F87" s="160">
         <v>5.822843398413668</v>
       </c>
-      <c r="G87" s="177">
+      <c r="G87" s="174">
         <v>0.3635123062843198</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="155" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="100">
+      <c r="B88" s="99">
         <v>20.031400000000001</v>
       </c>
-      <c r="C88" s="108">
+      <c r="C88" s="107">
         <v>0.11743877238132332</v>
       </c>
-      <c r="D88" s="102">
+      <c r="D88" s="101">
         <v>6.3570000000000002</v>
       </c>
-      <c r="E88" s="102">
+      <c r="E88" s="101">
         <v>10.2044</v>
       </c>
-      <c r="F88" s="163">
+      <c r="F88" s="160">
         <v>7.0654710684273754</v>
       </c>
-      <c r="G88" s="177">
+      <c r="G88" s="174">
         <v>0.45884337735094055</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="155" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="152" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="100">
+      <c r="B89" s="99">
         <v>16.980599999999999</v>
       </c>
-      <c r="C89" s="108">
+      <c r="C89" s="107">
         <v>0.11743877238132332</v>
       </c>
-      <c r="D89" s="102">
+      <c r="D89" s="101">
         <v>6.3470000000000004</v>
       </c>
-      <c r="E89" s="102">
+      <c r="E89" s="101">
         <v>8.2335999999999991</v>
       </c>
-      <c r="F89" s="163">
+      <c r="F89" s="160">
         <v>5.0778449889732853</v>
       </c>
-      <c r="G89" s="177">
+      <c r="G89" s="174">
         <v>0.53364981622151375</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="156" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="153" t="s">
         <v>7</v>
       </c>
-      <c r="B90" s="101">
+      <c r="B90" s="100">
         <v>15.056900000000001</v>
       </c>
-      <c r="C90" s="93">
+      <c r="C90" s="92">
         <v>-4.5718099286610456E-2</v>
       </c>
-      <c r="D90" s="102">
+      <c r="D90" s="101">
         <v>6.3075000000000001</v>
       </c>
-      <c r="E90" s="185">
+      <c r="E90" s="182">
         <v>6.8244000000000007</v>
       </c>
-      <c r="F90" s="188">
+      <c r="F90" s="185">
         <v>3.4966024327251528</v>
       </c>
-      <c r="G90" s="177">
+      <c r="G90" s="174">
         <v>0.23523687411480473</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="157" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="154" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="98">
+      <c r="B91" s="97">
         <v>12.7844</v>
       </c>
-      <c r="C91" s="109">
+      <c r="C91" s="108">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="D91" s="102">
+      <c r="D91" s="101">
         <v>3.1258999999999997</v>
       </c>
-      <c r="E91" s="102">
+      <c r="E91" s="101">
         <v>7.5085999999999995</v>
       </c>
-      <c r="F91" s="163">
+      <c r="F91" s="160">
         <v>4.2943881967213136</v>
       </c>
-      <c r="G91" s="177">
+      <c r="G91" s="174">
         <v>0.27809010795681738</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="157" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="B92" s="98">
+      <c r="B92" s="97">
         <v>12.443300000000001</v>
       </c>
-      <c r="C92" s="109">
+      <c r="C92" s="108">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="D92" s="102">
+      <c r="D92" s="101">
         <v>1.2892000000000001</v>
       </c>
-      <c r="E92" s="102">
+      <c r="E92" s="101">
         <v>8.2502999999999993</v>
       </c>
-      <c r="F92" s="163">
+      <c r="F92" s="160">
         <v>5.5288184321347602</v>
       </c>
-      <c r="G92" s="177">
+      <c r="G92" s="174">
         <v>0.3598969808875932</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="158" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="103">
+      <c r="B93" s="102">
         <v>12.441000000000001</v>
       </c>
-      <c r="C93" s="110">
+      <c r="C93" s="109">
         <v>-4.9570413884485784E-2</v>
       </c>
-      <c r="D93" s="185">
+      <c r="D93" s="182">
         <v>0.41239999999999999</v>
       </c>
-      <c r="E93" s="102">
+      <c r="E93" s="101">
         <v>9.6692</v>
       </c>
-      <c r="F93" s="163">
+      <c r="F93" s="160">
         <v>6.9407622366288502</v>
       </c>
-      <c r="G93" s="177">
+      <c r="G93" s="174">
         <v>0.8784301134521878</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="158" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="155" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="103">
+      <c r="B94" s="102">
         <v>13.622999999999999</v>
       </c>
-      <c r="C94" s="110">
+      <c r="C94" s="109">
         <v>-4.9570413884485784E-2</v>
       </c>
-      <c r="D94" s="102">
+      <c r="D94" s="101">
         <v>2.1473999999999998</v>
       </c>
-      <c r="E94" s="102">
+      <c r="E94" s="101">
         <v>9.2515999999999998</v>
       </c>
-      <c r="F94" s="163">
+      <c r="F94" s="160">
         <v>4.0606493176648994</v>
       </c>
-      <c r="G94" s="177">
+      <c r="G94" s="174">
         <v>0.28163472327520855</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="204" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B96" s="207" t="s">
         <v>62</v>
       </c>
-      <c r="C96" s="205"/>
+      <c r="C96" s="208"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="1"/>
       <c r="B97" s="12" t="s">
         <v>28</v>
@@ -32511,266 +32503,266 @@
       <c r="C97" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="D97" s="162" t="s">
+      <c r="D97" s="159" t="s">
         <v>29</v>
       </c>
-      <c r="E97" s="162" t="s">
+      <c r="E97" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="F97" s="162" t="s">
+      <c r="F97" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G97" s="162" t="s">
+      <c r="G97" s="159" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="153" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="150" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="97">
+      <c r="B98" s="96">
         <v>12.6114</v>
       </c>
-      <c r="C98" s="106">
+      <c r="C98" s="105">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D98" s="160">
+      <c r="D98" s="157">
         <v>0.98799999999999999</v>
       </c>
-      <c r="E98" s="160">
+      <c r="E98" s="157">
         <v>8.8132999999999999</v>
       </c>
-      <c r="F98" s="163">
+      <c r="F98" s="160">
         <v>4.3317937043282733</v>
       </c>
       <c r="G98" s="72">
         <v>0.23979426644182111</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="153" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="B99" s="97">
+      <c r="B99" s="96">
         <v>16.5716</v>
       </c>
-      <c r="C99" s="106">
+      <c r="C99" s="105">
         <v>-0.10058679002726996</v>
       </c>
-      <c r="D99" s="160">
+      <c r="D99" s="157">
         <v>1.8402000000000001</v>
       </c>
-      <c r="E99" s="160">
+      <c r="E99" s="157">
         <v>11.34998</v>
       </c>
-      <c r="F99" s="163">
+      <c r="F99" s="160">
         <v>6.4575747575326545</v>
       </c>
       <c r="G99" s="72">
         <v>0.3607486615802406</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="154" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B100" s="98">
+      <c r="B100" s="97">
         <v>15.135</v>
       </c>
-      <c r="C100" s="109">
+      <c r="C100" s="108">
         <v>-0.30298566155398499</v>
       </c>
-      <c r="D100" s="160">
+      <c r="D100" s="157">
         <v>6.3091999999999997</v>
       </c>
-      <c r="E100" s="160">
+      <c r="E100" s="157">
         <v>6.6124999999999998</v>
       </c>
-      <c r="F100" s="163">
+      <c r="F100" s="160">
         <v>3.9736376817212653</v>
       </c>
       <c r="G100" s="72">
         <v>0.23478451896362351</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="166" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="163" t="s">
         <v>17</v>
       </c>
-      <c r="B101" s="167">
+      <c r="B101" s="164">
         <v>4.6359000000000004</v>
       </c>
-      <c r="C101" s="168">
+      <c r="C101" s="165">
         <v>-0.32001589401318453</v>
       </c>
-      <c r="D101" s="160">
+      <c r="D101" s="157">
         <v>0.54489999999999994</v>
       </c>
-      <c r="E101" s="160">
+      <c r="E101" s="157">
         <v>3.1219000000000001</v>
       </c>
-      <c r="F101" s="163">
+      <c r="F101" s="160">
         <v>2.2229107544469429</v>
       </c>
       <c r="G101" s="72">
         <v>0.17418830505009195</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="155" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="100">
+      <c r="B102" s="99">
         <v>14.8985</v>
       </c>
-      <c r="C102" s="108">
+      <c r="C102" s="107">
         <v>0.11743877238132332</v>
       </c>
-      <c r="D102" s="102">
+      <c r="D102" s="101">
         <v>3.6301000000000001</v>
       </c>
-      <c r="E102" s="102">
+      <c r="E102" s="101">
         <v>8.4920000000000009</v>
       </c>
-      <c r="F102" s="163">
+      <c r="F102" s="160">
         <v>5.50591963073005</v>
       </c>
       <c r="G102" s="72">
         <v>0.36055350169779277</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="155" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="100">
+      <c r="B103" s="99">
         <v>11.488099999999999</v>
       </c>
-      <c r="C103" s="108">
+      <c r="C103" s="107">
         <v>0.11743877238132332</v>
       </c>
-      <c r="D103" s="102">
+      <c r="D103" s="101">
         <v>2.6212</v>
       </c>
-      <c r="E103" s="102">
+      <c r="E103" s="101">
         <v>5.7622000000000009</v>
       </c>
-      <c r="F103" s="163">
+      <c r="F103" s="160">
         <v>5.8395962966470929</v>
       </c>
       <c r="G103" s="72">
         <v>0.46912291153627583</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="156" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="B104" s="101">
+      <c r="B104" s="100">
         <v>17.649799999999999</v>
       </c>
-      <c r="C104" s="93">
+      <c r="C104" s="92">
         <v>-4.5718099286610456E-2</v>
       </c>
-      <c r="D104" s="102">
+      <c r="D104" s="101">
         <v>3.512</v>
       </c>
-      <c r="E104" s="102">
+      <c r="E104" s="101">
         <v>11.0939</v>
       </c>
-      <c r="F104" s="163">
+      <c r="F104" s="160">
         <v>5.7129808341416108</v>
       </c>
       <c r="G104" s="72">
         <v>0.39221973811833188</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="156" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="153" t="s">
         <v>21</v>
       </c>
-      <c r="B105" s="101">
+      <c r="B105" s="100">
         <v>8.8271999999999995</v>
       </c>
-      <c r="C105" s="93">
+      <c r="C105" s="92">
         <v>-4.5718099286610456E-2</v>
       </c>
-      <c r="D105" s="102">
+      <c r="D105" s="101">
         <v>0.78720000000000001</v>
       </c>
-      <c r="E105" s="102">
+      <c r="E105" s="101">
         <v>5.5735000000000001</v>
       </c>
-      <c r="F105" s="163">
+      <c r="F105" s="160">
         <v>4.1520904317180616</v>
       </c>
       <c r="G105" s="72">
         <v>0.28048507488986779</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="157" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="154" t="s">
         <v>22</v>
       </c>
-      <c r="B106" s="98">
+      <c r="B106" s="97">
         <v>13.1127</v>
       </c>
-      <c r="C106" s="109">
+      <c r="C106" s="108">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="D106" s="102">
+      <c r="D106" s="101">
         <v>1.081</v>
       </c>
-      <c r="E106" s="102">
+      <c r="E106" s="101">
         <v>8.8879999999999999</v>
       </c>
-      <c r="F106" s="163">
+      <c r="F106" s="160">
         <v>4.9319918044572271</v>
       </c>
       <c r="G106" s="72">
         <v>0.29737257882304624</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="157" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="B107" s="98">
+      <c r="B107" s="97">
         <v>9.6720000000000006</v>
       </c>
-      <c r="C107" s="109">
+      <c r="C107" s="108">
         <v>-0.11251612892623995</v>
       </c>
-      <c r="D107" s="102">
+      <c r="D107" s="101">
         <v>0.51539999999999997</v>
       </c>
-      <c r="E107" s="102">
+      <c r="E107" s="101">
         <v>6.3197999999999999</v>
       </c>
-      <c r="F107" s="163">
+      <c r="F107" s="160">
         <v>6.0396315241072305</v>
       </c>
       <c r="G107" s="72">
         <v>0.46969072653215888</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="158" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="B108" s="103">
+      <c r="B108" s="102">
         <v>13.8108</v>
       </c>
-      <c r="C108" s="110">
+      <c r="C108" s="109">
         <v>-4.9570413884485784E-2</v>
       </c>
-      <c r="D108" s="102">
+      <c r="D108" s="101">
         <v>1.4544000000000001</v>
       </c>
-      <c r="E108" s="102">
+      <c r="E108" s="101">
         <v>9.8343000000000007</v>
       </c>
-      <c r="F108" s="163">
+      <c r="F108" s="160">
         <v>6.8572842613503608</v>
       </c>
       <c r="G108" s="72">
@@ -32779,27 +32771,14 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="O15:AE15"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="O59:AE59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="O45:AE45"/>
@@ -32814,16 +32793,43 @@
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="O59:AE59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="O15:AE15"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D7792-97E4-49F1-9599-DBFEA25C1ED6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
+++ b/GSD/baskets_new_sizes/trap_regressions_extra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\GSD\baskets_new_sizes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A505C042-938F-48D2-A155-8B65CBB915D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7B09EE-8F21-43BA-ADBF-04E793219177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{EF1BCDA9-8B94-427C-8470-DDC0752739A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EF1BCDA9-8B94-427C-8470-DDC0752739A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Velocity vs Deposition" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1472,10 +1472,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1487,10 +1490,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,19 +1511,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1523,10 +1523,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,10 +1541,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="32" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -39309,16 +39312,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>519953</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>29766</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>170330</xdr:rowOff>
+      <xdr:rowOff>170331</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>161365</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>44823</xdr:rowOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>160735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -39906,10 +39909,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
+      <c r="A2" s="204" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="202"/>
+      <c r="B2" s="204"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
@@ -40209,10 +40212,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="202" t="s">
+      <c r="A17" s="204" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="202"/>
+      <c r="B17" s="204"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
@@ -40489,10 +40492,10 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="202" t="s">
+      <c r="A31" s="204" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="202"/>
+      <c r="B31" s="204"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -40769,10 +40772,10 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="202" t="s">
+      <c r="A45" s="204" t="s">
         <v>27</v>
       </c>
-      <c r="B45" s="202"/>
+      <c r="B45" s="204"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
@@ -41080,74 +41083,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="209" t="s">
+      <c r="A1" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="210"/>
-      <c r="C1" s="210"/>
-      <c r="D1" s="210"/>
-      <c r="E1" s="210"/>
-      <c r="F1" s="210"/>
-      <c r="G1" s="210"/>
-      <c r="H1" s="210"/>
-      <c r="I1" s="210"/>
-      <c r="J1" s="210"/>
-      <c r="K1" s="210"/>
-      <c r="L1" s="210"/>
-      <c r="M1" s="210"/>
-      <c r="N1" s="210"/>
-      <c r="O1" s="210"/>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="211"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
+      <c r="L1" s="213"/>
+      <c r="M1" s="213"/>
+      <c r="N1" s="213"/>
+      <c r="O1" s="213"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="214"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="208"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="216"/>
+      <c r="N2" s="216"/>
+      <c r="O2" s="216"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="82"/>
-      <c r="B3" s="203" t="s">
+      <c r="B3" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="203"/>
-      <c r="D3" s="203"/>
-      <c r="E3" s="203" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="203"/>
-      <c r="G3" s="203"/>
-      <c r="H3" s="203" t="s">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="203"/>
-      <c r="J3" s="203"/>
-      <c r="K3" s="203" t="s">
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="203"/>
-      <c r="M3" s="203"/>
-      <c r="N3" s="203" t="s">
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
+      <c r="O3" s="211"/>
+      <c r="P3" s="211"/>
       <c r="Q3" s="10"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -41820,53 +41823,53 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="204" t="s">
+      <c r="A17" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="205"/>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
-      <c r="M17" s="205"/>
-      <c r="N17" s="205"/>
-      <c r="O17" s="205"/>
-      <c r="P17" s="205"/>
-      <c r="Q17" s="206"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
+      <c r="L17" s="206"/>
+      <c r="M17" s="206"/>
+      <c r="N17" s="206"/>
+      <c r="O17" s="206"/>
+      <c r="P17" s="206"/>
+      <c r="Q17" s="207"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="82"/>
-      <c r="B18" s="212" t="s">
+      <c r="B18" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="213"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="212" t="s">
+      <c r="C18" s="209"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="F18" s="213"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="212" t="s">
+      <c r="F18" s="209"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="213"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="212" t="s">
+      <c r="I18" s="209"/>
+      <c r="J18" s="210"/>
+      <c r="K18" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="213"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="203" t="s">
+      <c r="L18" s="209"/>
+      <c r="M18" s="210"/>
+      <c r="N18" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
+      <c r="O18" s="211"/>
+      <c r="P18" s="211"/>
       <c r="Q18" s="1"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -42371,74 +42374,74 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="209" t="s">
+      <c r="A46" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="210"/>
-      <c r="C46" s="210"/>
-      <c r="D46" s="210"/>
-      <c r="E46" s="210"/>
-      <c r="F46" s="210"/>
-      <c r="G46" s="210"/>
-      <c r="H46" s="210"/>
-      <c r="I46" s="210"/>
-      <c r="J46" s="210"/>
-      <c r="K46" s="210"/>
-      <c r="L46" s="210"/>
-      <c r="M46" s="210"/>
-      <c r="N46" s="210"/>
-      <c r="O46" s="210"/>
-      <c r="P46" s="210"/>
-      <c r="Q46" s="211"/>
+      <c r="B46" s="213"/>
+      <c r="C46" s="213"/>
+      <c r="D46" s="213"/>
+      <c r="E46" s="213"/>
+      <c r="F46" s="213"/>
+      <c r="G46" s="213"/>
+      <c r="H46" s="213"/>
+      <c r="I46" s="213"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
+      <c r="L46" s="213"/>
+      <c r="M46" s="213"/>
+      <c r="N46" s="213"/>
+      <c r="O46" s="213"/>
+      <c r="P46" s="213"/>
+      <c r="Q46" s="214"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="207" t="s">
+      <c r="A47" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="208"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="208"/>
-      <c r="E47" s="208"/>
-      <c r="F47" s="208"/>
-      <c r="G47" s="208"/>
-      <c r="H47" s="208"/>
-      <c r="I47" s="208"/>
-      <c r="J47" s="208"/>
-      <c r="K47" s="208"/>
-      <c r="L47" s="208"/>
-      <c r="M47" s="208"/>
-      <c r="N47" s="208"/>
-      <c r="O47" s="208"/>
-      <c r="P47" s="208"/>
-      <c r="Q47" s="208"/>
+      <c r="B47" s="216"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="216"/>
+      <c r="E47" s="216"/>
+      <c r="F47" s="216"/>
+      <c r="G47" s="216"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="216"/>
+      <c r="K47" s="216"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="216"/>
+      <c r="N47" s="216"/>
+      <c r="O47" s="216"/>
+      <c r="P47" s="216"/>
+      <c r="Q47" s="216"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="82"/>
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="203"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203" t="s">
+      <c r="C48" s="211"/>
+      <c r="D48" s="211"/>
+      <c r="E48" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203" t="s">
+      <c r="F48" s="211"/>
+      <c r="G48" s="211"/>
+      <c r="H48" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="I48" s="203"/>
-      <c r="J48" s="203"/>
-      <c r="K48" s="203" t="s">
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="L48" s="203"/>
-      <c r="M48" s="203"/>
-      <c r="N48" s="203" t="s">
+      <c r="L48" s="211"/>
+      <c r="M48" s="211"/>
+      <c r="N48" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="O48" s="203"/>
-      <c r="P48" s="203"/>
+      <c r="O48" s="211"/>
+      <c r="P48" s="211"/>
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
@@ -43111,53 +43114,53 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="204" t="s">
+      <c r="A62" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="205"/>
-      <c r="C62" s="205"/>
-      <c r="D62" s="205"/>
-      <c r="E62" s="205"/>
-      <c r="F62" s="205"/>
-      <c r="G62" s="205"/>
-      <c r="H62" s="205"/>
-      <c r="I62" s="205"/>
-      <c r="J62" s="205"/>
-      <c r="K62" s="205"/>
-      <c r="L62" s="205"/>
-      <c r="M62" s="205"/>
-      <c r="N62" s="205"/>
-      <c r="O62" s="205"/>
-      <c r="P62" s="205"/>
-      <c r="Q62" s="206"/>
+      <c r="B62" s="206"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="206"/>
+      <c r="F62" s="206"/>
+      <c r="G62" s="206"/>
+      <c r="H62" s="206"/>
+      <c r="I62" s="206"/>
+      <c r="J62" s="206"/>
+      <c r="K62" s="206"/>
+      <c r="L62" s="206"/>
+      <c r="M62" s="206"/>
+      <c r="N62" s="206"/>
+      <c r="O62" s="206"/>
+      <c r="P62" s="206"/>
+      <c r="Q62" s="207"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="82"/>
-      <c r="B63" s="212" t="s">
+      <c r="B63" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="213"/>
-      <c r="D63" s="214"/>
-      <c r="E63" s="212" t="s">
+      <c r="C63" s="209"/>
+      <c r="D63" s="210"/>
+      <c r="E63" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="F63" s="213"/>
-      <c r="G63" s="214"/>
-      <c r="H63" s="212" t="s">
+      <c r="F63" s="209"/>
+      <c r="G63" s="210"/>
+      <c r="H63" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="I63" s="213"/>
-      <c r="J63" s="214"/>
-      <c r="K63" s="212" t="s">
+      <c r="I63" s="209"/>
+      <c r="J63" s="210"/>
+      <c r="K63" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="L63" s="213"/>
-      <c r="M63" s="214"/>
-      <c r="N63" s="203" t="s">
+      <c r="L63" s="209"/>
+      <c r="M63" s="210"/>
+      <c r="N63" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="O63" s="203"/>
-      <c r="P63" s="203"/>
+      <c r="O63" s="211"/>
+      <c r="P63" s="211"/>
       <c r="Q63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -43663,19 +43666,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A62:Q62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:P63"/>
-    <mergeCell ref="A46:Q46"/>
-    <mergeCell ref="A47:Q47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
     <mergeCell ref="N3:P3"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="A17:Q17"/>
@@ -43689,6 +43679,19 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A46:Q46"/>
+    <mergeCell ref="A47:Q47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="A62:Q62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:P63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -43725,40 +43728,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="216"/>
+      <c r="C1" s="219"/>
       <c r="I1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="219" t="s">
+      <c r="J1" s="221" t="s">
         <v>56</v>
       </c>
-      <c r="K1" s="219"/>
-      <c r="L1" s="215" t="s">
+      <c r="K1" s="221"/>
+      <c r="L1" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="M1" s="215"/>
-      <c r="O1" s="209" t="s">
+      <c r="M1" s="222"/>
+      <c r="O1" s="212" t="s">
         <v>56</v>
       </c>
-      <c r="P1" s="210"/>
-      <c r="Q1" s="210"/>
-      <c r="R1" s="210"/>
-      <c r="S1" s="210"/>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="210"/>
-      <c r="AA1" s="210"/>
-      <c r="AB1" s="210"/>
-      <c r="AC1" s="210"/>
-      <c r="AD1" s="210"/>
-      <c r="AE1" s="211"/>
+      <c r="P1" s="213"/>
+      <c r="Q1" s="213"/>
+      <c r="R1" s="213"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="213"/>
+      <c r="U1" s="213"/>
+      <c r="V1" s="213"/>
+      <c r="W1" s="213"/>
+      <c r="X1" s="213"/>
+      <c r="Y1" s="213"/>
+      <c r="Z1" s="213"/>
+      <c r="AA1" s="213"/>
+      <c r="AB1" s="213"/>
+      <c r="AC1" s="213"/>
+      <c r="AD1" s="213"/>
+      <c r="AE1" s="214"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -43795,25 +43798,25 @@
       <c r="M2" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O2" s="207" t="s">
+      <c r="O2" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="208"/>
-      <c r="Q2" s="208"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="208"/>
-      <c r="T2" s="208"/>
-      <c r="U2" s="208"/>
-      <c r="V2" s="208"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="208"/>
-      <c r="Y2" s="208"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="208"/>
-      <c r="AB2" s="208"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="208"/>
-      <c r="AE2" s="208"/>
+      <c r="P2" s="216"/>
+      <c r="Q2" s="216"/>
+      <c r="R2" s="216"/>
+      <c r="S2" s="216"/>
+      <c r="T2" s="216"/>
+      <c r="U2" s="216"/>
+      <c r="V2" s="216"/>
+      <c r="W2" s="216"/>
+      <c r="X2" s="216"/>
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="216"/>
+      <c r="AA2" s="216"/>
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="216"/>
+      <c r="AD2" s="216"/>
+      <c r="AE2" s="216"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -43857,31 +43860,31 @@
         <v>20.923299999999998</v>
       </c>
       <c r="O3" s="82"/>
-      <c r="P3" s="203" t="s">
+      <c r="P3" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203" t="s">
+      <c r="Q3" s="211"/>
+      <c r="R3" s="211"/>
+      <c r="S3" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203" t="s">
+      <c r="T3" s="211"/>
+      <c r="U3" s="211"/>
+      <c r="V3" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203" t="s">
+      <c r="W3" s="211"/>
+      <c r="X3" s="211"/>
+      <c r="Y3" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203" t="s">
+      <c r="Z3" s="211"/>
+      <c r="AA3" s="211"/>
+      <c r="AB3" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
+      <c r="AC3" s="211"/>
+      <c r="AD3" s="211"/>
       <c r="AE3" s="10"/>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
@@ -44295,14 +44298,14 @@
       <c r="I8" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="219" t="s">
+      <c r="J8" s="221" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="219"/>
-      <c r="L8" s="215" t="s">
+      <c r="K8" s="221"/>
+      <c r="L8" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="215"/>
+      <c r="M8" s="222"/>
       <c r="O8" s="114" t="s">
         <v>53</v>
       </c>
@@ -44911,25 +44914,25 @@
       <c r="I15" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="O15" s="216" t="s">
+      <c r="O15" s="219" t="s">
         <v>33</v>
       </c>
-      <c r="P15" s="216"/>
-      <c r="Q15" s="216"/>
-      <c r="R15" s="216"/>
-      <c r="S15" s="216"/>
-      <c r="T15" s="216"/>
-      <c r="U15" s="216"/>
-      <c r="V15" s="216"/>
-      <c r="W15" s="216"/>
-      <c r="X15" s="216"/>
-      <c r="Y15" s="216"/>
-      <c r="Z15" s="216"/>
-      <c r="AA15" s="216"/>
-      <c r="AB15" s="216"/>
-      <c r="AC15" s="216"/>
-      <c r="AD15" s="216"/>
-      <c r="AE15" s="216"/>
+      <c r="P15" s="219"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="219"/>
+      <c r="S15" s="219"/>
+      <c r="T15" s="219"/>
+      <c r="U15" s="219"/>
+      <c r="V15" s="219"/>
+      <c r="W15" s="219"/>
+      <c r="X15" s="219"/>
+      <c r="Y15" s="219"/>
+      <c r="Z15" s="219"/>
+      <c r="AA15" s="219"/>
+      <c r="AB15" s="219"/>
+      <c r="AC15" s="219"/>
+      <c r="AD15" s="219"/>
+      <c r="AE15" s="219"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -44957,31 +44960,31 @@
         <v>72</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="216" t="s">
+      <c r="P16" s="219" t="s">
         <v>34</v>
       </c>
-      <c r="Q16" s="216"/>
-      <c r="R16" s="216"/>
-      <c r="S16" s="216" t="s">
+      <c r="Q16" s="219"/>
+      <c r="R16" s="219"/>
+      <c r="S16" s="219" t="s">
         <v>35</v>
       </c>
-      <c r="T16" s="216"/>
-      <c r="U16" s="216"/>
-      <c r="V16" s="216" t="s">
+      <c r="T16" s="219"/>
+      <c r="U16" s="219"/>
+      <c r="V16" s="219" t="s">
         <v>36</v>
       </c>
-      <c r="W16" s="216"/>
-      <c r="X16" s="216"/>
-      <c r="Y16" s="216" t="s">
+      <c r="W16" s="219"/>
+      <c r="X16" s="219"/>
+      <c r="Y16" s="219" t="s">
         <v>37</v>
       </c>
-      <c r="Z16" s="216"/>
-      <c r="AA16" s="216"/>
-      <c r="AB16" s="216" t="s">
+      <c r="Z16" s="219"/>
+      <c r="AA16" s="219"/>
+      <c r="AB16" s="219" t="s">
         <v>55</v>
       </c>
-      <c r="AC16" s="216"/>
-      <c r="AD16" s="216"/>
+      <c r="AC16" s="219"/>
+      <c r="AD16" s="219"/>
       <c r="AE16" s="1"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
@@ -45758,10 +45761,10 @@
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="216"/>
+      <c r="C28" s="219"/>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B29" s="116" t="s">
@@ -46130,25 +46133,25 @@
       <c r="G45" s="125">
         <v>0.46912291153627583</v>
       </c>
-      <c r="O45" s="209" t="s">
+      <c r="O45" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="P45" s="210"/>
-      <c r="Q45" s="210"/>
-      <c r="R45" s="210"/>
-      <c r="S45" s="210"/>
-      <c r="T45" s="210"/>
-      <c r="U45" s="210"/>
-      <c r="V45" s="210"/>
-      <c r="W45" s="210"/>
-      <c r="X45" s="210"/>
-      <c r="Y45" s="210"/>
-      <c r="Z45" s="210"/>
-      <c r="AA45" s="210"/>
-      <c r="AB45" s="210"/>
-      <c r="AC45" s="210"/>
-      <c r="AD45" s="210"/>
-      <c r="AE45" s="211"/>
+      <c r="P45" s="213"/>
+      <c r="Q45" s="213"/>
+      <c r="R45" s="213"/>
+      <c r="S45" s="213"/>
+      <c r="T45" s="213"/>
+      <c r="U45" s="213"/>
+      <c r="V45" s="213"/>
+      <c r="W45" s="213"/>
+      <c r="X45" s="213"/>
+      <c r="Y45" s="213"/>
+      <c r="Z45" s="213"/>
+      <c r="AA45" s="213"/>
+      <c r="AB45" s="213"/>
+      <c r="AC45" s="213"/>
+      <c r="AD45" s="213"/>
+      <c r="AE45" s="214"/>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -46172,25 +46175,25 @@
       <c r="G46" s="121">
         <v>0.28048507488986779</v>
       </c>
-      <c r="O46" s="207" t="s">
+      <c r="O46" s="215" t="s">
         <v>51</v>
       </c>
-      <c r="P46" s="208"/>
-      <c r="Q46" s="208"/>
-      <c r="R46" s="208"/>
-      <c r="S46" s="208"/>
-      <c r="T46" s="208"/>
-      <c r="U46" s="208"/>
-      <c r="V46" s="208"/>
-      <c r="W46" s="208"/>
-      <c r="X46" s="208"/>
-      <c r="Y46" s="208"/>
-      <c r="Z46" s="208"/>
-      <c r="AA46" s="208"/>
-      <c r="AB46" s="208"/>
-      <c r="AC46" s="208"/>
-      <c r="AD46" s="208"/>
-      <c r="AE46" s="208"/>
+      <c r="P46" s="216"/>
+      <c r="Q46" s="216"/>
+      <c r="R46" s="216"/>
+      <c r="S46" s="216"/>
+      <c r="T46" s="216"/>
+      <c r="U46" s="216"/>
+      <c r="V46" s="216"/>
+      <c r="W46" s="216"/>
+      <c r="X46" s="216"/>
+      <c r="Y46" s="216"/>
+      <c r="Z46" s="216"/>
+      <c r="AA46" s="216"/>
+      <c r="AB46" s="216"/>
+      <c r="AC46" s="216"/>
+      <c r="AD46" s="216"/>
+      <c r="AE46" s="216"/>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -46215,31 +46218,31 @@
         <v>0.29737257882304624</v>
       </c>
       <c r="O47" s="82"/>
-      <c r="P47" s="203" t="s">
+      <c r="P47" s="211" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="203"/>
-      <c r="R47" s="203"/>
-      <c r="S47" s="203" t="s">
+      <c r="Q47" s="211"/>
+      <c r="R47" s="211"/>
+      <c r="S47" s="211" t="s">
         <v>35</v>
       </c>
-      <c r="T47" s="203"/>
-      <c r="U47" s="203"/>
-      <c r="V47" s="203" t="s">
+      <c r="T47" s="211"/>
+      <c r="U47" s="211"/>
+      <c r="V47" s="211" t="s">
         <v>36</v>
       </c>
-      <c r="W47" s="203"/>
-      <c r="X47" s="203"/>
-      <c r="Y47" s="203" t="s">
+      <c r="W47" s="211"/>
+      <c r="X47" s="211"/>
+      <c r="Y47" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="Z47" s="203"/>
-      <c r="AA47" s="203"/>
-      <c r="AB47" s="203" t="s">
+      <c r="Z47" s="211"/>
+      <c r="AA47" s="211"/>
+      <c r="AB47" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="AC47" s="203"/>
-      <c r="AD47" s="203"/>
+      <c r="AC47" s="211"/>
+      <c r="AD47" s="211"/>
       <c r="AE47" s="10"/>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.25">
@@ -46450,26 +46453,26 @@
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
+      <c r="B51" s="221"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="221"/>
       <c r="I51" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="J51" s="219" t="s">
+      <c r="J51" s="221" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="219"/>
-      <c r="L51" s="215" t="s">
+      <c r="K51" s="221"/>
+      <c r="L51" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="M51" s="215"/>
+      <c r="M51" s="222"/>
       <c r="O51" s="97" t="s">
         <v>44</v>
       </c>
@@ -46526,10 +46529,10 @@
       </c>
     </row>
     <row r="52" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="216"/>
+      <c r="C52" s="219"/>
       <c r="I52" s="135" t="s">
         <v>65</v>
       </c>
@@ -47084,14 +47087,14 @@
       <c r="I58" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="J58" s="219" t="s">
+      <c r="J58" s="221" t="s">
         <v>57</v>
       </c>
-      <c r="K58" s="219"/>
-      <c r="L58" s="215" t="s">
+      <c r="K58" s="221"/>
+      <c r="L58" s="222" t="s">
         <v>66</v>
       </c>
-      <c r="M58" s="215"/>
+      <c r="M58" s="222"/>
     </row>
     <row r="59" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A59" s="152" t="s">
@@ -47130,25 +47133,25 @@
       <c r="M59" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="O59" s="204" t="s">
+      <c r="O59" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="P59" s="205"/>
-      <c r="Q59" s="205"/>
-      <c r="R59" s="205"/>
-      <c r="S59" s="205"/>
-      <c r="T59" s="205"/>
-      <c r="U59" s="205"/>
-      <c r="V59" s="205"/>
-      <c r="W59" s="205"/>
-      <c r="X59" s="205"/>
-      <c r="Y59" s="205"/>
-      <c r="Z59" s="205"/>
-      <c r="AA59" s="205"/>
-      <c r="AB59" s="205"/>
-      <c r="AC59" s="205"/>
-      <c r="AD59" s="205"/>
-      <c r="AE59" s="206"/>
+      <c r="P59" s="206"/>
+      <c r="Q59" s="206"/>
+      <c r="R59" s="206"/>
+      <c r="S59" s="206"/>
+      <c r="T59" s="206"/>
+      <c r="U59" s="206"/>
+      <c r="V59" s="206"/>
+      <c r="W59" s="206"/>
+      <c r="X59" s="206"/>
+      <c r="Y59" s="206"/>
+      <c r="Z59" s="206"/>
+      <c r="AA59" s="206"/>
+      <c r="AB59" s="206"/>
+      <c r="AC59" s="206"/>
+      <c r="AD59" s="206"/>
+      <c r="AE59" s="207"/>
     </row>
     <row r="60" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A60" s="153" t="s">
@@ -47192,31 +47195,31 @@
         <v>0.98799999999999999</v>
       </c>
       <c r="O60" s="82"/>
-      <c r="P60" s="212" t="s">
+      <c r="P60" s="208" t="s">
         <v>34</v>
       </c>
-      <c r="Q60" s="213"/>
-      <c r="R60" s="214"/>
-      <c r="S60" s="212" t="s">
+      <c r="Q60" s="209"/>
+      <c r="R60" s="210"/>
+      <c r="S60" s="208" t="s">
         <v>35</v>
       </c>
-      <c r="T60" s="213"/>
-      <c r="U60" s="214"/>
-      <c r="V60" s="212" t="s">
+      <c r="T60" s="209"/>
+      <c r="U60" s="210"/>
+      <c r="V60" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="W60" s="213"/>
-      <c r="X60" s="214"/>
-      <c r="Y60" s="212" t="s">
+      <c r="W60" s="209"/>
+      <c r="X60" s="210"/>
+      <c r="Y60" s="208" t="s">
         <v>37</v>
       </c>
-      <c r="Z60" s="213"/>
-      <c r="AA60" s="214"/>
-      <c r="AB60" s="203" t="s">
+      <c r="Z60" s="209"/>
+      <c r="AA60" s="210"/>
+      <c r="AB60" s="211" t="s">
         <v>55</v>
       </c>
-      <c r="AC60" s="203"/>
-      <c r="AD60" s="203"/>
+      <c r="AC60" s="211"/>
+      <c r="AD60" s="211"/>
       <c r="AE60" s="1"/>
     </row>
     <row r="61" spans="1:31" x14ac:dyDescent="0.25">
@@ -48730,14 +48733,27 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="O59:AE59"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="V60:X60"/>
-    <mergeCell ref="Y60:AA60"/>
-    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="P16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="O15:AE15"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="O1:AE1"/>
+    <mergeCell ref="O2:AE2"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="J8:K8"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B82:C82"/>
     <mergeCell ref="O45:AE45"/>
@@ -48752,27 +48768,14 @@
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="J58:K58"/>
     <mergeCell ref="L58:M58"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="O15:AE15"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="O1:AE1"/>
-    <mergeCell ref="O2:AE2"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="P16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="O59:AE59"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="V60:X60"/>
+    <mergeCell ref="Y60:AA60"/>
+    <mergeCell ref="AB60:AD60"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -48783,8 +48786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C74D7792-97E4-49F1-9599-DBFEA25C1ED6}">
   <dimension ref="A1:AD108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AD70" sqref="AD70"/>
+    <sheetView tabSelected="1" topLeftCell="X19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AL32" sqref="AL32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48812,18 +48815,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="J1" s="216" t="s">
+      <c r="C1" s="219"/>
+      <c r="J1" s="219" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="216"/>
-      <c r="R1" s="222" t="s">
+      <c r="K1" s="219"/>
+      <c r="R1" s="224" t="s">
         <v>88</v>
       </c>
-      <c r="S1" s="222"/>
+      <c r="S1" s="224"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -48863,26 +48866,26 @@
       <c r="O2" s="111" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="221" t="s">
+      <c r="R2" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="221"/>
-      <c r="T2" s="221" t="s">
+      <c r="S2" s="223"/>
+      <c r="T2" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="U2" s="221"/>
-      <c r="V2" s="221" t="s">
+      <c r="U2" s="223"/>
+      <c r="V2" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="W2" s="221"/>
-      <c r="X2" s="221" t="s">
+      <c r="W2" s="223"/>
+      <c r="X2" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" s="221"/>
-      <c r="Z2" s="221" t="s">
+      <c r="Y2" s="223"/>
+      <c r="Z2" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" s="221"/>
+      <c r="AA2" s="223"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -48962,7 +48965,7 @@
       <c r="AA3" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="AC3" s="223" t="s">
+      <c r="AC3" s="202" t="s">
         <v>106</v>
       </c>
     </row>
@@ -49719,10 +49722,10 @@
         <f t="shared" si="13"/>
         <v>8.5902314408056568E-2</v>
       </c>
-      <c r="R12" s="222" t="s">
+      <c r="R12" s="224" t="s">
         <v>89</v>
       </c>
-      <c r="S12" s="222"/>
+      <c r="S12" s="224"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -49772,26 +49775,26 @@
         <f t="shared" si="14"/>
         <v>0.19838337462369771</v>
       </c>
-      <c r="R13" s="221" t="s">
+      <c r="R13" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S13" s="221"/>
-      <c r="T13" s="221" t="s">
+      <c r="S13" s="223"/>
+      <c r="T13" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="U13" s="221"/>
-      <c r="V13" s="221" t="s">
+      <c r="U13" s="223"/>
+      <c r="V13" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="W13" s="221"/>
-      <c r="X13" s="221" t="s">
+      <c r="W13" s="223"/>
+      <c r="X13" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="Y13" s="221"/>
-      <c r="Z13" s="221" t="s">
+      <c r="Y13" s="223"/>
+      <c r="Z13" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="AA13" s="221"/>
+      <c r="AA13" s="223"/>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B14" s="217" t="s">
@@ -50327,10 +50330,10 @@
       <c r="G20" s="33">
         <v>0.14591900352662099</v>
       </c>
-      <c r="J20" s="216" t="s">
+      <c r="J20" s="219" t="s">
         <v>92</v>
       </c>
-      <c r="K20" s="216"/>
+      <c r="K20" s="219"/>
       <c r="Q20" s="8" t="s">
         <v>11</v>
       </c>
@@ -50694,10 +50697,10 @@
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="216" t="s">
+      <c r="B28" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="216"/>
+      <c r="C28" s="219"/>
       <c r="J28" s="217" t="s">
         <v>93</v>
       </c>
@@ -51175,10 +51178,10 @@
       <c r="G43" s="35">
         <v>0.3607486615802406</v>
       </c>
-      <c r="R43" s="222" t="s">
+      <c r="R43" s="224" t="s">
         <v>104</v>
       </c>
-      <c r="S43" s="222"/>
+      <c r="S43" s="224"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
@@ -51202,26 +51205,26 @@
       <c r="G44" s="35">
         <v>0.23478451896362351</v>
       </c>
-      <c r="R44" s="221" t="s">
+      <c r="R44" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S44" s="221"/>
-      <c r="T44" s="221" t="s">
+      <c r="S44" s="223"/>
+      <c r="T44" s="223" t="s">
         <v>94</v>
       </c>
-      <c r="U44" s="221"/>
-      <c r="V44" s="221" t="s">
+      <c r="U44" s="223"/>
+      <c r="V44" s="223" t="s">
         <v>95</v>
       </c>
-      <c r="W44" s="221"/>
-      <c r="X44" s="221" t="s">
+      <c r="W44" s="223"/>
+      <c r="X44" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="Y44" s="221"/>
-      <c r="Z44" s="221" t="s">
+      <c r="Y44" s="223"/>
+      <c r="Z44" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="AA44" s="221"/>
+      <c r="AA44" s="223"/>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
@@ -51275,10 +51278,10 @@
       <c r="AA45" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="AC45" s="223" t="s">
+      <c r="AC45" s="202" t="s">
         <v>108</v>
       </c>
-      <c r="AD45" s="223" t="s">
+      <c r="AD45" s="202" t="s">
         <v>109</v>
       </c>
     </row>
@@ -51658,15 +51661,15 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="219" t="s">
+      <c r="A51" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="B51" s="219"/>
-      <c r="C51" s="219"/>
-      <c r="D51" s="219"/>
-      <c r="E51" s="219"/>
-      <c r="F51" s="219"/>
-      <c r="G51" s="219"/>
+      <c r="B51" s="221"/>
+      <c r="C51" s="221"/>
+      <c r="D51" s="221"/>
+      <c r="E51" s="221"/>
+      <c r="F51" s="221"/>
+      <c r="G51" s="221"/>
       <c r="Q51" s="7" t="s">
         <v>83</v>
       </c>
@@ -51721,10 +51724,10 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="B52" s="216" t="s">
+      <c r="B52" s="219" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="216"/>
+      <c r="C52" s="219"/>
       <c r="Q52" s="8" t="s">
         <v>84</v>
       </c>
@@ -51821,11 +51824,11 @@
       <c r="G54" s="36">
         <v>0.16000831182380926</v>
       </c>
-      <c r="R54" s="222" t="s">
+      <c r="R54" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="S54" s="222"/>
-      <c r="AD54" s="35"/>
+      <c r="S54" s="224"/>
+      <c r="AD54" s="225"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="150" t="s">
@@ -51849,26 +51852,26 @@
       <c r="G55" s="36">
         <v>0.12962202535912964</v>
       </c>
-      <c r="R55" s="221" t="s">
+      <c r="R55" s="223" t="s">
         <v>86</v>
       </c>
-      <c r="S55" s="221"/>
-      <c r="T55" s="221" t="s">
+      <c r="S55" s="223"/>
+      <c r="T55" s="223" t="s">
         <v>98</v>
       </c>
-      <c r="U55" s="221"/>
-      <c r="V55" s="221" t="s">
+      <c r="U55" s="223"/>
+      <c r="V55" s="223" t="s">
         <v>99</v>
       </c>
-      <c r="W55" s="221"/>
-      <c r="X55" s="221" t="s">
+      <c r="W55" s="223"/>
+      <c r="X55" s="223" t="s">
         <v>96</v>
       </c>
-      <c r="Y55" s="221"/>
-      <c r="Z55" s="221" t="s">
+      <c r="Y55" s="223"/>
+      <c r="Z55" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="AA55" s="221"/>
+      <c r="AA55" s="223"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="151" t="s">
@@ -51922,7 +51925,7 @@
       <c r="AA56" s="201" t="s">
         <v>87</v>
       </c>
-      <c r="AC56" s="223" t="s">
+      <c r="AC56" s="202" t="s">
         <v>107</v>
       </c>
     </row>
@@ -51948,10 +51951,10 @@
       <c r="G57" s="36">
         <v>0.12090681526084991</v>
       </c>
-      <c r="J57" s="216" t="s">
+      <c r="J57" s="219" t="s">
         <v>100</v>
       </c>
-      <c r="K57" s="216"/>
+      <c r="K57" s="219"/>
       <c r="Q57" s="2" t="s">
         <v>78</v>
       </c>
@@ -52091,7 +52094,7 @@
       <c r="AB58" s="83">
         <v>-0.32001589401318453</v>
       </c>
-      <c r="AC58" s="224">
+      <c r="AC58" s="203">
         <v>-0.32483084673747942</v>
       </c>
       <c r="AD58" s="31">
@@ -52551,6 +52554,7 @@
         <v>0.22393563169580205</v>
       </c>
       <c r="AC63" s="119"/>
+      <c r="AD63" s="35"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="155" t="s">
@@ -52600,7 +52604,6 @@
         <f t="shared" si="56"/>
         <v>5.3915099455572491E-2</v>
       </c>
-      <c r="AD64" s="35"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="155" t="s">
@@ -53088,10 +53091,10 @@
       <c r="G77" s="72">
         <v>8.7751258894774364E-2</v>
       </c>
-      <c r="J77" s="216" t="s">
+      <c r="J77" s="219" t="s">
         <v>102</v>
       </c>
-      <c r="K77" s="216"/>
+      <c r="K77" s="219"/>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="154" t="s">
@@ -54100,6 +54103,33 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="T55:U55"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="X55:Y55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="A51:G51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="T44:U44"/>
+    <mergeCell ref="V44:W44"/>
+    <mergeCell ref="X44:Y44"/>
+    <mergeCell ref="Z44:AA44"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
     <mergeCell ref="Z2:AA2"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:C14"/>
@@ -54114,33 +54144,6 @@
     <mergeCell ref="T2:U2"/>
     <mergeCell ref="V2:W2"/>
     <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="T44:U44"/>
-    <mergeCell ref="V44:W44"/>
-    <mergeCell ref="X44:Y44"/>
-    <mergeCell ref="Z44:AA44"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="A51:G51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="R43:S43"/>
-    <mergeCell ref="R44:S44"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="T55:U55"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="X55:Y55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="J57:K57"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
